--- a/data/input/trade_data_patch/huat/private_security_loan.xlsx
+++ b/data/input/trade_data_patch/huat/private_security_loan.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="162">
   <si>
     <t>证券代码</t>
   </si>
@@ -76,6 +76,381 @@
     <t>账户名称</t>
   </si>
   <si>
+    <t>600460</t>
+  </si>
+  <si>
+    <t>士兰微</t>
+  </si>
+  <si>
+    <t>2021-01-20</t>
+  </si>
+  <si>
+    <t>2021-02-10</t>
+  </si>
+  <si>
+    <t>2021-02-16</t>
+  </si>
+  <si>
+    <t>--</t>
+  </si>
+  <si>
+    <t>202101200000000047</t>
+  </si>
+  <si>
+    <t>960000039239</t>
+  </si>
+  <si>
+    <t>鸣石宽墨十一号私募证券投资基金</t>
+  </si>
+  <si>
+    <t>601766</t>
+  </si>
+  <si>
+    <t>中国中车</t>
+  </si>
+  <si>
+    <t>202101200000000956</t>
+  </si>
+  <si>
+    <t>603799</t>
+  </si>
+  <si>
+    <t>华友钴业</t>
+  </si>
+  <si>
+    <t>2021-01-18</t>
+  </si>
+  <si>
+    <t>2021-02-12</t>
+  </si>
+  <si>
+    <t>202101180000001328</t>
+  </si>
+  <si>
+    <t>002389</t>
+  </si>
+  <si>
+    <t>航天彩虹</t>
+  </si>
+  <si>
+    <t>2021-02-08</t>
+  </si>
+  <si>
+    <t>2021-02-09</t>
+  </si>
+  <si>
+    <t>202101180000000147</t>
+  </si>
+  <si>
+    <t>000799</t>
+  </si>
+  <si>
+    <t>酒鬼酒</t>
+  </si>
+  <si>
+    <t>2021-01-21</t>
+  </si>
+  <si>
+    <t>2021-02-03</t>
+  </si>
+  <si>
+    <t>2021-02-04</t>
+  </si>
+  <si>
+    <t>202101210000000951</t>
+  </si>
+  <si>
+    <t>002156</t>
+  </si>
+  <si>
+    <t>通富微电</t>
+  </si>
+  <si>
+    <t>202101210000000960</t>
+  </si>
+  <si>
+    <t>2021-02-02</t>
+  </si>
+  <si>
+    <t>202101200000001035</t>
+  </si>
+  <si>
+    <t>600776</t>
+  </si>
+  <si>
+    <t>东方通信</t>
+  </si>
+  <si>
+    <t>202101200000001043</t>
+  </si>
+  <si>
+    <t>600316</t>
+  </si>
+  <si>
+    <t>洪都航空</t>
+  </si>
+  <si>
+    <t>202101210000000010</t>
+  </si>
+  <si>
+    <t>600893</t>
+  </si>
+  <si>
+    <t>航发动力</t>
+  </si>
+  <si>
+    <t>202101210000000011</t>
+  </si>
+  <si>
+    <t>600967</t>
+  </si>
+  <si>
+    <t>内蒙一机</t>
+  </si>
+  <si>
+    <t>202101210000000012</t>
+  </si>
+  <si>
+    <t>601058</t>
+  </si>
+  <si>
+    <t>赛轮轮胎</t>
+  </si>
+  <si>
+    <t>202101210000000939</t>
+  </si>
+  <si>
+    <t>603005</t>
+  </si>
+  <si>
+    <t>晶方科技</t>
+  </si>
+  <si>
+    <t>202101210000000942</t>
+  </si>
+  <si>
+    <t>000733</t>
+  </si>
+  <si>
+    <t>振华科技</t>
+  </si>
+  <si>
+    <t>2021-02-01</t>
+  </si>
+  <si>
+    <t>202101180000000145</t>
+  </si>
+  <si>
+    <t>2021-01-19</t>
+  </si>
+  <si>
+    <t>202101190000002104</t>
+  </si>
+  <si>
+    <t>600197</t>
+  </si>
+  <si>
+    <t>伊力特</t>
+  </si>
+  <si>
+    <t>202101190000002124</t>
+  </si>
+  <si>
+    <t>202101190000002126</t>
+  </si>
+  <si>
+    <t>600855</t>
+  </si>
+  <si>
+    <t>航天长峰</t>
+  </si>
+  <si>
+    <t>202101190000002142</t>
+  </si>
+  <si>
+    <t>300274</t>
+  </si>
+  <si>
+    <t>阳光电源</t>
+  </si>
+  <si>
+    <t>202101190000002143</t>
+  </si>
+  <si>
+    <t>202101200000000046</t>
+  </si>
+  <si>
+    <t>601919</t>
+  </si>
+  <si>
+    <t>中远海控</t>
+  </si>
+  <si>
+    <t>202101200000000048</t>
+  </si>
+  <si>
+    <t>002460</t>
+  </si>
+  <si>
+    <t>赣锋锂业</t>
+  </si>
+  <si>
+    <t>202101200000000952</t>
+  </si>
+  <si>
+    <t>2021-01-29</t>
+  </si>
+  <si>
+    <t>202101180000000125</t>
+  </si>
+  <si>
+    <t>202101180000000130</t>
+  </si>
+  <si>
+    <t>202101180000001323</t>
+  </si>
+  <si>
+    <t>000725</t>
+  </si>
+  <si>
+    <t>京东方Ａ</t>
+  </si>
+  <si>
+    <t>202101180000001352</t>
+  </si>
+  <si>
+    <t>600827</t>
+  </si>
+  <si>
+    <t>百联股份</t>
+  </si>
+  <si>
+    <t>202101180000001406</t>
+  </si>
+  <si>
+    <t>600862</t>
+  </si>
+  <si>
+    <t>中航高科</t>
+  </si>
+  <si>
+    <t>202101180000001407</t>
+  </si>
+  <si>
+    <t>002340</t>
+  </si>
+  <si>
+    <t>格林美</t>
+  </si>
+  <si>
+    <t>202101180000001414</t>
+  </si>
+  <si>
+    <t>002407</t>
+  </si>
+  <si>
+    <t>多氟多</t>
+  </si>
+  <si>
+    <t>202101180000001415</t>
+  </si>
+  <si>
+    <t>300001</t>
+  </si>
+  <si>
+    <t>特锐德</t>
+  </si>
+  <si>
+    <t>202101180000001421</t>
+  </si>
+  <si>
+    <t>300059</t>
+  </si>
+  <si>
+    <t>东方财富</t>
+  </si>
+  <si>
+    <t>202101190000000035</t>
+  </si>
+  <si>
+    <t>202101190000000036</t>
+  </si>
+  <si>
+    <t>202101190000000037</t>
+  </si>
+  <si>
+    <t>202101190000000065</t>
+  </si>
+  <si>
+    <t>202101190000002078</t>
+  </si>
+  <si>
+    <t>600616</t>
+  </si>
+  <si>
+    <t>金枫酒业</t>
+  </si>
+  <si>
+    <t>202101190000002119</t>
+  </si>
+  <si>
+    <t>202101200000000045</t>
+  </si>
+  <si>
+    <t>000738</t>
+  </si>
+  <si>
+    <t>航发控制</t>
+  </si>
+  <si>
+    <t>2021-01-28</t>
+  </si>
+  <si>
+    <t>202101180000000146</t>
+  </si>
+  <si>
+    <t>002570</t>
+  </si>
+  <si>
+    <t>贝因美</t>
+  </si>
+  <si>
+    <t>202101180000000148</t>
+  </si>
+  <si>
+    <t>300118</t>
+  </si>
+  <si>
+    <t>东方日升</t>
+  </si>
+  <si>
+    <t>202101180000000149</t>
+  </si>
+  <si>
+    <t>000100</t>
+  </si>
+  <si>
+    <t>TCL科技</t>
+  </si>
+  <si>
+    <t>202101180000001306</t>
+  </si>
+  <si>
+    <t>600760</t>
+  </si>
+  <si>
+    <t>中航沈飞</t>
+  </si>
+  <si>
+    <t>2021-01-27</t>
+  </si>
+  <si>
+    <t>202101180000000150</t>
+  </si>
+  <si>
+    <t>202101180000000151</t>
+  </si>
+  <si>
     <t>300014</t>
   </si>
   <si>
@@ -88,21 +463,9 @@
     <t>2021-01-26</t>
   </si>
   <si>
-    <t>2021-01-27</t>
-  </si>
-  <si>
-    <t>--</t>
-  </si>
-  <si>
     <t>202101130000000226</t>
   </si>
   <si>
-    <t>960000039239</t>
-  </si>
-  <si>
-    <t>鸣石宽墨十一号私募证券投资基金</t>
-  </si>
-  <si>
     <t>300315</t>
   </si>
   <si>
@@ -112,190 +475,31 @@
     <t>202101130000000232</t>
   </si>
   <si>
-    <t>000733</t>
-  </si>
-  <si>
-    <t>振华科技</t>
-  </si>
-  <si>
-    <t>2021-01-18</t>
-  </si>
-  <si>
-    <t>2021-01-29</t>
-  </si>
-  <si>
-    <t>2021-02-01</t>
-  </si>
-  <si>
-    <t>202101180000000125</t>
-  </si>
-  <si>
-    <t>202101180000000130</t>
-  </si>
-  <si>
-    <t>2021-02-02</t>
-  </si>
-  <si>
-    <t>202101180000000145</t>
-  </si>
-  <si>
-    <t>000738</t>
-  </si>
-  <si>
-    <t>航发控制</t>
-  </si>
-  <si>
-    <t>2021-01-28</t>
-  </si>
-  <si>
-    <t>202101180000000146</t>
-  </si>
-  <si>
-    <t>002389</t>
-  </si>
-  <si>
-    <t>航天彩虹</t>
-  </si>
-  <si>
-    <t>2021-02-08</t>
-  </si>
-  <si>
-    <t>2021-02-09</t>
-  </si>
-  <si>
-    <t>202101180000000147</t>
-  </si>
-  <si>
-    <t>002570</t>
-  </si>
-  <si>
-    <t>贝因美</t>
-  </si>
-  <si>
-    <t>202101180000000148</t>
-  </si>
-  <si>
-    <t>300118</t>
-  </si>
-  <si>
-    <t>东方日升</t>
-  </si>
-  <si>
-    <t>202101180000000149</t>
-  </si>
-  <si>
-    <t>600760</t>
-  </si>
-  <si>
-    <t>中航沈飞</t>
-  </si>
-  <si>
-    <t>202101180000000150</t>
-  </si>
-  <si>
-    <t>202101180000000151</t>
-  </si>
-  <si>
-    <t>000100</t>
-  </si>
-  <si>
-    <t>TCL科技</t>
-  </si>
-  <si>
-    <t>202101180000001306</t>
-  </si>
-  <si>
-    <t>603799</t>
-  </si>
-  <si>
-    <t>华友钴业</t>
-  </si>
-  <si>
-    <t>202101180000001323</t>
-  </si>
-  <si>
-    <t>2021-02-10</t>
-  </si>
-  <si>
-    <t>2021-02-12</t>
-  </si>
-  <si>
-    <t>202101180000001328</t>
-  </si>
-  <si>
-    <t>000725</t>
-  </si>
-  <si>
-    <t>京东方Ａ</t>
-  </si>
-  <si>
-    <t>202101180000001352</t>
-  </si>
-  <si>
-    <t>600827</t>
-  </si>
-  <si>
-    <t>百联股份</t>
-  </si>
-  <si>
-    <t>202101180000001406</t>
-  </si>
-  <si>
-    <t>600862</t>
-  </si>
-  <si>
-    <t>中航高科</t>
-  </si>
-  <si>
-    <t>202101180000001407</t>
-  </si>
-  <si>
-    <t>002340</t>
-  </si>
-  <si>
-    <t>格林美</t>
-  </si>
-  <si>
-    <t>202101180000001414</t>
-  </si>
-  <si>
-    <t>002407</t>
-  </si>
-  <si>
-    <t>多氟多</t>
-  </si>
-  <si>
-    <t>202101180000001415</t>
-  </si>
-  <si>
-    <t>300001</t>
-  </si>
-  <si>
-    <t>特锐德</t>
-  </si>
-  <si>
-    <t>202101180000001421</t>
-  </si>
-  <si>
-    <t>300059</t>
-  </si>
-  <si>
-    <t>东方财富</t>
-  </si>
-  <si>
-    <t>2021-01-19</t>
-  </si>
-  <si>
-    <t>202101190000000035</t>
-  </si>
-  <si>
-    <t>202101190000000036</t>
-  </si>
-  <si>
-    <t>202101190000000037</t>
-  </si>
-  <si>
-    <t>202101190000000065</t>
+    <t>2021-01-25</t>
+  </si>
+  <si>
+    <t>202101200000001016</t>
+  </si>
+  <si>
+    <t>002646</t>
+  </si>
+  <si>
+    <t>青青稞酒</t>
+  </si>
+  <si>
+    <t>2021-01-22</t>
+  </si>
+  <si>
+    <t>202101190000002111</t>
+  </si>
+  <si>
+    <t>603919</t>
+  </si>
+  <si>
+    <t>金徽酒</t>
+  </si>
+  <si>
+    <t>202101190000002115</t>
   </si>
 </sst>
 </file>
@@ -635,7 +839,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T50"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0"/>
   </sheetViews>
@@ -742,28 +946,28 @@
         <v>24</v>
       </c>
       <c r="F2" s="1">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="G2" s="1">
-        <v>2200</v>
+        <v>4200</v>
       </c>
       <c r="H2" s="1">
-        <v>2200</v>
+        <v>4200</v>
       </c>
       <c r="I2" s="1">
-        <v>2200</v>
+        <v>4200</v>
       </c>
       <c r="J2" s="2">
-        <v>197868</v>
+        <v>108360</v>
       </c>
       <c r="K2" s="3">
         <v>0</v>
       </c>
       <c r="L2" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M2" s="2">
-        <v>263.82</v>
+        <v>42.14</v>
       </c>
       <c r="N2" s="2">
         <v>0</v>
@@ -804,28 +1008,28 @@
         <v>24</v>
       </c>
       <c r="F3" s="1">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="G3" s="1">
-        <v>30000</v>
+        <v>19200</v>
       </c>
       <c r="H3" s="1">
-        <v>30000</v>
+        <v>19200</v>
       </c>
       <c r="I3" s="1">
-        <v>30000</v>
+        <v>19200</v>
       </c>
       <c r="J3" s="2">
-        <v>151800</v>
+        <v>131904</v>
       </c>
       <c r="K3" s="3">
         <v>0</v>
       </c>
       <c r="L3" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M3" s="2">
-        <v>202.4</v>
+        <v>65.95</v>
       </c>
       <c r="N3" s="2">
         <v>0</v>
@@ -860,49 +1064,49 @@
         <v>34</v>
       </c>
       <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" t="s">
         <v>35</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" s="1">
+        <v>21</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1000</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1000</v>
+      </c>
+      <c r="I4" s="1">
+        <v>1000</v>
+      </c>
+      <c r="J4" s="2">
+        <v>83100</v>
+      </c>
+      <c r="K4" s="3">
+        <v>0</v>
+      </c>
+      <c r="L4" s="3">
+        <v>9</v>
+      </c>
+      <c r="M4" s="2">
+        <v>83.1</v>
+      </c>
+      <c r="N4" s="2">
+        <v>0</v>
+      </c>
+      <c r="O4" t="s">
+        <v>25</v>
+      </c>
+      <c r="P4" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>18</v>
+      </c>
+      <c r="R4" t="s">
         <v>36</v>
-      </c>
-      <c r="F4" s="1">
-        <v>13</v>
-      </c>
-      <c r="G4" s="1">
-        <v>1900</v>
-      </c>
-      <c r="H4" s="1">
-        <v>1900</v>
-      </c>
-      <c r="I4" s="1">
-        <v>0</v>
-      </c>
-      <c r="J4" s="2">
-        <v>112233</v>
-      </c>
-      <c r="K4" s="3">
-        <v>0</v>
-      </c>
-      <c r="L4" s="3">
-        <v>8.5</v>
-      </c>
-      <c r="M4" s="2">
-        <v>26.5</v>
-      </c>
-      <c r="N4" s="2">
-        <v>0</v>
-      </c>
-      <c r="O4" t="s">
-        <v>25</v>
-      </c>
-      <c r="P4" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="3">
-        <v>18</v>
-      </c>
-      <c r="R4" t="s">
-        <v>37</v>
       </c>
       <c r="S4" t="s">
         <v>27</v>
@@ -913,34 +1117,34 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C5" t="s">
         <v>34</v>
       </c>
       <c r="D5" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E5" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F5" s="1">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G5" s="1">
-        <v>1900</v>
+        <v>6600</v>
       </c>
       <c r="H5" s="1">
-        <v>1900</v>
+        <v>6600</v>
       </c>
       <c r="I5" s="1">
-        <v>0</v>
+        <v>6600</v>
       </c>
       <c r="J5" s="2">
-        <v>112233</v>
+        <v>204930</v>
       </c>
       <c r="K5" s="3">
         <v>0</v>
@@ -949,7 +1153,7 @@
         <v>7</v>
       </c>
       <c r="M5" s="2">
-        <v>21.82</v>
+        <v>159.39</v>
       </c>
       <c r="N5" s="2">
         <v>0</v>
@@ -964,7 +1168,7 @@
         <v>18</v>
       </c>
       <c r="R5" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="S5" t="s">
         <v>27</v>
@@ -975,43 +1179,43 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="D6" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="E6" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F6" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G6" s="1">
-        <v>3800</v>
+        <v>1200</v>
       </c>
       <c r="H6" s="1">
-        <v>3800</v>
+        <v>1200</v>
       </c>
       <c r="I6" s="1">
-        <v>3800</v>
+        <v>0</v>
       </c>
       <c r="J6" s="2">
-        <v>224466</v>
+        <v>221280</v>
       </c>
       <c r="K6" s="3">
         <v>0</v>
       </c>
       <c r="L6" s="3">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="M6" s="2">
-        <v>43.65</v>
+        <v>52.25</v>
       </c>
       <c r="N6" s="2">
         <v>0</v>
@@ -1026,7 +1230,7 @@
         <v>18</v>
       </c>
       <c r="R6" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="S6" t="s">
         <v>27</v>
@@ -1037,43 +1241,43 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="D7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E7" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="F7" s="1">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G7" s="1">
-        <v>8300</v>
+        <v>1600</v>
       </c>
       <c r="H7" s="1">
-        <v>8300</v>
+        <v>1600</v>
       </c>
       <c r="I7" s="1">
-        <v>8300</v>
+        <v>1600</v>
       </c>
       <c r="J7" s="2">
-        <v>202686</v>
+        <v>47440</v>
       </c>
       <c r="K7" s="3">
         <v>0</v>
       </c>
       <c r="L7" s="3">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="M7" s="2">
-        <v>39.41</v>
+        <v>11.2</v>
       </c>
       <c r="N7" s="2">
         <v>0</v>
@@ -1088,7 +1292,7 @@
         <v>18</v>
       </c>
       <c r="R7" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="S7" t="s">
         <v>27</v>
@@ -1099,43 +1303,43 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" t="s">
         <v>45</v>
       </c>
-      <c r="B8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" t="s">
-        <v>47</v>
-      </c>
-      <c r="E8" t="s">
-        <v>48</v>
-      </c>
       <c r="F8" s="1">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G8" s="1">
-        <v>6600</v>
+        <v>3400</v>
       </c>
       <c r="H8" s="1">
-        <v>6600</v>
+        <v>3400</v>
       </c>
       <c r="I8" s="1">
-        <v>6600</v>
+        <v>1800</v>
       </c>
       <c r="J8" s="2">
-        <v>204930</v>
+        <v>102272</v>
       </c>
       <c r="K8" s="3">
         <v>0</v>
       </c>
       <c r="L8" s="3">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="M8" s="2">
-        <v>39.85</v>
+        <v>48.3</v>
       </c>
       <c r="N8" s="2">
         <v>0</v>
@@ -1150,7 +1354,7 @@
         <v>18</v>
       </c>
       <c r="R8" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="S8" t="s">
         <v>27</v>
@@ -1161,43 +1365,43 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" t="s">
         <v>51</v>
       </c>
-      <c r="C9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" t="s">
-        <v>43</v>
-      </c>
       <c r="E9" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="F9" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G9" s="1">
-        <v>26900</v>
+        <v>7900</v>
       </c>
       <c r="H9" s="1">
-        <v>26900</v>
+        <v>7900</v>
       </c>
       <c r="I9" s="1">
-        <v>26900</v>
+        <v>7900</v>
       </c>
       <c r="J9" s="2">
-        <v>139880</v>
+        <v>99382</v>
       </c>
       <c r="K9" s="3">
         <v>0</v>
       </c>
       <c r="L9" s="3">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="M9" s="2">
-        <v>27.2</v>
+        <v>46.93</v>
       </c>
       <c r="N9" s="2">
         <v>0</v>
@@ -1212,7 +1416,7 @@
         <v>18</v>
       </c>
       <c r="R9" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="S9" t="s">
         <v>27</v>
@@ -1223,34 +1427,34 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B10" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="E10" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="F10" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G10" s="1">
-        <v>7700</v>
+        <v>3900</v>
       </c>
       <c r="H10" s="1">
-        <v>7700</v>
+        <v>3900</v>
       </c>
       <c r="I10" s="1">
-        <v>7700</v>
+        <v>3900</v>
       </c>
       <c r="J10" s="2">
-        <v>197428</v>
+        <v>201630</v>
       </c>
       <c r="K10" s="3">
         <v>0</v>
@@ -1259,7 +1463,7 @@
         <v>7</v>
       </c>
       <c r="M10" s="2">
-        <v>38.39</v>
+        <v>39.21</v>
       </c>
       <c r="N10" s="2">
         <v>0</v>
@@ -1274,7 +1478,7 @@
         <v>18</v>
       </c>
       <c r="R10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="S10" t="s">
         <v>27</v>
@@ -1285,34 +1489,34 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B11" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F11" s="1">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G11" s="1">
-        <v>500</v>
+        <v>1400</v>
       </c>
       <c r="H11" s="1">
-        <v>500</v>
+        <v>1400</v>
       </c>
       <c r="I11" s="1">
-        <v>500</v>
+        <v>1400</v>
       </c>
       <c r="J11" s="2">
-        <v>42700</v>
+        <v>102312</v>
       </c>
       <c r="K11" s="3">
         <v>0</v>
@@ -1321,7 +1525,7 @@
         <v>5</v>
       </c>
       <c r="M11" s="2">
-        <v>5.93</v>
+        <v>14.21</v>
       </c>
       <c r="N11" s="2">
         <v>0</v>
@@ -1336,7 +1540,7 @@
         <v>18</v>
       </c>
       <c r="R11" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="S11" t="s">
         <v>27</v>
@@ -1347,43 +1551,43 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B12" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F12" s="1">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G12" s="1">
-        <v>1900</v>
+        <v>10000</v>
       </c>
       <c r="H12" s="1">
-        <v>1900</v>
+        <v>10000</v>
       </c>
       <c r="I12" s="1">
-        <v>1900</v>
+        <v>10000</v>
       </c>
       <c r="J12" s="2">
-        <v>162260</v>
+        <v>121800</v>
       </c>
       <c r="K12" s="3">
         <v>0</v>
       </c>
       <c r="L12" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M12" s="2">
-        <v>22.54</v>
+        <v>23.68</v>
       </c>
       <c r="N12" s="2">
         <v>0</v>
@@ -1398,7 +1602,7 @@
         <v>18</v>
       </c>
       <c r="R12" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="S12" t="s">
         <v>27</v>
@@ -1409,34 +1613,34 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B13" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="D13" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="E13" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="F13" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G13" s="1">
-        <v>21500</v>
+        <v>23300</v>
       </c>
       <c r="H13" s="1">
-        <v>21500</v>
+        <v>23300</v>
       </c>
       <c r="I13" s="1">
         <v>0</v>
       </c>
       <c r="J13" s="2">
-        <v>216935</v>
+        <v>204574</v>
       </c>
       <c r="K13" s="3">
         <v>0</v>
@@ -1445,7 +1649,7 @@
         <v>9</v>
       </c>
       <c r="M13" s="2">
-        <v>54.23</v>
+        <v>51.14</v>
       </c>
       <c r="N13" s="2">
         <v>0</v>
@@ -1460,7 +1664,7 @@
         <v>18</v>
       </c>
       <c r="R13" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="S13" t="s">
         <v>27</v>
@@ -1471,34 +1675,34 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B14" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="D14" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="E14" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="F14" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G14" s="1">
-        <v>1400</v>
+        <v>2300</v>
       </c>
       <c r="H14" s="1">
-        <v>1400</v>
+        <v>2300</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
       </c>
       <c r="J14" s="2">
-        <v>116340</v>
+        <v>200491</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1507,7 +1711,7 @@
         <v>9</v>
       </c>
       <c r="M14" s="2">
-        <v>29.09</v>
+        <v>50.12</v>
       </c>
       <c r="N14" s="2">
         <v>0</v>
@@ -1522,7 +1726,7 @@
         <v>18</v>
       </c>
       <c r="R14" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="S14" t="s">
         <v>27</v>
@@ -1533,43 +1737,43 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="B15" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="C15" t="s">
         <v>34</v>
       </c>
       <c r="D15" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="E15" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="F15" s="1">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="G15" s="1">
-        <v>1000</v>
+        <v>3800</v>
       </c>
       <c r="H15" s="1">
-        <v>1000</v>
+        <v>3800</v>
       </c>
       <c r="I15" s="1">
-        <v>0</v>
+        <v>3800</v>
       </c>
       <c r="J15" s="2">
-        <v>83100</v>
+        <v>224466</v>
       </c>
       <c r="K15" s="3">
         <v>0</v>
       </c>
       <c r="L15" s="3">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M15" s="2">
-        <v>20.77</v>
+        <v>174.58</v>
       </c>
       <c r="N15" s="2">
         <v>0</v>
@@ -1584,7 +1788,7 @@
         <v>18</v>
       </c>
       <c r="R15" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="S15" t="s">
         <v>27</v>
@@ -1595,43 +1799,43 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="B16" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C16" t="s">
-        <v>34</v>
+        <v>75</v>
       </c>
       <c r="D16" t="s">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="E16" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="F16" s="1">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G16" s="1">
-        <v>29500</v>
+        <v>1500</v>
       </c>
       <c r="H16" s="1">
-        <v>29500</v>
+        <v>1500</v>
       </c>
       <c r="I16" s="1">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="J16" s="2">
-        <v>201780</v>
+        <v>100200</v>
       </c>
       <c r="K16" s="3">
         <v>0</v>
       </c>
       <c r="L16" s="3">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="M16" s="2">
-        <v>50.45</v>
+        <v>70.98</v>
       </c>
       <c r="N16" s="2">
         <v>0</v>
@@ -1646,7 +1850,7 @@
         <v>18</v>
       </c>
       <c r="R16" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="S16" t="s">
         <v>27</v>
@@ -1657,34 +1861,34 @@
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B17" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17" t="s">
+        <v>75</v>
+      </c>
+      <c r="D17" t="s">
         <v>73</v>
       </c>
-      <c r="C17" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" t="s">
-        <v>35</v>
-      </c>
       <c r="E17" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="F17" s="1">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G17" s="1">
-        <v>5600</v>
+        <v>4100</v>
       </c>
       <c r="H17" s="1">
-        <v>5600</v>
+        <v>4100</v>
       </c>
       <c r="I17" s="1">
-        <v>0</v>
+        <v>4100</v>
       </c>
       <c r="J17" s="2">
-        <v>110040</v>
+        <v>98974</v>
       </c>
       <c r="K17" s="3">
         <v>0</v>
@@ -1693,7 +1897,7 @@
         <v>8.5</v>
       </c>
       <c r="M17" s="2">
-        <v>25.98</v>
+        <v>70.11</v>
       </c>
       <c r="N17" s="2">
         <v>0</v>
@@ -1708,7 +1912,7 @@
         <v>18</v>
       </c>
       <c r="R17" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="S17" t="s">
         <v>27</v>
@@ -1719,34 +1923,34 @@
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" t="s">
         <v>75</v>
       </c>
-      <c r="B18" t="s">
-        <v>76</v>
-      </c>
-      <c r="C18" t="s">
-        <v>34</v>
-      </c>
       <c r="D18" t="s">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="E18" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="F18" s="1">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G18" s="1">
-        <v>2700</v>
+        <v>3700</v>
       </c>
       <c r="H18" s="1">
-        <v>2700</v>
+        <v>3700</v>
       </c>
       <c r="I18" s="1">
-        <v>0</v>
+        <v>3700</v>
       </c>
       <c r="J18" s="2">
-        <v>97443</v>
+        <v>94720</v>
       </c>
       <c r="K18" s="3">
         <v>0</v>
@@ -1755,7 +1959,7 @@
         <v>8.5</v>
       </c>
       <c r="M18" s="2">
-        <v>23.01</v>
+        <v>67.09</v>
       </c>
       <c r="N18" s="2">
         <v>0</v>
@@ -1770,7 +1974,7 @@
         <v>18</v>
       </c>
       <c r="R18" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="S18" t="s">
         <v>27</v>
@@ -1781,34 +1985,34 @@
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B19" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C19" t="s">
-        <v>34</v>
+        <v>75</v>
       </c>
       <c r="D19" t="s">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="E19" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="F19" s="1">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G19" s="1">
-        <v>11900</v>
+        <v>6200</v>
       </c>
       <c r="H19" s="1">
-        <v>11900</v>
+        <v>6200</v>
       </c>
       <c r="I19" s="1">
-        <v>0</v>
+        <v>6200</v>
       </c>
       <c r="J19" s="2">
-        <v>97699</v>
+        <v>95294</v>
       </c>
       <c r="K19" s="3">
         <v>0</v>
@@ -1817,7 +2021,7 @@
         <v>8.5</v>
       </c>
       <c r="M19" s="2">
-        <v>23.07</v>
+        <v>67.5</v>
       </c>
       <c r="N19" s="2">
         <v>0</v>
@@ -1832,7 +2036,7 @@
         <v>18</v>
       </c>
       <c r="R19" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="S19" t="s">
         <v>27</v>
@@ -1843,43 +2047,43 @@
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B20" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C20" t="s">
-        <v>34</v>
+        <v>75</v>
       </c>
       <c r="D20" t="s">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="E20" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="F20" s="1">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G20" s="1">
-        <v>10000</v>
+        <v>1200</v>
       </c>
       <c r="H20" s="1">
-        <v>10000</v>
+        <v>1200</v>
       </c>
       <c r="I20" s="1">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="J20" s="2">
-        <v>212300</v>
+        <v>100680</v>
       </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
       <c r="L20" s="3">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="M20" s="2">
-        <v>41.28</v>
+        <v>71.31</v>
       </c>
       <c r="N20" s="2">
         <v>0</v>
@@ -1894,7 +2098,7 @@
         <v>18</v>
       </c>
       <c r="R20" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="S20" t="s">
         <v>27</v>
@@ -1911,37 +2115,37 @@
         <v>85</v>
       </c>
       <c r="C21" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="D21" t="s">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="E21" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="F21" s="1">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G21" s="1">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="H21" s="1">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="I21" s="1">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="J21" s="2">
-        <v>35620</v>
+        <v>110640</v>
       </c>
       <c r="K21" s="3">
         <v>0</v>
       </c>
       <c r="L21" s="3">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M21" s="2">
-        <v>8.9</v>
+        <v>43.03</v>
       </c>
       <c r="N21" s="2">
         <v>0</v>
@@ -1956,7 +2160,7 @@
         <v>18</v>
       </c>
       <c r="R21" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="S21" t="s">
         <v>27</v>
@@ -1967,43 +2171,43 @@
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B22" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C22" t="s">
-        <v>89</v>
+        <v>22</v>
       </c>
       <c r="D22" t="s">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="E22" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="F22" s="1">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G22" s="1">
-        <v>5300</v>
+        <v>1500</v>
       </c>
       <c r="H22" s="1">
-        <v>5300</v>
+        <v>1500</v>
       </c>
       <c r="I22" s="1">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="J22" s="2">
-        <v>200234</v>
+        <v>21060</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
       </c>
       <c r="L22" s="3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M22" s="2">
-        <v>0</v>
+        <v>5.85</v>
       </c>
       <c r="N22" s="2">
         <v>0</v>
@@ -2029,43 +2233,43 @@
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="B23" t="s">
+        <v>92</v>
+      </c>
+      <c r="C23" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" t="s">
         <v>73</v>
       </c>
-      <c r="C23" t="s">
-        <v>89</v>
-      </c>
-      <c r="D23" t="s">
-        <v>35</v>
-      </c>
       <c r="E23" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="F23" s="1">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G23" s="1">
-        <v>4400</v>
+        <v>100</v>
       </c>
       <c r="H23" s="1">
-        <v>4400</v>
+        <v>100</v>
       </c>
       <c r="I23" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J23" s="2">
-        <v>86460</v>
+        <v>12698</v>
       </c>
       <c r="K23" s="3">
         <v>0</v>
       </c>
       <c r="L23" s="3">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="M23" s="2">
-        <v>0</v>
+        <v>6.35</v>
       </c>
       <c r="N23" s="2">
         <v>0</v>
@@ -2080,7 +2284,7 @@
         <v>18</v>
       </c>
       <c r="R23" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="S23" t="s">
         <v>27</v>
@@ -2091,43 +2295,43 @@
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B24" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C24" t="s">
-        <v>89</v>
+        <v>34</v>
       </c>
       <c r="D24" t="s">
-        <v>35</v>
+        <v>94</v>
       </c>
       <c r="E24" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="F24" s="1">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G24" s="1">
-        <v>2900</v>
+        <v>1900</v>
       </c>
       <c r="H24" s="1">
-        <v>2900</v>
+        <v>1900</v>
       </c>
       <c r="I24" s="1">
         <v>0</v>
       </c>
       <c r="J24" s="2">
-        <v>104661</v>
+        <v>112233</v>
       </c>
       <c r="K24" s="3">
         <v>0</v>
       </c>
       <c r="L24" s="3">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="M24" s="2">
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="N24" s="2">
         <v>0</v>
@@ -2142,7 +2346,7 @@
         <v>18</v>
       </c>
       <c r="R24" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="S24" t="s">
         <v>27</v>
@@ -2153,34 +2357,34 @@
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="B25" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="C25" t="s">
-        <v>89</v>
+        <v>34</v>
       </c>
       <c r="D25" t="s">
-        <v>35</v>
+        <v>94</v>
       </c>
       <c r="E25" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="F25" s="1">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G25" s="1">
-        <v>5300</v>
+        <v>1900</v>
       </c>
       <c r="H25" s="1">
-        <v>5300</v>
+        <v>1900</v>
       </c>
       <c r="I25" s="1">
         <v>0</v>
       </c>
       <c r="J25" s="2">
-        <v>200234</v>
+        <v>112233</v>
       </c>
       <c r="K25" s="3">
         <v>0</v>
@@ -2189,7 +2393,7 @@
         <v>7</v>
       </c>
       <c r="M25" s="2">
-        <v>0</v>
+        <v>87.29</v>
       </c>
       <c r="N25" s="2">
         <v>0</v>
@@ -2204,12 +2408,1562 @@
         <v>18</v>
       </c>
       <c r="R25" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="S25" t="s">
         <v>27</v>
       </c>
       <c r="T25" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26" t="s">
+        <v>94</v>
+      </c>
+      <c r="E26" t="s">
+        <v>73</v>
+      </c>
+      <c r="F26" s="1">
+        <v>10</v>
+      </c>
+      <c r="G26" s="1">
+        <v>1400</v>
+      </c>
+      <c r="H26" s="1">
+        <v>1400</v>
+      </c>
+      <c r="I26" s="1">
+        <v>1400</v>
+      </c>
+      <c r="J26" s="2">
+        <v>116340</v>
+      </c>
+      <c r="K26" s="3">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3">
+        <v>9</v>
+      </c>
+      <c r="M26" s="2">
+        <v>116.34</v>
+      </c>
+      <c r="N26" s="2">
+        <v>0</v>
+      </c>
+      <c r="O26" t="s">
+        <v>25</v>
+      </c>
+      <c r="P26" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>18</v>
+      </c>
+      <c r="R26" t="s">
+        <v>97</v>
+      </c>
+      <c r="S26" t="s">
+        <v>27</v>
+      </c>
+      <c r="T26" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>98</v>
+      </c>
+      <c r="B27" t="s">
+        <v>99</v>
+      </c>
+      <c r="C27" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27" t="s">
+        <v>94</v>
+      </c>
+      <c r="E27" t="s">
+        <v>73</v>
+      </c>
+      <c r="F27" s="1">
+        <v>10</v>
+      </c>
+      <c r="G27" s="1">
+        <v>29500</v>
+      </c>
+      <c r="H27" s="1">
+        <v>29500</v>
+      </c>
+      <c r="I27" s="1">
+        <v>29500</v>
+      </c>
+      <c r="J27" s="2">
+        <v>201780</v>
+      </c>
+      <c r="K27" s="3">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3">
+        <v>9</v>
+      </c>
+      <c r="M27" s="2">
+        <v>201.78</v>
+      </c>
+      <c r="N27" s="2">
+        <v>0</v>
+      </c>
+      <c r="O27" t="s">
+        <v>25</v>
+      </c>
+      <c r="P27" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>18</v>
+      </c>
+      <c r="R27" t="s">
+        <v>100</v>
+      </c>
+      <c r="S27" t="s">
+        <v>27</v>
+      </c>
+      <c r="T27" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>101</v>
+      </c>
+      <c r="B28" t="s">
+        <v>102</v>
+      </c>
+      <c r="C28" t="s">
+        <v>34</v>
+      </c>
+      <c r="D28" t="s">
+        <v>94</v>
+      </c>
+      <c r="E28" t="s">
+        <v>73</v>
+      </c>
+      <c r="F28" s="1">
+        <v>10</v>
+      </c>
+      <c r="G28" s="1">
+        <v>5600</v>
+      </c>
+      <c r="H28" s="1">
+        <v>5600</v>
+      </c>
+      <c r="I28" s="1">
+        <v>5600</v>
+      </c>
+      <c r="J28" s="2">
+        <v>110040</v>
+      </c>
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3">
+        <v>8.5</v>
+      </c>
+      <c r="M28" s="2">
+        <v>103.93</v>
+      </c>
+      <c r="N28" s="2">
+        <v>0</v>
+      </c>
+      <c r="O28" t="s">
+        <v>25</v>
+      </c>
+      <c r="P28" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>18</v>
+      </c>
+      <c r="R28" t="s">
+        <v>103</v>
+      </c>
+      <c r="S28" t="s">
+        <v>27</v>
+      </c>
+      <c r="T28" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>104</v>
+      </c>
+      <c r="B29" t="s">
+        <v>105</v>
+      </c>
+      <c r="C29" t="s">
+        <v>34</v>
+      </c>
+      <c r="D29" t="s">
+        <v>94</v>
+      </c>
+      <c r="E29" t="s">
+        <v>73</v>
+      </c>
+      <c r="F29" s="1">
+        <v>10</v>
+      </c>
+      <c r="G29" s="1">
+        <v>2700</v>
+      </c>
+      <c r="H29" s="1">
+        <v>2700</v>
+      </c>
+      <c r="I29" s="1">
+        <v>2700</v>
+      </c>
+      <c r="J29" s="2">
+        <v>97443</v>
+      </c>
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
+        <v>8.5</v>
+      </c>
+      <c r="M29" s="2">
+        <v>92.03</v>
+      </c>
+      <c r="N29" s="2">
+        <v>0</v>
+      </c>
+      <c r="O29" t="s">
+        <v>25</v>
+      </c>
+      <c r="P29" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>18</v>
+      </c>
+      <c r="R29" t="s">
+        <v>106</v>
+      </c>
+      <c r="S29" t="s">
+        <v>27</v>
+      </c>
+      <c r="T29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>107</v>
+      </c>
+      <c r="B30" t="s">
+        <v>108</v>
+      </c>
+      <c r="C30" t="s">
+        <v>34</v>
+      </c>
+      <c r="D30" t="s">
+        <v>94</v>
+      </c>
+      <c r="E30" t="s">
+        <v>73</v>
+      </c>
+      <c r="F30" s="1">
+        <v>10</v>
+      </c>
+      <c r="G30" s="1">
+        <v>11900</v>
+      </c>
+      <c r="H30" s="1">
+        <v>11900</v>
+      </c>
+      <c r="I30" s="1">
+        <v>11900</v>
+      </c>
+      <c r="J30" s="2">
+        <v>97699</v>
+      </c>
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3">
+        <v>8.5</v>
+      </c>
+      <c r="M30" s="2">
+        <v>92.27</v>
+      </c>
+      <c r="N30" s="2">
+        <v>0</v>
+      </c>
+      <c r="O30" t="s">
+        <v>25</v>
+      </c>
+      <c r="P30" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>18</v>
+      </c>
+      <c r="R30" t="s">
+        <v>109</v>
+      </c>
+      <c r="S30" t="s">
+        <v>27</v>
+      </c>
+      <c r="T30" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>110</v>
+      </c>
+      <c r="B31" t="s">
+        <v>111</v>
+      </c>
+      <c r="C31" t="s">
+        <v>34</v>
+      </c>
+      <c r="D31" t="s">
+        <v>94</v>
+      </c>
+      <c r="E31" t="s">
+        <v>73</v>
+      </c>
+      <c r="F31" s="1">
+        <v>10</v>
+      </c>
+      <c r="G31" s="1">
+        <v>10000</v>
+      </c>
+      <c r="H31" s="1">
+        <v>10000</v>
+      </c>
+      <c r="I31" s="1">
+        <v>10000</v>
+      </c>
+      <c r="J31" s="2">
+        <v>212300</v>
+      </c>
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3">
+        <v>7</v>
+      </c>
+      <c r="M31" s="2">
+        <v>165.12</v>
+      </c>
+      <c r="N31" s="2">
+        <v>0</v>
+      </c>
+      <c r="O31" t="s">
+        <v>25</v>
+      </c>
+      <c r="P31" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>18</v>
+      </c>
+      <c r="R31" t="s">
+        <v>112</v>
+      </c>
+      <c r="S31" t="s">
+        <v>27</v>
+      </c>
+      <c r="T31" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>113</v>
+      </c>
+      <c r="B32" t="s">
+        <v>114</v>
+      </c>
+      <c r="C32" t="s">
+        <v>34</v>
+      </c>
+      <c r="D32" t="s">
+        <v>94</v>
+      </c>
+      <c r="E32" t="s">
+        <v>73</v>
+      </c>
+      <c r="F32" s="1">
+        <v>10</v>
+      </c>
+      <c r="G32" s="1">
+        <v>1000</v>
+      </c>
+      <c r="H32" s="1">
+        <v>1000</v>
+      </c>
+      <c r="I32" s="1">
+        <v>1000</v>
+      </c>
+      <c r="J32" s="2">
+        <v>35620</v>
+      </c>
+      <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
+        <v>9</v>
+      </c>
+      <c r="M32" s="2">
+        <v>35.62</v>
+      </c>
+      <c r="N32" s="2">
+        <v>0</v>
+      </c>
+      <c r="O32" t="s">
+        <v>25</v>
+      </c>
+      <c r="P32" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>18</v>
+      </c>
+      <c r="R32" t="s">
+        <v>115</v>
+      </c>
+      <c r="S32" t="s">
+        <v>27</v>
+      </c>
+      <c r="T32" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>116</v>
+      </c>
+      <c r="B33" t="s">
+        <v>117</v>
+      </c>
+      <c r="C33" t="s">
+        <v>75</v>
+      </c>
+      <c r="D33" t="s">
+        <v>94</v>
+      </c>
+      <c r="E33" t="s">
+        <v>73</v>
+      </c>
+      <c r="F33" s="1">
+        <v>10</v>
+      </c>
+      <c r="G33" s="1">
+        <v>5300</v>
+      </c>
+      <c r="H33" s="1">
+        <v>5300</v>
+      </c>
+      <c r="I33" s="1">
+        <v>0</v>
+      </c>
+      <c r="J33" s="2">
+        <v>196312</v>
+      </c>
+      <c r="K33" s="3">
+        <v>0</v>
+      </c>
+      <c r="L33" s="3">
+        <v>7</v>
+      </c>
+      <c r="M33" s="2">
+        <v>114.52</v>
+      </c>
+      <c r="N33" s="2">
+        <v>0</v>
+      </c>
+      <c r="O33" t="s">
+        <v>25</v>
+      </c>
+      <c r="P33" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>18</v>
+      </c>
+      <c r="R33" t="s">
+        <v>118</v>
+      </c>
+      <c r="S33" t="s">
+        <v>27</v>
+      </c>
+      <c r="T33" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>101</v>
+      </c>
+      <c r="B34" t="s">
+        <v>102</v>
+      </c>
+      <c r="C34" t="s">
+        <v>75</v>
+      </c>
+      <c r="D34" t="s">
+        <v>94</v>
+      </c>
+      <c r="E34" t="s">
+        <v>73</v>
+      </c>
+      <c r="F34" s="1">
+        <v>10</v>
+      </c>
+      <c r="G34" s="1">
+        <v>4400</v>
+      </c>
+      <c r="H34" s="1">
+        <v>4400</v>
+      </c>
+      <c r="I34" s="1">
+        <v>4400</v>
+      </c>
+      <c r="J34" s="2">
+        <v>86636</v>
+      </c>
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3">
+        <v>7</v>
+      </c>
+      <c r="M34" s="2">
+        <v>50.54</v>
+      </c>
+      <c r="N34" s="2">
+        <v>0</v>
+      </c>
+      <c r="O34" t="s">
+        <v>25</v>
+      </c>
+      <c r="P34" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>18</v>
+      </c>
+      <c r="R34" t="s">
+        <v>119</v>
+      </c>
+      <c r="S34" t="s">
+        <v>27</v>
+      </c>
+      <c r="T34" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>104</v>
+      </c>
+      <c r="B35" t="s">
+        <v>105</v>
+      </c>
+      <c r="C35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D35" t="s">
+        <v>94</v>
+      </c>
+      <c r="E35" t="s">
+        <v>73</v>
+      </c>
+      <c r="F35" s="1">
+        <v>10</v>
+      </c>
+      <c r="G35" s="1">
+        <v>2900</v>
+      </c>
+      <c r="H35" s="1">
+        <v>2900</v>
+      </c>
+      <c r="I35" s="1">
+        <v>2900</v>
+      </c>
+      <c r="J35" s="2">
+        <v>104400</v>
+      </c>
+      <c r="K35" s="3">
+        <v>0</v>
+      </c>
+      <c r="L35" s="3">
+        <v>7</v>
+      </c>
+      <c r="M35" s="2">
+        <v>60.9</v>
+      </c>
+      <c r="N35" s="2">
+        <v>0</v>
+      </c>
+      <c r="O35" t="s">
+        <v>25</v>
+      </c>
+      <c r="P35" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>18</v>
+      </c>
+      <c r="R35" t="s">
+        <v>120</v>
+      </c>
+      <c r="S35" t="s">
+        <v>27</v>
+      </c>
+      <c r="T35" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>116</v>
+      </c>
+      <c r="B36" t="s">
+        <v>117</v>
+      </c>
+      <c r="C36" t="s">
+        <v>75</v>
+      </c>
+      <c r="D36" t="s">
+        <v>94</v>
+      </c>
+      <c r="E36" t="s">
+        <v>73</v>
+      </c>
+      <c r="F36" s="1">
+        <v>10</v>
+      </c>
+      <c r="G36" s="1">
+        <v>5300</v>
+      </c>
+      <c r="H36" s="1">
+        <v>5300</v>
+      </c>
+      <c r="I36" s="1">
+        <v>5300</v>
+      </c>
+      <c r="J36" s="2">
+        <v>196312</v>
+      </c>
+      <c r="K36" s="3">
+        <v>0</v>
+      </c>
+      <c r="L36" s="3">
+        <v>7</v>
+      </c>
+      <c r="M36" s="2">
+        <v>114.52</v>
+      </c>
+      <c r="N36" s="2">
+        <v>0</v>
+      </c>
+      <c r="O36" t="s">
+        <v>25</v>
+      </c>
+      <c r="P36" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="3">
+        <v>18</v>
+      </c>
+      <c r="R36" t="s">
+        <v>121</v>
+      </c>
+      <c r="S36" t="s">
+        <v>27</v>
+      </c>
+      <c r="T36" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>88</v>
+      </c>
+      <c r="B37" t="s">
+        <v>89</v>
+      </c>
+      <c r="C37" t="s">
+        <v>75</v>
+      </c>
+      <c r="D37" t="s">
+        <v>94</v>
+      </c>
+      <c r="E37" t="s">
+        <v>73</v>
+      </c>
+      <c r="F37" s="1">
+        <v>10</v>
+      </c>
+      <c r="G37" s="1">
+        <v>12800</v>
+      </c>
+      <c r="H37" s="1">
+        <v>12800</v>
+      </c>
+      <c r="I37" s="1">
+        <v>12800</v>
+      </c>
+      <c r="J37" s="2">
+        <v>180224</v>
+      </c>
+      <c r="K37" s="3">
+        <v>0</v>
+      </c>
+      <c r="L37" s="3">
+        <v>9</v>
+      </c>
+      <c r="M37" s="2">
+        <v>135.17</v>
+      </c>
+      <c r="N37" s="2">
+        <v>0</v>
+      </c>
+      <c r="O37" t="s">
+        <v>25</v>
+      </c>
+      <c r="P37" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="3">
+        <v>18</v>
+      </c>
+      <c r="R37" t="s">
+        <v>122</v>
+      </c>
+      <c r="S37" t="s">
+        <v>27</v>
+      </c>
+      <c r="T37" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
+      <c r="A38" t="s">
+        <v>123</v>
+      </c>
+      <c r="B38" t="s">
+        <v>124</v>
+      </c>
+      <c r="C38" t="s">
+        <v>75</v>
+      </c>
+      <c r="D38" t="s">
+        <v>94</v>
+      </c>
+      <c r="E38" t="s">
+        <v>73</v>
+      </c>
+      <c r="F38" s="1">
+        <v>10</v>
+      </c>
+      <c r="G38" s="1">
+        <v>22800</v>
+      </c>
+      <c r="H38" s="1">
+        <v>22800</v>
+      </c>
+      <c r="I38" s="1">
+        <v>22800</v>
+      </c>
+      <c r="J38" s="2">
+        <v>193344</v>
+      </c>
+      <c r="K38" s="3">
+        <v>0</v>
+      </c>
+      <c r="L38" s="3">
+        <v>9</v>
+      </c>
+      <c r="M38" s="2">
+        <v>145.01</v>
+      </c>
+      <c r="N38" s="2">
+        <v>0</v>
+      </c>
+      <c r="O38" t="s">
+        <v>25</v>
+      </c>
+      <c r="P38" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="3">
+        <v>18</v>
+      </c>
+      <c r="R38" t="s">
+        <v>125</v>
+      </c>
+      <c r="S38" t="s">
+        <v>27</v>
+      </c>
+      <c r="T38" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20">
+      <c r="A39" t="s">
+        <v>98</v>
+      </c>
+      <c r="B39" t="s">
+        <v>99</v>
+      </c>
+      <c r="C39" t="s">
+        <v>22</v>
+      </c>
+      <c r="D39" t="s">
+        <v>94</v>
+      </c>
+      <c r="E39" t="s">
+        <v>73</v>
+      </c>
+      <c r="F39" s="1">
+        <v>10</v>
+      </c>
+      <c r="G39" s="1">
+        <v>1200</v>
+      </c>
+      <c r="H39" s="1">
+        <v>1200</v>
+      </c>
+      <c r="I39" s="1">
+        <v>1200</v>
+      </c>
+      <c r="J39" s="2">
+        <v>8052</v>
+      </c>
+      <c r="K39" s="3">
+        <v>0</v>
+      </c>
+      <c r="L39" s="3">
+        <v>5</v>
+      </c>
+      <c r="M39" s="2">
+        <v>2.24</v>
+      </c>
+      <c r="N39" s="2">
+        <v>0</v>
+      </c>
+      <c r="O39" t="s">
+        <v>25</v>
+      </c>
+      <c r="P39" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="3">
+        <v>18</v>
+      </c>
+      <c r="R39" t="s">
+        <v>126</v>
+      </c>
+      <c r="S39" t="s">
+        <v>27</v>
+      </c>
+      <c r="T39" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20">
+      <c r="A40" t="s">
+        <v>127</v>
+      </c>
+      <c r="B40" t="s">
+        <v>128</v>
+      </c>
+      <c r="C40" t="s">
+        <v>34</v>
+      </c>
+      <c r="D40" t="s">
+        <v>129</v>
+      </c>
+      <c r="E40" t="s">
+        <v>94</v>
+      </c>
+      <c r="F40" s="1">
+        <v>7</v>
+      </c>
+      <c r="G40" s="1">
+        <v>8300</v>
+      </c>
+      <c r="H40" s="1">
+        <v>8300</v>
+      </c>
+      <c r="I40" s="1">
+        <v>8300</v>
+      </c>
+      <c r="J40" s="2">
+        <v>202686</v>
+      </c>
+      <c r="K40" s="3">
+        <v>0</v>
+      </c>
+      <c r="L40" s="3">
+        <v>7</v>
+      </c>
+      <c r="M40" s="2">
+        <v>157.64</v>
+      </c>
+      <c r="N40" s="2">
+        <v>0</v>
+      </c>
+      <c r="O40" t="s">
+        <v>25</v>
+      </c>
+      <c r="P40" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="3">
+        <v>18</v>
+      </c>
+      <c r="R40" t="s">
+        <v>130</v>
+      </c>
+      <c r="S40" t="s">
+        <v>27</v>
+      </c>
+      <c r="T40" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20">
+      <c r="A41" t="s">
+        <v>131</v>
+      </c>
+      <c r="B41" t="s">
+        <v>132</v>
+      </c>
+      <c r="C41" t="s">
+        <v>34</v>
+      </c>
+      <c r="D41" t="s">
+        <v>129</v>
+      </c>
+      <c r="E41" t="s">
+        <v>94</v>
+      </c>
+      <c r="F41" s="1">
+        <v>7</v>
+      </c>
+      <c r="G41" s="1">
+        <v>26900</v>
+      </c>
+      <c r="H41" s="1">
+        <v>26900</v>
+      </c>
+      <c r="I41" s="1">
+        <v>26900</v>
+      </c>
+      <c r="J41" s="2">
+        <v>139880</v>
+      </c>
+      <c r="K41" s="3">
+        <v>0</v>
+      </c>
+      <c r="L41" s="3">
+        <v>7</v>
+      </c>
+      <c r="M41" s="2">
+        <v>108.8</v>
+      </c>
+      <c r="N41" s="2">
+        <v>0</v>
+      </c>
+      <c r="O41" t="s">
+        <v>25</v>
+      </c>
+      <c r="P41" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="3">
+        <v>18</v>
+      </c>
+      <c r="R41" t="s">
+        <v>133</v>
+      </c>
+      <c r="S41" t="s">
+        <v>27</v>
+      </c>
+      <c r="T41" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20">
+      <c r="A42" t="s">
+        <v>134</v>
+      </c>
+      <c r="B42" t="s">
+        <v>135</v>
+      </c>
+      <c r="C42" t="s">
+        <v>34</v>
+      </c>
+      <c r="D42" t="s">
+        <v>129</v>
+      </c>
+      <c r="E42" t="s">
+        <v>94</v>
+      </c>
+      <c r="F42" s="1">
+        <v>7</v>
+      </c>
+      <c r="G42" s="1">
+        <v>7700</v>
+      </c>
+      <c r="H42" s="1">
+        <v>7700</v>
+      </c>
+      <c r="I42" s="1">
+        <v>7700</v>
+      </c>
+      <c r="J42" s="2">
+        <v>197428</v>
+      </c>
+      <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3">
+        <v>7</v>
+      </c>
+      <c r="M42" s="2">
+        <v>153.56</v>
+      </c>
+      <c r="N42" s="2">
+        <v>0</v>
+      </c>
+      <c r="O42" t="s">
+        <v>25</v>
+      </c>
+      <c r="P42" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>18</v>
+      </c>
+      <c r="R42" t="s">
+        <v>136</v>
+      </c>
+      <c r="S42" t="s">
+        <v>27</v>
+      </c>
+      <c r="T42" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20">
+      <c r="A43" t="s">
+        <v>137</v>
+      </c>
+      <c r="B43" t="s">
+        <v>138</v>
+      </c>
+      <c r="C43" t="s">
+        <v>34</v>
+      </c>
+      <c r="D43" t="s">
+        <v>129</v>
+      </c>
+      <c r="E43" t="s">
+        <v>94</v>
+      </c>
+      <c r="F43" s="1">
+        <v>7</v>
+      </c>
+      <c r="G43" s="1">
+        <v>21500</v>
+      </c>
+      <c r="H43" s="1">
+        <v>21500</v>
+      </c>
+      <c r="I43" s="1">
+        <v>21500</v>
+      </c>
+      <c r="J43" s="2">
+        <v>216935</v>
+      </c>
+      <c r="K43" s="3">
+        <v>0</v>
+      </c>
+      <c r="L43" s="3">
+        <v>9</v>
+      </c>
+      <c r="M43" s="2">
+        <v>216.93</v>
+      </c>
+      <c r="N43" s="2">
+        <v>0</v>
+      </c>
+      <c r="O43" t="s">
+        <v>25</v>
+      </c>
+      <c r="P43" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>18</v>
+      </c>
+      <c r="R43" t="s">
+        <v>139</v>
+      </c>
+      <c r="S43" t="s">
+        <v>27</v>
+      </c>
+      <c r="T43" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20">
+      <c r="A44" t="s">
+        <v>140</v>
+      </c>
+      <c r="B44" t="s">
+        <v>141</v>
+      </c>
+      <c r="C44" t="s">
+        <v>34</v>
+      </c>
+      <c r="D44" t="s">
+        <v>142</v>
+      </c>
+      <c r="E44" t="s">
+        <v>129</v>
+      </c>
+      <c r="F44" s="1">
+        <v>6</v>
+      </c>
+      <c r="G44" s="1">
+        <v>500</v>
+      </c>
+      <c r="H44" s="1">
+        <v>500</v>
+      </c>
+      <c r="I44" s="1">
+        <v>500</v>
+      </c>
+      <c r="J44" s="2">
+        <v>42700</v>
+      </c>
+      <c r="K44" s="3">
+        <v>0</v>
+      </c>
+      <c r="L44" s="3">
+        <v>5</v>
+      </c>
+      <c r="M44" s="2">
+        <v>23.72</v>
+      </c>
+      <c r="N44" s="2">
+        <v>0</v>
+      </c>
+      <c r="O44" t="s">
+        <v>25</v>
+      </c>
+      <c r="P44" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>18</v>
+      </c>
+      <c r="R44" t="s">
+        <v>143</v>
+      </c>
+      <c r="S44" t="s">
+        <v>27</v>
+      </c>
+      <c r="T44" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20">
+      <c r="A45" t="s">
+        <v>140</v>
+      </c>
+      <c r="B45" t="s">
+        <v>141</v>
+      </c>
+      <c r="C45" t="s">
+        <v>34</v>
+      </c>
+      <c r="D45" t="s">
+        <v>142</v>
+      </c>
+      <c r="E45" t="s">
+        <v>129</v>
+      </c>
+      <c r="F45" s="1">
+        <v>6</v>
+      </c>
+      <c r="G45" s="1">
+        <v>1900</v>
+      </c>
+      <c r="H45" s="1">
+        <v>1900</v>
+      </c>
+      <c r="I45" s="1">
+        <v>1900</v>
+      </c>
+      <c r="J45" s="2">
+        <v>162260</v>
+      </c>
+      <c r="K45" s="3">
+        <v>0</v>
+      </c>
+      <c r="L45" s="3">
+        <v>5</v>
+      </c>
+      <c r="M45" s="2">
+        <v>90.14</v>
+      </c>
+      <c r="N45" s="2">
+        <v>0</v>
+      </c>
+      <c r="O45" t="s">
+        <v>25</v>
+      </c>
+      <c r="P45" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>18</v>
+      </c>
+      <c r="R45" t="s">
+        <v>144</v>
+      </c>
+      <c r="S45" t="s">
+        <v>27</v>
+      </c>
+      <c r="T45" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20">
+      <c r="A46" t="s">
+        <v>145</v>
+      </c>
+      <c r="B46" t="s">
+        <v>146</v>
+      </c>
+      <c r="C46" t="s">
+        <v>147</v>
+      </c>
+      <c r="D46" t="s">
+        <v>148</v>
+      </c>
+      <c r="E46" t="s">
+        <v>142</v>
+      </c>
+      <c r="F46" s="1">
+        <v>5</v>
+      </c>
+      <c r="G46" s="1">
+        <v>2200</v>
+      </c>
+      <c r="H46" s="1">
+        <v>2200</v>
+      </c>
+      <c r="I46" s="1">
+        <v>2200</v>
+      </c>
+      <c r="J46" s="2">
+        <v>197868</v>
+      </c>
+      <c r="K46" s="3">
+        <v>0</v>
+      </c>
+      <c r="L46" s="3">
+        <v>8</v>
+      </c>
+      <c r="M46" s="2">
+        <v>395.74</v>
+      </c>
+      <c r="N46" s="2">
+        <v>0</v>
+      </c>
+      <c r="O46" t="s">
+        <v>25</v>
+      </c>
+      <c r="P46" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="3">
+        <v>18</v>
+      </c>
+      <c r="R46" t="s">
+        <v>149</v>
+      </c>
+      <c r="S46" t="s">
+        <v>27</v>
+      </c>
+      <c r="T46" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20">
+      <c r="A47" t="s">
+        <v>150</v>
+      </c>
+      <c r="B47" t="s">
+        <v>151</v>
+      </c>
+      <c r="C47" t="s">
+        <v>147</v>
+      </c>
+      <c r="D47" t="s">
+        <v>148</v>
+      </c>
+      <c r="E47" t="s">
+        <v>142</v>
+      </c>
+      <c r="F47" s="1">
+        <v>5</v>
+      </c>
+      <c r="G47" s="1">
+        <v>30000</v>
+      </c>
+      <c r="H47" s="1">
+        <v>30000</v>
+      </c>
+      <c r="I47" s="1">
+        <v>30000</v>
+      </c>
+      <c r="J47" s="2">
+        <v>151800</v>
+      </c>
+      <c r="K47" s="3">
+        <v>0</v>
+      </c>
+      <c r="L47" s="3">
+        <v>8</v>
+      </c>
+      <c r="M47" s="2">
+        <v>303.6</v>
+      </c>
+      <c r="N47" s="2">
+        <v>0</v>
+      </c>
+      <c r="O47" t="s">
+        <v>25</v>
+      </c>
+      <c r="P47" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="3">
+        <v>18</v>
+      </c>
+      <c r="R47" t="s">
+        <v>152</v>
+      </c>
+      <c r="S47" t="s">
+        <v>27</v>
+      </c>
+      <c r="T47" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20">
+      <c r="A48" t="s">
+        <v>56</v>
+      </c>
+      <c r="B48" t="s">
+        <v>57</v>
+      </c>
+      <c r="C48" t="s">
+        <v>22</v>
+      </c>
+      <c r="D48" t="s">
+        <v>153</v>
+      </c>
+      <c r="E48" t="s">
+        <v>148</v>
+      </c>
+      <c r="F48" s="1">
+        <v>4</v>
+      </c>
+      <c r="G48" s="1">
+        <v>3900</v>
+      </c>
+      <c r="H48" s="1">
+        <v>3900</v>
+      </c>
+      <c r="I48" s="1">
+        <v>3900</v>
+      </c>
+      <c r="J48" s="2">
+        <v>202605</v>
+      </c>
+      <c r="K48" s="3">
+        <v>0</v>
+      </c>
+      <c r="L48" s="3">
+        <v>9</v>
+      </c>
+      <c r="M48" s="2">
+        <v>101.3</v>
+      </c>
+      <c r="N48" s="2">
+        <v>0</v>
+      </c>
+      <c r="O48" t="s">
+        <v>25</v>
+      </c>
+      <c r="P48" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="3">
+        <v>18</v>
+      </c>
+      <c r="R48" t="s">
+        <v>154</v>
+      </c>
+      <c r="S48" t="s">
+        <v>27</v>
+      </c>
+      <c r="T48" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20">
+      <c r="A49" t="s">
+        <v>155</v>
+      </c>
+      <c r="B49" t="s">
+        <v>156</v>
+      </c>
+      <c r="C49" t="s">
+        <v>75</v>
+      </c>
+      <c r="D49" t="s">
+        <v>157</v>
+      </c>
+      <c r="E49" t="s">
+        <v>153</v>
+      </c>
+      <c r="F49" s="1">
+        <v>3</v>
+      </c>
+      <c r="G49" s="1">
+        <v>12400</v>
+      </c>
+      <c r="H49" s="1">
+        <v>12400</v>
+      </c>
+      <c r="I49" s="1">
+        <v>12400</v>
+      </c>
+      <c r="J49" s="2">
+        <v>191580</v>
+      </c>
+      <c r="K49" s="3">
+        <v>0</v>
+      </c>
+      <c r="L49" s="3">
+        <v>9</v>
+      </c>
+      <c r="M49" s="2">
+        <v>143.69</v>
+      </c>
+      <c r="N49" s="2">
+        <v>0</v>
+      </c>
+      <c r="O49" t="s">
+        <v>25</v>
+      </c>
+      <c r="P49" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="3">
+        <v>18</v>
+      </c>
+      <c r="R49" t="s">
+        <v>158</v>
+      </c>
+      <c r="S49" t="s">
+        <v>27</v>
+      </c>
+      <c r="T49" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20">
+      <c r="A50" t="s">
+        <v>159</v>
+      </c>
+      <c r="B50" t="s">
+        <v>160</v>
+      </c>
+      <c r="C50" t="s">
+        <v>75</v>
+      </c>
+      <c r="D50" t="s">
+        <v>157</v>
+      </c>
+      <c r="E50" t="s">
+        <v>153</v>
+      </c>
+      <c r="F50" s="1">
+        <v>3</v>
+      </c>
+      <c r="G50" s="1">
+        <v>6100</v>
+      </c>
+      <c r="H50" s="1">
+        <v>6100</v>
+      </c>
+      <c r="I50" s="1">
+        <v>0</v>
+      </c>
+      <c r="J50" s="2">
+        <v>200507</v>
+      </c>
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3">
+        <v>9</v>
+      </c>
+      <c r="M50" s="2">
+        <v>150.38</v>
+      </c>
+      <c r="N50" s="2">
+        <v>0</v>
+      </c>
+      <c r="O50" t="s">
+        <v>25</v>
+      </c>
+      <c r="P50" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="3">
+        <v>18</v>
+      </c>
+      <c r="R50" t="s">
+        <v>161</v>
+      </c>
+      <c r="S50" t="s">
+        <v>27</v>
+      </c>
+      <c r="T50" t="s">
         <v>28</v>
       </c>
     </row>

--- a/data/input/trade_data_patch/huat/private_security_loan.xlsx
+++ b/data/input/trade_data_patch/huat/private_security_loan.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="205">
   <si>
     <t>证券代码</t>
   </si>
@@ -76,40 +76,472 @@
     <t>账户名称</t>
   </si>
   <si>
+    <t>603026</t>
+  </si>
+  <si>
+    <t>石大胜华</t>
+  </si>
+  <si>
+    <t>2021-01-28</t>
+  </si>
+  <si>
+    <t>2021-02-09</t>
+  </si>
+  <si>
+    <t>2021-02-10</t>
+  </si>
+  <si>
+    <t>--</t>
+  </si>
+  <si>
+    <t>202101280000000043</t>
+  </si>
+  <si>
+    <t>960000039239</t>
+  </si>
+  <si>
+    <t>鸣石宽墨十一号私募证券投资基金</t>
+  </si>
+  <si>
+    <t>002092</t>
+  </si>
+  <si>
+    <t>中泰化学</t>
+  </si>
+  <si>
+    <t>202101280000000042</t>
+  </si>
+  <si>
+    <t>000301</t>
+  </si>
+  <si>
+    <t>东方盛虹</t>
+  </si>
+  <si>
+    <t>202101280000000041</t>
+  </si>
+  <si>
+    <t>2021-01-27</t>
+  </si>
+  <si>
+    <t>202101270000001312</t>
+  </si>
+  <si>
+    <t>202101270000001308</t>
+  </si>
+  <si>
+    <t>202101270000001304</t>
+  </si>
+  <si>
+    <t>002646</t>
+  </si>
+  <si>
+    <t>青青稞酒</t>
+  </si>
+  <si>
+    <t>2021-02-05</t>
+  </si>
+  <si>
+    <t>2021-02-08</t>
+  </si>
+  <si>
+    <t>202101270000001299</t>
+  </si>
+  <si>
+    <t>300014</t>
+  </si>
+  <si>
+    <t>亿纬锂能</t>
+  </si>
+  <si>
+    <t>2021-02-19</t>
+  </si>
+  <si>
+    <t>2021-02-22</t>
+  </si>
+  <si>
+    <t>202101270000000139</t>
+  </si>
+  <si>
+    <t>600543</t>
+  </si>
+  <si>
+    <t>莫高股份</t>
+  </si>
+  <si>
+    <t>202101270000000026</t>
+  </si>
+  <si>
+    <t>002288</t>
+  </si>
+  <si>
+    <t>超华科技</t>
+  </si>
+  <si>
+    <t>2021-01-26</t>
+  </si>
+  <si>
+    <t>202101260000000786</t>
+  </si>
+  <si>
+    <t>002340</t>
+  </si>
+  <si>
+    <t>格林美</t>
+  </si>
+  <si>
+    <t>202101260000000782</t>
+  </si>
+  <si>
+    <t>600733</t>
+  </si>
+  <si>
+    <t>北汽蓝谷</t>
+  </si>
+  <si>
+    <t>202101260000000762</t>
+  </si>
+  <si>
+    <t>603919</t>
+  </si>
+  <si>
+    <t>金徽酒</t>
+  </si>
+  <si>
+    <t>2021-01-29</t>
+  </si>
+  <si>
+    <t>2021-02-01</t>
+  </si>
+  <si>
+    <t>202101260000000754</t>
+  </si>
+  <si>
+    <t>600559</t>
+  </si>
+  <si>
+    <t>老白干酒</t>
+  </si>
+  <si>
+    <t>202101260000000751</t>
+  </si>
+  <si>
+    <t>202101260000000749</t>
+  </si>
+  <si>
+    <t>202101260000000748</t>
+  </si>
+  <si>
+    <t>202101260000000741</t>
+  </si>
+  <si>
+    <t>002460</t>
+  </si>
+  <si>
+    <t>赣锋锂业</t>
+  </si>
+  <si>
+    <t>202101260000000652</t>
+  </si>
+  <si>
+    <t>600773</t>
+  </si>
+  <si>
+    <t>西藏城投</t>
+  </si>
+  <si>
+    <t>2021-01-25</t>
+  </si>
+  <si>
+    <t>202101250000001826</t>
+  </si>
+  <si>
+    <t>600616</t>
+  </si>
+  <si>
+    <t>金枫酒业</t>
+  </si>
+  <si>
+    <t>202101250000001818</t>
+  </si>
+  <si>
+    <t>300618</t>
+  </si>
+  <si>
+    <t>寒锐钴业</t>
+  </si>
+  <si>
+    <t>202101250000001812</t>
+  </si>
+  <si>
+    <t>300123</t>
+  </si>
+  <si>
+    <t>亚光科技</t>
+  </si>
+  <si>
+    <t>2021-02-02</t>
+  </si>
+  <si>
+    <t>202101250000001810</t>
+  </si>
+  <si>
+    <t>2021-01-22</t>
+  </si>
+  <si>
+    <t>2021-02-18</t>
+  </si>
+  <si>
+    <t>202101220000000957</t>
+  </si>
+  <si>
+    <t>600197</t>
+  </si>
+  <si>
+    <t>伊力特</t>
+  </si>
+  <si>
+    <t>202101220000000956</t>
+  </si>
+  <si>
+    <t>600059</t>
+  </si>
+  <si>
+    <t>古越龙山</t>
+  </si>
+  <si>
+    <t>202101220000000954</t>
+  </si>
+  <si>
+    <t>002156</t>
+  </si>
+  <si>
+    <t>通富微电</t>
+  </si>
+  <si>
+    <t>2021-01-21</t>
+  </si>
+  <si>
+    <t>2021-02-03</t>
+  </si>
+  <si>
+    <t>2021-02-04</t>
+  </si>
+  <si>
+    <t>202101210000000960</t>
+  </si>
+  <si>
+    <t>000799</t>
+  </si>
+  <si>
+    <t>酒鬼酒</t>
+  </si>
+  <si>
+    <t>202101210000000951</t>
+  </si>
+  <si>
+    <t>603005</t>
+  </si>
+  <si>
+    <t>晶方科技</t>
+  </si>
+  <si>
+    <t>202101210000000942</t>
+  </si>
+  <si>
+    <t>601058</t>
+  </si>
+  <si>
+    <t>赛轮轮胎</t>
+  </si>
+  <si>
+    <t>202101210000000939</t>
+  </si>
+  <si>
+    <t>600967</t>
+  </si>
+  <si>
+    <t>内蒙一机</t>
+  </si>
+  <si>
+    <t>202101210000000012</t>
+  </si>
+  <si>
+    <t>600893</t>
+  </si>
+  <si>
+    <t>航发动力</t>
+  </si>
+  <si>
+    <t>202101210000000011</t>
+  </si>
+  <si>
+    <t>600316</t>
+  </si>
+  <si>
+    <t>洪都航空</t>
+  </si>
+  <si>
+    <t>202101210000000010</t>
+  </si>
+  <si>
+    <t>600776</t>
+  </si>
+  <si>
+    <t>东方通信</t>
+  </si>
+  <si>
+    <t>2021-01-20</t>
+  </si>
+  <si>
+    <t>202101200000001043</t>
+  </si>
+  <si>
+    <t>202101200000001035</t>
+  </si>
+  <si>
+    <t>601766</t>
+  </si>
+  <si>
+    <t>中国中车</t>
+  </si>
+  <si>
+    <t>2021-02-16</t>
+  </si>
+  <si>
+    <t>202101200000000956</t>
+  </si>
+  <si>
+    <t>202101200000000952</t>
+  </si>
+  <si>
+    <t>601919</t>
+  </si>
+  <si>
+    <t>中远海控</t>
+  </si>
+  <si>
+    <t>202101200000000048</t>
+  </si>
+  <si>
     <t>600460</t>
   </si>
   <si>
     <t>士兰微</t>
   </si>
   <si>
-    <t>2021-01-20</t>
-  </si>
-  <si>
-    <t>2021-02-10</t>
-  </si>
-  <si>
-    <t>2021-02-16</t>
-  </si>
-  <si>
-    <t>--</t>
-  </si>
-  <si>
     <t>202101200000000047</t>
   </si>
   <si>
-    <t>960000039239</t>
-  </si>
-  <si>
-    <t>鸣石宽墨十一号私募证券投资基金</t>
-  </si>
-  <si>
-    <t>601766</t>
-  </si>
-  <si>
-    <t>中国中车</t>
-  </si>
-  <si>
-    <t>202101200000000956</t>
+    <t>300274</t>
+  </si>
+  <si>
+    <t>阳光电源</t>
+  </si>
+  <si>
+    <t>202101200000000046</t>
+  </si>
+  <si>
+    <t>000725</t>
+  </si>
+  <si>
+    <t>京东方Ａ</t>
+  </si>
+  <si>
+    <t>202101200000000045</t>
+  </si>
+  <si>
+    <t>2021-01-19</t>
+  </si>
+  <si>
+    <t>202101190000002143</t>
+  </si>
+  <si>
+    <t>600855</t>
+  </si>
+  <si>
+    <t>航天长峰</t>
+  </si>
+  <si>
+    <t>202101190000002142</t>
+  </si>
+  <si>
+    <t>202101190000002126</t>
+  </si>
+  <si>
+    <t>202101190000002124</t>
+  </si>
+  <si>
+    <t>202101190000002119</t>
+  </si>
+  <si>
+    <t>202101190000002104</t>
+  </si>
+  <si>
+    <t>202101190000002078</t>
+  </si>
+  <si>
+    <t>300059</t>
+  </si>
+  <si>
+    <t>东方财富</t>
+  </si>
+  <si>
+    <t>202101190000000065</t>
+  </si>
+  <si>
+    <t>600862</t>
+  </si>
+  <si>
+    <t>中航高科</t>
+  </si>
+  <si>
+    <t>202101190000000037</t>
+  </si>
+  <si>
+    <t>600827</t>
+  </si>
+  <si>
+    <t>百联股份</t>
+  </si>
+  <si>
+    <t>202101190000000036</t>
+  </si>
+  <si>
+    <t>202101190000000035</t>
+  </si>
+  <si>
+    <t>300001</t>
+  </si>
+  <si>
+    <t>特锐德</t>
+  </si>
+  <si>
+    <t>2021-01-18</t>
+  </si>
+  <si>
+    <t>202101180000001421</t>
+  </si>
+  <si>
+    <t>002407</t>
+  </si>
+  <si>
+    <t>多氟多</t>
+  </si>
+  <si>
+    <t>202101180000001415</t>
+  </si>
+  <si>
+    <t>202101180000001414</t>
+  </si>
+  <si>
+    <t>202101180000001407</t>
+  </si>
+  <si>
+    <t>202101180000001406</t>
+  </si>
+  <si>
+    <t>202101180000001352</t>
   </si>
   <si>
     <t>603799</t>
@@ -118,115 +550,70 @@
     <t>华友钴业</t>
   </si>
   <si>
-    <t>2021-01-18</t>
-  </si>
-  <si>
     <t>2021-02-12</t>
   </si>
   <si>
     <t>202101180000001328</t>
   </si>
   <si>
+    <t>202101180000001323</t>
+  </si>
+  <si>
+    <t>000100</t>
+  </si>
+  <si>
+    <t>TCL科技</t>
+  </si>
+  <si>
+    <t>202101180000001306</t>
+  </si>
+  <si>
+    <t>600760</t>
+  </si>
+  <si>
+    <t>中航沈飞</t>
+  </si>
+  <si>
+    <t>202101180000000151</t>
+  </si>
+  <si>
+    <t>202101180000000150</t>
+  </si>
+  <si>
+    <t>300118</t>
+  </si>
+  <si>
+    <t>东方日升</t>
+  </si>
+  <si>
+    <t>202101180000000149</t>
+  </si>
+  <si>
+    <t>002570</t>
+  </si>
+  <si>
+    <t>贝因美</t>
+  </si>
+  <si>
+    <t>202101180000000148</t>
+  </si>
+  <si>
     <t>002389</t>
   </si>
   <si>
     <t>航天彩虹</t>
   </si>
   <si>
-    <t>2021-02-08</t>
-  </si>
-  <si>
-    <t>2021-02-09</t>
-  </si>
-  <si>
     <t>202101180000000147</t>
   </si>
   <si>
-    <t>000799</t>
-  </si>
-  <si>
-    <t>酒鬼酒</t>
-  </si>
-  <si>
-    <t>2021-01-21</t>
-  </si>
-  <si>
-    <t>2021-02-03</t>
-  </si>
-  <si>
-    <t>2021-02-04</t>
-  </si>
-  <si>
-    <t>202101210000000951</t>
-  </si>
-  <si>
-    <t>002156</t>
-  </si>
-  <si>
-    <t>通富微电</t>
-  </si>
-  <si>
-    <t>202101210000000960</t>
-  </si>
-  <si>
-    <t>2021-02-02</t>
-  </si>
-  <si>
-    <t>202101200000001035</t>
-  </si>
-  <si>
-    <t>600776</t>
-  </si>
-  <si>
-    <t>东方通信</t>
-  </si>
-  <si>
-    <t>202101200000001043</t>
-  </si>
-  <si>
-    <t>600316</t>
-  </si>
-  <si>
-    <t>洪都航空</t>
-  </si>
-  <si>
-    <t>202101210000000010</t>
-  </si>
-  <si>
-    <t>600893</t>
-  </si>
-  <si>
-    <t>航发动力</t>
-  </si>
-  <si>
-    <t>202101210000000011</t>
-  </si>
-  <si>
-    <t>600967</t>
-  </si>
-  <si>
-    <t>内蒙一机</t>
-  </si>
-  <si>
-    <t>202101210000000012</t>
-  </si>
-  <si>
-    <t>601058</t>
-  </si>
-  <si>
-    <t>赛轮轮胎</t>
-  </si>
-  <si>
-    <t>202101210000000939</t>
-  </si>
-  <si>
-    <t>603005</t>
-  </si>
-  <si>
-    <t>晶方科技</t>
-  </si>
-  <si>
-    <t>202101210000000942</t>
+    <t>000738</t>
+  </si>
+  <si>
+    <t>航发控制</t>
+  </si>
+  <si>
+    <t>202101180000000146</t>
   </si>
   <si>
     <t>000733</t>
@@ -235,271 +622,13 @@
     <t>振华科技</t>
   </si>
   <si>
-    <t>2021-02-01</t>
-  </si>
-  <si>
     <t>202101180000000145</t>
   </si>
   <si>
-    <t>2021-01-19</t>
-  </si>
-  <si>
-    <t>202101190000002104</t>
-  </si>
-  <si>
-    <t>600197</t>
-  </si>
-  <si>
-    <t>伊力特</t>
-  </si>
-  <si>
-    <t>202101190000002124</t>
-  </si>
-  <si>
-    <t>202101190000002126</t>
-  </si>
-  <si>
-    <t>600855</t>
-  </si>
-  <si>
-    <t>航天长峰</t>
-  </si>
-  <si>
-    <t>202101190000002142</t>
-  </si>
-  <si>
-    <t>300274</t>
-  </si>
-  <si>
-    <t>阳光电源</t>
-  </si>
-  <si>
-    <t>202101190000002143</t>
-  </si>
-  <si>
-    <t>202101200000000046</t>
-  </si>
-  <si>
-    <t>601919</t>
-  </si>
-  <si>
-    <t>中远海控</t>
-  </si>
-  <si>
-    <t>202101200000000048</t>
-  </si>
-  <si>
-    <t>002460</t>
-  </si>
-  <si>
-    <t>赣锋锂业</t>
-  </si>
-  <si>
-    <t>202101200000000952</t>
-  </si>
-  <si>
-    <t>2021-01-29</t>
+    <t>202101180000000130</t>
   </si>
   <si>
     <t>202101180000000125</t>
-  </si>
-  <si>
-    <t>202101180000000130</t>
-  </si>
-  <si>
-    <t>202101180000001323</t>
-  </si>
-  <si>
-    <t>000725</t>
-  </si>
-  <si>
-    <t>京东方Ａ</t>
-  </si>
-  <si>
-    <t>202101180000001352</t>
-  </si>
-  <si>
-    <t>600827</t>
-  </si>
-  <si>
-    <t>百联股份</t>
-  </si>
-  <si>
-    <t>202101180000001406</t>
-  </si>
-  <si>
-    <t>600862</t>
-  </si>
-  <si>
-    <t>中航高科</t>
-  </si>
-  <si>
-    <t>202101180000001407</t>
-  </si>
-  <si>
-    <t>002340</t>
-  </si>
-  <si>
-    <t>格林美</t>
-  </si>
-  <si>
-    <t>202101180000001414</t>
-  </si>
-  <si>
-    <t>002407</t>
-  </si>
-  <si>
-    <t>多氟多</t>
-  </si>
-  <si>
-    <t>202101180000001415</t>
-  </si>
-  <si>
-    <t>300001</t>
-  </si>
-  <si>
-    <t>特锐德</t>
-  </si>
-  <si>
-    <t>202101180000001421</t>
-  </si>
-  <si>
-    <t>300059</t>
-  </si>
-  <si>
-    <t>东方财富</t>
-  </si>
-  <si>
-    <t>202101190000000035</t>
-  </si>
-  <si>
-    <t>202101190000000036</t>
-  </si>
-  <si>
-    <t>202101190000000037</t>
-  </si>
-  <si>
-    <t>202101190000000065</t>
-  </si>
-  <si>
-    <t>202101190000002078</t>
-  </si>
-  <si>
-    <t>600616</t>
-  </si>
-  <si>
-    <t>金枫酒业</t>
-  </si>
-  <si>
-    <t>202101190000002119</t>
-  </si>
-  <si>
-    <t>202101200000000045</t>
-  </si>
-  <si>
-    <t>000738</t>
-  </si>
-  <si>
-    <t>航发控制</t>
-  </si>
-  <si>
-    <t>2021-01-28</t>
-  </si>
-  <si>
-    <t>202101180000000146</t>
-  </si>
-  <si>
-    <t>002570</t>
-  </si>
-  <si>
-    <t>贝因美</t>
-  </si>
-  <si>
-    <t>202101180000000148</t>
-  </si>
-  <si>
-    <t>300118</t>
-  </si>
-  <si>
-    <t>东方日升</t>
-  </si>
-  <si>
-    <t>202101180000000149</t>
-  </si>
-  <si>
-    <t>000100</t>
-  </si>
-  <si>
-    <t>TCL科技</t>
-  </si>
-  <si>
-    <t>202101180000001306</t>
-  </si>
-  <si>
-    <t>600760</t>
-  </si>
-  <si>
-    <t>中航沈飞</t>
-  </si>
-  <si>
-    <t>2021-01-27</t>
-  </si>
-  <si>
-    <t>202101180000000150</t>
-  </si>
-  <si>
-    <t>202101180000000151</t>
-  </si>
-  <si>
-    <t>300014</t>
-  </si>
-  <si>
-    <t>亿纬锂能</t>
-  </si>
-  <si>
-    <t>2021-01-13</t>
-  </si>
-  <si>
-    <t>2021-01-26</t>
-  </si>
-  <si>
-    <t>202101130000000226</t>
-  </si>
-  <si>
-    <t>300315</t>
-  </si>
-  <si>
-    <t>掌趣科技</t>
-  </si>
-  <si>
-    <t>202101130000000232</t>
-  </si>
-  <si>
-    <t>2021-01-25</t>
-  </si>
-  <si>
-    <t>202101200000001016</t>
-  </si>
-  <si>
-    <t>002646</t>
-  </si>
-  <si>
-    <t>青青稞酒</t>
-  </si>
-  <si>
-    <t>2021-01-22</t>
-  </si>
-  <si>
-    <t>202101190000002111</t>
-  </si>
-  <si>
-    <t>603919</t>
-  </si>
-  <si>
-    <t>金徽酒</t>
-  </si>
-  <si>
-    <t>202101190000002115</t>
   </si>
 </sst>
 </file>
@@ -839,7 +968,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T50"/>
+  <dimension ref="A1:T70"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0"/>
   </sheetViews>
@@ -946,19 +1075,19 @@
         <v>24</v>
       </c>
       <c r="F2" s="1">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="G2" s="1">
-        <v>4200</v>
+        <v>1300</v>
       </c>
       <c r="H2" s="1">
-        <v>4200</v>
+        <v>1300</v>
       </c>
       <c r="I2" s="1">
-        <v>4200</v>
+        <v>0</v>
       </c>
       <c r="J2" s="2">
-        <v>108360</v>
+        <v>90181</v>
       </c>
       <c r="K2" s="3">
         <v>0</v>
@@ -967,7 +1096,7 @@
         <v>7</v>
       </c>
       <c r="M2" s="2">
-        <v>42.14</v>
+        <v>0</v>
       </c>
       <c r="N2" s="2">
         <v>0</v>
@@ -1008,28 +1137,28 @@
         <v>24</v>
       </c>
       <c r="F3" s="1">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="G3" s="1">
-        <v>19200</v>
+        <v>11700</v>
       </c>
       <c r="H3" s="1">
-        <v>19200</v>
+        <v>11700</v>
       </c>
       <c r="I3" s="1">
-        <v>19200</v>
+        <v>0</v>
       </c>
       <c r="J3" s="2">
-        <v>131904</v>
+        <v>100503</v>
       </c>
       <c r="K3" s="3">
         <v>0</v>
       </c>
       <c r="L3" s="3">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M3" s="2">
-        <v>65.95</v>
+        <v>0</v>
       </c>
       <c r="N3" s="2">
         <v>0</v>
@@ -1061,37 +1190,37 @@
         <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
         <v>23</v>
       </c>
       <c r="E4" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="F4" s="1">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G4" s="1">
-        <v>1000</v>
+        <v>7000</v>
       </c>
       <c r="H4" s="1">
-        <v>1000</v>
+        <v>7000</v>
       </c>
       <c r="I4" s="1">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="2">
-        <v>83100</v>
+        <v>103390</v>
       </c>
       <c r="K4" s="3">
         <v>0</v>
       </c>
       <c r="L4" s="3">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M4" s="2">
-        <v>83.1</v>
+        <v>0</v>
       </c>
       <c r="N4" s="2">
         <v>0</v>
@@ -1106,7 +1235,7 @@
         <v>18</v>
       </c>
       <c r="R4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="S4" t="s">
         <v>27</v>
@@ -1117,22 +1246,22 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D5" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="E5" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="F5" s="1">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G5" s="1">
         <v>6600</v>
@@ -1141,19 +1270,19 @@
         <v>6600</v>
       </c>
       <c r="I5" s="1">
-        <v>6600</v>
+        <v>0</v>
       </c>
       <c r="J5" s="2">
-        <v>204930</v>
+        <v>97482</v>
       </c>
       <c r="K5" s="3">
         <v>0</v>
       </c>
       <c r="L5" s="3">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="M5" s="2">
-        <v>159.39</v>
+        <v>23.02</v>
       </c>
       <c r="N5" s="2">
         <v>0</v>
@@ -1168,7 +1297,7 @@
         <v>18</v>
       </c>
       <c r="R5" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="S5" t="s">
         <v>27</v>
@@ -1179,34 +1308,34 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="D6" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="E6" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="F6" s="1">
         <v>13</v>
       </c>
       <c r="G6" s="1">
-        <v>1200</v>
+        <v>11600</v>
       </c>
       <c r="H6" s="1">
-        <v>1200</v>
+        <v>11600</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
       </c>
       <c r="J6" s="2">
-        <v>221280</v>
+        <v>99644</v>
       </c>
       <c r="K6" s="3">
         <v>0</v>
@@ -1215,7 +1344,7 @@
         <v>8.5</v>
       </c>
       <c r="M6" s="2">
-        <v>52.25</v>
+        <v>23.53</v>
       </c>
       <c r="N6" s="2">
         <v>0</v>
@@ -1230,7 +1359,7 @@
         <v>18</v>
       </c>
       <c r="R6" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="S6" t="s">
         <v>27</v>
@@ -1241,19 +1370,19 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="D7" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="E7" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="F7" s="1">
         <v>13</v>
@@ -1265,10 +1394,10 @@
         <v>1600</v>
       </c>
       <c r="I7" s="1">
-        <v>1600</v>
+        <v>0</v>
       </c>
       <c r="J7" s="2">
-        <v>47440</v>
+        <v>110992</v>
       </c>
       <c r="K7" s="3">
         <v>0</v>
@@ -1277,7 +1406,7 @@
         <v>8.5</v>
       </c>
       <c r="M7" s="2">
-        <v>11.2</v>
+        <v>26.21</v>
       </c>
       <c r="N7" s="2">
         <v>0</v>
@@ -1292,7 +1421,7 @@
         <v>18</v>
       </c>
       <c r="R7" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="S7" t="s">
         <v>27</v>
@@ -1303,43 +1432,43 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="D8" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F8" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G8" s="1">
-        <v>3400</v>
+        <v>1000</v>
       </c>
       <c r="H8" s="1">
-        <v>3400</v>
+        <v>1000</v>
       </c>
       <c r="I8" s="1">
-        <v>1800</v>
+        <v>1000</v>
       </c>
       <c r="J8" s="2">
-        <v>102272</v>
+        <v>15550</v>
       </c>
       <c r="K8" s="3">
         <v>0</v>
       </c>
       <c r="L8" s="3">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="M8" s="2">
-        <v>48.3</v>
+        <v>3.89</v>
       </c>
       <c r="N8" s="2">
         <v>0</v>
@@ -1354,7 +1483,7 @@
         <v>18</v>
       </c>
       <c r="R8" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="S8" t="s">
         <v>27</v>
@@ -1365,43 +1494,43 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="B9" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="D9" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F9" s="1">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="G9" s="1">
-        <v>7900</v>
+        <v>1900</v>
       </c>
       <c r="H9" s="1">
-        <v>7900</v>
+        <v>1900</v>
       </c>
       <c r="I9" s="1">
-        <v>7900</v>
+        <v>0</v>
       </c>
       <c r="J9" s="2">
-        <v>99382</v>
+        <v>216277</v>
       </c>
       <c r="K9" s="3">
         <v>0</v>
       </c>
       <c r="L9" s="3">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="M9" s="2">
-        <v>46.93</v>
+        <v>42.05</v>
       </c>
       <c r="N9" s="2">
         <v>0</v>
@@ -1416,7 +1545,7 @@
         <v>18</v>
       </c>
       <c r="R9" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="S9" t="s">
         <v>27</v>
@@ -1427,34 +1556,34 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B10" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C10" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="D10" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F10" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G10" s="1">
-        <v>3900</v>
+        <v>1200</v>
       </c>
       <c r="H10" s="1">
-        <v>3900</v>
+        <v>1200</v>
       </c>
       <c r="I10" s="1">
-        <v>3900</v>
+        <v>1200</v>
       </c>
       <c r="J10" s="2">
-        <v>201630</v>
+        <v>9264</v>
       </c>
       <c r="K10" s="3">
         <v>0</v>
@@ -1463,7 +1592,7 @@
         <v>7</v>
       </c>
       <c r="M10" s="2">
-        <v>39.21</v>
+        <v>1.8</v>
       </c>
       <c r="N10" s="2">
         <v>0</v>
@@ -1478,7 +1607,7 @@
         <v>18</v>
       </c>
       <c r="R10" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="S10" t="s">
         <v>27</v>
@@ -1489,43 +1618,43 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B11" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C11" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="D11" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="F11" s="1">
         <v>12</v>
       </c>
       <c r="G11" s="1">
-        <v>1400</v>
+        <v>10000</v>
       </c>
       <c r="H11" s="1">
-        <v>1400</v>
+        <v>10000</v>
       </c>
       <c r="I11" s="1">
-        <v>1400</v>
+        <v>10000</v>
       </c>
       <c r="J11" s="2">
-        <v>102312</v>
+        <v>81800</v>
       </c>
       <c r="K11" s="3">
         <v>0</v>
       </c>
       <c r="L11" s="3">
-        <v>5</v>
+        <v>8.5</v>
       </c>
       <c r="M11" s="2">
-        <v>14.21</v>
+        <v>38.63</v>
       </c>
       <c r="N11" s="2">
         <v>0</v>
@@ -1540,7 +1669,7 @@
         <v>18</v>
       </c>
       <c r="R11" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="S11" t="s">
         <v>27</v>
@@ -1551,43 +1680,43 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B12" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C12" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="D12" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="F12" s="1">
         <v>12</v>
       </c>
       <c r="G12" s="1">
-        <v>10000</v>
+        <v>400</v>
       </c>
       <c r="H12" s="1">
-        <v>10000</v>
+        <v>400</v>
       </c>
       <c r="I12" s="1">
-        <v>10000</v>
+        <v>400</v>
       </c>
       <c r="J12" s="2">
-        <v>121800</v>
+        <v>3392</v>
       </c>
       <c r="K12" s="3">
         <v>0</v>
       </c>
       <c r="L12" s="3">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="M12" s="2">
-        <v>23.68</v>
+        <v>1.7</v>
       </c>
       <c r="N12" s="2">
         <v>0</v>
@@ -1602,7 +1731,7 @@
         <v>18</v>
       </c>
       <c r="R12" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="S12" t="s">
         <v>27</v>
@@ -1613,43 +1742,43 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B13" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C13" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="D13" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="F13" s="1">
         <v>12</v>
       </c>
       <c r="G13" s="1">
-        <v>23300</v>
+        <v>9500</v>
       </c>
       <c r="H13" s="1">
-        <v>23300</v>
+        <v>9500</v>
       </c>
       <c r="I13" s="1">
-        <v>0</v>
+        <v>9500</v>
       </c>
       <c r="J13" s="2">
-        <v>204574</v>
+        <v>94620</v>
       </c>
       <c r="K13" s="3">
         <v>0</v>
       </c>
       <c r="L13" s="3">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="M13" s="2">
-        <v>51.14</v>
+        <v>44.68</v>
       </c>
       <c r="N13" s="2">
         <v>0</v>
@@ -1664,7 +1793,7 @@
         <v>18</v>
       </c>
       <c r="R13" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="S13" t="s">
         <v>27</v>
@@ -1675,34 +1804,34 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B14" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C14" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="D14" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="E14" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="F14" s="1">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="G14" s="1">
-        <v>2300</v>
+        <v>5100</v>
       </c>
       <c r="H14" s="1">
-        <v>2300</v>
+        <v>5100</v>
       </c>
       <c r="I14" s="1">
-        <v>0</v>
+        <v>5100</v>
       </c>
       <c r="J14" s="2">
-        <v>200491</v>
+        <v>185640</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1711,7 +1840,7 @@
         <v>9</v>
       </c>
       <c r="M14" s="2">
-        <v>50.12</v>
+        <v>92.82</v>
       </c>
       <c r="N14" s="2">
         <v>0</v>
@@ -1726,7 +1855,7 @@
         <v>18</v>
       </c>
       <c r="R14" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="S14" t="s">
         <v>27</v>
@@ -1737,43 +1866,43 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B15" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C15" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="D15" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="E15" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="F15" s="1">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="G15" s="1">
-        <v>3800</v>
+        <v>7000</v>
       </c>
       <c r="H15" s="1">
-        <v>3800</v>
+        <v>7000</v>
       </c>
       <c r="I15" s="1">
-        <v>3800</v>
+        <v>7000</v>
       </c>
       <c r="J15" s="2">
-        <v>224466</v>
+        <v>186970</v>
       </c>
       <c r="K15" s="3">
         <v>0</v>
       </c>
       <c r="L15" s="3">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="M15" s="2">
-        <v>174.58</v>
+        <v>93.48</v>
       </c>
       <c r="N15" s="2">
         <v>0</v>
@@ -1788,7 +1917,7 @@
         <v>18</v>
       </c>
       <c r="R15" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="S15" t="s">
         <v>27</v>
@@ -1799,43 +1928,43 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="B16" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C16" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="D16" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="E16" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="F16" s="1">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="G16" s="1">
-        <v>1500</v>
+        <v>25900</v>
       </c>
       <c r="H16" s="1">
-        <v>1500</v>
+        <v>25900</v>
       </c>
       <c r="I16" s="1">
-        <v>1500</v>
+        <v>25900</v>
       </c>
       <c r="J16" s="2">
-        <v>100200</v>
+        <v>191401</v>
       </c>
       <c r="K16" s="3">
         <v>0</v>
       </c>
       <c r="L16" s="3">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="M16" s="2">
-        <v>70.98</v>
+        <v>95.7</v>
       </c>
       <c r="N16" s="2">
         <v>0</v>
@@ -1850,7 +1979,7 @@
         <v>18</v>
       </c>
       <c r="R16" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="S16" t="s">
         <v>27</v>
@@ -1861,43 +1990,43 @@
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="B17" t="s">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="C17" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="D17" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="E17" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="F17" s="1">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="G17" s="1">
-        <v>4100</v>
+        <v>11600</v>
       </c>
       <c r="H17" s="1">
-        <v>4100</v>
+        <v>11600</v>
       </c>
       <c r="I17" s="1">
-        <v>4100</v>
+        <v>10600</v>
       </c>
       <c r="J17" s="2">
-        <v>98974</v>
+        <v>184788</v>
       </c>
       <c r="K17" s="3">
         <v>0</v>
       </c>
       <c r="L17" s="3">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="M17" s="2">
-        <v>70.11</v>
+        <v>92.39</v>
       </c>
       <c r="N17" s="2">
         <v>0</v>
@@ -1912,7 +2041,7 @@
         <v>18</v>
       </c>
       <c r="R17" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="S17" t="s">
         <v>27</v>
@@ -1923,43 +2052,43 @@
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="C18" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="D18" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="E18" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="F18" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G18" s="1">
-        <v>3700</v>
+        <v>9800</v>
       </c>
       <c r="H18" s="1">
-        <v>3700</v>
+        <v>9800</v>
       </c>
       <c r="I18" s="1">
-        <v>3700</v>
+        <v>9800</v>
       </c>
       <c r="J18" s="2">
-        <v>94720</v>
+        <v>83104</v>
       </c>
       <c r="K18" s="3">
         <v>0</v>
       </c>
       <c r="L18" s="3">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="M18" s="2">
-        <v>67.09</v>
+        <v>41.55</v>
       </c>
       <c r="N18" s="2">
         <v>0</v>
@@ -1974,7 +2103,7 @@
         <v>18</v>
       </c>
       <c r="R18" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="S18" t="s">
         <v>27</v>
@@ -1985,58 +2114,58 @@
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="B19" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F19" s="1">
+        <v>12</v>
+      </c>
+      <c r="G19" s="1">
+        <v>1400</v>
+      </c>
+      <c r="H19" s="1">
+        <v>1400</v>
+      </c>
+      <c r="I19" s="1">
+        <v>1400</v>
+      </c>
+      <c r="J19" s="2">
+        <v>192360</v>
+      </c>
+      <c r="K19" s="3">
+        <v>0</v>
+      </c>
+      <c r="L19" s="3">
+        <v>9</v>
+      </c>
+      <c r="M19" s="2">
+        <v>96.18</v>
+      </c>
+      <c r="N19" s="2">
+        <v>0</v>
+      </c>
+      <c r="O19" t="s">
+        <v>25</v>
+      </c>
+      <c r="P19" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="3">
+        <v>18</v>
+      </c>
+      <c r="R19" t="s">
         <v>75</v>
-      </c>
-      <c r="D19" t="s">
-        <v>73</v>
-      </c>
-      <c r="E19" t="s">
-        <v>51</v>
-      </c>
-      <c r="F19" s="1">
-        <v>11</v>
-      </c>
-      <c r="G19" s="1">
-        <v>6200</v>
-      </c>
-      <c r="H19" s="1">
-        <v>6200</v>
-      </c>
-      <c r="I19" s="1">
-        <v>6200</v>
-      </c>
-      <c r="J19" s="2">
-        <v>95294</v>
-      </c>
-      <c r="K19" s="3">
-        <v>0</v>
-      </c>
-      <c r="L19" s="3">
-        <v>8.5</v>
-      </c>
-      <c r="M19" s="2">
-        <v>67.5</v>
-      </c>
-      <c r="N19" s="2">
-        <v>0</v>
-      </c>
-      <c r="O19" t="s">
-        <v>25</v>
-      </c>
-      <c r="P19" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="3">
-        <v>18</v>
-      </c>
-      <c r="R19" t="s">
-        <v>83</v>
       </c>
       <c r="S19" t="s">
         <v>27</v>
@@ -2047,43 +2176,43 @@
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="B20" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C20" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D20" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="E20" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F20" s="1">
         <v>11</v>
       </c>
       <c r="G20" s="1">
-        <v>1200</v>
+        <v>22900</v>
       </c>
       <c r="H20" s="1">
-        <v>1200</v>
+        <v>22900</v>
       </c>
       <c r="I20" s="1">
-        <v>1200</v>
+        <v>22900</v>
       </c>
       <c r="J20" s="2">
-        <v>100680</v>
+        <v>210451</v>
       </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
       <c r="L20" s="3">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="M20" s="2">
-        <v>71.31</v>
+        <v>157.84</v>
       </c>
       <c r="N20" s="2">
         <v>0</v>
@@ -2098,7 +2227,7 @@
         <v>18</v>
       </c>
       <c r="R20" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="S20" t="s">
         <v>27</v>
@@ -2109,19 +2238,19 @@
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B21" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C21" t="s">
-        <v>22</v>
+        <v>78</v>
       </c>
       <c r="D21" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="E21" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F21" s="1">
         <v>11</v>
@@ -2136,16 +2265,16 @@
         <v>1200</v>
       </c>
       <c r="J21" s="2">
-        <v>110640</v>
+        <v>10188</v>
       </c>
       <c r="K21" s="3">
         <v>0</v>
       </c>
       <c r="L21" s="3">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="M21" s="2">
-        <v>43.03</v>
+        <v>7.64</v>
       </c>
       <c r="N21" s="2">
         <v>0</v>
@@ -2160,7 +2289,7 @@
         <v>18</v>
       </c>
       <c r="R21" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="S21" t="s">
         <v>27</v>
@@ -2171,43 +2300,43 @@
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B22" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C22" t="s">
-        <v>22</v>
+        <v>78</v>
       </c>
       <c r="D22" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="E22" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F22" s="1">
         <v>11</v>
       </c>
       <c r="G22" s="1">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="H22" s="1">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="I22" s="1">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="J22" s="2">
-        <v>21060</v>
+        <v>151508</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
       </c>
       <c r="L22" s="3">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M22" s="2">
-        <v>5.85</v>
+        <v>113.63</v>
       </c>
       <c r="N22" s="2">
         <v>0</v>
@@ -2222,7 +2351,7 @@
         <v>18</v>
       </c>
       <c r="R22" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="S22" t="s">
         <v>27</v>
@@ -2233,34 +2362,34 @@
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B23" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C23" t="s">
-        <v>22</v>
+        <v>78</v>
       </c>
       <c r="D23" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="E23" t="s">
-        <v>51</v>
+        <v>88</v>
       </c>
       <c r="F23" s="1">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G23" s="1">
-        <v>100</v>
+        <v>16600</v>
       </c>
       <c r="H23" s="1">
-        <v>100</v>
+        <v>16600</v>
       </c>
       <c r="I23" s="1">
-        <v>100</v>
+        <v>16600</v>
       </c>
       <c r="J23" s="2">
-        <v>12698</v>
+        <v>194552</v>
       </c>
       <c r="K23" s="3">
         <v>0</v>
@@ -2269,7 +2398,7 @@
         <v>9</v>
       </c>
       <c r="M23" s="2">
-        <v>6.35</v>
+        <v>145.91</v>
       </c>
       <c r="N23" s="2">
         <v>0</v>
@@ -2284,7 +2413,7 @@
         <v>18</v>
       </c>
       <c r="R23" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="S23" t="s">
         <v>27</v>
@@ -2295,43 +2424,43 @@
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="B24" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="C24" t="s">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="D24" t="s">
-        <v>94</v>
+        <v>24</v>
       </c>
       <c r="E24" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="F24" s="1">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G24" s="1">
-        <v>1900</v>
+        <v>500</v>
       </c>
       <c r="H24" s="1">
-        <v>1900</v>
+        <v>500</v>
       </c>
       <c r="I24" s="1">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="J24" s="2">
-        <v>112233</v>
+        <v>53655</v>
       </c>
       <c r="K24" s="3">
         <v>0</v>
       </c>
       <c r="L24" s="3">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="M24" s="2">
-        <v>106</v>
+        <v>80.48</v>
       </c>
       <c r="N24" s="2">
         <v>0</v>
@@ -2346,7 +2475,7 @@
         <v>18</v>
       </c>
       <c r="R24" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="S24" t="s">
         <v>27</v>
@@ -2357,43 +2486,43 @@
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="B25" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="C25" t="s">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="D25" t="s">
-        <v>94</v>
+        <v>35</v>
       </c>
       <c r="E25" t="s">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="F25" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G25" s="1">
-        <v>1900</v>
+        <v>4000</v>
       </c>
       <c r="H25" s="1">
-        <v>1900</v>
+        <v>4000</v>
       </c>
       <c r="I25" s="1">
         <v>0</v>
       </c>
       <c r="J25" s="2">
-        <v>112233</v>
+        <v>96000</v>
       </c>
       <c r="K25" s="3">
         <v>0</v>
       </c>
       <c r="L25" s="3">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="M25" s="2">
-        <v>87.29</v>
+        <v>144</v>
       </c>
       <c r="N25" s="2">
         <v>0</v>
@@ -2408,7 +2537,7 @@
         <v>18</v>
       </c>
       <c r="R25" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="S25" t="s">
         <v>27</v>
@@ -2419,34 +2548,34 @@
     </row>
     <row r="26" spans="1:20">
       <c r="A26" t="s">
-        <v>32</v>
+        <v>96</v>
       </c>
       <c r="B26" t="s">
-        <v>33</v>
+        <v>97</v>
       </c>
       <c r="C26" t="s">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="D26" t="s">
-        <v>94</v>
+        <v>35</v>
       </c>
       <c r="E26" t="s">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="F26" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G26" s="1">
-        <v>1400</v>
+        <v>13800</v>
       </c>
       <c r="H26" s="1">
-        <v>1400</v>
+        <v>13800</v>
       </c>
       <c r="I26" s="1">
-        <v>1400</v>
+        <v>0</v>
       </c>
       <c r="J26" s="2">
-        <v>116340</v>
+        <v>189612</v>
       </c>
       <c r="K26" s="3">
         <v>0</v>
@@ -2455,7 +2584,7 @@
         <v>9</v>
       </c>
       <c r="M26" s="2">
-        <v>116.34</v>
+        <v>284.42</v>
       </c>
       <c r="N26" s="2">
         <v>0</v>
@@ -2470,7 +2599,7 @@
         <v>18</v>
       </c>
       <c r="R26" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="S26" t="s">
         <v>27</v>
@@ -2481,43 +2610,43 @@
     </row>
     <row r="27" spans="1:20">
       <c r="A27" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B27" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C27" t="s">
-        <v>34</v>
+        <v>101</v>
       </c>
       <c r="D27" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="E27" t="s">
-        <v>73</v>
+        <v>103</v>
       </c>
       <c r="F27" s="1">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G27" s="1">
-        <v>29500</v>
+        <v>1600</v>
       </c>
       <c r="H27" s="1">
-        <v>29500</v>
+        <v>1600</v>
       </c>
       <c r="I27" s="1">
-        <v>29500</v>
+        <v>1600</v>
       </c>
       <c r="J27" s="2">
-        <v>201780</v>
+        <v>47440</v>
       </c>
       <c r="K27" s="3">
         <v>0</v>
       </c>
       <c r="L27" s="3">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="M27" s="2">
-        <v>201.78</v>
+        <v>78.41</v>
       </c>
       <c r="N27" s="2">
         <v>0</v>
@@ -2532,7 +2661,7 @@
         <v>18</v>
       </c>
       <c r="R27" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="S27" t="s">
         <v>27</v>
@@ -2543,34 +2672,34 @@
     </row>
     <row r="28" spans="1:20">
       <c r="A28" t="s">
+        <v>105</v>
+      </c>
+      <c r="B28" t="s">
+        <v>106</v>
+      </c>
+      <c r="C28" t="s">
         <v>101</v>
       </c>
-      <c r="B28" t="s">
+      <c r="D28" t="s">
         <v>102</v>
       </c>
-      <c r="C28" t="s">
-        <v>34</v>
-      </c>
-      <c r="D28" t="s">
-        <v>94</v>
-      </c>
       <c r="E28" t="s">
-        <v>73</v>
+        <v>103</v>
       </c>
       <c r="F28" s="1">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G28" s="1">
-        <v>5600</v>
+        <v>1200</v>
       </c>
       <c r="H28" s="1">
-        <v>5600</v>
+        <v>1200</v>
       </c>
       <c r="I28" s="1">
-        <v>5600</v>
+        <v>1200</v>
       </c>
       <c r="J28" s="2">
-        <v>110040</v>
+        <v>221280</v>
       </c>
       <c r="K28" s="3">
         <v>0</v>
@@ -2579,7 +2708,7 @@
         <v>8.5</v>
       </c>
       <c r="M28" s="2">
-        <v>103.93</v>
+        <v>365.73</v>
       </c>
       <c r="N28" s="2">
         <v>0</v>
@@ -2594,7 +2723,7 @@
         <v>18</v>
       </c>
       <c r="R28" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="S28" t="s">
         <v>27</v>
@@ -2605,43 +2734,43 @@
     </row>
     <row r="29" spans="1:20">
       <c r="A29" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B29" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C29" t="s">
-        <v>34</v>
+        <v>101</v>
       </c>
       <c r="D29" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="E29" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="F29" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G29" s="1">
-        <v>2700</v>
+        <v>2300</v>
       </c>
       <c r="H29" s="1">
-        <v>2700</v>
+        <v>2300</v>
       </c>
       <c r="I29" s="1">
-        <v>2700</v>
+        <v>2300</v>
       </c>
       <c r="J29" s="2">
-        <v>97443</v>
+        <v>200491</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
       </c>
       <c r="L29" s="3">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="M29" s="2">
-        <v>92.03</v>
+        <v>350.86</v>
       </c>
       <c r="N29" s="2">
         <v>0</v>
@@ -2656,7 +2785,7 @@
         <v>18</v>
       </c>
       <c r="R29" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="S29" t="s">
         <v>27</v>
@@ -2667,43 +2796,43 @@
     </row>
     <row r="30" spans="1:20">
       <c r="A30" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B30" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C30" t="s">
-        <v>34</v>
+        <v>101</v>
       </c>
       <c r="D30" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="E30" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="F30" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G30" s="1">
-        <v>11900</v>
+        <v>23300</v>
       </c>
       <c r="H30" s="1">
-        <v>11900</v>
+        <v>23300</v>
       </c>
       <c r="I30" s="1">
-        <v>11900</v>
+        <v>23300</v>
       </c>
       <c r="J30" s="2">
-        <v>97699</v>
+        <v>204574</v>
       </c>
       <c r="K30" s="3">
         <v>0</v>
       </c>
       <c r="L30" s="3">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="M30" s="2">
-        <v>92.27</v>
+        <v>358</v>
       </c>
       <c r="N30" s="2">
         <v>0</v>
@@ -2718,7 +2847,7 @@
         <v>18</v>
       </c>
       <c r="R30" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="S30" t="s">
         <v>27</v>
@@ -2729,22 +2858,22 @@
     </row>
     <row r="31" spans="1:20">
       <c r="A31" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B31" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C31" t="s">
-        <v>34</v>
+        <v>101</v>
       </c>
       <c r="D31" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="E31" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="F31" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G31" s="1">
         <v>10000</v>
@@ -2756,7 +2885,7 @@
         <v>10000</v>
       </c>
       <c r="J31" s="2">
-        <v>212300</v>
+        <v>121800</v>
       </c>
       <c r="K31" s="3">
         <v>0</v>
@@ -2765,7 +2894,7 @@
         <v>7</v>
       </c>
       <c r="M31" s="2">
-        <v>165.12</v>
+        <v>165.78</v>
       </c>
       <c r="N31" s="2">
         <v>0</v>
@@ -2780,7 +2909,7 @@
         <v>18</v>
       </c>
       <c r="R31" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="S31" t="s">
         <v>27</v>
@@ -2791,43 +2920,43 @@
     </row>
     <row r="32" spans="1:20">
       <c r="A32" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B32" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C32" t="s">
-        <v>34</v>
+        <v>101</v>
       </c>
       <c r="D32" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="E32" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="F32" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G32" s="1">
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="H32" s="1">
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="I32" s="1">
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="J32" s="2">
-        <v>35620</v>
+        <v>102312</v>
       </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
       <c r="L32" s="3">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M32" s="2">
-        <v>35.62</v>
+        <v>99.47</v>
       </c>
       <c r="N32" s="2">
         <v>0</v>
@@ -2842,7 +2971,7 @@
         <v>18</v>
       </c>
       <c r="R32" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="S32" t="s">
         <v>27</v>
@@ -2853,34 +2982,34 @@
     </row>
     <row r="33" spans="1:20">
       <c r="A33" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B33" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C33" t="s">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="D33" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="E33" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="F33" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G33" s="1">
-        <v>5300</v>
+        <v>3900</v>
       </c>
       <c r="H33" s="1">
-        <v>5300</v>
+        <v>3900</v>
       </c>
       <c r="I33" s="1">
-        <v>0</v>
+        <v>3900</v>
       </c>
       <c r="J33" s="2">
-        <v>196312</v>
+        <v>201630</v>
       </c>
       <c r="K33" s="3">
         <v>0</v>
@@ -2889,7 +3018,7 @@
         <v>7</v>
       </c>
       <c r="M33" s="2">
-        <v>114.52</v>
+        <v>274.44</v>
       </c>
       <c r="N33" s="2">
         <v>0</v>
@@ -2904,7 +3033,7 @@
         <v>18</v>
       </c>
       <c r="R33" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="S33" t="s">
         <v>27</v>
@@ -2915,43 +3044,43 @@
     </row>
     <row r="34" spans="1:20">
       <c r="A34" t="s">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="B34" t="s">
+        <v>124</v>
+      </c>
+      <c r="C34" t="s">
+        <v>125</v>
+      </c>
+      <c r="D34" t="s">
+        <v>88</v>
+      </c>
+      <c r="E34" t="s">
         <v>102</v>
       </c>
-      <c r="C34" t="s">
-        <v>75</v>
-      </c>
-      <c r="D34" t="s">
-        <v>94</v>
-      </c>
-      <c r="E34" t="s">
-        <v>73</v>
-      </c>
       <c r="F34" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G34" s="1">
-        <v>4400</v>
+        <v>7900</v>
       </c>
       <c r="H34" s="1">
-        <v>4400</v>
+        <v>7900</v>
       </c>
       <c r="I34" s="1">
-        <v>4400</v>
+        <v>7900</v>
       </c>
       <c r="J34" s="2">
-        <v>86636</v>
+        <v>99382</v>
       </c>
       <c r="K34" s="3">
         <v>0</v>
       </c>
       <c r="L34" s="3">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="M34" s="2">
-        <v>50.54</v>
+        <v>187.72</v>
       </c>
       <c r="N34" s="2">
         <v>0</v>
@@ -2966,7 +3095,7 @@
         <v>18</v>
       </c>
       <c r="R34" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="S34" t="s">
         <v>27</v>
@@ -2977,43 +3106,43 @@
     </row>
     <row r="35" spans="1:20">
       <c r="A35" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B35" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C35" t="s">
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="D35" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="E35" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="F35" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G35" s="1">
-        <v>2900</v>
+        <v>3400</v>
       </c>
       <c r="H35" s="1">
-        <v>2900</v>
+        <v>3400</v>
       </c>
       <c r="I35" s="1">
-        <v>2900</v>
+        <v>3400</v>
       </c>
       <c r="J35" s="2">
-        <v>104400</v>
+        <v>102272</v>
       </c>
       <c r="K35" s="3">
         <v>0</v>
       </c>
       <c r="L35" s="3">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="M35" s="2">
-        <v>60.9</v>
+        <v>193.18</v>
       </c>
       <c r="N35" s="2">
         <v>0</v>
@@ -3028,7 +3157,7 @@
         <v>18</v>
       </c>
       <c r="R35" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="S35" t="s">
         <v>27</v>
@@ -3039,43 +3168,43 @@
     </row>
     <row r="36" spans="1:20">
       <c r="A36" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="B36" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="C36" t="s">
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="D36" t="s">
-        <v>94</v>
+        <v>24</v>
       </c>
       <c r="E36" t="s">
-        <v>73</v>
+        <v>130</v>
       </c>
       <c r="F36" s="1">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G36" s="1">
-        <v>5300</v>
+        <v>19200</v>
       </c>
       <c r="H36" s="1">
-        <v>5300</v>
+        <v>19200</v>
       </c>
       <c r="I36" s="1">
-        <v>5300</v>
+        <v>19200</v>
       </c>
       <c r="J36" s="2">
-        <v>196312</v>
+        <v>131904</v>
       </c>
       <c r="K36" s="3">
         <v>0</v>
       </c>
       <c r="L36" s="3">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="M36" s="2">
-        <v>114.52</v>
+        <v>263.81</v>
       </c>
       <c r="N36" s="2">
         <v>0</v>
@@ -3090,7 +3219,7 @@
         <v>18</v>
       </c>
       <c r="R36" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="S36" t="s">
         <v>27</v>
@@ -3101,34 +3230,34 @@
     </row>
     <row r="37" spans="1:20">
       <c r="A37" t="s">
+        <v>73</v>
+      </c>
+      <c r="B37" t="s">
+        <v>74</v>
+      </c>
+      <c r="C37" t="s">
+        <v>125</v>
+      </c>
+      <c r="D37" t="s">
+        <v>65</v>
+      </c>
+      <c r="E37" t="s">
         <v>88</v>
       </c>
-      <c r="B37" t="s">
-        <v>89</v>
-      </c>
-      <c r="C37" t="s">
-        <v>75</v>
-      </c>
-      <c r="D37" t="s">
-        <v>94</v>
-      </c>
-      <c r="E37" t="s">
-        <v>73</v>
-      </c>
       <c r="F37" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G37" s="1">
-        <v>12800</v>
+        <v>100</v>
       </c>
       <c r="H37" s="1">
-        <v>12800</v>
+        <v>100</v>
       </c>
       <c r="I37" s="1">
-        <v>12800</v>
+        <v>100</v>
       </c>
       <c r="J37" s="2">
-        <v>180224</v>
+        <v>12698</v>
       </c>
       <c r="K37" s="3">
         <v>0</v>
@@ -3137,7 +3266,7 @@
         <v>9</v>
       </c>
       <c r="M37" s="2">
-        <v>135.17</v>
+        <v>25.4</v>
       </c>
       <c r="N37" s="2">
         <v>0</v>
@@ -3152,7 +3281,7 @@
         <v>18</v>
       </c>
       <c r="R37" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="S37" t="s">
         <v>27</v>
@@ -3163,43 +3292,43 @@
     </row>
     <row r="38" spans="1:20">
       <c r="A38" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="B38" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="C38" t="s">
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="D38" t="s">
-        <v>94</v>
+        <v>65</v>
       </c>
       <c r="E38" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="F38" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G38" s="1">
-        <v>22800</v>
+        <v>1500</v>
       </c>
       <c r="H38" s="1">
-        <v>22800</v>
+        <v>1500</v>
       </c>
       <c r="I38" s="1">
-        <v>22800</v>
+        <v>1500</v>
       </c>
       <c r="J38" s="2">
-        <v>193344</v>
+        <v>21060</v>
       </c>
       <c r="K38" s="3">
         <v>0</v>
       </c>
       <c r="L38" s="3">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M38" s="2">
-        <v>145.01</v>
+        <v>23.4</v>
       </c>
       <c r="N38" s="2">
         <v>0</v>
@@ -3214,7 +3343,7 @@
         <v>18</v>
       </c>
       <c r="R38" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="S38" t="s">
         <v>27</v>
@@ -3225,43 +3354,43 @@
     </row>
     <row r="39" spans="1:20">
       <c r="A39" t="s">
-        <v>98</v>
+        <v>136</v>
       </c>
       <c r="B39" t="s">
-        <v>99</v>
+        <v>137</v>
       </c>
       <c r="C39" t="s">
-        <v>22</v>
+        <v>125</v>
       </c>
       <c r="D39" t="s">
-        <v>94</v>
+        <v>24</v>
       </c>
       <c r="E39" t="s">
-        <v>73</v>
+        <v>130</v>
       </c>
       <c r="F39" s="1">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G39" s="1">
-        <v>1200</v>
+        <v>4200</v>
       </c>
       <c r="H39" s="1">
-        <v>1200</v>
+        <v>4200</v>
       </c>
       <c r="I39" s="1">
-        <v>1200</v>
+        <v>4200</v>
       </c>
       <c r="J39" s="2">
-        <v>8052</v>
+        <v>108360</v>
       </c>
       <c r="K39" s="3">
         <v>0</v>
       </c>
       <c r="L39" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M39" s="2">
-        <v>2.24</v>
+        <v>168.56</v>
       </c>
       <c r="N39" s="2">
         <v>0</v>
@@ -3276,7 +3405,7 @@
         <v>18</v>
       </c>
       <c r="R39" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="S39" t="s">
         <v>27</v>
@@ -3287,34 +3416,34 @@
     </row>
     <row r="40" spans="1:20">
       <c r="A40" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="B40" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="C40" t="s">
-        <v>34</v>
+        <v>125</v>
       </c>
       <c r="D40" t="s">
-        <v>129</v>
+        <v>65</v>
       </c>
       <c r="E40" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F40" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G40" s="1">
-        <v>8300</v>
+        <v>1200</v>
       </c>
       <c r="H40" s="1">
-        <v>8300</v>
+        <v>1200</v>
       </c>
       <c r="I40" s="1">
-        <v>8300</v>
+        <v>1200</v>
       </c>
       <c r="J40" s="2">
-        <v>202686</v>
+        <v>110640</v>
       </c>
       <c r="K40" s="3">
         <v>0</v>
@@ -3323,7 +3452,7 @@
         <v>7</v>
       </c>
       <c r="M40" s="2">
-        <v>157.64</v>
+        <v>172.11</v>
       </c>
       <c r="N40" s="2">
         <v>0</v>
@@ -3338,7 +3467,7 @@
         <v>18</v>
       </c>
       <c r="R40" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="S40" t="s">
         <v>27</v>
@@ -3349,43 +3478,43 @@
     </row>
     <row r="41" spans="1:20">
       <c r="A41" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="B41" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="C41" t="s">
-        <v>34</v>
+        <v>125</v>
       </c>
       <c r="D41" t="s">
-        <v>129</v>
+        <v>64</v>
       </c>
       <c r="E41" t="s">
-        <v>94</v>
+        <v>65</v>
       </c>
       <c r="F41" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G41" s="1">
-        <v>26900</v>
+        <v>1200</v>
       </c>
       <c r="H41" s="1">
-        <v>26900</v>
+        <v>1200</v>
       </c>
       <c r="I41" s="1">
-        <v>26900</v>
+        <v>1200</v>
       </c>
       <c r="J41" s="2">
-        <v>139880</v>
+        <v>8052</v>
       </c>
       <c r="K41" s="3">
         <v>0</v>
       </c>
       <c r="L41" s="3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M41" s="2">
-        <v>108.8</v>
+        <v>8.95</v>
       </c>
       <c r="N41" s="2">
         <v>0</v>
@@ -3400,7 +3529,7 @@
         <v>18</v>
       </c>
       <c r="R41" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="S41" t="s">
         <v>27</v>
@@ -3411,43 +3540,43 @@
     </row>
     <row r="42" spans="1:20">
       <c r="A42" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B42" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="C42" t="s">
-        <v>34</v>
+        <v>145</v>
       </c>
       <c r="D42" t="s">
-        <v>129</v>
+        <v>65</v>
       </c>
       <c r="E42" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F42" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G42" s="1">
-        <v>7700</v>
+        <v>1200</v>
       </c>
       <c r="H42" s="1">
-        <v>7700</v>
+        <v>1200</v>
       </c>
       <c r="I42" s="1">
-        <v>7700</v>
+        <v>1200</v>
       </c>
       <c r="J42" s="2">
-        <v>197428</v>
+        <v>100680</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
       </c>
       <c r="L42" s="3">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="M42" s="2">
-        <v>153.56</v>
+        <v>213.95</v>
       </c>
       <c r="N42" s="2">
         <v>0</v>
@@ -3462,7 +3591,7 @@
         <v>18</v>
       </c>
       <c r="R42" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="S42" t="s">
         <v>27</v>
@@ -3473,43 +3602,43 @@
     </row>
     <row r="43" spans="1:20">
       <c r="A43" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="B43" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="C43" t="s">
-        <v>34</v>
+        <v>145</v>
       </c>
       <c r="D43" t="s">
-        <v>129</v>
+        <v>65</v>
       </c>
       <c r="E43" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F43" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G43" s="1">
-        <v>21500</v>
+        <v>6200</v>
       </c>
       <c r="H43" s="1">
-        <v>21500</v>
+        <v>6200</v>
       </c>
       <c r="I43" s="1">
-        <v>21500</v>
+        <v>6200</v>
       </c>
       <c r="J43" s="2">
-        <v>216935</v>
+        <v>95294</v>
       </c>
       <c r="K43" s="3">
         <v>0</v>
       </c>
       <c r="L43" s="3">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="M43" s="2">
-        <v>216.93</v>
+        <v>202.5</v>
       </c>
       <c r="N43" s="2">
         <v>0</v>
@@ -3524,7 +3653,7 @@
         <v>18</v>
       </c>
       <c r="R43" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="S43" t="s">
         <v>27</v>
@@ -3535,43 +3664,43 @@
     </row>
     <row r="44" spans="1:20">
       <c r="A44" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B44" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C44" t="s">
-        <v>34</v>
+        <v>145</v>
       </c>
       <c r="D44" t="s">
-        <v>142</v>
+        <v>65</v>
       </c>
       <c r="E44" t="s">
-        <v>129</v>
+        <v>88</v>
       </c>
       <c r="F44" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G44" s="1">
-        <v>500</v>
+        <v>3700</v>
       </c>
       <c r="H44" s="1">
-        <v>500</v>
+        <v>3700</v>
       </c>
       <c r="I44" s="1">
-        <v>500</v>
+        <v>3700</v>
       </c>
       <c r="J44" s="2">
-        <v>42700</v>
+        <v>94720</v>
       </c>
       <c r="K44" s="3">
         <v>0</v>
       </c>
       <c r="L44" s="3">
-        <v>5</v>
+        <v>8.5</v>
       </c>
       <c r="M44" s="2">
-        <v>23.72</v>
+        <v>201.28</v>
       </c>
       <c r="N44" s="2">
         <v>0</v>
@@ -3586,7 +3715,7 @@
         <v>18</v>
       </c>
       <c r="R44" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="S44" t="s">
         <v>27</v>
@@ -3597,43 +3726,43 @@
     </row>
     <row r="45" spans="1:20">
       <c r="A45" t="s">
-        <v>140</v>
+        <v>93</v>
       </c>
       <c r="B45" t="s">
-        <v>141</v>
+        <v>94</v>
       </c>
       <c r="C45" t="s">
-        <v>34</v>
+        <v>145</v>
       </c>
       <c r="D45" t="s">
-        <v>142</v>
+        <v>65</v>
       </c>
       <c r="E45" t="s">
-        <v>129</v>
+        <v>88</v>
       </c>
       <c r="F45" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G45" s="1">
-        <v>1900</v>
+        <v>4100</v>
       </c>
       <c r="H45" s="1">
-        <v>1900</v>
+        <v>4100</v>
       </c>
       <c r="I45" s="1">
-        <v>1900</v>
+        <v>0</v>
       </c>
       <c r="J45" s="2">
-        <v>162260</v>
+        <v>98974</v>
       </c>
       <c r="K45" s="3">
         <v>0</v>
       </c>
       <c r="L45" s="3">
-        <v>5</v>
+        <v>8.5</v>
       </c>
       <c r="M45" s="2">
-        <v>90.14</v>
+        <v>210.32</v>
       </c>
       <c r="N45" s="2">
         <v>0</v>
@@ -3648,7 +3777,7 @@
         <v>18</v>
       </c>
       <c r="R45" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="S45" t="s">
         <v>27</v>
@@ -3659,43 +3788,43 @@
     </row>
     <row r="46" spans="1:20">
       <c r="A46" t="s">
+        <v>80</v>
+      </c>
+      <c r="B46" t="s">
+        <v>81</v>
+      </c>
+      <c r="C46" t="s">
         <v>145</v>
       </c>
-      <c r="B46" t="s">
-        <v>146</v>
-      </c>
-      <c r="C46" t="s">
-        <v>147</v>
-      </c>
       <c r="D46" t="s">
-        <v>148</v>
+        <v>64</v>
       </c>
       <c r="E46" t="s">
-        <v>142</v>
+        <v>65</v>
       </c>
       <c r="F46" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G46" s="1">
-        <v>2200</v>
+        <v>22800</v>
       </c>
       <c r="H46" s="1">
-        <v>2200</v>
+        <v>22800</v>
       </c>
       <c r="I46" s="1">
-        <v>2200</v>
+        <v>22800</v>
       </c>
       <c r="J46" s="2">
-        <v>197868</v>
+        <v>193344</v>
       </c>
       <c r="K46" s="3">
         <v>0</v>
       </c>
       <c r="L46" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M46" s="2">
-        <v>395.74</v>
+        <v>435.02</v>
       </c>
       <c r="N46" s="2">
         <v>0</v>
@@ -3710,7 +3839,7 @@
         <v>18</v>
       </c>
       <c r="R46" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="S46" t="s">
         <v>27</v>
@@ -3721,43 +3850,43 @@
     </row>
     <row r="47" spans="1:20">
       <c r="A47" t="s">
-        <v>150</v>
+        <v>117</v>
       </c>
       <c r="B47" t="s">
-        <v>151</v>
+        <v>118</v>
       </c>
       <c r="C47" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D47" t="s">
-        <v>148</v>
+        <v>65</v>
       </c>
       <c r="E47" t="s">
-        <v>142</v>
+        <v>88</v>
       </c>
       <c r="F47" s="1">
         <v>5</v>
       </c>
       <c r="G47" s="1">
-        <v>30000</v>
+        <v>1500</v>
       </c>
       <c r="H47" s="1">
-        <v>30000</v>
+        <v>1500</v>
       </c>
       <c r="I47" s="1">
-        <v>30000</v>
+        <v>1500</v>
       </c>
       <c r="J47" s="2">
-        <v>151800</v>
+        <v>100200</v>
       </c>
       <c r="K47" s="3">
         <v>0</v>
       </c>
       <c r="L47" s="3">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="M47" s="2">
-        <v>303.6</v>
+        <v>212.93</v>
       </c>
       <c r="N47" s="2">
         <v>0</v>
@@ -3772,7 +3901,7 @@
         <v>18</v>
       </c>
       <c r="R47" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="S47" t="s">
         <v>27</v>
@@ -3783,34 +3912,34 @@
     </row>
     <row r="48" spans="1:20">
       <c r="A48" t="s">
-        <v>56</v>
+        <v>133</v>
       </c>
       <c r="B48" t="s">
-        <v>57</v>
+        <v>134</v>
       </c>
       <c r="C48" t="s">
-        <v>22</v>
+        <v>145</v>
       </c>
       <c r="D48" t="s">
-        <v>153</v>
+        <v>64</v>
       </c>
       <c r="E48" t="s">
-        <v>148</v>
+        <v>65</v>
       </c>
       <c r="F48" s="1">
         <v>4</v>
       </c>
       <c r="G48" s="1">
-        <v>3900</v>
+        <v>12800</v>
       </c>
       <c r="H48" s="1">
-        <v>3900</v>
+        <v>12800</v>
       </c>
       <c r="I48" s="1">
-        <v>3900</v>
+        <v>12800</v>
       </c>
       <c r="J48" s="2">
-        <v>202605</v>
+        <v>180224</v>
       </c>
       <c r="K48" s="3">
         <v>0</v>
@@ -3819,7 +3948,7 @@
         <v>9</v>
       </c>
       <c r="M48" s="2">
-        <v>101.3</v>
+        <v>405.5</v>
       </c>
       <c r="N48" s="2">
         <v>0</v>
@@ -3851,52 +3980,52 @@
         <v>156</v>
       </c>
       <c r="C49" t="s">
-        <v>75</v>
+        <v>145</v>
       </c>
       <c r="D49" t="s">
+        <v>64</v>
+      </c>
+      <c r="E49" t="s">
+        <v>65</v>
+      </c>
+      <c r="F49" s="1">
+        <v>4</v>
+      </c>
+      <c r="G49" s="1">
+        <v>5300</v>
+      </c>
+      <c r="H49" s="1">
+        <v>5300</v>
+      </c>
+      <c r="I49" s="1">
+        <v>5300</v>
+      </c>
+      <c r="J49" s="2">
+        <v>196312</v>
+      </c>
+      <c r="K49" s="3">
+        <v>0</v>
+      </c>
+      <c r="L49" s="3">
+        <v>7</v>
+      </c>
+      <c r="M49" s="2">
+        <v>343.55</v>
+      </c>
+      <c r="N49" s="2">
+        <v>0</v>
+      </c>
+      <c r="O49" t="s">
+        <v>25</v>
+      </c>
+      <c r="P49" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="3">
+        <v>18</v>
+      </c>
+      <c r="R49" t="s">
         <v>157</v>
-      </c>
-      <c r="E49" t="s">
-        <v>153</v>
-      </c>
-      <c r="F49" s="1">
-        <v>3</v>
-      </c>
-      <c r="G49" s="1">
-        <v>12400</v>
-      </c>
-      <c r="H49" s="1">
-        <v>12400</v>
-      </c>
-      <c r="I49" s="1">
-        <v>12400</v>
-      </c>
-      <c r="J49" s="2">
-        <v>191580</v>
-      </c>
-      <c r="K49" s="3">
-        <v>0</v>
-      </c>
-      <c r="L49" s="3">
-        <v>9</v>
-      </c>
-      <c r="M49" s="2">
-        <v>143.69</v>
-      </c>
-      <c r="N49" s="2">
-        <v>0</v>
-      </c>
-      <c r="O49" t="s">
-        <v>25</v>
-      </c>
-      <c r="P49" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q49" s="3">
-        <v>18</v>
-      </c>
-      <c r="R49" t="s">
-        <v>158</v>
       </c>
       <c r="S49" t="s">
         <v>27</v>
@@ -3907,63 +4036,1303 @@
     </row>
     <row r="50" spans="1:20">
       <c r="A50" t="s">
+        <v>158</v>
+      </c>
+      <c r="B50" t="s">
         <v>159</v>
       </c>
-      <c r="B50" t="s">
+      <c r="C50" t="s">
+        <v>145</v>
+      </c>
+      <c r="D50" t="s">
+        <v>64</v>
+      </c>
+      <c r="E50" t="s">
+        <v>65</v>
+      </c>
+      <c r="F50" s="1">
+        <v>4</v>
+      </c>
+      <c r="G50" s="1">
+        <v>2900</v>
+      </c>
+      <c r="H50" s="1">
+        <v>2900</v>
+      </c>
+      <c r="I50" s="1">
+        <v>2900</v>
+      </c>
+      <c r="J50" s="2">
+        <v>104400</v>
+      </c>
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3">
+        <v>7</v>
+      </c>
+      <c r="M50" s="2">
+        <v>182.7</v>
+      </c>
+      <c r="N50" s="2">
+        <v>0</v>
+      </c>
+      <c r="O50" t="s">
+        <v>25</v>
+      </c>
+      <c r="P50" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="3">
+        <v>18</v>
+      </c>
+      <c r="R50" t="s">
         <v>160</v>
       </c>
-      <c r="C50" t="s">
-        <v>75</v>
-      </c>
-      <c r="D50" t="s">
-        <v>157</v>
-      </c>
-      <c r="E50" t="s">
-        <v>153</v>
-      </c>
-      <c r="F50" s="1">
-        <v>3</v>
-      </c>
-      <c r="G50" s="1">
-        <v>6100</v>
-      </c>
-      <c r="H50" s="1">
-        <v>6100</v>
-      </c>
-      <c r="I50" s="1">
-        <v>0</v>
-      </c>
-      <c r="J50" s="2">
-        <v>200507</v>
-      </c>
-      <c r="K50" s="3">
-        <v>0</v>
-      </c>
-      <c r="L50" s="3">
+      <c r="S50" t="s">
+        <v>27</v>
+      </c>
+      <c r="T50" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20">
+      <c r="A51" t="s">
+        <v>161</v>
+      </c>
+      <c r="B51" t="s">
+        <v>162</v>
+      </c>
+      <c r="C51" t="s">
+        <v>145</v>
+      </c>
+      <c r="D51" t="s">
+        <v>64</v>
+      </c>
+      <c r="E51" t="s">
+        <v>65</v>
+      </c>
+      <c r="F51" s="1">
+        <v>4</v>
+      </c>
+      <c r="G51" s="1">
+        <v>4400</v>
+      </c>
+      <c r="H51" s="1">
+        <v>4400</v>
+      </c>
+      <c r="I51" s="1">
+        <v>4400</v>
+      </c>
+      <c r="J51" s="2">
+        <v>86636</v>
+      </c>
+      <c r="K51" s="3">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3">
+        <v>7</v>
+      </c>
+      <c r="M51" s="2">
+        <v>151.61</v>
+      </c>
+      <c r="N51" s="2">
+        <v>0</v>
+      </c>
+      <c r="O51" t="s">
+        <v>25</v>
+      </c>
+      <c r="P51" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="3">
+        <v>18</v>
+      </c>
+      <c r="R51" t="s">
+        <v>163</v>
+      </c>
+      <c r="S51" t="s">
+        <v>27</v>
+      </c>
+      <c r="T51" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20">
+      <c r="A52" t="s">
+        <v>155</v>
+      </c>
+      <c r="B52" t="s">
+        <v>156</v>
+      </c>
+      <c r="C52" t="s">
+        <v>145</v>
+      </c>
+      <c r="D52" t="s">
+        <v>64</v>
+      </c>
+      <c r="E52" t="s">
+        <v>65</v>
+      </c>
+      <c r="F52" s="1">
+        <v>4</v>
+      </c>
+      <c r="G52" s="1">
+        <v>5300</v>
+      </c>
+      <c r="H52" s="1">
+        <v>5300</v>
+      </c>
+      <c r="I52" s="1">
+        <v>0</v>
+      </c>
+      <c r="J52" s="2">
+        <v>196312</v>
+      </c>
+      <c r="K52" s="3">
+        <v>0</v>
+      </c>
+      <c r="L52" s="3">
+        <v>7</v>
+      </c>
+      <c r="M52" s="2">
+        <v>343.55</v>
+      </c>
+      <c r="N52" s="2">
+        <v>0</v>
+      </c>
+      <c r="O52" t="s">
+        <v>25</v>
+      </c>
+      <c r="P52" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="3">
+        <v>18</v>
+      </c>
+      <c r="R52" t="s">
+        <v>164</v>
+      </c>
+      <c r="S52" t="s">
+        <v>27</v>
+      </c>
+      <c r="T52" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20">
+      <c r="A53" t="s">
+        <v>165</v>
+      </c>
+      <c r="B53" t="s">
+        <v>166</v>
+      </c>
+      <c r="C53" t="s">
+        <v>167</v>
+      </c>
+      <c r="D53" t="s">
+        <v>64</v>
+      </c>
+      <c r="E53" t="s">
+        <v>65</v>
+      </c>
+      <c r="F53" s="1">
+        <v>4</v>
+      </c>
+      <c r="G53" s="1">
+        <v>1000</v>
+      </c>
+      <c r="H53" s="1">
+        <v>1000</v>
+      </c>
+      <c r="I53" s="1">
+        <v>1000</v>
+      </c>
+      <c r="J53" s="2">
+        <v>35620</v>
+      </c>
+      <c r="K53" s="3">
+        <v>0</v>
+      </c>
+      <c r="L53" s="3">
         <v>9</v>
       </c>
-      <c r="M50" s="2">
-        <v>150.38</v>
-      </c>
-      <c r="N50" s="2">
-        <v>0</v>
-      </c>
-      <c r="O50" t="s">
-        <v>25</v>
-      </c>
-      <c r="P50" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q50" s="3">
-        <v>18</v>
-      </c>
-      <c r="R50" t="s">
+      <c r="M53" s="2">
+        <v>89.05</v>
+      </c>
+      <c r="N53" s="2">
+        <v>0</v>
+      </c>
+      <c r="O53" t="s">
+        <v>25</v>
+      </c>
+      <c r="P53" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="3">
+        <v>18</v>
+      </c>
+      <c r="R53" t="s">
+        <v>168</v>
+      </c>
+      <c r="S53" t="s">
+        <v>27</v>
+      </c>
+      <c r="T53" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20">
+      <c r="A54" t="s">
+        <v>169</v>
+      </c>
+      <c r="B54" t="s">
+        <v>170</v>
+      </c>
+      <c r="C54" t="s">
+        <v>167</v>
+      </c>
+      <c r="D54" t="s">
+        <v>64</v>
+      </c>
+      <c r="E54" t="s">
+        <v>65</v>
+      </c>
+      <c r="F54" s="1">
+        <v>4</v>
+      </c>
+      <c r="G54" s="1">
+        <v>10000</v>
+      </c>
+      <c r="H54" s="1">
+        <v>10000</v>
+      </c>
+      <c r="I54" s="1">
+        <v>10000</v>
+      </c>
+      <c r="J54" s="2">
+        <v>212300</v>
+      </c>
+      <c r="K54" s="3">
+        <v>0</v>
+      </c>
+      <c r="L54" s="3">
+        <v>7</v>
+      </c>
+      <c r="M54" s="2">
+        <v>412.81</v>
+      </c>
+      <c r="N54" s="2">
+        <v>0</v>
+      </c>
+      <c r="O54" t="s">
+        <v>25</v>
+      </c>
+      <c r="P54" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="3">
+        <v>18</v>
+      </c>
+      <c r="R54" t="s">
+        <v>171</v>
+      </c>
+      <c r="S54" t="s">
+        <v>27</v>
+      </c>
+      <c r="T54" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20">
+      <c r="A55" t="s">
+        <v>56</v>
+      </c>
+      <c r="B55" t="s">
+        <v>57</v>
+      </c>
+      <c r="C55" t="s">
+        <v>167</v>
+      </c>
+      <c r="D55" t="s">
+        <v>64</v>
+      </c>
+      <c r="E55" t="s">
+        <v>65</v>
+      </c>
+      <c r="F55" s="1">
+        <v>4</v>
+      </c>
+      <c r="G55" s="1">
+        <v>11900</v>
+      </c>
+      <c r="H55" s="1">
+        <v>11900</v>
+      </c>
+      <c r="I55" s="1">
+        <v>11900</v>
+      </c>
+      <c r="J55" s="2">
+        <v>97699</v>
+      </c>
+      <c r="K55" s="3">
+        <v>0</v>
+      </c>
+      <c r="L55" s="3">
+        <v>8.5</v>
+      </c>
+      <c r="M55" s="2">
+        <v>230.68</v>
+      </c>
+      <c r="N55" s="2">
+        <v>0</v>
+      </c>
+      <c r="O55" t="s">
+        <v>25</v>
+      </c>
+      <c r="P55" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q55" s="3">
+        <v>18</v>
+      </c>
+      <c r="R55" t="s">
+        <v>172</v>
+      </c>
+      <c r="S55" t="s">
+        <v>27</v>
+      </c>
+      <c r="T55" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20">
+      <c r="A56" t="s">
+        <v>158</v>
+      </c>
+      <c r="B56" t="s">
+        <v>159</v>
+      </c>
+      <c r="C56" t="s">
+        <v>167</v>
+      </c>
+      <c r="D56" t="s">
+        <v>64</v>
+      </c>
+      <c r="E56" t="s">
+        <v>65</v>
+      </c>
+      <c r="F56" s="1">
+        <v>4</v>
+      </c>
+      <c r="G56" s="1">
+        <v>2700</v>
+      </c>
+      <c r="H56" s="1">
+        <v>2700</v>
+      </c>
+      <c r="I56" s="1">
+        <v>2700</v>
+      </c>
+      <c r="J56" s="2">
+        <v>97443</v>
+      </c>
+      <c r="K56" s="3">
+        <v>0</v>
+      </c>
+      <c r="L56" s="3">
+        <v>8.5</v>
+      </c>
+      <c r="M56" s="2">
+        <v>230.07</v>
+      </c>
+      <c r="N56" s="2">
+        <v>0</v>
+      </c>
+      <c r="O56" t="s">
+        <v>25</v>
+      </c>
+      <c r="P56" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q56" s="3">
+        <v>18</v>
+      </c>
+      <c r="R56" t="s">
+        <v>173</v>
+      </c>
+      <c r="S56" t="s">
+        <v>27</v>
+      </c>
+      <c r="T56" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20">
+      <c r="A57" t="s">
         <v>161</v>
       </c>
-      <c r="S50" t="s">
-        <v>27</v>
-      </c>
-      <c r="T50" t="s">
+      <c r="B57" t="s">
+        <v>162</v>
+      </c>
+      <c r="C57" t="s">
+        <v>167</v>
+      </c>
+      <c r="D57" t="s">
+        <v>64</v>
+      </c>
+      <c r="E57" t="s">
+        <v>65</v>
+      </c>
+      <c r="F57" s="1">
+        <v>4</v>
+      </c>
+      <c r="G57" s="1">
+        <v>5600</v>
+      </c>
+      <c r="H57" s="1">
+        <v>5600</v>
+      </c>
+      <c r="I57" s="1">
+        <v>5600</v>
+      </c>
+      <c r="J57" s="2">
+        <v>110040</v>
+      </c>
+      <c r="K57" s="3">
+        <v>0</v>
+      </c>
+      <c r="L57" s="3">
+        <v>8.5</v>
+      </c>
+      <c r="M57" s="2">
+        <v>259.82</v>
+      </c>
+      <c r="N57" s="2">
+        <v>0</v>
+      </c>
+      <c r="O57" t="s">
+        <v>25</v>
+      </c>
+      <c r="P57" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="3">
+        <v>18</v>
+      </c>
+      <c r="R57" t="s">
+        <v>174</v>
+      </c>
+      <c r="S57" t="s">
+        <v>27</v>
+      </c>
+      <c r="T57" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20">
+      <c r="A58" t="s">
+        <v>142</v>
+      </c>
+      <c r="B58" t="s">
+        <v>143</v>
+      </c>
+      <c r="C58" t="s">
+        <v>167</v>
+      </c>
+      <c r="D58" t="s">
+        <v>64</v>
+      </c>
+      <c r="E58" t="s">
+        <v>65</v>
+      </c>
+      <c r="F58" s="1">
+        <v>4</v>
+      </c>
+      <c r="G58" s="1">
+        <v>29500</v>
+      </c>
+      <c r="H58" s="1">
+        <v>29500</v>
+      </c>
+      <c r="I58" s="1">
+        <v>29500</v>
+      </c>
+      <c r="J58" s="2">
+        <v>201780</v>
+      </c>
+      <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3">
+        <v>9</v>
+      </c>
+      <c r="M58" s="2">
+        <v>504.45</v>
+      </c>
+      <c r="N58" s="2">
+        <v>0</v>
+      </c>
+      <c r="O58" t="s">
+        <v>25</v>
+      </c>
+      <c r="P58" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>18</v>
+      </c>
+      <c r="R58" t="s">
+        <v>175</v>
+      </c>
+      <c r="S58" t="s">
+        <v>27</v>
+      </c>
+      <c r="T58" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20">
+      <c r="A59" t="s">
+        <v>176</v>
+      </c>
+      <c r="B59" t="s">
+        <v>177</v>
+      </c>
+      <c r="C59" t="s">
+        <v>167</v>
+      </c>
+      <c r="D59" t="s">
+        <v>24</v>
+      </c>
+      <c r="E59" t="s">
+        <v>178</v>
+      </c>
+      <c r="F59" s="1">
+        <v>15</v>
+      </c>
+      <c r="G59" s="1">
+        <v>1000</v>
+      </c>
+      <c r="H59" s="1">
+        <v>1000</v>
+      </c>
+      <c r="I59" s="1">
+        <v>1000</v>
+      </c>
+      <c r="J59" s="2">
+        <v>83100</v>
+      </c>
+      <c r="K59" s="3">
+        <v>0</v>
+      </c>
+      <c r="L59" s="3">
+        <v>9</v>
+      </c>
+      <c r="M59" s="2">
+        <v>207.75</v>
+      </c>
+      <c r="N59" s="2">
+        <v>0</v>
+      </c>
+      <c r="O59" t="s">
+        <v>25</v>
+      </c>
+      <c r="P59" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="3">
+        <v>18</v>
+      </c>
+      <c r="R59" t="s">
+        <v>179</v>
+      </c>
+      <c r="S59" t="s">
+        <v>27</v>
+      </c>
+      <c r="T59" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20">
+      <c r="A60" t="s">
+        <v>176</v>
+      </c>
+      <c r="B60" t="s">
+        <v>177</v>
+      </c>
+      <c r="C60" t="s">
+        <v>167</v>
+      </c>
+      <c r="D60" t="s">
+        <v>64</v>
+      </c>
+      <c r="E60" t="s">
+        <v>65</v>
+      </c>
+      <c r="F60" s="1">
+        <v>4</v>
+      </c>
+      <c r="G60" s="1">
+        <v>1400</v>
+      </c>
+      <c r="H60" s="1">
+        <v>1400</v>
+      </c>
+      <c r="I60" s="1">
+        <v>1400</v>
+      </c>
+      <c r="J60" s="2">
+        <v>116340</v>
+      </c>
+      <c r="K60" s="3">
+        <v>0</v>
+      </c>
+      <c r="L60" s="3">
+        <v>9</v>
+      </c>
+      <c r="M60" s="2">
+        <v>290.85</v>
+      </c>
+      <c r="N60" s="2">
+        <v>0</v>
+      </c>
+      <c r="O60" t="s">
+        <v>25</v>
+      </c>
+      <c r="P60" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q60" s="3">
+        <v>18</v>
+      </c>
+      <c r="R60" t="s">
+        <v>180</v>
+      </c>
+      <c r="S60" t="s">
+        <v>27</v>
+      </c>
+      <c r="T60" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20">
+      <c r="A61" t="s">
+        <v>181</v>
+      </c>
+      <c r="B61" t="s">
+        <v>182</v>
+      </c>
+      <c r="C61" t="s">
+        <v>167</v>
+      </c>
+      <c r="D61" t="s">
+        <v>22</v>
+      </c>
+      <c r="E61" t="s">
+        <v>64</v>
+      </c>
+      <c r="F61" s="1">
+        <v>1</v>
+      </c>
+      <c r="G61" s="1">
+        <v>21500</v>
+      </c>
+      <c r="H61" s="1">
+        <v>21500</v>
+      </c>
+      <c r="I61" s="1">
+        <v>21500</v>
+      </c>
+      <c r="J61" s="2">
+        <v>216935</v>
+      </c>
+      <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
+        <v>9</v>
+      </c>
+      <c r="M61" s="2">
+        <v>542.34</v>
+      </c>
+      <c r="N61" s="2">
+        <v>0</v>
+      </c>
+      <c r="O61" t="s">
+        <v>25</v>
+      </c>
+      <c r="P61" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>18</v>
+      </c>
+      <c r="R61" t="s">
+        <v>183</v>
+      </c>
+      <c r="S61" t="s">
+        <v>27</v>
+      </c>
+      <c r="T61" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20">
+      <c r="A62" t="s">
+        <v>184</v>
+      </c>
+      <c r="B62" t="s">
+        <v>185</v>
+      </c>
+      <c r="C62" t="s">
+        <v>167</v>
+      </c>
+      <c r="D62" t="s">
+        <v>35</v>
+      </c>
+      <c r="E62" t="s">
+        <v>22</v>
+      </c>
+      <c r="F62" s="1">
+        <v>0</v>
+      </c>
+      <c r="G62" s="1">
+        <v>1900</v>
+      </c>
+      <c r="H62" s="1">
+        <v>1900</v>
+      </c>
+      <c r="I62" s="1">
+        <v>0</v>
+      </c>
+      <c r="J62" s="2">
+        <v>162260</v>
+      </c>
+      <c r="K62" s="3">
+        <v>0</v>
+      </c>
+      <c r="L62" s="3">
+        <v>5</v>
+      </c>
+      <c r="M62" s="2">
+        <v>225.36</v>
+      </c>
+      <c r="N62" s="2">
+        <v>0</v>
+      </c>
+      <c r="O62" t="s">
+        <v>25</v>
+      </c>
+      <c r="P62" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="3">
+        <v>18</v>
+      </c>
+      <c r="R62" t="s">
+        <v>186</v>
+      </c>
+      <c r="S62" t="s">
+        <v>27</v>
+      </c>
+      <c r="T62" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20">
+      <c r="A63" t="s">
+        <v>184</v>
+      </c>
+      <c r="B63" t="s">
+        <v>185</v>
+      </c>
+      <c r="C63" t="s">
+        <v>167</v>
+      </c>
+      <c r="D63" t="s">
+        <v>35</v>
+      </c>
+      <c r="E63" t="s">
+        <v>22</v>
+      </c>
+      <c r="F63" s="1">
+        <v>0</v>
+      </c>
+      <c r="G63" s="1">
+        <v>500</v>
+      </c>
+      <c r="H63" s="1">
+        <v>500</v>
+      </c>
+      <c r="I63" s="1">
+        <v>0</v>
+      </c>
+      <c r="J63" s="2">
+        <v>42700</v>
+      </c>
+      <c r="K63" s="3">
+        <v>0</v>
+      </c>
+      <c r="L63" s="3">
+        <v>5</v>
+      </c>
+      <c r="M63" s="2">
+        <v>59.31</v>
+      </c>
+      <c r="N63" s="2">
+        <v>0</v>
+      </c>
+      <c r="O63" t="s">
+        <v>25</v>
+      </c>
+      <c r="P63" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="3">
+        <v>18</v>
+      </c>
+      <c r="R63" t="s">
+        <v>187</v>
+      </c>
+      <c r="S63" t="s">
+        <v>27</v>
+      </c>
+      <c r="T63" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20">
+      <c r="A64" t="s">
+        <v>188</v>
+      </c>
+      <c r="B64" t="s">
+        <v>189</v>
+      </c>
+      <c r="C64" t="s">
+        <v>167</v>
+      </c>
+      <c r="D64" t="s">
+        <v>22</v>
+      </c>
+      <c r="E64" t="s">
+        <v>64</v>
+      </c>
+      <c r="F64" s="1">
+        <v>1</v>
+      </c>
+      <c r="G64" s="1">
+        <v>7700</v>
+      </c>
+      <c r="H64" s="1">
+        <v>7700</v>
+      </c>
+      <c r="I64" s="1">
+        <v>7700</v>
+      </c>
+      <c r="J64" s="2">
+        <v>197428</v>
+      </c>
+      <c r="K64" s="3">
+        <v>0</v>
+      </c>
+      <c r="L64" s="3">
+        <v>7</v>
+      </c>
+      <c r="M64" s="2">
+        <v>383.89</v>
+      </c>
+      <c r="N64" s="2">
+        <v>0</v>
+      </c>
+      <c r="O64" t="s">
+        <v>25</v>
+      </c>
+      <c r="P64" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="3">
+        <v>18</v>
+      </c>
+      <c r="R64" t="s">
+        <v>190</v>
+      </c>
+      <c r="S64" t="s">
+        <v>27</v>
+      </c>
+      <c r="T64" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20">
+      <c r="A65" t="s">
+        <v>191</v>
+      </c>
+      <c r="B65" t="s">
+        <v>192</v>
+      </c>
+      <c r="C65" t="s">
+        <v>167</v>
+      </c>
+      <c r="D65" t="s">
+        <v>22</v>
+      </c>
+      <c r="E65" t="s">
+        <v>64</v>
+      </c>
+      <c r="F65" s="1">
+        <v>1</v>
+      </c>
+      <c r="G65" s="1">
+        <v>26900</v>
+      </c>
+      <c r="H65" s="1">
+        <v>26900</v>
+      </c>
+      <c r="I65" s="1">
+        <v>26900</v>
+      </c>
+      <c r="J65" s="2">
+        <v>139880</v>
+      </c>
+      <c r="K65" s="3">
+        <v>0</v>
+      </c>
+      <c r="L65" s="3">
+        <v>7</v>
+      </c>
+      <c r="M65" s="2">
+        <v>271.99</v>
+      </c>
+      <c r="N65" s="2">
+        <v>0</v>
+      </c>
+      <c r="O65" t="s">
+        <v>25</v>
+      </c>
+      <c r="P65" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="3">
+        <v>18</v>
+      </c>
+      <c r="R65" t="s">
+        <v>193</v>
+      </c>
+      <c r="S65" t="s">
+        <v>27</v>
+      </c>
+      <c r="T65" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20">
+      <c r="A66" t="s">
+        <v>194</v>
+      </c>
+      <c r="B66" t="s">
+        <v>195</v>
+      </c>
+      <c r="C66" t="s">
+        <v>167</v>
+      </c>
+      <c r="D66" t="s">
+        <v>42</v>
+      </c>
+      <c r="E66" t="s">
+        <v>23</v>
+      </c>
+      <c r="F66" s="1">
+        <v>12</v>
+      </c>
+      <c r="G66" s="1">
+        <v>6600</v>
+      </c>
+      <c r="H66" s="1">
+        <v>6600</v>
+      </c>
+      <c r="I66" s="1">
+        <v>6600</v>
+      </c>
+      <c r="J66" s="2">
+        <v>204930</v>
+      </c>
+      <c r="K66" s="3">
+        <v>0</v>
+      </c>
+      <c r="L66" s="3">
+        <v>7</v>
+      </c>
+      <c r="M66" s="2">
+        <v>398.48</v>
+      </c>
+      <c r="N66" s="2">
+        <v>0</v>
+      </c>
+      <c r="O66" t="s">
+        <v>25</v>
+      </c>
+      <c r="P66" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q66" s="3">
+        <v>18</v>
+      </c>
+      <c r="R66" t="s">
+        <v>196</v>
+      </c>
+      <c r="S66" t="s">
+        <v>27</v>
+      </c>
+      <c r="T66" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20">
+      <c r="A67" t="s">
+        <v>197</v>
+      </c>
+      <c r="B67" t="s">
+        <v>198</v>
+      </c>
+      <c r="C67" t="s">
+        <v>167</v>
+      </c>
+      <c r="D67" t="s">
+        <v>22</v>
+      </c>
+      <c r="E67" t="s">
+        <v>64</v>
+      </c>
+      <c r="F67" s="1">
+        <v>1</v>
+      </c>
+      <c r="G67" s="1">
+        <v>8300</v>
+      </c>
+      <c r="H67" s="1">
+        <v>8300</v>
+      </c>
+      <c r="I67" s="1">
+        <v>8300</v>
+      </c>
+      <c r="J67" s="2">
+        <v>202686</v>
+      </c>
+      <c r="K67" s="3">
+        <v>0</v>
+      </c>
+      <c r="L67" s="3">
+        <v>7</v>
+      </c>
+      <c r="M67" s="2">
+        <v>394.11</v>
+      </c>
+      <c r="N67" s="2">
+        <v>0</v>
+      </c>
+      <c r="O67" t="s">
+        <v>25</v>
+      </c>
+      <c r="P67" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q67" s="3">
+        <v>18</v>
+      </c>
+      <c r="R67" t="s">
+        <v>199</v>
+      </c>
+      <c r="S67" t="s">
+        <v>27</v>
+      </c>
+      <c r="T67" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20">
+      <c r="A68" t="s">
+        <v>200</v>
+      </c>
+      <c r="B68" t="s">
+        <v>201</v>
+      </c>
+      <c r="C68" t="s">
+        <v>167</v>
+      </c>
+      <c r="D68" t="s">
+        <v>65</v>
+      </c>
+      <c r="E68" t="s">
+        <v>88</v>
+      </c>
+      <c r="F68" s="1">
+        <v>5</v>
+      </c>
+      <c r="G68" s="1">
+        <v>3800</v>
+      </c>
+      <c r="H68" s="1">
+        <v>3800</v>
+      </c>
+      <c r="I68" s="1">
+        <v>3800</v>
+      </c>
+      <c r="J68" s="2">
+        <v>224466</v>
+      </c>
+      <c r="K68" s="3">
+        <v>0</v>
+      </c>
+      <c r="L68" s="3">
+        <v>7</v>
+      </c>
+      <c r="M68" s="2">
+        <v>436.46</v>
+      </c>
+      <c r="N68" s="2">
+        <v>0</v>
+      </c>
+      <c r="O68" t="s">
+        <v>25</v>
+      </c>
+      <c r="P68" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="3">
+        <v>18</v>
+      </c>
+      <c r="R68" t="s">
+        <v>202</v>
+      </c>
+      <c r="S68" t="s">
+        <v>27</v>
+      </c>
+      <c r="T68" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20">
+      <c r="A69" t="s">
+        <v>200</v>
+      </c>
+      <c r="B69" t="s">
+        <v>201</v>
+      </c>
+      <c r="C69" t="s">
+        <v>167</v>
+      </c>
+      <c r="D69" t="s">
+        <v>64</v>
+      </c>
+      <c r="E69" t="s">
+        <v>65</v>
+      </c>
+      <c r="F69" s="1">
+        <v>4</v>
+      </c>
+      <c r="G69" s="1">
+        <v>1900</v>
+      </c>
+      <c r="H69" s="1">
+        <v>1900</v>
+      </c>
+      <c r="I69" s="1">
+        <v>0</v>
+      </c>
+      <c r="J69" s="2">
+        <v>112233</v>
+      </c>
+      <c r="K69" s="3">
+        <v>0</v>
+      </c>
+      <c r="L69" s="3">
+        <v>7</v>
+      </c>
+      <c r="M69" s="2">
+        <v>218.23</v>
+      </c>
+      <c r="N69" s="2">
+        <v>0</v>
+      </c>
+      <c r="O69" t="s">
+        <v>25</v>
+      </c>
+      <c r="P69" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="3">
+        <v>18</v>
+      </c>
+      <c r="R69" t="s">
+        <v>203</v>
+      </c>
+      <c r="S69" t="s">
+        <v>27</v>
+      </c>
+      <c r="T69" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20">
+      <c r="A70" t="s">
+        <v>200</v>
+      </c>
+      <c r="B70" t="s">
+        <v>201</v>
+      </c>
+      <c r="C70" t="s">
+        <v>167</v>
+      </c>
+      <c r="D70" t="s">
+        <v>64</v>
+      </c>
+      <c r="E70" t="s">
+        <v>65</v>
+      </c>
+      <c r="F70" s="1">
+        <v>4</v>
+      </c>
+      <c r="G70" s="1">
+        <v>1900</v>
+      </c>
+      <c r="H70" s="1">
+        <v>1900</v>
+      </c>
+      <c r="I70" s="1">
+        <v>0</v>
+      </c>
+      <c r="J70" s="2">
+        <v>112233</v>
+      </c>
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3">
+        <v>8.5</v>
+      </c>
+      <c r="M70" s="2">
+        <v>264.99</v>
+      </c>
+      <c r="N70" s="2">
+        <v>0</v>
+      </c>
+      <c r="O70" t="s">
+        <v>25</v>
+      </c>
+      <c r="P70" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3">
+        <v>18</v>
+      </c>
+      <c r="R70" t="s">
+        <v>204</v>
+      </c>
+      <c r="S70" t="s">
+        <v>27</v>
+      </c>
+      <c r="T70" t="s">
         <v>28</v>
       </c>
     </row>

--- a/data/input/trade_data_patch/huat/private_security_loan.xlsx
+++ b/data/input/trade_data_patch/huat/private_security_loan.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="207">
   <si>
     <t>证券代码</t>
   </si>
@@ -76,33 +76,270 @@
     <t>账户名称</t>
   </si>
   <si>
+    <t>601919</t>
+  </si>
+  <si>
+    <t>中远海控</t>
+  </si>
+  <si>
+    <t>2021-02-02</t>
+  </si>
+  <si>
+    <t>2021-03-01</t>
+  </si>
+  <si>
+    <t>2021-03-02</t>
+  </si>
+  <si>
+    <t>--</t>
+  </si>
+  <si>
+    <t>202102020000000013</t>
+  </si>
+  <si>
+    <t>960000039239</t>
+  </si>
+  <si>
+    <t>鸣石宽墨十一号私募证券投资基金</t>
+  </si>
+  <si>
+    <t>603299</t>
+  </si>
+  <si>
+    <t>苏盐井神</t>
+  </si>
+  <si>
+    <t>2021-02-01</t>
+  </si>
+  <si>
+    <t>2021-02-26</t>
+  </si>
+  <si>
+    <t>202102010000002310</t>
+  </si>
+  <si>
+    <t>002407</t>
+  </si>
+  <si>
+    <t>多氟多</t>
+  </si>
+  <si>
+    <t>202102010000002298</t>
+  </si>
+  <si>
+    <t>300598</t>
+  </si>
+  <si>
+    <t>诚迈科技</t>
+  </si>
+  <si>
+    <t>202102010000002290</t>
+  </si>
+  <si>
+    <t>300001</t>
+  </si>
+  <si>
+    <t>特锐德</t>
+  </si>
+  <si>
+    <t>2021-02-10</t>
+  </si>
+  <si>
+    <t>2021-02-15</t>
+  </si>
+  <si>
+    <t>202102010000002286</t>
+  </si>
+  <si>
+    <t>000725</t>
+  </si>
+  <si>
+    <t>京东方Ａ</t>
+  </si>
+  <si>
+    <t>202102010000002245</t>
+  </si>
+  <si>
+    <t>600655</t>
+  </si>
+  <si>
+    <t>豫园股份</t>
+  </si>
+  <si>
+    <t>202102010000002238</t>
+  </si>
+  <si>
+    <t>603993</t>
+  </si>
+  <si>
+    <t>洛阳钼业</t>
+  </si>
+  <si>
+    <t>2021-02-18</t>
+  </si>
+  <si>
+    <t>202102010000002230</t>
+  </si>
+  <si>
+    <t>202102010000002228</t>
+  </si>
+  <si>
+    <t>600543</t>
+  </si>
+  <si>
+    <t>莫高股份</t>
+  </si>
+  <si>
+    <t>2021-02-05</t>
+  </si>
+  <si>
+    <t>2021-02-08</t>
+  </si>
+  <si>
+    <t>202102010000000058</t>
+  </si>
+  <si>
+    <t>000100</t>
+  </si>
+  <si>
+    <t>TCL科技</t>
+  </si>
+  <si>
+    <t>202102010000000057</t>
+  </si>
+  <si>
+    <t>600059</t>
+  </si>
+  <si>
+    <t>古越龙山</t>
+  </si>
+  <si>
+    <t>2021-01-29</t>
+  </si>
+  <si>
+    <t>2021-02-03</t>
+  </si>
+  <si>
+    <t>2021-02-04</t>
+  </si>
+  <si>
+    <t>202101290000000782</t>
+  </si>
+  <si>
+    <t>002796</t>
+  </si>
+  <si>
+    <t>世嘉科技</t>
+  </si>
+  <si>
+    <t>2021-02-24</t>
+  </si>
+  <si>
+    <t>2021-02-25</t>
+  </si>
+  <si>
+    <t>202101290000000778</t>
+  </si>
+  <si>
+    <t>603377</t>
+  </si>
+  <si>
+    <t>东方时尚</t>
+  </si>
+  <si>
+    <t>2021-02-11</t>
+  </si>
+  <si>
+    <t>202101290000000776</t>
+  </si>
+  <si>
+    <t>600185</t>
+  </si>
+  <si>
+    <t>格力地产</t>
+  </si>
+  <si>
+    <t>2021-01-28</t>
+  </si>
+  <si>
+    <t>202101280000001346</t>
+  </si>
+  <si>
+    <t>601766</t>
+  </si>
+  <si>
+    <t>中国中车</t>
+  </si>
+  <si>
+    <t>202101280000001342</t>
+  </si>
+  <si>
+    <t>603799</t>
+  </si>
+  <si>
+    <t>华友钴业</t>
+  </si>
+  <si>
+    <t>2021-02-23</t>
+  </si>
+  <si>
+    <t>202101280000001309</t>
+  </si>
+  <si>
+    <t>2021-02-17</t>
+  </si>
+  <si>
+    <t>202101280000000088</t>
+  </si>
+  <si>
+    <t>300059</t>
+  </si>
+  <si>
+    <t>东方财富</t>
+  </si>
+  <si>
+    <t>202101280000000087</t>
+  </si>
+  <si>
+    <t>300014</t>
+  </si>
+  <si>
+    <t>亿纬锂能</t>
+  </si>
+  <si>
+    <t>2021-02-19</t>
+  </si>
+  <si>
+    <t>2021-02-22</t>
+  </si>
+  <si>
+    <t>202101280000000086</t>
+  </si>
+  <si>
+    <t>2021-02-12</t>
+  </si>
+  <si>
+    <t>202101280000000085</t>
+  </si>
+  <si>
+    <t>202101280000000084</t>
+  </si>
+  <si>
+    <t>2021-02-09</t>
+  </si>
+  <si>
+    <t>202101280000000083</t>
+  </si>
+  <si>
     <t>603026</t>
   </si>
   <si>
     <t>石大胜华</t>
   </si>
   <si>
-    <t>2021-01-28</t>
-  </si>
-  <si>
-    <t>2021-02-09</t>
-  </si>
-  <si>
-    <t>2021-02-10</t>
-  </si>
-  <si>
-    <t>--</t>
-  </si>
-  <si>
     <t>202101280000000043</t>
   </si>
   <si>
-    <t>960000039239</t>
-  </si>
-  <si>
-    <t>鸣石宽墨十一号私募证券投资基金</t>
-  </si>
-  <si>
     <t>002092</t>
   </si>
   <si>
@@ -139,36 +376,12 @@
     <t>青青稞酒</t>
   </si>
   <si>
-    <t>2021-02-05</t>
-  </si>
-  <si>
-    <t>2021-02-08</t>
-  </si>
-  <si>
     <t>202101270000001299</t>
   </si>
   <si>
-    <t>300014</t>
-  </si>
-  <si>
-    <t>亿纬锂能</t>
-  </si>
-  <si>
-    <t>2021-02-19</t>
-  </si>
-  <si>
-    <t>2021-02-22</t>
-  </si>
-  <si>
     <t>202101270000000139</t>
   </si>
   <si>
-    <t>600543</t>
-  </si>
-  <si>
-    <t>莫高股份</t>
-  </si>
-  <si>
     <t>202101270000000026</t>
   </si>
   <si>
@@ -202,36 +415,6 @@
     <t>202101260000000762</t>
   </si>
   <si>
-    <t>603919</t>
-  </si>
-  <si>
-    <t>金徽酒</t>
-  </si>
-  <si>
-    <t>2021-01-29</t>
-  </si>
-  <si>
-    <t>2021-02-01</t>
-  </si>
-  <si>
-    <t>202101260000000754</t>
-  </si>
-  <si>
-    <t>600559</t>
-  </si>
-  <si>
-    <t>老白干酒</t>
-  </si>
-  <si>
-    <t>202101260000000751</t>
-  </si>
-  <si>
-    <t>202101260000000749</t>
-  </si>
-  <si>
-    <t>202101260000000748</t>
-  </si>
-  <si>
     <t>202101260000000741</t>
   </si>
   <si>
@@ -280,324 +463,162 @@
     <t>亚光科技</t>
   </si>
   <si>
-    <t>2021-02-02</t>
-  </si>
-  <si>
     <t>202101250000001810</t>
   </si>
   <si>
     <t>2021-01-22</t>
   </si>
   <si>
-    <t>2021-02-18</t>
-  </si>
-  <si>
     <t>202101220000000957</t>
   </si>
   <si>
+    <t>002156</t>
+  </si>
+  <si>
+    <t>通富微电</t>
+  </si>
+  <si>
+    <t>2021-01-21</t>
+  </si>
+  <si>
+    <t>202101210000000960</t>
+  </si>
+  <si>
+    <t>000799</t>
+  </si>
+  <si>
+    <t>酒鬼酒</t>
+  </si>
+  <si>
+    <t>202101210000000951</t>
+  </si>
+  <si>
+    <t>603005</t>
+  </si>
+  <si>
+    <t>晶方科技</t>
+  </si>
+  <si>
+    <t>202101210000000942</t>
+  </si>
+  <si>
+    <t>601058</t>
+  </si>
+  <si>
+    <t>赛轮轮胎</t>
+  </si>
+  <si>
+    <t>202101210000000939</t>
+  </si>
+  <si>
+    <t>600967</t>
+  </si>
+  <si>
+    <t>内蒙一机</t>
+  </si>
+  <si>
+    <t>202101210000000012</t>
+  </si>
+  <si>
+    <t>600893</t>
+  </si>
+  <si>
+    <t>航发动力</t>
+  </si>
+  <si>
+    <t>202101210000000011</t>
+  </si>
+  <si>
+    <t>600316</t>
+  </si>
+  <si>
+    <t>洪都航空</t>
+  </si>
+  <si>
+    <t>202101210000000010</t>
+  </si>
+  <si>
+    <t>600776</t>
+  </si>
+  <si>
+    <t>东方通信</t>
+  </si>
+  <si>
+    <t>2021-01-20</t>
+  </si>
+  <si>
+    <t>202101200000001043</t>
+  </si>
+  <si>
+    <t>202101200000001035</t>
+  </si>
+  <si>
+    <t>2021-02-16</t>
+  </si>
+  <si>
+    <t>202101200000000956</t>
+  </si>
+  <si>
+    <t>202101200000000952</t>
+  </si>
+  <si>
+    <t>202101200000000048</t>
+  </si>
+  <si>
+    <t>600460</t>
+  </si>
+  <si>
+    <t>士兰微</t>
+  </si>
+  <si>
+    <t>202101200000000047</t>
+  </si>
+  <si>
+    <t>300274</t>
+  </si>
+  <si>
+    <t>阳光电源</t>
+  </si>
+  <si>
+    <t>202101200000000046</t>
+  </si>
+  <si>
+    <t>2021-01-19</t>
+  </si>
+  <si>
+    <t>202101190000002143</t>
+  </si>
+  <si>
+    <t>600855</t>
+  </si>
+  <si>
+    <t>航天长峰</t>
+  </si>
+  <si>
+    <t>202101190000002142</t>
+  </si>
+  <si>
+    <t>202101190000002126</t>
+  </si>
+  <si>
     <t>600197</t>
   </si>
   <si>
     <t>伊力特</t>
   </si>
   <si>
-    <t>202101220000000956</t>
-  </si>
-  <si>
-    <t>600059</t>
-  </si>
-  <si>
-    <t>古越龙山</t>
-  </si>
-  <si>
-    <t>202101220000000954</t>
-  </si>
-  <si>
-    <t>002156</t>
-  </si>
-  <si>
-    <t>通富微电</t>
-  </si>
-  <si>
-    <t>2021-01-21</t>
-  </si>
-  <si>
-    <t>2021-02-03</t>
-  </si>
-  <si>
-    <t>2021-02-04</t>
-  </si>
-  <si>
-    <t>202101210000000960</t>
-  </si>
-  <si>
-    <t>000799</t>
-  </si>
-  <si>
-    <t>酒鬼酒</t>
-  </si>
-  <si>
-    <t>202101210000000951</t>
-  </si>
-  <si>
-    <t>603005</t>
-  </si>
-  <si>
-    <t>晶方科技</t>
-  </si>
-  <si>
-    <t>202101210000000942</t>
-  </si>
-  <si>
-    <t>601058</t>
-  </si>
-  <si>
-    <t>赛轮轮胎</t>
-  </si>
-  <si>
-    <t>202101210000000939</t>
-  </si>
-  <si>
-    <t>600967</t>
-  </si>
-  <si>
-    <t>内蒙一机</t>
-  </si>
-  <si>
-    <t>202101210000000012</t>
-  </si>
-  <si>
-    <t>600893</t>
-  </si>
-  <si>
-    <t>航发动力</t>
-  </si>
-  <si>
-    <t>202101210000000011</t>
-  </si>
-  <si>
-    <t>600316</t>
-  </si>
-  <si>
-    <t>洪都航空</t>
-  </si>
-  <si>
-    <t>202101210000000010</t>
-  </si>
-  <si>
-    <t>600776</t>
-  </si>
-  <si>
-    <t>东方通信</t>
-  </si>
-  <si>
-    <t>2021-01-20</t>
-  </si>
-  <si>
-    <t>202101200000001043</t>
-  </si>
-  <si>
-    <t>202101200000001035</t>
-  </si>
-  <si>
-    <t>601766</t>
-  </si>
-  <si>
-    <t>中国中车</t>
-  </si>
-  <si>
-    <t>2021-02-16</t>
-  </si>
-  <si>
-    <t>202101200000000956</t>
-  </si>
-  <si>
-    <t>202101200000000952</t>
-  </si>
-  <si>
-    <t>601919</t>
-  </si>
-  <si>
-    <t>中远海控</t>
-  </si>
-  <si>
-    <t>202101200000000048</t>
-  </si>
-  <si>
-    <t>600460</t>
-  </si>
-  <si>
-    <t>士兰微</t>
-  </si>
-  <si>
-    <t>202101200000000047</t>
-  </si>
-  <si>
-    <t>300274</t>
-  </si>
-  <si>
-    <t>阳光电源</t>
-  </si>
-  <si>
-    <t>202101200000000046</t>
-  </si>
-  <si>
-    <t>000725</t>
-  </si>
-  <si>
-    <t>京东方Ａ</t>
-  </si>
-  <si>
-    <t>202101200000000045</t>
-  </si>
-  <si>
-    <t>2021-01-19</t>
-  </si>
-  <si>
-    <t>202101190000002143</t>
-  </si>
-  <si>
-    <t>600855</t>
-  </si>
-  <si>
-    <t>航天长峰</t>
-  </si>
-  <si>
-    <t>202101190000002142</t>
-  </si>
-  <si>
-    <t>202101190000002126</t>
-  </si>
-  <si>
     <t>202101190000002124</t>
   </si>
   <si>
-    <t>202101190000002119</t>
-  </si>
-  <si>
     <t>202101190000002104</t>
   </si>
   <si>
-    <t>202101190000002078</t>
-  </si>
-  <si>
-    <t>300059</t>
-  </si>
-  <si>
-    <t>东方财富</t>
-  </si>
-  <si>
-    <t>202101190000000065</t>
-  </si>
-  <si>
-    <t>600862</t>
-  </si>
-  <si>
-    <t>中航高科</t>
-  </si>
-  <si>
-    <t>202101190000000037</t>
-  </si>
-  <si>
-    <t>600827</t>
-  </si>
-  <si>
-    <t>百联股份</t>
-  </si>
-  <si>
-    <t>202101190000000036</t>
-  </si>
-  <si>
-    <t>202101190000000035</t>
-  </si>
-  <si>
-    <t>300001</t>
-  </si>
-  <si>
-    <t>特锐德</t>
-  </si>
-  <si>
     <t>2021-01-18</t>
   </si>
   <si>
-    <t>202101180000001421</t>
-  </si>
-  <si>
-    <t>002407</t>
-  </si>
-  <si>
-    <t>多氟多</t>
-  </si>
-  <si>
-    <t>202101180000001415</t>
-  </si>
-  <si>
-    <t>202101180000001414</t>
-  </si>
-  <si>
-    <t>202101180000001407</t>
-  </si>
-  <si>
-    <t>202101180000001406</t>
-  </si>
-  <si>
-    <t>202101180000001352</t>
-  </si>
-  <si>
-    <t>603799</t>
-  </si>
-  <si>
-    <t>华友钴业</t>
-  </si>
-  <si>
-    <t>2021-02-12</t>
-  </si>
-  <si>
     <t>202101180000001328</t>
   </si>
   <si>
-    <t>202101180000001323</t>
-  </si>
-  <si>
-    <t>000100</t>
-  </si>
-  <si>
-    <t>TCL科技</t>
-  </si>
-  <si>
-    <t>202101180000001306</t>
-  </si>
-  <si>
-    <t>600760</t>
-  </si>
-  <si>
-    <t>中航沈飞</t>
-  </si>
-  <si>
-    <t>202101180000000151</t>
-  </si>
-  <si>
-    <t>202101180000000150</t>
-  </si>
-  <si>
-    <t>300118</t>
-  </si>
-  <si>
-    <t>东方日升</t>
-  </si>
-  <si>
-    <t>202101180000000149</t>
-  </si>
-  <si>
-    <t>002570</t>
-  </si>
-  <si>
-    <t>贝因美</t>
-  </si>
-  <si>
-    <t>202101180000000148</t>
-  </si>
-  <si>
     <t>002389</t>
   </si>
   <si>
@@ -607,15 +628,6 @@
     <t>202101180000000147</t>
   </si>
   <si>
-    <t>000738</t>
-  </si>
-  <si>
-    <t>航发控制</t>
-  </si>
-  <si>
-    <t>202101180000000146</t>
-  </si>
-  <si>
     <t>000733</t>
   </si>
   <si>
@@ -623,12 +635,6 @@
   </si>
   <si>
     <t>202101180000000145</t>
-  </si>
-  <si>
-    <t>202101180000000130</t>
-  </si>
-  <si>
-    <t>202101180000000125</t>
   </si>
 </sst>
 </file>
@@ -968,7 +974,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T70"/>
+  <dimension ref="A1:T65"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0"/>
   </sheetViews>
@@ -1075,25 +1081,25 @@
         <v>24</v>
       </c>
       <c r="F2" s="1">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="G2" s="1">
-        <v>1300</v>
+        <v>1700</v>
       </c>
       <c r="H2" s="1">
-        <v>1300</v>
+        <v>1700</v>
       </c>
       <c r="I2" s="1">
         <v>0</v>
       </c>
       <c r="J2" s="2">
-        <v>90181</v>
+        <v>20536</v>
       </c>
       <c r="K2" s="3">
         <v>0</v>
       </c>
       <c r="L2" s="3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M2" s="2">
         <v>0</v>
@@ -1128,37 +1134,37 @@
         <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" t="s">
         <v>23</v>
       </c>
-      <c r="E3" t="s">
-        <v>24</v>
-      </c>
       <c r="F3" s="1">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="G3" s="1">
-        <v>11700</v>
+        <v>12800</v>
       </c>
       <c r="H3" s="1">
-        <v>11700</v>
+        <v>12800</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="2">
-        <v>100503</v>
+        <v>104448</v>
       </c>
       <c r="K3" s="3">
         <v>0</v>
       </c>
       <c r="L3" s="3">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="M3" s="2">
-        <v>0</v>
+        <v>24.66</v>
       </c>
       <c r="N3" s="2">
         <v>0</v>
@@ -1173,7 +1179,7 @@
         <v>18</v>
       </c>
       <c r="R3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="S3" t="s">
         <v>27</v>
@@ -1184,43 +1190,43 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" t="s">
         <v>32</v>
       </c>
-      <c r="B4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>23</v>
       </c>
-      <c r="E4" t="s">
-        <v>24</v>
-      </c>
       <c r="F4" s="1">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="G4" s="1">
-        <v>7000</v>
+        <v>4200</v>
       </c>
       <c r="H4" s="1">
-        <v>7000</v>
+        <v>4200</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="2">
-        <v>103390</v>
+        <v>95760</v>
       </c>
       <c r="K4" s="3">
         <v>0</v>
       </c>
       <c r="L4" s="3">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="M4" s="2">
-        <v>0</v>
+        <v>22.61</v>
       </c>
       <c r="N4" s="2">
         <v>0</v>
@@ -1235,7 +1241,7 @@
         <v>18</v>
       </c>
       <c r="R4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="S4" t="s">
         <v>27</v>
@@ -1246,34 +1252,34 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" t="s">
         <v>32</v>
       </c>
-      <c r="B5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>23</v>
       </c>
-      <c r="E5" t="s">
-        <v>24</v>
-      </c>
       <c r="F5" s="1">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="G5" s="1">
-        <v>6600</v>
+        <v>1200</v>
       </c>
       <c r="H5" s="1">
-        <v>6600</v>
+        <v>1200</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="2">
-        <v>97482</v>
+        <v>94560</v>
       </c>
       <c r="K5" s="3">
         <v>0</v>
@@ -1282,7 +1288,7 @@
         <v>8.5</v>
       </c>
       <c r="M5" s="2">
-        <v>23.02</v>
+        <v>22.33</v>
       </c>
       <c r="N5" s="2">
         <v>0</v>
@@ -1297,7 +1303,7 @@
         <v>18</v>
       </c>
       <c r="R5" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="S5" t="s">
         <v>27</v>
@@ -1308,34 +1314,34 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E6" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F6" s="1">
         <v>13</v>
       </c>
       <c r="G6" s="1">
-        <v>11600</v>
+        <v>1600</v>
       </c>
       <c r="H6" s="1">
-        <v>11600</v>
+        <v>1600</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
       </c>
       <c r="J6" s="2">
-        <v>99644</v>
+        <v>56896</v>
       </c>
       <c r="K6" s="3">
         <v>0</v>
@@ -1344,7 +1350,7 @@
         <v>8.5</v>
       </c>
       <c r="M6" s="2">
-        <v>23.53</v>
+        <v>13.43</v>
       </c>
       <c r="N6" s="2">
         <v>0</v>
@@ -1359,7 +1365,7 @@
         <v>18</v>
       </c>
       <c r="R6" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="S6" t="s">
         <v>27</v>
@@ -1370,43 +1376,43 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E7" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F7" s="1">
         <v>13</v>
       </c>
       <c r="G7" s="1">
-        <v>1600</v>
+        <v>3500</v>
       </c>
       <c r="H7" s="1">
-        <v>1600</v>
+        <v>3500</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
       </c>
       <c r="J7" s="2">
-        <v>110992</v>
+        <v>21805</v>
       </c>
       <c r="K7" s="3">
         <v>0</v>
       </c>
       <c r="L7" s="3">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="M7" s="2">
-        <v>26.21</v>
+        <v>5.45</v>
       </c>
       <c r="N7" s="2">
         <v>0</v>
@@ -1421,7 +1427,7 @@
         <v>18</v>
       </c>
       <c r="R7" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="S7" t="s">
         <v>27</v>
@@ -1432,34 +1438,34 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F8" s="1">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G8" s="1">
-        <v>1000</v>
+        <v>19200</v>
       </c>
       <c r="H8" s="1">
-        <v>1000</v>
+        <v>19200</v>
       </c>
       <c r="I8" s="1">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="J8" s="2">
-        <v>15550</v>
+        <v>204288</v>
       </c>
       <c r="K8" s="3">
         <v>0</v>
@@ -1468,7 +1474,7 @@
         <v>9</v>
       </c>
       <c r="M8" s="2">
-        <v>3.89</v>
+        <v>51.07</v>
       </c>
       <c r="N8" s="2">
         <v>0</v>
@@ -1483,7 +1489,7 @@
         <v>18</v>
       </c>
       <c r="R8" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="S8" t="s">
         <v>27</v>
@@ -1494,43 +1500,43 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D9" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E9" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="F9" s="1">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="G9" s="1">
-        <v>1900</v>
+        <v>1000</v>
       </c>
       <c r="H9" s="1">
-        <v>1900</v>
+        <v>1000</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
       </c>
       <c r="J9" s="2">
-        <v>216277</v>
+        <v>5960</v>
       </c>
       <c r="K9" s="3">
         <v>0</v>
       </c>
       <c r="L9" s="3">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="M9" s="2">
-        <v>42.05</v>
+        <v>1.49</v>
       </c>
       <c r="N9" s="2">
         <v>0</v>
@@ -1545,7 +1551,7 @@
         <v>18</v>
       </c>
       <c r="R9" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="S9" t="s">
         <v>27</v>
@@ -1556,43 +1562,43 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="E10" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="F10" s="1">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="G10" s="1">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="H10" s="1">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="I10" s="1">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="J10" s="2">
-        <v>9264</v>
+        <v>12080</v>
       </c>
       <c r="K10" s="3">
         <v>0</v>
       </c>
       <c r="L10" s="3">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="M10" s="2">
-        <v>1.8</v>
+        <v>3.02</v>
       </c>
       <c r="N10" s="2">
         <v>0</v>
@@ -1607,7 +1613,7 @@
         <v>18</v>
       </c>
       <c r="R10" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="S10" t="s">
         <v>27</v>
@@ -1618,43 +1624,43 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B11" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C11" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="D11" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="E11" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="F11" s="1">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="G11" s="1">
-        <v>10000</v>
+        <v>24500</v>
       </c>
       <c r="H11" s="1">
-        <v>10000</v>
+        <v>24500</v>
       </c>
       <c r="I11" s="1">
-        <v>10000</v>
+        <v>24500</v>
       </c>
       <c r="J11" s="2">
-        <v>81800</v>
+        <v>181790</v>
       </c>
       <c r="K11" s="3">
         <v>0</v>
       </c>
       <c r="L11" s="3">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="M11" s="2">
-        <v>38.63</v>
+        <v>35.35</v>
       </c>
       <c r="N11" s="2">
         <v>0</v>
@@ -1669,7 +1675,7 @@
         <v>18</v>
       </c>
       <c r="R11" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="S11" t="s">
         <v>27</v>
@@ -1680,43 +1686,43 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B12" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C12" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="D12" t="s">
         <v>42</v>
       </c>
       <c r="E12" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="F12" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G12" s="1">
-        <v>400</v>
+        <v>1900</v>
       </c>
       <c r="H12" s="1">
-        <v>400</v>
+        <v>1900</v>
       </c>
       <c r="I12" s="1">
-        <v>400</v>
+        <v>1900</v>
       </c>
       <c r="J12" s="2">
-        <v>3392</v>
+        <v>17157</v>
       </c>
       <c r="K12" s="3">
         <v>0</v>
       </c>
       <c r="L12" s="3">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M12" s="2">
-        <v>1.7</v>
+        <v>2.38</v>
       </c>
       <c r="N12" s="2">
         <v>0</v>
@@ -1731,7 +1737,7 @@
         <v>18</v>
       </c>
       <c r="R12" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="S12" t="s">
         <v>27</v>
@@ -1742,43 +1748,43 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B13" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C13" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="D13" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="E13" t="s">
-        <v>23</v>
+        <v>68</v>
       </c>
       <c r="F13" s="1">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="G13" s="1">
-        <v>9500</v>
+        <v>16300</v>
       </c>
       <c r="H13" s="1">
-        <v>9500</v>
+        <v>16300</v>
       </c>
       <c r="I13" s="1">
-        <v>9500</v>
+        <v>16300</v>
       </c>
       <c r="J13" s="2">
-        <v>94620</v>
+        <v>201957</v>
       </c>
       <c r="K13" s="3">
         <v>0</v>
       </c>
       <c r="L13" s="3">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="M13" s="2">
-        <v>44.68</v>
+        <v>201.96</v>
       </c>
       <c r="N13" s="2">
         <v>0</v>
@@ -1793,7 +1799,7 @@
         <v>18</v>
       </c>
       <c r="R13" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="S13" t="s">
         <v>27</v>
@@ -1804,34 +1810,34 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="B14" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="C14" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="D14" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="E14" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="F14" s="1">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="G14" s="1">
-        <v>5100</v>
+        <v>16600</v>
       </c>
       <c r="H14" s="1">
-        <v>5100</v>
+        <v>16600</v>
       </c>
       <c r="I14" s="1">
-        <v>5100</v>
+        <v>16600</v>
       </c>
       <c r="J14" s="2">
-        <v>185640</v>
+        <v>197042</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1840,7 +1846,7 @@
         <v>9</v>
       </c>
       <c r="M14" s="2">
-        <v>92.82</v>
+        <v>197.04</v>
       </c>
       <c r="N14" s="2">
         <v>0</v>
@@ -1855,7 +1861,7 @@
         <v>18</v>
       </c>
       <c r="R14" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="S14" t="s">
         <v>27</v>
@@ -1866,34 +1872,34 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="B15" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="C15" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="D15" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="E15" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="F15" s="1">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G15" s="1">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="H15" s="1">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="I15" s="1">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="J15" s="2">
-        <v>186970</v>
+        <v>59250</v>
       </c>
       <c r="K15" s="3">
         <v>0</v>
@@ -1902,7 +1908,7 @@
         <v>9</v>
       </c>
       <c r="M15" s="2">
-        <v>93.48</v>
+        <v>59.25</v>
       </c>
       <c r="N15" s="2">
         <v>0</v>
@@ -1917,7 +1923,7 @@
         <v>18</v>
       </c>
       <c r="R15" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="S15" t="s">
         <v>27</v>
@@ -1928,34 +1934,34 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="B16" t="s">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="C16" t="s">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="D16" t="s">
-        <v>64</v>
+        <v>22</v>
       </c>
       <c r="E16" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F16" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G16" s="1">
-        <v>25900</v>
+        <v>10000</v>
       </c>
       <c r="H16" s="1">
-        <v>25900</v>
+        <v>10000</v>
       </c>
       <c r="I16" s="1">
-        <v>25900</v>
+        <v>10000</v>
       </c>
       <c r="J16" s="2">
-        <v>191401</v>
+        <v>59600</v>
       </c>
       <c r="K16" s="3">
         <v>0</v>
@@ -1964,7 +1970,7 @@
         <v>9</v>
       </c>
       <c r="M16" s="2">
-        <v>95.7</v>
+        <v>74.5</v>
       </c>
       <c r="N16" s="2">
         <v>0</v>
@@ -1979,7 +1985,7 @@
         <v>18</v>
       </c>
       <c r="R16" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="S16" t="s">
         <v>27</v>
@@ -1990,43 +1996,43 @@
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>39</v>
+        <v>83</v>
       </c>
       <c r="B17" t="s">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="C17" t="s">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="D17" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="E17" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="F17" s="1">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G17" s="1">
-        <v>11600</v>
+        <v>9100</v>
       </c>
       <c r="H17" s="1">
-        <v>11600</v>
+        <v>9100</v>
       </c>
       <c r="I17" s="1">
-        <v>10600</v>
+        <v>9100</v>
       </c>
       <c r="J17" s="2">
-        <v>184788</v>
+        <v>59059</v>
       </c>
       <c r="K17" s="3">
         <v>0</v>
       </c>
       <c r="L17" s="3">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="M17" s="2">
-        <v>92.39</v>
+        <v>69.72</v>
       </c>
       <c r="N17" s="2">
         <v>0</v>
@@ -2041,7 +2047,7 @@
         <v>18</v>
       </c>
       <c r="R17" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="S17" t="s">
         <v>27</v>
@@ -2052,34 +2058,34 @@
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="B18" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="C18" t="s">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="D18" t="s">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="E18" t="s">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="F18" s="1">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="G18" s="1">
-        <v>9800</v>
+        <v>1900</v>
       </c>
       <c r="H18" s="1">
-        <v>9800</v>
+        <v>1900</v>
       </c>
       <c r="I18" s="1">
-        <v>9800</v>
+        <v>1900</v>
       </c>
       <c r="J18" s="2">
-        <v>83104</v>
+        <v>191615</v>
       </c>
       <c r="K18" s="3">
         <v>0</v>
@@ -2088,7 +2094,7 @@
         <v>9</v>
       </c>
       <c r="M18" s="2">
-        <v>41.55</v>
+        <v>239.52</v>
       </c>
       <c r="N18" s="2">
         <v>0</v>
@@ -2103,7 +2109,7 @@
         <v>18</v>
       </c>
       <c r="R18" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="S18" t="s">
         <v>27</v>
@@ -2114,43 +2120,43 @@
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>73</v>
+        <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="C19" t="s">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="D19" t="s">
         <v>42</v>
       </c>
       <c r="E19" t="s">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="F19" s="1">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G19" s="1">
-        <v>1400</v>
+        <v>13900</v>
       </c>
       <c r="H19" s="1">
-        <v>1400</v>
+        <v>13900</v>
       </c>
       <c r="I19" s="1">
-        <v>1400</v>
+        <v>13900</v>
       </c>
       <c r="J19" s="2">
-        <v>192360</v>
+        <v>181117</v>
       </c>
       <c r="K19" s="3">
         <v>0</v>
       </c>
       <c r="L19" s="3">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M19" s="2">
-        <v>96.18</v>
+        <v>125.78</v>
       </c>
       <c r="N19" s="2">
         <v>0</v>
@@ -2165,7 +2171,7 @@
         <v>18</v>
       </c>
       <c r="R19" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="S19" t="s">
         <v>27</v>
@@ -2176,43 +2182,43 @@
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="B20" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="C20" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E20" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="F20" s="1">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G20" s="1">
-        <v>22900</v>
+        <v>5400</v>
       </c>
       <c r="H20" s="1">
-        <v>22900</v>
+        <v>5400</v>
       </c>
       <c r="I20" s="1">
-        <v>22900</v>
+        <v>5400</v>
       </c>
       <c r="J20" s="2">
-        <v>210451</v>
+        <v>195480</v>
       </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
       <c r="L20" s="3">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M20" s="2">
-        <v>157.84</v>
+        <v>190.05</v>
       </c>
       <c r="N20" s="2">
         <v>0</v>
@@ -2227,7 +2233,7 @@
         <v>18</v>
       </c>
       <c r="R20" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="S20" t="s">
         <v>27</v>
@@ -2238,43 +2244,43 @@
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="B21" t="s">
+        <v>96</v>
+      </c>
+      <c r="C21" t="s">
         <v>81</v>
       </c>
-      <c r="C21" t="s">
-        <v>78</v>
-      </c>
       <c r="D21" t="s">
-        <v>41</v>
+        <v>97</v>
       </c>
       <c r="E21" t="s">
-        <v>42</v>
+        <v>98</v>
       </c>
       <c r="F21" s="1">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G21" s="1">
-        <v>1200</v>
+        <v>1800</v>
       </c>
       <c r="H21" s="1">
-        <v>1200</v>
+        <v>1800</v>
       </c>
       <c r="I21" s="1">
-        <v>1200</v>
+        <v>1800</v>
       </c>
       <c r="J21" s="2">
-        <v>10188</v>
+        <v>196200</v>
       </c>
       <c r="K21" s="3">
         <v>0</v>
       </c>
       <c r="L21" s="3">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M21" s="2">
-        <v>7.64</v>
+        <v>190.75</v>
       </c>
       <c r="N21" s="2">
         <v>0</v>
@@ -2289,7 +2295,7 @@
         <v>18</v>
       </c>
       <c r="R21" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="S21" t="s">
         <v>27</v>
@@ -2300,43 +2306,43 @@
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="B22" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="C22" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E22" t="s">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="F22" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G22" s="1">
-        <v>1400</v>
+        <v>15000</v>
       </c>
       <c r="H22" s="1">
-        <v>1400</v>
+        <v>15000</v>
       </c>
       <c r="I22" s="1">
-        <v>1400</v>
+        <v>15000</v>
       </c>
       <c r="J22" s="2">
-        <v>151508</v>
+        <v>133200</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
       </c>
       <c r="L22" s="3">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M22" s="2">
-        <v>113.63</v>
+        <v>92.5</v>
       </c>
       <c r="N22" s="2">
         <v>0</v>
@@ -2351,7 +2357,7 @@
         <v>18</v>
       </c>
       <c r="R22" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="S22" t="s">
         <v>27</v>
@@ -2362,43 +2368,43 @@
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>86</v>
+        <v>45</v>
       </c>
       <c r="B23" t="s">
-        <v>87</v>
+        <v>46</v>
       </c>
       <c r="C23" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D23" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="E23" t="s">
-        <v>88</v>
+        <v>43</v>
       </c>
       <c r="F23" s="1">
+        <v>13</v>
+      </c>
+      <c r="G23" s="1">
+        <v>28900</v>
+      </c>
+      <c r="H23" s="1">
+        <v>28900</v>
+      </c>
+      <c r="I23" s="1">
+        <v>28900</v>
+      </c>
+      <c r="J23" s="2">
+        <v>184382</v>
+      </c>
+      <c r="K23" s="3">
+        <v>0</v>
+      </c>
+      <c r="L23" s="3">
         <v>5</v>
       </c>
-      <c r="G23" s="1">
-        <v>16600</v>
-      </c>
-      <c r="H23" s="1">
-        <v>16600</v>
-      </c>
-      <c r="I23" s="1">
-        <v>16600</v>
-      </c>
-      <c r="J23" s="2">
-        <v>194552</v>
-      </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
-      <c r="L23" s="3">
-        <v>9</v>
-      </c>
       <c r="M23" s="2">
-        <v>145.91</v>
+        <v>128.04</v>
       </c>
       <c r="N23" s="2">
         <v>0</v>
@@ -2413,7 +2419,7 @@
         <v>18</v>
       </c>
       <c r="R23" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="S23" t="s">
         <v>27</v>
@@ -2424,43 +2430,43 @@
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="B24" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="C24" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="D24" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="E24" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="F24" s="1">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="G24" s="1">
-        <v>500</v>
+        <v>6400</v>
       </c>
       <c r="H24" s="1">
-        <v>500</v>
+        <v>6400</v>
       </c>
       <c r="I24" s="1">
-        <v>500</v>
+        <v>6400</v>
       </c>
       <c r="J24" s="2">
-        <v>53655</v>
+        <v>56832</v>
       </c>
       <c r="K24" s="3">
         <v>0</v>
       </c>
       <c r="L24" s="3">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M24" s="2">
-        <v>80.48</v>
+        <v>39.47</v>
       </c>
       <c r="N24" s="2">
         <v>0</v>
@@ -2475,7 +2481,7 @@
         <v>18</v>
       </c>
       <c r="R24" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="S24" t="s">
         <v>27</v>
@@ -2486,43 +2492,43 @@
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="B25" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="C25" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="D25" t="s">
-        <v>35</v>
+        <v>103</v>
       </c>
       <c r="E25" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="F25" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G25" s="1">
-        <v>4000</v>
+        <v>1300</v>
       </c>
       <c r="H25" s="1">
-        <v>4000</v>
+        <v>1300</v>
       </c>
       <c r="I25" s="1">
-        <v>0</v>
+        <v>1300</v>
       </c>
       <c r="J25" s="2">
-        <v>96000</v>
+        <v>86320</v>
       </c>
       <c r="K25" s="3">
         <v>0</v>
       </c>
       <c r="L25" s="3">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M25" s="2">
-        <v>144</v>
+        <v>83.92</v>
       </c>
       <c r="N25" s="2">
         <v>0</v>
@@ -2537,7 +2543,7 @@
         <v>18</v>
       </c>
       <c r="R25" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="S25" t="s">
         <v>27</v>
@@ -2548,43 +2554,43 @@
     </row>
     <row r="26" spans="1:20">
       <c r="A26" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="B26" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="C26" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="D26" t="s">
-        <v>35</v>
+        <v>103</v>
       </c>
       <c r="E26" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="F26" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G26" s="1">
-        <v>13800</v>
+        <v>11700</v>
       </c>
       <c r="H26" s="1">
-        <v>13800</v>
+        <v>11700</v>
       </c>
       <c r="I26" s="1">
-        <v>0</v>
+        <v>11700</v>
       </c>
       <c r="J26" s="2">
-        <v>189612</v>
+        <v>96993</v>
       </c>
       <c r="K26" s="3">
         <v>0</v>
       </c>
       <c r="L26" s="3">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M26" s="2">
-        <v>284.42</v>
+        <v>94.3</v>
       </c>
       <c r="N26" s="2">
         <v>0</v>
@@ -2599,7 +2605,7 @@
         <v>18</v>
       </c>
       <c r="R26" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="S26" t="s">
         <v>27</v>
@@ -2610,43 +2616,43 @@
     </row>
     <row r="27" spans="1:20">
       <c r="A27" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="B27" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="C27" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="D27" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E27" t="s">
-        <v>103</v>
+        <v>42</v>
       </c>
       <c r="F27" s="1">
+        <v>8</v>
+      </c>
+      <c r="G27" s="1">
+        <v>7000</v>
+      </c>
+      <c r="H27" s="1">
+        <v>7000</v>
+      </c>
+      <c r="I27" s="1">
+        <v>7000</v>
+      </c>
+      <c r="J27" s="2">
+        <v>95970</v>
+      </c>
+      <c r="K27" s="3">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3">
         <v>7</v>
       </c>
-      <c r="G27" s="1">
-        <v>1600</v>
-      </c>
-      <c r="H27" s="1">
-        <v>1600</v>
-      </c>
-      <c r="I27" s="1">
-        <v>1600</v>
-      </c>
-      <c r="J27" s="2">
-        <v>47440</v>
-      </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
-      <c r="L27" s="3">
-        <v>8.5</v>
-      </c>
       <c r="M27" s="2">
-        <v>78.41</v>
+        <v>93.3</v>
       </c>
       <c r="N27" s="2">
         <v>0</v>
@@ -2661,7 +2667,7 @@
         <v>18</v>
       </c>
       <c r="R27" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="S27" t="s">
         <v>27</v>
@@ -2672,34 +2678,34 @@
     </row>
     <row r="28" spans="1:20">
       <c r="A28" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B28" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="C28" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D28" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E28" t="s">
-        <v>103</v>
+        <v>42</v>
       </c>
       <c r="F28" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G28" s="1">
-        <v>1200</v>
+        <v>6600</v>
       </c>
       <c r="H28" s="1">
-        <v>1200</v>
+        <v>6600</v>
       </c>
       <c r="I28" s="1">
-        <v>1200</v>
+        <v>6600</v>
       </c>
       <c r="J28" s="2">
-        <v>221280</v>
+        <v>97482</v>
       </c>
       <c r="K28" s="3">
         <v>0</v>
@@ -2708,7 +2714,7 @@
         <v>8.5</v>
       </c>
       <c r="M28" s="2">
-        <v>365.73</v>
+        <v>138.1</v>
       </c>
       <c r="N28" s="2">
         <v>0</v>
@@ -2723,7 +2729,7 @@
         <v>18</v>
       </c>
       <c r="R28" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="S28" t="s">
         <v>27</v>
@@ -2740,37 +2746,37 @@
         <v>109</v>
       </c>
       <c r="C29" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D29" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="E29" t="s">
-        <v>102</v>
+        <v>42</v>
       </c>
       <c r="F29" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G29" s="1">
-        <v>2300</v>
+        <v>11600</v>
       </c>
       <c r="H29" s="1">
-        <v>2300</v>
+        <v>11600</v>
       </c>
       <c r="I29" s="1">
-        <v>2300</v>
+        <v>11600</v>
       </c>
       <c r="J29" s="2">
-        <v>200491</v>
+        <v>99644</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
       </c>
       <c r="L29" s="3">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="M29" s="2">
-        <v>350.86</v>
+        <v>141.16</v>
       </c>
       <c r="N29" s="2">
         <v>0</v>
@@ -2785,7 +2791,7 @@
         <v>18</v>
       </c>
       <c r="R29" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="S29" t="s">
         <v>27</v>
@@ -2796,43 +2802,43 @@
     </row>
     <row r="30" spans="1:20">
       <c r="A30" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B30" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C30" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D30" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="E30" t="s">
-        <v>102</v>
+        <v>42</v>
       </c>
       <c r="F30" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G30" s="1">
-        <v>23300</v>
+        <v>1600</v>
       </c>
       <c r="H30" s="1">
-        <v>23300</v>
+        <v>1600</v>
       </c>
       <c r="I30" s="1">
-        <v>23300</v>
+        <v>1600</v>
       </c>
       <c r="J30" s="2">
-        <v>204574</v>
+        <v>110992</v>
       </c>
       <c r="K30" s="3">
         <v>0</v>
       </c>
       <c r="L30" s="3">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="M30" s="2">
-        <v>358</v>
+        <v>157.24</v>
       </c>
       <c r="N30" s="2">
         <v>0</v>
@@ -2847,7 +2853,7 @@
         <v>18</v>
       </c>
       <c r="R30" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="S30" t="s">
         <v>27</v>
@@ -2858,43 +2864,43 @@
     </row>
     <row r="31" spans="1:20">
       <c r="A31" t="s">
+        <v>118</v>
+      </c>
+      <c r="B31" t="s">
+        <v>119</v>
+      </c>
+      <c r="C31" t="s">
         <v>114</v>
       </c>
-      <c r="B31" t="s">
-        <v>115</v>
-      </c>
-      <c r="C31" t="s">
-        <v>101</v>
-      </c>
       <c r="D31" t="s">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="E31" t="s">
-        <v>102</v>
+        <v>59</v>
       </c>
       <c r="F31" s="1">
         <v>6</v>
       </c>
       <c r="G31" s="1">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="H31" s="1">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="I31" s="1">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="J31" s="2">
-        <v>121800</v>
+        <v>15550</v>
       </c>
       <c r="K31" s="3">
         <v>0</v>
       </c>
       <c r="L31" s="3">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="M31" s="2">
-        <v>165.78</v>
+        <v>23.32</v>
       </c>
       <c r="N31" s="2">
         <v>0</v>
@@ -2909,7 +2915,7 @@
         <v>18</v>
       </c>
       <c r="R31" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="S31" t="s">
         <v>27</v>
@@ -2920,43 +2926,43 @@
     </row>
     <row r="32" spans="1:20">
       <c r="A32" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="B32" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="C32" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D32" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="E32" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F32" s="1">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="G32" s="1">
-        <v>1400</v>
+        <v>1900</v>
       </c>
       <c r="H32" s="1">
-        <v>1400</v>
+        <v>1900</v>
       </c>
       <c r="I32" s="1">
-        <v>1400</v>
+        <v>1900</v>
       </c>
       <c r="J32" s="2">
-        <v>102312</v>
+        <v>216277</v>
       </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
       <c r="L32" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M32" s="2">
-        <v>99.47</v>
+        <v>252.32</v>
       </c>
       <c r="N32" s="2">
         <v>0</v>
@@ -2971,7 +2977,7 @@
         <v>18</v>
       </c>
       <c r="R32" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="S32" t="s">
         <v>27</v>
@@ -2982,34 +2988,34 @@
     </row>
     <row r="33" spans="1:20">
       <c r="A33" t="s">
-        <v>120</v>
+        <v>56</v>
       </c>
       <c r="B33" t="s">
-        <v>121</v>
+        <v>57</v>
       </c>
       <c r="C33" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D33" t="s">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="E33" t="s">
-        <v>102</v>
+        <v>59</v>
       </c>
       <c r="F33" s="1">
         <v>6</v>
       </c>
       <c r="G33" s="1">
-        <v>3900</v>
+        <v>1200</v>
       </c>
       <c r="H33" s="1">
-        <v>3900</v>
+        <v>1200</v>
       </c>
       <c r="I33" s="1">
-        <v>3900</v>
+        <v>1200</v>
       </c>
       <c r="J33" s="2">
-        <v>201630</v>
+        <v>9264</v>
       </c>
       <c r="K33" s="3">
         <v>0</v>
@@ -3018,7 +3024,7 @@
         <v>7</v>
       </c>
       <c r="M33" s="2">
-        <v>274.44</v>
+        <v>10.81</v>
       </c>
       <c r="N33" s="2">
         <v>0</v>
@@ -3053,25 +3059,25 @@
         <v>125</v>
       </c>
       <c r="D34" t="s">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="E34" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F34" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G34" s="1">
-        <v>7900</v>
+        <v>10000</v>
       </c>
       <c r="H34" s="1">
-        <v>7900</v>
+        <v>10000</v>
       </c>
       <c r="I34" s="1">
-        <v>7900</v>
+        <v>10000</v>
       </c>
       <c r="J34" s="2">
-        <v>99382</v>
+        <v>81800</v>
       </c>
       <c r="K34" s="3">
         <v>0</v>
@@ -3080,7 +3086,7 @@
         <v>8.5</v>
       </c>
       <c r="M34" s="2">
-        <v>187.72</v>
+        <v>135.2</v>
       </c>
       <c r="N34" s="2">
         <v>0</v>
@@ -3106,43 +3112,43 @@
     </row>
     <row r="35" spans="1:20">
       <c r="A35" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="B35" t="s">
-        <v>100</v>
+        <v>128</v>
       </c>
       <c r="C35" t="s">
         <v>125</v>
       </c>
       <c r="D35" t="s">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="E35" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F35" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G35" s="1">
-        <v>3400</v>
+        <v>400</v>
       </c>
       <c r="H35" s="1">
-        <v>3400</v>
+        <v>400</v>
       </c>
       <c r="I35" s="1">
-        <v>3400</v>
+        <v>400</v>
       </c>
       <c r="J35" s="2">
-        <v>102272</v>
+        <v>3392</v>
       </c>
       <c r="K35" s="3">
         <v>0</v>
       </c>
       <c r="L35" s="3">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="M35" s="2">
-        <v>193.18</v>
+        <v>5.94</v>
       </c>
       <c r="N35" s="2">
         <v>0</v>
@@ -3157,7 +3163,7 @@
         <v>18</v>
       </c>
       <c r="R35" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="S35" t="s">
         <v>27</v>
@@ -3168,43 +3174,43 @@
     </row>
     <row r="36" spans="1:20">
       <c r="A36" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B36" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C36" t="s">
         <v>125</v>
       </c>
       <c r="D36" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="E36" t="s">
-        <v>130</v>
+        <v>103</v>
       </c>
       <c r="F36" s="1">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="G36" s="1">
-        <v>19200</v>
+        <v>9500</v>
       </c>
       <c r="H36" s="1">
-        <v>19200</v>
+        <v>9500</v>
       </c>
       <c r="I36" s="1">
-        <v>19200</v>
+        <v>9500</v>
       </c>
       <c r="J36" s="2">
-        <v>131904</v>
+        <v>94620</v>
       </c>
       <c r="K36" s="3">
         <v>0</v>
       </c>
       <c r="L36" s="3">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="M36" s="2">
-        <v>263.81</v>
+        <v>156.39</v>
       </c>
       <c r="N36" s="2">
         <v>0</v>
@@ -3219,7 +3225,7 @@
         <v>18</v>
       </c>
       <c r="R36" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="S36" t="s">
         <v>27</v>
@@ -3230,34 +3236,34 @@
     </row>
     <row r="37" spans="1:20">
       <c r="A37" t="s">
-        <v>73</v>
+        <v>127</v>
       </c>
       <c r="B37" t="s">
-        <v>74</v>
+        <v>128</v>
       </c>
       <c r="C37" t="s">
         <v>125</v>
       </c>
       <c r="D37" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E37" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="F37" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G37" s="1">
-        <v>100</v>
+        <v>9800</v>
       </c>
       <c r="H37" s="1">
-        <v>100</v>
+        <v>9800</v>
       </c>
       <c r="I37" s="1">
-        <v>100</v>
+        <v>9800</v>
       </c>
       <c r="J37" s="2">
-        <v>12698</v>
+        <v>83104</v>
       </c>
       <c r="K37" s="3">
         <v>0</v>
@@ -3266,7 +3272,7 @@
         <v>9</v>
       </c>
       <c r="M37" s="2">
-        <v>25.4</v>
+        <v>145.43</v>
       </c>
       <c r="N37" s="2">
         <v>0</v>
@@ -3281,7 +3287,7 @@
         <v>18</v>
       </c>
       <c r="R37" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="S37" t="s">
         <v>27</v>
@@ -3292,43 +3298,43 @@
     </row>
     <row r="38" spans="1:20">
       <c r="A38" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B38" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C38" t="s">
         <v>125</v>
       </c>
       <c r="D38" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E38" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="F38" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G38" s="1">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="H38" s="1">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="I38" s="1">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="J38" s="2">
-        <v>21060</v>
+        <v>192360</v>
       </c>
       <c r="K38" s="3">
         <v>0</v>
       </c>
       <c r="L38" s="3">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M38" s="2">
-        <v>23.4</v>
+        <v>336.63</v>
       </c>
       <c r="N38" s="2">
         <v>0</v>
@@ -3343,7 +3349,7 @@
         <v>18</v>
       </c>
       <c r="R38" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="S38" t="s">
         <v>27</v>
@@ -3354,43 +3360,43 @@
     </row>
     <row r="39" spans="1:20">
       <c r="A39" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B39" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C39" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="D39" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="E39" t="s">
-        <v>130</v>
+        <v>59</v>
       </c>
       <c r="F39" s="1">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="G39" s="1">
-        <v>4200</v>
+        <v>22900</v>
       </c>
       <c r="H39" s="1">
-        <v>4200</v>
+        <v>22900</v>
       </c>
       <c r="I39" s="1">
-        <v>4200</v>
+        <v>22900</v>
       </c>
       <c r="J39" s="2">
-        <v>108360</v>
+        <v>210451</v>
       </c>
       <c r="K39" s="3">
         <v>0</v>
       </c>
       <c r="L39" s="3">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="M39" s="2">
-        <v>168.56</v>
+        <v>420.9</v>
       </c>
       <c r="N39" s="2">
         <v>0</v>
@@ -3405,7 +3411,7 @@
         <v>18</v>
       </c>
       <c r="R39" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="S39" t="s">
         <v>27</v>
@@ -3416,22 +3422,22 @@
     </row>
     <row r="40" spans="1:20">
       <c r="A40" t="s">
+        <v>141</v>
+      </c>
+      <c r="B40" t="s">
+        <v>142</v>
+      </c>
+      <c r="C40" t="s">
         <v>139</v>
       </c>
-      <c r="B40" t="s">
-        <v>140</v>
-      </c>
-      <c r="C40" t="s">
-        <v>125</v>
-      </c>
       <c r="D40" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="E40" t="s">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="F40" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G40" s="1">
         <v>1200</v>
@@ -3443,16 +3449,16 @@
         <v>1200</v>
       </c>
       <c r="J40" s="2">
-        <v>110640</v>
+        <v>10188</v>
       </c>
       <c r="K40" s="3">
         <v>0</v>
       </c>
       <c r="L40" s="3">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="M40" s="2">
-        <v>172.11</v>
+        <v>20.38</v>
       </c>
       <c r="N40" s="2">
         <v>0</v>
@@ -3467,7 +3473,7 @@
         <v>18</v>
       </c>
       <c r="R40" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="S40" t="s">
         <v>27</v>
@@ -3478,43 +3484,43 @@
     </row>
     <row r="41" spans="1:20">
       <c r="A41" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B41" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C41" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="D41" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E41" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F41" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G41" s="1">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="H41" s="1">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="I41" s="1">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="J41" s="2">
-        <v>8052</v>
+        <v>151508</v>
       </c>
       <c r="K41" s="3">
         <v>0</v>
       </c>
       <c r="L41" s="3">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M41" s="2">
-        <v>8.95</v>
+        <v>303.02</v>
       </c>
       <c r="N41" s="2">
         <v>0</v>
@@ -3529,7 +3535,7 @@
         <v>18</v>
       </c>
       <c r="R41" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="S41" t="s">
         <v>27</v>
@@ -3540,43 +3546,43 @@
     </row>
     <row r="42" spans="1:20">
       <c r="A42" t="s">
+        <v>147</v>
+      </c>
+      <c r="B42" t="s">
+        <v>148</v>
+      </c>
+      <c r="C42" t="s">
         <v>139</v>
       </c>
-      <c r="B42" t="s">
-        <v>140</v>
-      </c>
-      <c r="C42" t="s">
-        <v>145</v>
-      </c>
       <c r="D42" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="E42" t="s">
-        <v>88</v>
+        <v>22</v>
       </c>
       <c r="F42" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G42" s="1">
-        <v>1200</v>
+        <v>16600</v>
       </c>
       <c r="H42" s="1">
-        <v>1200</v>
+        <v>16600</v>
       </c>
       <c r="I42" s="1">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="J42" s="2">
-        <v>100680</v>
+        <v>194552</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
       </c>
       <c r="L42" s="3">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="M42" s="2">
-        <v>213.95</v>
+        <v>389.1</v>
       </c>
       <c r="N42" s="2">
         <v>0</v>
@@ -3591,7 +3597,7 @@
         <v>18</v>
       </c>
       <c r="R42" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="S42" t="s">
         <v>27</v>
@@ -3602,43 +3608,43 @@
     </row>
     <row r="43" spans="1:20">
       <c r="A43" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B43" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C43" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="D43" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>88</v>
+        <v>53</v>
       </c>
       <c r="F43" s="1">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="G43" s="1">
-        <v>6200</v>
+        <v>500</v>
       </c>
       <c r="H43" s="1">
-        <v>6200</v>
+        <v>500</v>
       </c>
       <c r="I43" s="1">
-        <v>6200</v>
+        <v>500</v>
       </c>
       <c r="J43" s="2">
-        <v>95294</v>
+        <v>53655</v>
       </c>
       <c r="K43" s="3">
         <v>0</v>
       </c>
       <c r="L43" s="3">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="M43" s="2">
-        <v>202.5</v>
+        <v>147.55</v>
       </c>
       <c r="N43" s="2">
         <v>0</v>
@@ -3653,7 +3659,7 @@
         <v>18</v>
       </c>
       <c r="R43" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="S43" t="s">
         <v>27</v>
@@ -3664,34 +3670,34 @@
     </row>
     <row r="44" spans="1:20">
       <c r="A44" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="B44" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="C44" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="D44" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E44" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="F44" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G44" s="1">
-        <v>3700</v>
+        <v>1600</v>
       </c>
       <c r="H44" s="1">
-        <v>3700</v>
+        <v>1600</v>
       </c>
       <c r="I44" s="1">
-        <v>3700</v>
+        <v>1600</v>
       </c>
       <c r="J44" s="2">
-        <v>94720</v>
+        <v>47440</v>
       </c>
       <c r="K44" s="3">
         <v>0</v>
@@ -3700,7 +3706,7 @@
         <v>8.5</v>
       </c>
       <c r="M44" s="2">
-        <v>201.28</v>
+        <v>134.41</v>
       </c>
       <c r="N44" s="2">
         <v>0</v>
@@ -3715,7 +3721,7 @@
         <v>18</v>
       </c>
       <c r="R44" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="S44" t="s">
         <v>27</v>
@@ -3726,34 +3732,34 @@
     </row>
     <row r="45" spans="1:20">
       <c r="A45" t="s">
-        <v>93</v>
+        <v>156</v>
       </c>
       <c r="B45" t="s">
-        <v>94</v>
+        <v>157</v>
       </c>
       <c r="C45" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="D45" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E45" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="F45" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G45" s="1">
-        <v>4100</v>
+        <v>1200</v>
       </c>
       <c r="H45" s="1">
-        <v>4100</v>
+        <v>1200</v>
       </c>
       <c r="I45" s="1">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="J45" s="2">
-        <v>98974</v>
+        <v>221280</v>
       </c>
       <c r="K45" s="3">
         <v>0</v>
@@ -3762,7 +3768,7 @@
         <v>8.5</v>
       </c>
       <c r="M45" s="2">
-        <v>210.32</v>
+        <v>626.96</v>
       </c>
       <c r="N45" s="2">
         <v>0</v>
@@ -3777,7 +3783,7 @@
         <v>18</v>
       </c>
       <c r="R45" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="S45" t="s">
         <v>27</v>
@@ -3788,34 +3794,34 @@
     </row>
     <row r="46" spans="1:20">
       <c r="A46" t="s">
-        <v>80</v>
+        <v>159</v>
       </c>
       <c r="B46" t="s">
-        <v>81</v>
+        <v>160</v>
       </c>
       <c r="C46" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="D46" t="s">
-        <v>64</v>
+        <v>22</v>
       </c>
       <c r="E46" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F46" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G46" s="1">
-        <v>22800</v>
+        <v>2300</v>
       </c>
       <c r="H46" s="1">
-        <v>22800</v>
+        <v>2300</v>
       </c>
       <c r="I46" s="1">
-        <v>22800</v>
+        <v>2300</v>
       </c>
       <c r="J46" s="2">
-        <v>193344</v>
+        <v>200491</v>
       </c>
       <c r="K46" s="3">
         <v>0</v>
@@ -3824,7 +3830,7 @@
         <v>9</v>
       </c>
       <c r="M46" s="2">
-        <v>435.02</v>
+        <v>601.47</v>
       </c>
       <c r="N46" s="2">
         <v>0</v>
@@ -3839,7 +3845,7 @@
         <v>18</v>
       </c>
       <c r="R46" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="S46" t="s">
         <v>27</v>
@@ -3850,43 +3856,43 @@
     </row>
     <row r="47" spans="1:20">
       <c r="A47" t="s">
-        <v>117</v>
+        <v>162</v>
       </c>
       <c r="B47" t="s">
-        <v>118</v>
+        <v>163</v>
       </c>
       <c r="C47" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="D47" t="s">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="E47" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="F47" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G47" s="1">
-        <v>1500</v>
+        <v>23300</v>
       </c>
       <c r="H47" s="1">
-        <v>1500</v>
+        <v>23300</v>
       </c>
       <c r="I47" s="1">
-        <v>1500</v>
+        <v>23300</v>
       </c>
       <c r="J47" s="2">
-        <v>100200</v>
+        <v>204574</v>
       </c>
       <c r="K47" s="3">
         <v>0</v>
       </c>
       <c r="L47" s="3">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="M47" s="2">
-        <v>212.93</v>
+        <v>613.72</v>
       </c>
       <c r="N47" s="2">
         <v>0</v>
@@ -3901,7 +3907,7 @@
         <v>18</v>
       </c>
       <c r="R47" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="S47" t="s">
         <v>27</v>
@@ -3912,43 +3918,43 @@
     </row>
     <row r="48" spans="1:20">
       <c r="A48" t="s">
-        <v>133</v>
+        <v>165</v>
       </c>
       <c r="B48" t="s">
-        <v>134</v>
+        <v>166</v>
       </c>
       <c r="C48" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="D48" t="s">
-        <v>64</v>
+        <v>22</v>
       </c>
       <c r="E48" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F48" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G48" s="1">
-        <v>12800</v>
+        <v>10000</v>
       </c>
       <c r="H48" s="1">
-        <v>12800</v>
+        <v>10000</v>
       </c>
       <c r="I48" s="1">
-        <v>12800</v>
+        <v>10000</v>
       </c>
       <c r="J48" s="2">
-        <v>180224</v>
+        <v>121800</v>
       </c>
       <c r="K48" s="3">
         <v>0</v>
       </c>
       <c r="L48" s="3">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M48" s="2">
-        <v>405.5</v>
+        <v>284.2</v>
       </c>
       <c r="N48" s="2">
         <v>0</v>
@@ -3963,7 +3969,7 @@
         <v>18</v>
       </c>
       <c r="R48" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="S48" t="s">
         <v>27</v>
@@ -3974,43 +3980,43 @@
     </row>
     <row r="49" spans="1:20">
       <c r="A49" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="B49" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="C49" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="D49" t="s">
-        <v>64</v>
+        <v>22</v>
       </c>
       <c r="E49" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F49" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G49" s="1">
-        <v>5300</v>
+        <v>1400</v>
       </c>
       <c r="H49" s="1">
-        <v>5300</v>
+        <v>1400</v>
       </c>
       <c r="I49" s="1">
-        <v>5300</v>
+        <v>1400</v>
       </c>
       <c r="J49" s="2">
-        <v>196312</v>
+        <v>102312</v>
       </c>
       <c r="K49" s="3">
         <v>0</v>
       </c>
       <c r="L49" s="3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M49" s="2">
-        <v>343.55</v>
+        <v>170.52</v>
       </c>
       <c r="N49" s="2">
         <v>0</v>
@@ -4025,7 +4031,7 @@
         <v>18</v>
       </c>
       <c r="R49" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="S49" t="s">
         <v>27</v>
@@ -4036,34 +4042,34 @@
     </row>
     <row r="50" spans="1:20">
       <c r="A50" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="B50" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="C50" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="D50" t="s">
-        <v>64</v>
+        <v>22</v>
       </c>
       <c r="E50" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F50" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G50" s="1">
-        <v>2900</v>
+        <v>3900</v>
       </c>
       <c r="H50" s="1">
-        <v>2900</v>
+        <v>3900</v>
       </c>
       <c r="I50" s="1">
-        <v>2900</v>
+        <v>3900</v>
       </c>
       <c r="J50" s="2">
-        <v>104400</v>
+        <v>201630</v>
       </c>
       <c r="K50" s="3">
         <v>0</v>
@@ -4072,7 +4078,7 @@
         <v>7</v>
       </c>
       <c r="M50" s="2">
-        <v>182.7</v>
+        <v>470.47</v>
       </c>
       <c r="N50" s="2">
         <v>0</v>
@@ -4087,7 +4093,7 @@
         <v>18</v>
       </c>
       <c r="R50" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="S50" t="s">
         <v>27</v>
@@ -4098,43 +4104,43 @@
     </row>
     <row r="51" spans="1:20">
       <c r="A51" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="B51" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="C51" t="s">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="D51" t="s">
-        <v>64</v>
+        <v>22</v>
       </c>
       <c r="E51" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F51" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G51" s="1">
-        <v>4400</v>
+        <v>7900</v>
       </c>
       <c r="H51" s="1">
-        <v>4400</v>
+        <v>7900</v>
       </c>
       <c r="I51" s="1">
-        <v>4400</v>
+        <v>7900</v>
       </c>
       <c r="J51" s="2">
-        <v>86636</v>
+        <v>99382</v>
       </c>
       <c r="K51" s="3">
         <v>0</v>
       </c>
       <c r="L51" s="3">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="M51" s="2">
-        <v>151.61</v>
+        <v>305.05</v>
       </c>
       <c r="N51" s="2">
         <v>0</v>
@@ -4149,7 +4155,7 @@
         <v>18</v>
       </c>
       <c r="R51" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="S51" t="s">
         <v>27</v>
@@ -4160,43 +4166,43 @@
     </row>
     <row r="52" spans="1:20">
       <c r="A52" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B52" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C52" t="s">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="D52" t="s">
-        <v>64</v>
+        <v>22</v>
       </c>
       <c r="E52" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F52" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G52" s="1">
-        <v>5300</v>
+        <v>3400</v>
       </c>
       <c r="H52" s="1">
-        <v>5300</v>
+        <v>3400</v>
       </c>
       <c r="I52" s="1">
-        <v>0</v>
+        <v>3400</v>
       </c>
       <c r="J52" s="2">
-        <v>196312</v>
+        <v>102272</v>
       </c>
       <c r="K52" s="3">
         <v>0</v>
       </c>
       <c r="L52" s="3">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="M52" s="2">
-        <v>343.55</v>
+        <v>313.92</v>
       </c>
       <c r="N52" s="2">
         <v>0</v>
@@ -4211,7 +4217,7 @@
         <v>18</v>
       </c>
       <c r="R52" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="S52" t="s">
         <v>27</v>
@@ -4222,34 +4228,34 @@
     </row>
     <row r="53" spans="1:20">
       <c r="A53" t="s">
-        <v>165</v>
+        <v>83</v>
       </c>
       <c r="B53" t="s">
-        <v>166</v>
+        <v>84</v>
       </c>
       <c r="C53" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="D53" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="E53" t="s">
-        <v>65</v>
+        <v>179</v>
       </c>
       <c r="F53" s="1">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="G53" s="1">
-        <v>1000</v>
+        <v>19200</v>
       </c>
       <c r="H53" s="1">
-        <v>1000</v>
+        <v>19200</v>
       </c>
       <c r="I53" s="1">
-        <v>1000</v>
+        <v>19200</v>
       </c>
       <c r="J53" s="2">
-        <v>35620</v>
+        <v>131904</v>
       </c>
       <c r="K53" s="3">
         <v>0</v>
@@ -4258,7 +4264,7 @@
         <v>9</v>
       </c>
       <c r="M53" s="2">
-        <v>89.05</v>
+        <v>428.69</v>
       </c>
       <c r="N53" s="2">
         <v>0</v>
@@ -4273,7 +4279,7 @@
         <v>18</v>
       </c>
       <c r="R53" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="S53" t="s">
         <v>27</v>
@@ -4284,43 +4290,43 @@
     </row>
     <row r="54" spans="1:20">
       <c r="A54" t="s">
-        <v>169</v>
+        <v>134</v>
       </c>
       <c r="B54" t="s">
-        <v>170</v>
+        <v>135</v>
       </c>
       <c r="C54" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="D54" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="E54" t="s">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="F54" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G54" s="1">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="H54" s="1">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="I54" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J54" s="2">
-        <v>212300</v>
+        <v>12698</v>
       </c>
       <c r="K54" s="3">
         <v>0</v>
       </c>
       <c r="L54" s="3">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="M54" s="2">
-        <v>412.81</v>
+        <v>41.27</v>
       </c>
       <c r="N54" s="2">
         <v>0</v>
@@ -4335,7 +4341,7 @@
         <v>18</v>
       </c>
       <c r="R54" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="S54" t="s">
         <v>27</v>
@@ -4346,43 +4352,43 @@
     </row>
     <row r="55" spans="1:20">
       <c r="A55" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="B55" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="C55" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="D55" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="E55" t="s">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="F55" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G55" s="1">
-        <v>11900</v>
+        <v>1500</v>
       </c>
       <c r="H55" s="1">
-        <v>11900</v>
+        <v>1500</v>
       </c>
       <c r="I55" s="1">
-        <v>11900</v>
+        <v>0</v>
       </c>
       <c r="J55" s="2">
-        <v>97699</v>
+        <v>21060</v>
       </c>
       <c r="K55" s="3">
         <v>0</v>
       </c>
       <c r="L55" s="3">
-        <v>8.5</v>
+        <v>5</v>
       </c>
       <c r="M55" s="2">
-        <v>230.68</v>
+        <v>38.02</v>
       </c>
       <c r="N55" s="2">
         <v>0</v>
@@ -4397,7 +4403,7 @@
         <v>18</v>
       </c>
       <c r="R55" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="S55" t="s">
         <v>27</v>
@@ -4408,43 +4414,43 @@
     </row>
     <row r="56" spans="1:20">
       <c r="A56" t="s">
-        <v>158</v>
+        <v>183</v>
       </c>
       <c r="B56" t="s">
-        <v>159</v>
+        <v>184</v>
       </c>
       <c r="C56" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="D56" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="E56" t="s">
-        <v>65</v>
+        <v>179</v>
       </c>
       <c r="F56" s="1">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="G56" s="1">
-        <v>2700</v>
+        <v>4200</v>
       </c>
       <c r="H56" s="1">
-        <v>2700</v>
+        <v>4200</v>
       </c>
       <c r="I56" s="1">
-        <v>2700</v>
+        <v>4200</v>
       </c>
       <c r="J56" s="2">
-        <v>97443</v>
+        <v>108360</v>
       </c>
       <c r="K56" s="3">
         <v>0</v>
       </c>
       <c r="L56" s="3">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="M56" s="2">
-        <v>230.07</v>
+        <v>273.91</v>
       </c>
       <c r="N56" s="2">
         <v>0</v>
@@ -4459,7 +4465,7 @@
         <v>18</v>
       </c>
       <c r="R56" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="S56" t="s">
         <v>27</v>
@@ -4470,43 +4476,43 @@
     </row>
     <row r="57" spans="1:20">
       <c r="A57" t="s">
-        <v>161</v>
+        <v>186</v>
       </c>
       <c r="B57" t="s">
-        <v>162</v>
+        <v>187</v>
       </c>
       <c r="C57" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="D57" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="E57" t="s">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="F57" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G57" s="1">
-        <v>5600</v>
+        <v>1200</v>
       </c>
       <c r="H57" s="1">
-        <v>5600</v>
+        <v>1200</v>
       </c>
       <c r="I57" s="1">
-        <v>5600</v>
+        <v>0</v>
       </c>
       <c r="J57" s="2">
-        <v>110040</v>
+        <v>110640</v>
       </c>
       <c r="K57" s="3">
         <v>0</v>
       </c>
       <c r="L57" s="3">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="M57" s="2">
-        <v>259.82</v>
+        <v>279.67</v>
       </c>
       <c r="N57" s="2">
         <v>0</v>
@@ -4521,7 +4527,7 @@
         <v>18</v>
       </c>
       <c r="R57" t="s">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="S57" t="s">
         <v>27</v>
@@ -4532,43 +4538,43 @@
     </row>
     <row r="58" spans="1:20">
       <c r="A58" t="s">
-        <v>142</v>
+        <v>186</v>
       </c>
       <c r="B58" t="s">
-        <v>143</v>
+        <v>187</v>
       </c>
       <c r="C58" t="s">
-        <v>167</v>
+        <v>189</v>
       </c>
       <c r="D58" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="E58" t="s">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="F58" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G58" s="1">
-        <v>29500</v>
+        <v>1200</v>
       </c>
       <c r="H58" s="1">
-        <v>29500</v>
+        <v>1200</v>
       </c>
       <c r="I58" s="1">
-        <v>29500</v>
+        <v>0</v>
       </c>
       <c r="J58" s="2">
-        <v>201780</v>
+        <v>100680</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
       </c>
       <c r="L58" s="3">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="M58" s="2">
-        <v>504.45</v>
+        <v>332.8</v>
       </c>
       <c r="N58" s="2">
         <v>0</v>
@@ -4583,7 +4589,7 @@
         <v>18</v>
       </c>
       <c r="R58" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="S58" t="s">
         <v>27</v>
@@ -4594,43 +4600,43 @@
     </row>
     <row r="59" spans="1:20">
       <c r="A59" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="B59" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="C59" t="s">
-        <v>167</v>
+        <v>189</v>
       </c>
       <c r="D59" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="E59" t="s">
-        <v>178</v>
+        <v>22</v>
       </c>
       <c r="F59" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G59" s="1">
-        <v>1000</v>
+        <v>6200</v>
       </c>
       <c r="H59" s="1">
-        <v>1000</v>
+        <v>6200</v>
       </c>
       <c r="I59" s="1">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="J59" s="2">
-        <v>83100</v>
+        <v>95294</v>
       </c>
       <c r="K59" s="3">
         <v>0</v>
       </c>
       <c r="L59" s="3">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="M59" s="2">
-        <v>207.75</v>
+        <v>315</v>
       </c>
       <c r="N59" s="2">
         <v>0</v>
@@ -4645,7 +4651,7 @@
         <v>18</v>
       </c>
       <c r="R59" t="s">
-        <v>179</v>
+        <v>193</v>
       </c>
       <c r="S59" t="s">
         <v>27</v>
@@ -4656,43 +4662,43 @@
     </row>
     <row r="60" spans="1:20">
       <c r="A60" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="B60" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="C60" t="s">
-        <v>167</v>
+        <v>189</v>
       </c>
       <c r="D60" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="E60" t="s">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="F60" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G60" s="1">
-        <v>1400</v>
+        <v>3700</v>
       </c>
       <c r="H60" s="1">
-        <v>1400</v>
+        <v>3700</v>
       </c>
       <c r="I60" s="1">
-        <v>1400</v>
+        <v>0</v>
       </c>
       <c r="J60" s="2">
-        <v>116340</v>
+        <v>94720</v>
       </c>
       <c r="K60" s="3">
         <v>0</v>
       </c>
       <c r="L60" s="3">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="M60" s="2">
-        <v>290.85</v>
+        <v>313.1</v>
       </c>
       <c r="N60" s="2">
         <v>0</v>
@@ -4707,7 +4713,7 @@
         <v>18</v>
       </c>
       <c r="R60" t="s">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="S60" t="s">
         <v>27</v>
@@ -4718,43 +4724,43 @@
     </row>
     <row r="61" spans="1:20">
       <c r="A61" t="s">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="B61" t="s">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="C61" t="s">
-        <v>167</v>
+        <v>189</v>
       </c>
       <c r="D61" t="s">
+        <v>31</v>
+      </c>
+      <c r="E61" t="s">
         <v>22</v>
       </c>
-      <c r="E61" t="s">
-        <v>64</v>
-      </c>
       <c r="F61" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G61" s="1">
-        <v>21500</v>
+        <v>4100</v>
       </c>
       <c r="H61" s="1">
-        <v>21500</v>
+        <v>4100</v>
       </c>
       <c r="I61" s="1">
-        <v>21500</v>
+        <v>0</v>
       </c>
       <c r="J61" s="2">
-        <v>216935</v>
+        <v>98974</v>
       </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
       <c r="L61" s="3">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="M61" s="2">
-        <v>542.34</v>
+        <v>327.16</v>
       </c>
       <c r="N61" s="2">
         <v>0</v>
@@ -4769,7 +4775,7 @@
         <v>18</v>
       </c>
       <c r="R61" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="S61" t="s">
         <v>27</v>
@@ -4780,16 +4786,16 @@
     </row>
     <row r="62" spans="1:20">
       <c r="A62" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="B62" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="C62" t="s">
-        <v>167</v>
+        <v>189</v>
       </c>
       <c r="D62" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E62" t="s">
         <v>22</v>
@@ -4798,25 +4804,25 @@
         <v>0</v>
       </c>
       <c r="G62" s="1">
-        <v>1900</v>
+        <v>1500</v>
       </c>
       <c r="H62" s="1">
-        <v>1900</v>
+        <v>1500</v>
       </c>
       <c r="I62" s="1">
         <v>0</v>
       </c>
       <c r="J62" s="2">
-        <v>162260</v>
+        <v>100200</v>
       </c>
       <c r="K62" s="3">
         <v>0</v>
       </c>
       <c r="L62" s="3">
-        <v>5</v>
+        <v>8.5</v>
       </c>
       <c r="M62" s="2">
-        <v>225.36</v>
+        <v>331.22</v>
       </c>
       <c r="N62" s="2">
         <v>0</v>
@@ -4831,7 +4837,7 @@
         <v>18</v>
       </c>
       <c r="R62" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="S62" t="s">
         <v>27</v>
@@ -4842,43 +4848,43 @@
     </row>
     <row r="63" spans="1:20">
       <c r="A63" t="s">
-        <v>184</v>
+        <v>86</v>
       </c>
       <c r="B63" t="s">
-        <v>185</v>
+        <v>87</v>
       </c>
       <c r="C63" t="s">
-        <v>167</v>
+        <v>199</v>
       </c>
       <c r="D63" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E63" t="s">
-        <v>22</v>
+        <v>100</v>
       </c>
       <c r="F63" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G63" s="1">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="H63" s="1">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="I63" s="1">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="J63" s="2">
-        <v>42700</v>
+        <v>83100</v>
       </c>
       <c r="K63" s="3">
         <v>0</v>
       </c>
       <c r="L63" s="3">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M63" s="2">
-        <v>59.31</v>
+        <v>311.63</v>
       </c>
       <c r="N63" s="2">
         <v>0</v>
@@ -4893,7 +4899,7 @@
         <v>18</v>
       </c>
       <c r="R63" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="S63" t="s">
         <v>27</v>
@@ -4904,34 +4910,34 @@
     </row>
     <row r="64" spans="1:20">
       <c r="A64" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="B64" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="C64" t="s">
-        <v>167</v>
+        <v>199</v>
       </c>
       <c r="D64" t="s">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="E64" t="s">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="F64" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G64" s="1">
-        <v>7700</v>
+        <v>6600</v>
       </c>
       <c r="H64" s="1">
-        <v>7700</v>
+        <v>6600</v>
       </c>
       <c r="I64" s="1">
-        <v>7700</v>
+        <v>6600</v>
       </c>
       <c r="J64" s="2">
-        <v>197428</v>
+        <v>204930</v>
       </c>
       <c r="K64" s="3">
         <v>0</v>
@@ -4940,7 +4946,7 @@
         <v>7</v>
       </c>
       <c r="M64" s="2">
-        <v>383.89</v>
+        <v>597.71</v>
       </c>
       <c r="N64" s="2">
         <v>0</v>
@@ -4955,7 +4961,7 @@
         <v>18</v>
       </c>
       <c r="R64" t="s">
-        <v>190</v>
+        <v>203</v>
       </c>
       <c r="S64" t="s">
         <v>27</v>
@@ -4966,34 +4972,34 @@
     </row>
     <row r="65" spans="1:20">
       <c r="A65" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="B65" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="C65" t="s">
-        <v>167</v>
+        <v>199</v>
       </c>
       <c r="D65" t="s">
+        <v>31</v>
+      </c>
+      <c r="E65" t="s">
         <v>22</v>
       </c>
-      <c r="E65" t="s">
-        <v>64</v>
-      </c>
       <c r="F65" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G65" s="1">
-        <v>26900</v>
+        <v>3800</v>
       </c>
       <c r="H65" s="1">
-        <v>26900</v>
+        <v>3800</v>
       </c>
       <c r="I65" s="1">
-        <v>26900</v>
+        <v>0</v>
       </c>
       <c r="J65" s="2">
-        <v>139880</v>
+        <v>224466</v>
       </c>
       <c r="K65" s="3">
         <v>0</v>
@@ -5002,7 +5008,7 @@
         <v>7</v>
       </c>
       <c r="M65" s="2">
-        <v>271.99</v>
+        <v>654.69</v>
       </c>
       <c r="N65" s="2">
         <v>0</v>
@@ -5017,322 +5023,12 @@
         <v>18</v>
       </c>
       <c r="R65" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
       <c r="S65" t="s">
         <v>27</v>
       </c>
       <c r="T65" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="66" spans="1:20">
-      <c r="A66" t="s">
-        <v>194</v>
-      </c>
-      <c r="B66" t="s">
-        <v>195</v>
-      </c>
-      <c r="C66" t="s">
-        <v>167</v>
-      </c>
-      <c r="D66" t="s">
-        <v>42</v>
-      </c>
-      <c r="E66" t="s">
-        <v>23</v>
-      </c>
-      <c r="F66" s="1">
-        <v>12</v>
-      </c>
-      <c r="G66" s="1">
-        <v>6600</v>
-      </c>
-      <c r="H66" s="1">
-        <v>6600</v>
-      </c>
-      <c r="I66" s="1">
-        <v>6600</v>
-      </c>
-      <c r="J66" s="2">
-        <v>204930</v>
-      </c>
-      <c r="K66" s="3">
-        <v>0</v>
-      </c>
-      <c r="L66" s="3">
-        <v>7</v>
-      </c>
-      <c r="M66" s="2">
-        <v>398.48</v>
-      </c>
-      <c r="N66" s="2">
-        <v>0</v>
-      </c>
-      <c r="O66" t="s">
-        <v>25</v>
-      </c>
-      <c r="P66" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q66" s="3">
-        <v>18</v>
-      </c>
-      <c r="R66" t="s">
-        <v>196</v>
-      </c>
-      <c r="S66" t="s">
-        <v>27</v>
-      </c>
-      <c r="T66" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="67" spans="1:20">
-      <c r="A67" t="s">
-        <v>197</v>
-      </c>
-      <c r="B67" t="s">
-        <v>198</v>
-      </c>
-      <c r="C67" t="s">
-        <v>167</v>
-      </c>
-      <c r="D67" t="s">
-        <v>22</v>
-      </c>
-      <c r="E67" t="s">
-        <v>64</v>
-      </c>
-      <c r="F67" s="1">
-        <v>1</v>
-      </c>
-      <c r="G67" s="1">
-        <v>8300</v>
-      </c>
-      <c r="H67" s="1">
-        <v>8300</v>
-      </c>
-      <c r="I67" s="1">
-        <v>8300</v>
-      </c>
-      <c r="J67" s="2">
-        <v>202686</v>
-      </c>
-      <c r="K67" s="3">
-        <v>0</v>
-      </c>
-      <c r="L67" s="3">
-        <v>7</v>
-      </c>
-      <c r="M67" s="2">
-        <v>394.11</v>
-      </c>
-      <c r="N67" s="2">
-        <v>0</v>
-      </c>
-      <c r="O67" t="s">
-        <v>25</v>
-      </c>
-      <c r="P67" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q67" s="3">
-        <v>18</v>
-      </c>
-      <c r="R67" t="s">
-        <v>199</v>
-      </c>
-      <c r="S67" t="s">
-        <v>27</v>
-      </c>
-      <c r="T67" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="68" spans="1:20">
-      <c r="A68" t="s">
-        <v>200</v>
-      </c>
-      <c r="B68" t="s">
-        <v>201</v>
-      </c>
-      <c r="C68" t="s">
-        <v>167</v>
-      </c>
-      <c r="D68" t="s">
-        <v>65</v>
-      </c>
-      <c r="E68" t="s">
-        <v>88</v>
-      </c>
-      <c r="F68" s="1">
-        <v>5</v>
-      </c>
-      <c r="G68" s="1">
-        <v>3800</v>
-      </c>
-      <c r="H68" s="1">
-        <v>3800</v>
-      </c>
-      <c r="I68" s="1">
-        <v>3800</v>
-      </c>
-      <c r="J68" s="2">
-        <v>224466</v>
-      </c>
-      <c r="K68" s="3">
-        <v>0</v>
-      </c>
-      <c r="L68" s="3">
-        <v>7</v>
-      </c>
-      <c r="M68" s="2">
-        <v>436.46</v>
-      </c>
-      <c r="N68" s="2">
-        <v>0</v>
-      </c>
-      <c r="O68" t="s">
-        <v>25</v>
-      </c>
-      <c r="P68" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q68" s="3">
-        <v>18</v>
-      </c>
-      <c r="R68" t="s">
-        <v>202</v>
-      </c>
-      <c r="S68" t="s">
-        <v>27</v>
-      </c>
-      <c r="T68" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="69" spans="1:20">
-      <c r="A69" t="s">
-        <v>200</v>
-      </c>
-      <c r="B69" t="s">
-        <v>201</v>
-      </c>
-      <c r="C69" t="s">
-        <v>167</v>
-      </c>
-      <c r="D69" t="s">
-        <v>64</v>
-      </c>
-      <c r="E69" t="s">
-        <v>65</v>
-      </c>
-      <c r="F69" s="1">
-        <v>4</v>
-      </c>
-      <c r="G69" s="1">
-        <v>1900</v>
-      </c>
-      <c r="H69" s="1">
-        <v>1900</v>
-      </c>
-      <c r="I69" s="1">
-        <v>0</v>
-      </c>
-      <c r="J69" s="2">
-        <v>112233</v>
-      </c>
-      <c r="K69" s="3">
-        <v>0</v>
-      </c>
-      <c r="L69" s="3">
-        <v>7</v>
-      </c>
-      <c r="M69" s="2">
-        <v>218.23</v>
-      </c>
-      <c r="N69" s="2">
-        <v>0</v>
-      </c>
-      <c r="O69" t="s">
-        <v>25</v>
-      </c>
-      <c r="P69" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q69" s="3">
-        <v>18</v>
-      </c>
-      <c r="R69" t="s">
-        <v>203</v>
-      </c>
-      <c r="S69" t="s">
-        <v>27</v>
-      </c>
-      <c r="T69" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="70" spans="1:20">
-      <c r="A70" t="s">
-        <v>200</v>
-      </c>
-      <c r="B70" t="s">
-        <v>201</v>
-      </c>
-      <c r="C70" t="s">
-        <v>167</v>
-      </c>
-      <c r="D70" t="s">
-        <v>64</v>
-      </c>
-      <c r="E70" t="s">
-        <v>65</v>
-      </c>
-      <c r="F70" s="1">
-        <v>4</v>
-      </c>
-      <c r="G70" s="1">
-        <v>1900</v>
-      </c>
-      <c r="H70" s="1">
-        <v>1900</v>
-      </c>
-      <c r="I70" s="1">
-        <v>0</v>
-      </c>
-      <c r="J70" s="2">
-        <v>112233</v>
-      </c>
-      <c r="K70" s="3">
-        <v>0</v>
-      </c>
-      <c r="L70" s="3">
-        <v>8.5</v>
-      </c>
-      <c r="M70" s="2">
-        <v>264.99</v>
-      </c>
-      <c r="N70" s="2">
-        <v>0</v>
-      </c>
-      <c r="O70" t="s">
-        <v>25</v>
-      </c>
-      <c r="P70" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q70" s="3">
-        <v>18</v>
-      </c>
-      <c r="R70" t="s">
-        <v>204</v>
-      </c>
-      <c r="S70" t="s">
-        <v>27</v>
-      </c>
-      <c r="T70" t="s">
         <v>28</v>
       </c>
     </row>

--- a/data/input/trade_data_patch/huat/private_security_loan.xlsx
+++ b/data/input/trade_data_patch/huat/private_security_loan.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="164">
   <si>
     <t>证券代码</t>
   </si>
@@ -253,24 +253,15 @@
     <t>202101290000000776</t>
   </si>
   <si>
-    <t>600185</t>
-  </si>
-  <si>
-    <t>格力地产</t>
+    <t>601766</t>
+  </si>
+  <si>
+    <t>中国中车</t>
   </si>
   <si>
     <t>2021-01-28</t>
   </si>
   <si>
-    <t>202101280000001346</t>
-  </si>
-  <si>
-    <t>601766</t>
-  </si>
-  <si>
-    <t>中国中车</t>
-  </si>
-  <si>
     <t>202101280000001342</t>
   </si>
   <si>
@@ -457,15 +448,6 @@
     <t>202101250000001812</t>
   </si>
   <si>
-    <t>300123</t>
-  </si>
-  <si>
-    <t>亚光科技</t>
-  </si>
-  <si>
-    <t>202101250000001810</t>
-  </si>
-  <si>
     <t>2021-01-22</t>
   </si>
   <si>
@@ -493,78 +475,15 @@
     <t>202101210000000951</t>
   </si>
   <si>
-    <t>603005</t>
-  </si>
-  <si>
-    <t>晶方科技</t>
-  </si>
-  <si>
-    <t>202101210000000942</t>
-  </si>
-  <si>
-    <t>601058</t>
-  </si>
-  <si>
-    <t>赛轮轮胎</t>
-  </si>
-  <si>
-    <t>202101210000000939</t>
-  </si>
-  <si>
-    <t>600967</t>
-  </si>
-  <si>
-    <t>内蒙一机</t>
-  </si>
-  <si>
-    <t>202101210000000012</t>
-  </si>
-  <si>
-    <t>600893</t>
-  </si>
-  <si>
-    <t>航发动力</t>
-  </si>
-  <si>
-    <t>202101210000000011</t>
-  </si>
-  <si>
-    <t>600316</t>
-  </si>
-  <si>
-    <t>洪都航空</t>
-  </si>
-  <si>
-    <t>202101210000000010</t>
-  </si>
-  <si>
-    <t>600776</t>
-  </si>
-  <si>
-    <t>东方通信</t>
-  </si>
-  <si>
     <t>2021-01-20</t>
   </si>
   <si>
-    <t>202101200000001043</t>
-  </si>
-  <si>
-    <t>202101200000001035</t>
-  </si>
-  <si>
     <t>2021-02-16</t>
   </si>
   <si>
     <t>202101200000000956</t>
   </si>
   <si>
-    <t>202101200000000952</t>
-  </si>
-  <si>
-    <t>202101200000000048</t>
-  </si>
-  <si>
     <t>600460</t>
   </si>
   <si>
@@ -574,45 +493,6 @@
     <t>202101200000000047</t>
   </si>
   <si>
-    <t>300274</t>
-  </si>
-  <si>
-    <t>阳光电源</t>
-  </si>
-  <si>
-    <t>202101200000000046</t>
-  </si>
-  <si>
-    <t>2021-01-19</t>
-  </si>
-  <si>
-    <t>202101190000002143</t>
-  </si>
-  <si>
-    <t>600855</t>
-  </si>
-  <si>
-    <t>航天长峰</t>
-  </si>
-  <si>
-    <t>202101190000002142</t>
-  </si>
-  <si>
-    <t>202101190000002126</t>
-  </si>
-  <si>
-    <t>600197</t>
-  </si>
-  <si>
-    <t>伊力特</t>
-  </si>
-  <si>
-    <t>202101190000002124</t>
-  </si>
-  <si>
-    <t>202101190000002104</t>
-  </si>
-  <si>
     <t>2021-01-18</t>
   </si>
   <si>
@@ -626,23 +506,15 @@
   </si>
   <si>
     <t>202101180000000147</t>
-  </si>
-  <si>
-    <t>000733</t>
-  </si>
-  <si>
-    <t>振华科技</t>
-  </si>
-  <si>
-    <t>202101180000000145</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0.00 &quot;%&quot;"/>
+  <numFmts count="2">
+    <numFmt numFmtId="176" formatCode="0.000"/>
+    <numFmt numFmtId="177" formatCode="0.00 &quot;%&quot;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -674,11 +546,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -974,7 +847,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T65"/>
+  <dimension ref="A1:T47"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0"/>
   </sheetViews>
@@ -992,8 +865,8 @@
     <col min="10" max="10" width="30" style="2" customWidth="1"/>
     <col min="11" max="11" width="30" style="3" customWidth="1"/>
     <col min="12" max="12" width="30" style="3" customWidth="1"/>
-    <col min="13" max="13" width="30" style="2" customWidth="1"/>
-    <col min="14" max="14" width="30" style="2" customWidth="1"/>
+    <col min="13" max="13" width="30" style="4" customWidth="1"/>
+    <col min="14" max="14" width="30" style="4" customWidth="1"/>
     <col min="15" max="15" width="30" customWidth="1"/>
     <col min="16" max="16" width="30" style="1" customWidth="1"/>
     <col min="17" max="17" width="30" style="3" customWidth="1"/>
@@ -1003,64 +876,64 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="R1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="4" t="s">
+      <c r="S1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="5" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1081,7 +954,7 @@
         <v>24</v>
       </c>
       <c r="F2" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G2" s="1">
         <v>1700</v>
@@ -1090,7 +963,7 @@
         <v>1700</v>
       </c>
       <c r="I2" s="1">
-        <v>0</v>
+        <v>1700</v>
       </c>
       <c r="J2" s="2">
         <v>20536</v>
@@ -1101,10 +974,10 @@
       <c r="L2" s="3">
         <v>5</v>
       </c>
-      <c r="M2" s="2">
-        <v>0</v>
-      </c>
-      <c r="N2" s="2">
+      <c r="M2" s="4">
+        <v>5.7</v>
+      </c>
+      <c r="N2" s="4">
         <v>0</v>
       </c>
       <c r="O2" t="s">
@@ -1143,7 +1016,7 @@
         <v>23</v>
       </c>
       <c r="F3" s="1">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G3" s="1">
         <v>12800</v>
@@ -1152,7 +1025,7 @@
         <v>12800</v>
       </c>
       <c r="I3" s="1">
-        <v>0</v>
+        <v>12800</v>
       </c>
       <c r="J3" s="2">
         <v>104448</v>
@@ -1163,10 +1036,10 @@
       <c r="L3" s="3">
         <v>8.5</v>
       </c>
-      <c r="M3" s="2">
-        <v>24.66</v>
-      </c>
-      <c r="N3" s="2">
+      <c r="M3" s="4">
+        <v>73.98</v>
+      </c>
+      <c r="N3" s="4">
         <v>0</v>
       </c>
       <c r="O3" t="s">
@@ -1205,7 +1078,7 @@
         <v>23</v>
       </c>
       <c r="F4" s="1">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G4" s="1">
         <v>4200</v>
@@ -1214,7 +1087,7 @@
         <v>4200</v>
       </c>
       <c r="I4" s="1">
-        <v>0</v>
+        <v>4200</v>
       </c>
       <c r="J4" s="2">
         <v>95760</v>
@@ -1225,10 +1098,10 @@
       <c r="L4" s="3">
         <v>8.5</v>
       </c>
-      <c r="M4" s="2">
-        <v>22.61</v>
-      </c>
-      <c r="N4" s="2">
+      <c r="M4" s="4">
+        <v>67.83</v>
+      </c>
+      <c r="N4" s="4">
         <v>0</v>
       </c>
       <c r="O4" t="s">
@@ -1267,7 +1140,7 @@
         <v>23</v>
       </c>
       <c r="F5" s="1">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G5" s="1">
         <v>1200</v>
@@ -1276,7 +1149,7 @@
         <v>1200</v>
       </c>
       <c r="I5" s="1">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="J5" s="2">
         <v>94560</v>
@@ -1287,10 +1160,10 @@
       <c r="L5" s="3">
         <v>8.5</v>
       </c>
-      <c r="M5" s="2">
-        <v>22.33</v>
-      </c>
-      <c r="N5" s="2">
+      <c r="M5" s="4">
+        <v>66.98</v>
+      </c>
+      <c r="N5" s="4">
         <v>0</v>
       </c>
       <c r="O5" t="s">
@@ -1329,7 +1202,7 @@
         <v>43</v>
       </c>
       <c r="F6" s="1">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G6" s="1">
         <v>1600</v>
@@ -1338,7 +1211,7 @@
         <v>1600</v>
       </c>
       <c r="I6" s="1">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="J6" s="2">
         <v>56896</v>
@@ -1349,10 +1222,10 @@
       <c r="L6" s="3">
         <v>8.5</v>
       </c>
-      <c r="M6" s="2">
-        <v>13.43</v>
-      </c>
-      <c r="N6" s="2">
+      <c r="M6" s="4">
+        <v>40.3</v>
+      </c>
+      <c r="N6" s="4">
         <v>0</v>
       </c>
       <c r="O6" t="s">
@@ -1391,7 +1264,7 @@
         <v>43</v>
       </c>
       <c r="F7" s="1">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G7" s="1">
         <v>3500</v>
@@ -1400,7 +1273,7 @@
         <v>3500</v>
       </c>
       <c r="I7" s="1">
-        <v>0</v>
+        <v>3500</v>
       </c>
       <c r="J7" s="2">
         <v>21805</v>
@@ -1411,10 +1284,10 @@
       <c r="L7" s="3">
         <v>9</v>
       </c>
-      <c r="M7" s="2">
-        <v>5.45</v>
-      </c>
-      <c r="N7" s="2">
+      <c r="M7" s="4">
+        <v>16.35</v>
+      </c>
+      <c r="N7" s="4">
         <v>0</v>
       </c>
       <c r="O7" t="s">
@@ -1453,7 +1326,7 @@
         <v>43</v>
       </c>
       <c r="F8" s="1">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G8" s="1">
         <v>19200</v>
@@ -1462,7 +1335,7 @@
         <v>19200</v>
       </c>
       <c r="I8" s="1">
-        <v>0</v>
+        <v>19200</v>
       </c>
       <c r="J8" s="2">
         <v>204288</v>
@@ -1473,10 +1346,10 @@
       <c r="L8" s="3">
         <v>9</v>
       </c>
-      <c r="M8" s="2">
-        <v>51.07</v>
-      </c>
-      <c r="N8" s="2">
+      <c r="M8" s="4">
+        <v>153.22</v>
+      </c>
+      <c r="N8" s="4">
         <v>0</v>
       </c>
       <c r="O8" t="s">
@@ -1515,7 +1388,7 @@
         <v>53</v>
       </c>
       <c r="F9" s="1">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G9" s="1">
         <v>1000</v>
@@ -1524,7 +1397,7 @@
         <v>1000</v>
       </c>
       <c r="I9" s="1">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="J9" s="2">
         <v>5960</v>
@@ -1535,10 +1408,10 @@
       <c r="L9" s="3">
         <v>9</v>
       </c>
-      <c r="M9" s="2">
-        <v>1.49</v>
-      </c>
-      <c r="N9" s="2">
+      <c r="M9" s="4">
+        <v>4.47</v>
+      </c>
+      <c r="N9" s="4">
         <v>0</v>
       </c>
       <c r="O9" t="s">
@@ -1577,7 +1450,7 @@
         <v>24</v>
       </c>
       <c r="F10" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G10" s="1">
         <v>1000</v>
@@ -1586,7 +1459,7 @@
         <v>1000</v>
       </c>
       <c r="I10" s="1">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="J10" s="2">
         <v>12080</v>
@@ -1597,10 +1470,10 @@
       <c r="L10" s="3">
         <v>9</v>
       </c>
-      <c r="M10" s="2">
-        <v>3.02</v>
-      </c>
-      <c r="N10" s="2">
+      <c r="M10" s="4">
+        <v>9.06</v>
+      </c>
+      <c r="N10" s="4">
         <v>0</v>
       </c>
       <c r="O10" t="s">
@@ -1639,7 +1512,7 @@
         <v>59</v>
       </c>
       <c r="F11" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G11" s="1">
         <v>24500</v>
@@ -1659,10 +1532,10 @@
       <c r="L11" s="3">
         <v>7</v>
       </c>
-      <c r="M11" s="2">
-        <v>35.35</v>
-      </c>
-      <c r="N11" s="2">
+      <c r="M11" s="4">
+        <v>106.04</v>
+      </c>
+      <c r="N11" s="4">
         <v>0</v>
       </c>
       <c r="O11" t="s">
@@ -1701,7 +1574,7 @@
         <v>43</v>
       </c>
       <c r="F12" s="1">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G12" s="1">
         <v>1900</v>
@@ -1721,10 +1594,10 @@
       <c r="L12" s="3">
         <v>5</v>
       </c>
-      <c r="M12" s="2">
-        <v>2.38</v>
-      </c>
-      <c r="N12" s="2">
+      <c r="M12" s="4">
+        <v>7.15</v>
+      </c>
+      <c r="N12" s="4">
         <v>0</v>
       </c>
       <c r="O12" t="s">
@@ -1763,7 +1636,7 @@
         <v>68</v>
       </c>
       <c r="F13" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G13" s="1">
         <v>16300</v>
@@ -1772,7 +1645,7 @@
         <v>16300</v>
       </c>
       <c r="I13" s="1">
-        <v>16300</v>
+        <v>0</v>
       </c>
       <c r="J13" s="2">
         <v>201957</v>
@@ -1783,10 +1656,10 @@
       <c r="L13" s="3">
         <v>9</v>
       </c>
-      <c r="M13" s="2">
-        <v>201.96</v>
-      </c>
-      <c r="N13" s="2">
+      <c r="M13" s="4">
+        <v>302.94</v>
+      </c>
+      <c r="N13" s="4">
         <v>0</v>
       </c>
       <c r="O13" t="s">
@@ -1825,7 +1698,7 @@
         <v>73</v>
       </c>
       <c r="F14" s="1">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G14" s="1">
         <v>16600</v>
@@ -1845,10 +1718,10 @@
       <c r="L14" s="3">
         <v>9</v>
       </c>
-      <c r="M14" s="2">
-        <v>197.04</v>
-      </c>
-      <c r="N14" s="2">
+      <c r="M14" s="4">
+        <v>295.56</v>
+      </c>
+      <c r="N14" s="4">
         <v>0</v>
       </c>
       <c r="O14" t="s">
@@ -1887,7 +1760,7 @@
         <v>77</v>
       </c>
       <c r="F15" s="1">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G15" s="1">
         <v>5000</v>
@@ -1907,10 +1780,10 @@
       <c r="L15" s="3">
         <v>9</v>
       </c>
-      <c r="M15" s="2">
-        <v>59.25</v>
-      </c>
-      <c r="N15" s="2">
+      <c r="M15" s="4">
+        <v>88.88</v>
+      </c>
+      <c r="N15" s="4">
         <v>0</v>
       </c>
       <c r="O15" t="s">
@@ -1943,36 +1816,36 @@
         <v>81</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="E16" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="F16" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G16" s="1">
-        <v>10000</v>
+        <v>9100</v>
       </c>
       <c r="H16" s="1">
-        <v>10000</v>
+        <v>9100</v>
       </c>
       <c r="I16" s="1">
-        <v>10000</v>
+        <v>9100</v>
       </c>
       <c r="J16" s="2">
-        <v>59600</v>
+        <v>59059</v>
       </c>
       <c r="K16" s="3">
         <v>0</v>
       </c>
       <c r="L16" s="3">
-        <v>9</v>
-      </c>
-      <c r="M16" s="2">
-        <v>74.5</v>
-      </c>
-      <c r="N16" s="2">
+        <v>8.5</v>
+      </c>
+      <c r="M16" s="4">
+        <v>97.61</v>
+      </c>
+      <c r="N16" s="4">
         <v>0</v>
       </c>
       <c r="O16" t="s">
@@ -2005,36 +1878,36 @@
         <v>81</v>
       </c>
       <c r="D17" t="s">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="E17" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F17" s="1">
+        <v>20</v>
+      </c>
+      <c r="G17" s="1">
+        <v>1900</v>
+      </c>
+      <c r="H17" s="1">
+        <v>1900</v>
+      </c>
+      <c r="I17" s="1">
+        <v>1900</v>
+      </c>
+      <c r="J17" s="2">
+        <v>191615</v>
+      </c>
+      <c r="K17" s="3">
+        <v>0</v>
+      </c>
+      <c r="L17" s="3">
         <v>9</v>
       </c>
-      <c r="G17" s="1">
-        <v>9100</v>
-      </c>
-      <c r="H17" s="1">
-        <v>9100</v>
-      </c>
-      <c r="I17" s="1">
-        <v>9100</v>
-      </c>
-      <c r="J17" s="2">
-        <v>59059</v>
-      </c>
-      <c r="K17" s="3">
-        <v>0</v>
-      </c>
-      <c r="L17" s="3">
-        <v>8.5</v>
-      </c>
-      <c r="M17" s="2">
-        <v>69.72</v>
-      </c>
-      <c r="N17" s="2">
+      <c r="M17" s="4">
+        <v>335.33</v>
+      </c>
+      <c r="N17" s="4">
         <v>0</v>
       </c>
       <c r="O17" t="s">
@@ -2047,7 +1920,7 @@
         <v>18</v>
       </c>
       <c r="R17" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="S17" t="s">
         <v>27</v>
@@ -2058,58 +1931,58 @@
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>86</v>
+        <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>87</v>
+        <v>21</v>
       </c>
       <c r="C18" t="s">
         <v>81</v>
       </c>
       <c r="D18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" t="s">
+        <v>87</v>
+      </c>
+      <c r="F18" s="1">
+        <v>13</v>
+      </c>
+      <c r="G18" s="1">
+        <v>13900</v>
+      </c>
+      <c r="H18" s="1">
+        <v>13900</v>
+      </c>
+      <c r="I18" s="1">
+        <v>13900</v>
+      </c>
+      <c r="J18" s="2">
+        <v>181117</v>
+      </c>
+      <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
+        <v>5</v>
+      </c>
+      <c r="M18" s="4">
+        <v>176.09</v>
+      </c>
+      <c r="N18" s="4">
+        <v>0</v>
+      </c>
+      <c r="O18" t="s">
+        <v>25</v>
+      </c>
+      <c r="P18" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>18</v>
+      </c>
+      <c r="R18" t="s">
         <v>88</v>
-      </c>
-      <c r="E18" t="s">
-        <v>72</v>
-      </c>
-      <c r="F18" s="1">
-        <v>22</v>
-      </c>
-      <c r="G18" s="1">
-        <v>1900</v>
-      </c>
-      <c r="H18" s="1">
-        <v>1900</v>
-      </c>
-      <c r="I18" s="1">
-        <v>1900</v>
-      </c>
-      <c r="J18" s="2">
-        <v>191615</v>
-      </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
-      <c r="L18" s="3">
-        <v>9</v>
-      </c>
-      <c r="M18" s="2">
-        <v>239.52</v>
-      </c>
-      <c r="N18" s="2">
-        <v>0</v>
-      </c>
-      <c r="O18" t="s">
-        <v>25</v>
-      </c>
-      <c r="P18" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>18</v>
-      </c>
-      <c r="R18" t="s">
-        <v>89</v>
       </c>
       <c r="S18" t="s">
         <v>27</v>
@@ -2120,10 +1993,10 @@
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>90</v>
       </c>
       <c r="C19" t="s">
         <v>81</v>
@@ -2132,33 +2005,33 @@
         <v>42</v>
       </c>
       <c r="E19" t="s">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="F19" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G19" s="1">
-        <v>13900</v>
+        <v>5400</v>
       </c>
       <c r="H19" s="1">
-        <v>13900</v>
+        <v>5400</v>
       </c>
       <c r="I19" s="1">
-        <v>13900</v>
+        <v>5400</v>
       </c>
       <c r="J19" s="2">
-        <v>181117</v>
+        <v>195480</v>
       </c>
       <c r="K19" s="3">
         <v>0</v>
       </c>
       <c r="L19" s="3">
-        <v>5</v>
-      </c>
-      <c r="M19" s="2">
-        <v>125.78</v>
-      </c>
-      <c r="N19" s="2">
+        <v>7</v>
+      </c>
+      <c r="M19" s="4">
+        <v>266.07</v>
+      </c>
+      <c r="N19" s="4">
         <v>0</v>
       </c>
       <c r="O19" t="s">
@@ -2191,25 +2064,25 @@
         <v>81</v>
       </c>
       <c r="D20" t="s">
-        <v>42</v>
+        <v>94</v>
       </c>
       <c r="E20" t="s">
-        <v>53</v>
+        <v>95</v>
       </c>
       <c r="F20" s="1">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G20" s="1">
-        <v>5400</v>
+        <v>1800</v>
       </c>
       <c r="H20" s="1">
-        <v>5400</v>
+        <v>1800</v>
       </c>
       <c r="I20" s="1">
-        <v>5400</v>
+        <v>1800</v>
       </c>
       <c r="J20" s="2">
-        <v>195480</v>
+        <v>196200</v>
       </c>
       <c r="K20" s="3">
         <v>0</v>
@@ -2217,10 +2090,10 @@
       <c r="L20" s="3">
         <v>7</v>
       </c>
-      <c r="M20" s="2">
-        <v>190.05</v>
-      </c>
-      <c r="N20" s="2">
+      <c r="M20" s="4">
+        <v>267.05</v>
+      </c>
+      <c r="N20" s="4">
         <v>0</v>
       </c>
       <c r="O20" t="s">
@@ -2233,7 +2106,7 @@
         <v>18</v>
       </c>
       <c r="R20" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="S20" t="s">
         <v>27</v>
@@ -2244,58 +2117,58 @@
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>95</v>
+        <v>61</v>
       </c>
       <c r="B21" t="s">
-        <v>96</v>
+        <v>62</v>
       </c>
       <c r="C21" t="s">
         <v>81</v>
       </c>
       <c r="D21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21" t="s">
         <v>97</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" s="1">
+        <v>8</v>
+      </c>
+      <c r="G21" s="1">
+        <v>15000</v>
+      </c>
+      <c r="H21" s="1">
+        <v>15000</v>
+      </c>
+      <c r="I21" s="1">
+        <v>15000</v>
+      </c>
+      <c r="J21" s="2">
+        <v>133200</v>
+      </c>
+      <c r="K21" s="3">
+        <v>0</v>
+      </c>
+      <c r="L21" s="3">
+        <v>5</v>
+      </c>
+      <c r="M21" s="4">
+        <v>129.5</v>
+      </c>
+      <c r="N21" s="4">
+        <v>0</v>
+      </c>
+      <c r="O21" t="s">
+        <v>25</v>
+      </c>
+      <c r="P21" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>18</v>
+      </c>
+      <c r="R21" t="s">
         <v>98</v>
-      </c>
-      <c r="F21" s="1">
-        <v>20</v>
-      </c>
-      <c r="G21" s="1">
-        <v>1800</v>
-      </c>
-      <c r="H21" s="1">
-        <v>1800</v>
-      </c>
-      <c r="I21" s="1">
-        <v>1800</v>
-      </c>
-      <c r="J21" s="2">
-        <v>196200</v>
-      </c>
-      <c r="K21" s="3">
-        <v>0</v>
-      </c>
-      <c r="L21" s="3">
-        <v>7</v>
-      </c>
-      <c r="M21" s="2">
-        <v>190.75</v>
-      </c>
-      <c r="N21" s="2">
-        <v>0</v>
-      </c>
-      <c r="O21" t="s">
-        <v>25</v>
-      </c>
-      <c r="P21" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>18</v>
-      </c>
-      <c r="R21" t="s">
-        <v>99</v>
       </c>
       <c r="S21" t="s">
         <v>27</v>
@@ -2306,10 +2179,10 @@
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="B22" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="C22" t="s">
         <v>81</v>
@@ -2318,22 +2191,22 @@
         <v>42</v>
       </c>
       <c r="E22" t="s">
-        <v>100</v>
+        <v>43</v>
       </c>
       <c r="F22" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G22" s="1">
-        <v>15000</v>
+        <v>28900</v>
       </c>
       <c r="H22" s="1">
-        <v>15000</v>
+        <v>28900</v>
       </c>
       <c r="I22" s="1">
-        <v>15000</v>
+        <v>28900</v>
       </c>
       <c r="J22" s="2">
-        <v>133200</v>
+        <v>184382</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
@@ -2341,10 +2214,10 @@
       <c r="L22" s="3">
         <v>5</v>
       </c>
-      <c r="M22" s="2">
-        <v>92.5</v>
-      </c>
-      <c r="N22" s="2">
+      <c r="M22" s="4">
+        <v>179.26</v>
+      </c>
+      <c r="N22" s="4">
         <v>0</v>
       </c>
       <c r="O22" t="s">
@@ -2357,7 +2230,7 @@
         <v>18</v>
       </c>
       <c r="R22" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="S22" t="s">
         <v>27</v>
@@ -2368,34 +2241,34 @@
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="B23" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="C23" t="s">
         <v>81</v>
       </c>
       <c r="D23" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="E23" t="s">
-        <v>43</v>
+        <v>100</v>
       </c>
       <c r="F23" s="1">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="G23" s="1">
-        <v>28900</v>
+        <v>6400</v>
       </c>
       <c r="H23" s="1">
-        <v>28900</v>
+        <v>6400</v>
       </c>
       <c r="I23" s="1">
-        <v>28900</v>
+        <v>6400</v>
       </c>
       <c r="J23" s="2">
-        <v>184382</v>
+        <v>56832</v>
       </c>
       <c r="K23" s="3">
         <v>0</v>
@@ -2403,10 +2276,10 @@
       <c r="L23" s="3">
         <v>5</v>
       </c>
-      <c r="M23" s="2">
-        <v>128.04</v>
-      </c>
-      <c r="N23" s="2">
+      <c r="M23" s="4">
+        <v>55.25</v>
+      </c>
+      <c r="N23" s="4">
         <v>0</v>
       </c>
       <c r="O23" t="s">
@@ -2419,7 +2292,7 @@
         <v>18</v>
       </c>
       <c r="R23" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="S23" t="s">
         <v>27</v>
@@ -2430,45 +2303,45 @@
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>61</v>
+        <v>102</v>
       </c>
       <c r="B24" t="s">
-        <v>62</v>
+        <v>103</v>
       </c>
       <c r="C24" t="s">
         <v>81</v>
       </c>
       <c r="D24" t="s">
-        <v>59</v>
+        <v>100</v>
       </c>
       <c r="E24" t="s">
-        <v>103</v>
+        <v>42</v>
       </c>
       <c r="F24" s="1">
+        <v>6</v>
+      </c>
+      <c r="G24" s="1">
+        <v>1300</v>
+      </c>
+      <c r="H24" s="1">
+        <v>1300</v>
+      </c>
+      <c r="I24" s="1">
+        <v>1300</v>
+      </c>
+      <c r="J24" s="2">
+        <v>86320</v>
+      </c>
+      <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
         <v>7</v>
       </c>
-      <c r="G24" s="1">
-        <v>6400</v>
-      </c>
-      <c r="H24" s="1">
-        <v>6400</v>
-      </c>
-      <c r="I24" s="1">
-        <v>6400</v>
-      </c>
-      <c r="J24" s="2">
-        <v>56832</v>
-      </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
-      <c r="L24" s="3">
-        <v>5</v>
-      </c>
-      <c r="M24" s="2">
-        <v>39.47</v>
-      </c>
-      <c r="N24" s="2">
+      <c r="M24" s="4">
+        <v>117.49</v>
+      </c>
+      <c r="N24" s="4">
         <v>0</v>
       </c>
       <c r="O24" t="s">
@@ -2501,25 +2374,25 @@
         <v>81</v>
       </c>
       <c r="D25" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E25" t="s">
         <v>42</v>
       </c>
       <c r="F25" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G25" s="1">
-        <v>1300</v>
+        <v>11700</v>
       </c>
       <c r="H25" s="1">
-        <v>1300</v>
+        <v>11700</v>
       </c>
       <c r="I25" s="1">
-        <v>1300</v>
+        <v>11700</v>
       </c>
       <c r="J25" s="2">
-        <v>86320</v>
+        <v>96993</v>
       </c>
       <c r="K25" s="3">
         <v>0</v>
@@ -2527,10 +2400,10 @@
       <c r="L25" s="3">
         <v>7</v>
       </c>
-      <c r="M25" s="2">
-        <v>83.92</v>
-      </c>
-      <c r="N25" s="2">
+      <c r="M25" s="4">
+        <v>132.02</v>
+      </c>
+      <c r="N25" s="4">
         <v>0</v>
       </c>
       <c r="O25" t="s">
@@ -2563,25 +2436,25 @@
         <v>81</v>
       </c>
       <c r="D26" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E26" t="s">
         <v>42</v>
       </c>
       <c r="F26" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G26" s="1">
-        <v>11700</v>
+        <v>7000</v>
       </c>
       <c r="H26" s="1">
-        <v>11700</v>
+        <v>7000</v>
       </c>
       <c r="I26" s="1">
-        <v>11700</v>
+        <v>7000</v>
       </c>
       <c r="J26" s="2">
-        <v>96993</v>
+        <v>95970</v>
       </c>
       <c r="K26" s="3">
         <v>0</v>
@@ -2589,10 +2462,10 @@
       <c r="L26" s="3">
         <v>7</v>
       </c>
-      <c r="M26" s="2">
-        <v>94.3</v>
-      </c>
-      <c r="N26" s="2">
+      <c r="M26" s="4">
+        <v>130.63</v>
+      </c>
+      <c r="N26" s="4">
         <v>0</v>
       </c>
       <c r="O26" t="s">
@@ -2616,45 +2489,45 @@
     </row>
     <row r="27" spans="1:20">
       <c r="A27" t="s">
+        <v>108</v>
+      </c>
+      <c r="B27" t="s">
+        <v>109</v>
+      </c>
+      <c r="C27" t="s">
         <v>111</v>
       </c>
-      <c r="B27" t="s">
-        <v>112</v>
-      </c>
-      <c r="C27" t="s">
-        <v>81</v>
-      </c>
       <c r="D27" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E27" t="s">
         <v>42</v>
       </c>
       <c r="F27" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G27" s="1">
-        <v>7000</v>
+        <v>6600</v>
       </c>
       <c r="H27" s="1">
-        <v>7000</v>
+        <v>6600</v>
       </c>
       <c r="I27" s="1">
-        <v>7000</v>
+        <v>6600</v>
       </c>
       <c r="J27" s="2">
-        <v>95970</v>
+        <v>97482</v>
       </c>
       <c r="K27" s="3">
         <v>0</v>
       </c>
       <c r="L27" s="3">
-        <v>7</v>
-      </c>
-      <c r="M27" s="2">
-        <v>93.3</v>
-      </c>
-      <c r="N27" s="2">
+        <v>8.5</v>
+      </c>
+      <c r="M27" s="4">
+        <v>184.13</v>
+      </c>
+      <c r="N27" s="4">
         <v>0</v>
       </c>
       <c r="O27" t="s">
@@ -2667,7 +2540,7 @@
         <v>18</v>
       </c>
       <c r="R27" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="S27" t="s">
         <v>27</v>
@@ -2678,34 +2551,34 @@
     </row>
     <row r="28" spans="1:20">
       <c r="A28" t="s">
+        <v>105</v>
+      </c>
+      <c r="B28" t="s">
+        <v>106</v>
+      </c>
+      <c r="C28" t="s">
         <v>111</v>
       </c>
-      <c r="B28" t="s">
-        <v>112</v>
-      </c>
-      <c r="C28" t="s">
-        <v>114</v>
-      </c>
       <c r="D28" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E28" t="s">
         <v>42</v>
       </c>
       <c r="F28" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G28" s="1">
-        <v>6600</v>
+        <v>11600</v>
       </c>
       <c r="H28" s="1">
-        <v>6600</v>
+        <v>11600</v>
       </c>
       <c r="I28" s="1">
-        <v>6600</v>
+        <v>11600</v>
       </c>
       <c r="J28" s="2">
-        <v>97482</v>
+        <v>99644</v>
       </c>
       <c r="K28" s="3">
         <v>0</v>
@@ -2713,10 +2586,10 @@
       <c r="L28" s="3">
         <v>8.5</v>
       </c>
-      <c r="M28" s="2">
-        <v>138.1</v>
-      </c>
-      <c r="N28" s="2">
+      <c r="M28" s="4">
+        <v>188.22</v>
+      </c>
+      <c r="N28" s="4">
         <v>0</v>
       </c>
       <c r="O28" t="s">
@@ -2729,7 +2602,7 @@
         <v>18</v>
       </c>
       <c r="R28" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="S28" t="s">
         <v>27</v>
@@ -2740,34 +2613,34 @@
     </row>
     <row r="29" spans="1:20">
       <c r="A29" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B29" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C29" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D29" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E29" t="s">
         <v>42</v>
       </c>
       <c r="F29" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G29" s="1">
-        <v>11600</v>
+        <v>1600</v>
       </c>
       <c r="H29" s="1">
-        <v>11600</v>
+        <v>1600</v>
       </c>
       <c r="I29" s="1">
-        <v>11600</v>
+        <v>1600</v>
       </c>
       <c r="J29" s="2">
-        <v>99644</v>
+        <v>110992</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
@@ -2775,10 +2648,10 @@
       <c r="L29" s="3">
         <v>8.5</v>
       </c>
-      <c r="M29" s="2">
-        <v>141.16</v>
-      </c>
-      <c r="N29" s="2">
+      <c r="M29" s="4">
+        <v>209.65</v>
+      </c>
+      <c r="N29" s="4">
         <v>0</v>
       </c>
       <c r="O29" t="s">
@@ -2791,7 +2664,7 @@
         <v>18</v>
       </c>
       <c r="R29" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="S29" t="s">
         <v>27</v>
@@ -2802,45 +2675,45 @@
     </row>
     <row r="30" spans="1:20">
       <c r="A30" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="B30" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="C30" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D30" t="s">
-        <v>103</v>
+        <v>58</v>
       </c>
       <c r="E30" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="F30" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G30" s="1">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="H30" s="1">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="I30" s="1">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="J30" s="2">
-        <v>110992</v>
+        <v>15550</v>
       </c>
       <c r="K30" s="3">
         <v>0</v>
       </c>
       <c r="L30" s="3">
-        <v>8.5</v>
-      </c>
-      <c r="M30" s="2">
-        <v>157.24</v>
-      </c>
-      <c r="N30" s="2">
+        <v>9</v>
+      </c>
+      <c r="M30" s="4">
+        <v>31.1</v>
+      </c>
+      <c r="N30" s="4">
         <v>0</v>
       </c>
       <c r="O30" t="s">
@@ -2864,58 +2737,58 @@
     </row>
     <row r="31" spans="1:20">
       <c r="A31" t="s">
+        <v>92</v>
+      </c>
+      <c r="B31" t="s">
+        <v>93</v>
+      </c>
+      <c r="C31" t="s">
+        <v>111</v>
+      </c>
+      <c r="D31" t="s">
+        <v>94</v>
+      </c>
+      <c r="E31" t="s">
+        <v>95</v>
+      </c>
+      <c r="F31" s="1">
+        <v>18</v>
+      </c>
+      <c r="G31" s="1">
+        <v>1900</v>
+      </c>
+      <c r="H31" s="1">
+        <v>1900</v>
+      </c>
+      <c r="I31" s="1">
+        <v>1900</v>
+      </c>
+      <c r="J31" s="2">
+        <v>216277</v>
+      </c>
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3">
+        <v>7</v>
+      </c>
+      <c r="M31" s="4">
+        <v>336.43</v>
+      </c>
+      <c r="N31" s="4">
+        <v>0</v>
+      </c>
+      <c r="O31" t="s">
+        <v>25</v>
+      </c>
+      <c r="P31" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>18</v>
+      </c>
+      <c r="R31" t="s">
         <v>118</v>
-      </c>
-      <c r="B31" t="s">
-        <v>119</v>
-      </c>
-      <c r="C31" t="s">
-        <v>114</v>
-      </c>
-      <c r="D31" t="s">
-        <v>58</v>
-      </c>
-      <c r="E31" t="s">
-        <v>59</v>
-      </c>
-      <c r="F31" s="1">
-        <v>6</v>
-      </c>
-      <c r="G31" s="1">
-        <v>1000</v>
-      </c>
-      <c r="H31" s="1">
-        <v>1000</v>
-      </c>
-      <c r="I31" s="1">
-        <v>1000</v>
-      </c>
-      <c r="J31" s="2">
-        <v>15550</v>
-      </c>
-      <c r="K31" s="3">
-        <v>0</v>
-      </c>
-      <c r="L31" s="3">
-        <v>9</v>
-      </c>
-      <c r="M31" s="2">
-        <v>23.32</v>
-      </c>
-      <c r="N31" s="2">
-        <v>0</v>
-      </c>
-      <c r="O31" t="s">
-        <v>25</v>
-      </c>
-      <c r="P31" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q31" s="3">
-        <v>18</v>
-      </c>
-      <c r="R31" t="s">
-        <v>120</v>
       </c>
       <c r="S31" t="s">
         <v>27</v>
@@ -2926,34 +2799,34 @@
     </row>
     <row r="32" spans="1:20">
       <c r="A32" t="s">
-        <v>95</v>
+        <v>56</v>
       </c>
       <c r="B32" t="s">
-        <v>96</v>
+        <v>57</v>
       </c>
       <c r="C32" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D32" t="s">
-        <v>97</v>
+        <v>58</v>
       </c>
       <c r="E32" t="s">
-        <v>98</v>
+        <v>59</v>
       </c>
       <c r="F32" s="1">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="G32" s="1">
-        <v>1900</v>
+        <v>1200</v>
       </c>
       <c r="H32" s="1">
-        <v>1900</v>
+        <v>1200</v>
       </c>
       <c r="I32" s="1">
-        <v>1900</v>
+        <v>1200</v>
       </c>
       <c r="J32" s="2">
-        <v>216277</v>
+        <v>9264</v>
       </c>
       <c r="K32" s="3">
         <v>0</v>
@@ -2961,10 +2834,10 @@
       <c r="L32" s="3">
         <v>7</v>
       </c>
-      <c r="M32" s="2">
-        <v>252.32</v>
-      </c>
-      <c r="N32" s="2">
+      <c r="M32" s="4">
+        <v>14.41</v>
+      </c>
+      <c r="N32" s="4">
         <v>0</v>
       </c>
       <c r="O32" t="s">
@@ -2977,7 +2850,7 @@
         <v>18</v>
       </c>
       <c r="R32" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="S32" t="s">
         <v>27</v>
@@ -2988,45 +2861,45 @@
     </row>
     <row r="33" spans="1:20">
       <c r="A33" t="s">
-        <v>56</v>
+        <v>120</v>
       </c>
       <c r="B33" t="s">
-        <v>57</v>
+        <v>121</v>
       </c>
       <c r="C33" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="D33" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E33" t="s">
-        <v>59</v>
+        <v>100</v>
       </c>
       <c r="F33" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G33" s="1">
-        <v>1200</v>
+        <v>10000</v>
       </c>
       <c r="H33" s="1">
-        <v>1200</v>
+        <v>10000</v>
       </c>
       <c r="I33" s="1">
-        <v>1200</v>
+        <v>10000</v>
       </c>
       <c r="J33" s="2">
-        <v>9264</v>
+        <v>81800</v>
       </c>
       <c r="K33" s="3">
         <v>0</v>
       </c>
       <c r="L33" s="3">
-        <v>7</v>
-      </c>
-      <c r="M33" s="2">
-        <v>10.81</v>
-      </c>
-      <c r="N33" s="2">
+        <v>8.5</v>
+      </c>
+      <c r="M33" s="4">
+        <v>173.83</v>
+      </c>
+      <c r="N33" s="4">
         <v>0</v>
       </c>
       <c r="O33" t="s">
@@ -3039,7 +2912,7 @@
         <v>18</v>
       </c>
       <c r="R33" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="S33" t="s">
         <v>27</v>
@@ -3050,45 +2923,45 @@
     </row>
     <row r="34" spans="1:20">
       <c r="A34" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B34" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C34" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D34" t="s">
         <v>59</v>
       </c>
       <c r="E34" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F34" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G34" s="1">
-        <v>10000</v>
+        <v>400</v>
       </c>
       <c r="H34" s="1">
-        <v>10000</v>
+        <v>400</v>
       </c>
       <c r="I34" s="1">
-        <v>10000</v>
+        <v>400</v>
       </c>
       <c r="J34" s="2">
-        <v>81800</v>
+        <v>3392</v>
       </c>
       <c r="K34" s="3">
         <v>0</v>
       </c>
       <c r="L34" s="3">
-        <v>8.5</v>
-      </c>
-      <c r="M34" s="2">
-        <v>135.2</v>
-      </c>
-      <c r="N34" s="2">
+        <v>9</v>
+      </c>
+      <c r="M34" s="4">
+        <v>7.63</v>
+      </c>
+      <c r="N34" s="4">
         <v>0</v>
       </c>
       <c r="O34" t="s">
@@ -3118,39 +2991,39 @@
         <v>128</v>
       </c>
       <c r="C35" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D35" t="s">
         <v>59</v>
       </c>
       <c r="E35" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F35" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G35" s="1">
-        <v>400</v>
+        <v>9500</v>
       </c>
       <c r="H35" s="1">
-        <v>400</v>
+        <v>9500</v>
       </c>
       <c r="I35" s="1">
-        <v>400</v>
+        <v>9500</v>
       </c>
       <c r="J35" s="2">
-        <v>3392</v>
+        <v>94620</v>
       </c>
       <c r="K35" s="3">
         <v>0</v>
       </c>
       <c r="L35" s="3">
-        <v>9</v>
-      </c>
-      <c r="M35" s="2">
-        <v>5.94</v>
-      </c>
-      <c r="N35" s="2">
+        <v>8.5</v>
+      </c>
+      <c r="M35" s="4">
+        <v>201.07</v>
+      </c>
+      <c r="N35" s="4">
         <v>0</v>
       </c>
       <c r="O35" t="s">
@@ -3174,45 +3047,45 @@
     </row>
     <row r="36" spans="1:20">
       <c r="A36" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B36" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C36" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D36" t="s">
         <v>59</v>
       </c>
       <c r="E36" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F36" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G36" s="1">
-        <v>9500</v>
+        <v>9800</v>
       </c>
       <c r="H36" s="1">
-        <v>9500</v>
+        <v>9800</v>
       </c>
       <c r="I36" s="1">
-        <v>9500</v>
+        <v>9800</v>
       </c>
       <c r="J36" s="2">
-        <v>94620</v>
+        <v>83104</v>
       </c>
       <c r="K36" s="3">
         <v>0</v>
       </c>
       <c r="L36" s="3">
-        <v>8.5</v>
-      </c>
-      <c r="M36" s="2">
-        <v>156.39</v>
-      </c>
-      <c r="N36" s="2">
+        <v>9</v>
+      </c>
+      <c r="M36" s="4">
+        <v>186.98</v>
+      </c>
+      <c r="N36" s="4">
         <v>0</v>
       </c>
       <c r="O36" t="s">
@@ -3225,7 +3098,7 @@
         <v>18</v>
       </c>
       <c r="R36" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="S36" t="s">
         <v>27</v>
@@ -3236,34 +3109,34 @@
     </row>
     <row r="37" spans="1:20">
       <c r="A37" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B37" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C37" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D37" t="s">
         <v>59</v>
       </c>
       <c r="E37" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F37" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G37" s="1">
-        <v>9800</v>
+        <v>1400</v>
       </c>
       <c r="H37" s="1">
-        <v>9800</v>
+        <v>1400</v>
       </c>
       <c r="I37" s="1">
-        <v>9800</v>
+        <v>1400</v>
       </c>
       <c r="J37" s="2">
-        <v>83104</v>
+        <v>192360</v>
       </c>
       <c r="K37" s="3">
         <v>0</v>
@@ -3271,10 +3144,10 @@
       <c r="L37" s="3">
         <v>9</v>
       </c>
-      <c r="M37" s="2">
-        <v>145.43</v>
-      </c>
-      <c r="N37" s="2">
+      <c r="M37" s="4">
+        <v>432.81</v>
+      </c>
+      <c r="N37" s="4">
         <v>0</v>
       </c>
       <c r="O37" t="s">
@@ -3304,28 +3177,28 @@
         <v>135</v>
       </c>
       <c r="C38" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="D38" t="s">
+        <v>58</v>
+      </c>
+      <c r="E38" t="s">
         <v>59</v>
       </c>
-      <c r="E38" t="s">
-        <v>103</v>
-      </c>
       <c r="F38" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G38" s="1">
-        <v>1400</v>
+        <v>22900</v>
       </c>
       <c r="H38" s="1">
-        <v>1400</v>
+        <v>22900</v>
       </c>
       <c r="I38" s="1">
-        <v>1400</v>
+        <v>22900</v>
       </c>
       <c r="J38" s="2">
-        <v>192360</v>
+        <v>210451</v>
       </c>
       <c r="K38" s="3">
         <v>0</v>
@@ -3333,10 +3206,10 @@
       <c r="L38" s="3">
         <v>9</v>
       </c>
-      <c r="M38" s="2">
-        <v>336.63</v>
-      </c>
-      <c r="N38" s="2">
+      <c r="M38" s="4">
+        <v>526.13</v>
+      </c>
+      <c r="N38" s="4">
         <v>0</v>
       </c>
       <c r="O38" t="s">
@@ -3349,7 +3222,7 @@
         <v>18</v>
       </c>
       <c r="R38" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="S38" t="s">
         <v>27</v>
@@ -3360,13 +3233,13 @@
     </row>
     <row r="39" spans="1:20">
       <c r="A39" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B39" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C39" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D39" t="s">
         <v>58</v>
@@ -3375,19 +3248,19 @@
         <v>59</v>
       </c>
       <c r="F39" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G39" s="1">
-        <v>22900</v>
+        <v>1200</v>
       </c>
       <c r="H39" s="1">
-        <v>22900</v>
+        <v>1200</v>
       </c>
       <c r="I39" s="1">
-        <v>22900</v>
+        <v>1200</v>
       </c>
       <c r="J39" s="2">
-        <v>210451</v>
+        <v>10188</v>
       </c>
       <c r="K39" s="3">
         <v>0</v>
@@ -3395,10 +3268,10 @@
       <c r="L39" s="3">
         <v>9</v>
       </c>
-      <c r="M39" s="2">
-        <v>420.9</v>
-      </c>
-      <c r="N39" s="2">
+      <c r="M39" s="4">
+        <v>25.47</v>
+      </c>
+      <c r="N39" s="4">
         <v>0</v>
       </c>
       <c r="O39" t="s">
@@ -3428,7 +3301,7 @@
         <v>142</v>
       </c>
       <c r="C40" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D40" t="s">
         <v>58</v>
@@ -3437,19 +3310,19 @@
         <v>59</v>
       </c>
       <c r="F40" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G40" s="1">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="H40" s="1">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="I40" s="1">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="J40" s="2">
-        <v>10188</v>
+        <v>151508</v>
       </c>
       <c r="K40" s="3">
         <v>0</v>
@@ -3457,10 +3330,10 @@
       <c r="L40" s="3">
         <v>9</v>
       </c>
-      <c r="M40" s="2">
-        <v>20.38</v>
-      </c>
-      <c r="N40" s="2">
+      <c r="M40" s="4">
+        <v>378.77</v>
+      </c>
+      <c r="N40" s="4">
         <v>0</v>
       </c>
       <c r="O40" t="s">
@@ -3484,34 +3357,34 @@
     </row>
     <row r="41" spans="1:20">
       <c r="A41" t="s">
+        <v>141</v>
+      </c>
+      <c r="B41" t="s">
+        <v>142</v>
+      </c>
+      <c r="C41" t="s">
         <v>144</v>
       </c>
-      <c r="B41" t="s">
-        <v>145</v>
-      </c>
-      <c r="C41" t="s">
-        <v>139</v>
-      </c>
       <c r="D41" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="E41" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F41" s="1">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="G41" s="1">
-        <v>1400</v>
+        <v>500</v>
       </c>
       <c r="H41" s="1">
-        <v>1400</v>
+        <v>500</v>
       </c>
       <c r="I41" s="1">
-        <v>1400</v>
+        <v>500</v>
       </c>
       <c r="J41" s="2">
-        <v>151508</v>
+        <v>53655</v>
       </c>
       <c r="K41" s="3">
         <v>0</v>
@@ -3519,10 +3392,10 @@
       <c r="L41" s="3">
         <v>9</v>
       </c>
-      <c r="M41" s="2">
-        <v>303.02</v>
-      </c>
-      <c r="N41" s="2">
+      <c r="M41" s="4">
+        <v>174.38</v>
+      </c>
+      <c r="N41" s="4">
         <v>0</v>
       </c>
       <c r="O41" t="s">
@@ -3535,7 +3408,7 @@
         <v>18</v>
       </c>
       <c r="R41" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="S41" t="s">
         <v>27</v>
@@ -3546,45 +3419,45 @@
     </row>
     <row r="42" spans="1:20">
       <c r="A42" t="s">
+        <v>146</v>
+      </c>
+      <c r="B42" t="s">
         <v>147</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C42" t="s">
         <v>148</v>
       </c>
-      <c r="C42" t="s">
-        <v>139</v>
-      </c>
       <c r="D42" t="s">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="E42" t="s">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="F42" s="1">
         <v>0</v>
       </c>
       <c r="G42" s="1">
-        <v>16600</v>
+        <v>1600</v>
       </c>
       <c r="H42" s="1">
-        <v>16600</v>
+        <v>1600</v>
       </c>
       <c r="I42" s="1">
         <v>0</v>
       </c>
       <c r="J42" s="2">
-        <v>194552</v>
+        <v>47440</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
       </c>
       <c r="L42" s="3">
-        <v>9</v>
-      </c>
-      <c r="M42" s="2">
-        <v>389.1</v>
-      </c>
-      <c r="N42" s="2">
+        <v>8.5</v>
+      </c>
+      <c r="M42" s="4">
+        <v>156.82</v>
+      </c>
+      <c r="N42" s="4">
         <v>0</v>
       </c>
       <c r="O42" t="s">
@@ -3608,45 +3481,45 @@
     </row>
     <row r="43" spans="1:20">
       <c r="A43" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="B43" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="C43" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D43" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="E43" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="F43" s="1">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G43" s="1">
-        <v>500</v>
+        <v>1200</v>
       </c>
       <c r="H43" s="1">
-        <v>500</v>
+        <v>1200</v>
       </c>
       <c r="I43" s="1">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="J43" s="2">
-        <v>53655</v>
+        <v>221280</v>
       </c>
       <c r="K43" s="3">
         <v>0</v>
       </c>
       <c r="L43" s="3">
-        <v>9</v>
-      </c>
-      <c r="M43" s="2">
-        <v>147.55</v>
-      </c>
-      <c r="N43" s="2">
+        <v>8.5</v>
+      </c>
+      <c r="M43" s="4">
+        <v>731.45</v>
+      </c>
+      <c r="N43" s="4">
         <v>0</v>
       </c>
       <c r="O43" t="s">
@@ -3659,7 +3532,7 @@
         <v>18</v>
       </c>
       <c r="R43" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="S43" t="s">
         <v>27</v>
@@ -3670,45 +3543,45 @@
     </row>
     <row r="44" spans="1:20">
       <c r="A44" t="s">
-        <v>152</v>
+        <v>79</v>
       </c>
       <c r="B44" t="s">
+        <v>80</v>
+      </c>
+      <c r="C44" t="s">
         <v>153</v>
       </c>
-      <c r="C44" t="s">
+      <c r="D44" t="s">
+        <v>42</v>
+      </c>
+      <c r="E44" t="s">
         <v>154</v>
       </c>
-      <c r="D44" t="s">
-        <v>67</v>
-      </c>
-      <c r="E44" t="s">
-        <v>68</v>
-      </c>
       <c r="F44" s="1">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="G44" s="1">
-        <v>1600</v>
+        <v>19200</v>
       </c>
       <c r="H44" s="1">
-        <v>1600</v>
+        <v>19200</v>
       </c>
       <c r="I44" s="1">
-        <v>1600</v>
+        <v>19200</v>
       </c>
       <c r="J44" s="2">
-        <v>47440</v>
+        <v>131904</v>
       </c>
       <c r="K44" s="3">
         <v>0</v>
       </c>
       <c r="L44" s="3">
-        <v>8.5</v>
-      </c>
-      <c r="M44" s="2">
-        <v>134.41</v>
-      </c>
-      <c r="N44" s="2">
+        <v>9</v>
+      </c>
+      <c r="M44" s="4">
+        <v>494.64</v>
+      </c>
+      <c r="N44" s="4">
         <v>0</v>
       </c>
       <c r="O44" t="s">
@@ -3738,39 +3611,39 @@
         <v>157</v>
       </c>
       <c r="C45" t="s">
+        <v>153</v>
+      </c>
+      <c r="D45" t="s">
+        <v>42</v>
+      </c>
+      <c r="E45" t="s">
         <v>154</v>
       </c>
-      <c r="D45" t="s">
-        <v>67</v>
-      </c>
-      <c r="E45" t="s">
-        <v>68</v>
-      </c>
       <c r="F45" s="1">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="G45" s="1">
-        <v>1200</v>
+        <v>4200</v>
       </c>
       <c r="H45" s="1">
-        <v>1200</v>
+        <v>4200</v>
       </c>
       <c r="I45" s="1">
-        <v>1200</v>
+        <v>4200</v>
       </c>
       <c r="J45" s="2">
-        <v>221280</v>
+        <v>108360</v>
       </c>
       <c r="K45" s="3">
         <v>0</v>
       </c>
       <c r="L45" s="3">
-        <v>8.5</v>
-      </c>
-      <c r="M45" s="2">
-        <v>626.96</v>
-      </c>
-      <c r="N45" s="2">
+        <v>7</v>
+      </c>
+      <c r="M45" s="4">
+        <v>316.05</v>
+      </c>
+      <c r="N45" s="4">
         <v>0</v>
       </c>
       <c r="O45" t="s">
@@ -3794,34 +3667,34 @@
     </row>
     <row r="46" spans="1:20">
       <c r="A46" t="s">
+        <v>83</v>
+      </c>
+      <c r="B46" t="s">
+        <v>84</v>
+      </c>
+      <c r="C46" t="s">
         <v>159</v>
       </c>
-      <c r="B46" t="s">
-        <v>160</v>
-      </c>
-      <c r="C46" t="s">
-        <v>154</v>
-      </c>
       <c r="D46" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="E46" t="s">
-        <v>67</v>
+        <v>97</v>
       </c>
       <c r="F46" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G46" s="1">
-        <v>2300</v>
+        <v>1000</v>
       </c>
       <c r="H46" s="1">
-        <v>2300</v>
+        <v>1000</v>
       </c>
       <c r="I46" s="1">
-        <v>2300</v>
+        <v>1000</v>
       </c>
       <c r="J46" s="2">
-        <v>200491</v>
+        <v>83100</v>
       </c>
       <c r="K46" s="3">
         <v>0</v>
@@ -3829,10 +3702,10 @@
       <c r="L46" s="3">
         <v>9</v>
       </c>
-      <c r="M46" s="2">
-        <v>601.47</v>
-      </c>
-      <c r="N46" s="2">
+      <c r="M46" s="4">
+        <v>353.18</v>
+      </c>
+      <c r="N46" s="4">
         <v>0</v>
       </c>
       <c r="O46" t="s">
@@ -3845,7 +3718,7 @@
         <v>18</v>
       </c>
       <c r="R46" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="S46" t="s">
         <v>27</v>
@@ -3856,1179 +3729,63 @@
     </row>
     <row r="47" spans="1:20">
       <c r="A47" t="s">
+        <v>161</v>
+      </c>
+      <c r="B47" t="s">
         <v>162</v>
       </c>
-      <c r="B47" t="s">
+      <c r="C47" t="s">
+        <v>159</v>
+      </c>
+      <c r="D47" t="s">
+        <v>59</v>
+      </c>
+      <c r="E47" t="s">
+        <v>100</v>
+      </c>
+      <c r="F47" s="1">
+        <v>5</v>
+      </c>
+      <c r="G47" s="1">
+        <v>6600</v>
+      </c>
+      <c r="H47" s="1">
+        <v>6600</v>
+      </c>
+      <c r="I47" s="1">
+        <v>6600</v>
+      </c>
+      <c r="J47" s="2">
+        <v>204930</v>
+      </c>
+      <c r="K47" s="3">
+        <v>0</v>
+      </c>
+      <c r="L47" s="3">
+        <v>7</v>
+      </c>
+      <c r="M47" s="4">
+        <v>677.41</v>
+      </c>
+      <c r="N47" s="4">
+        <v>0</v>
+      </c>
+      <c r="O47" t="s">
+        <v>25</v>
+      </c>
+      <c r="P47" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="3">
+        <v>18</v>
+      </c>
+      <c r="R47" t="s">
         <v>163</v>
       </c>
-      <c r="C47" t="s">
-        <v>154</v>
-      </c>
-      <c r="D47" t="s">
-        <v>22</v>
-      </c>
-      <c r="E47" t="s">
-        <v>67</v>
-      </c>
-      <c r="F47" s="1">
-        <v>1</v>
-      </c>
-      <c r="G47" s="1">
-        <v>23300</v>
-      </c>
-      <c r="H47" s="1">
-        <v>23300</v>
-      </c>
-      <c r="I47" s="1">
-        <v>23300</v>
-      </c>
-      <c r="J47" s="2">
-        <v>204574</v>
-      </c>
-      <c r="K47" s="3">
-        <v>0</v>
-      </c>
-      <c r="L47" s="3">
-        <v>9</v>
-      </c>
-      <c r="M47" s="2">
-        <v>613.72</v>
-      </c>
-      <c r="N47" s="2">
-        <v>0</v>
-      </c>
-      <c r="O47" t="s">
-        <v>25</v>
-      </c>
-      <c r="P47" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q47" s="3">
-        <v>18</v>
-      </c>
-      <c r="R47" t="s">
-        <v>164</v>
-      </c>
       <c r="S47" t="s">
         <v>27</v>
       </c>
       <c r="T47" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="48" spans="1:20">
-      <c r="A48" t="s">
-        <v>165</v>
-      </c>
-      <c r="B48" t="s">
-        <v>166</v>
-      </c>
-      <c r="C48" t="s">
-        <v>154</v>
-      </c>
-      <c r="D48" t="s">
-        <v>22</v>
-      </c>
-      <c r="E48" t="s">
-        <v>67</v>
-      </c>
-      <c r="F48" s="1">
-        <v>1</v>
-      </c>
-      <c r="G48" s="1">
-        <v>10000</v>
-      </c>
-      <c r="H48" s="1">
-        <v>10000</v>
-      </c>
-      <c r="I48" s="1">
-        <v>10000</v>
-      </c>
-      <c r="J48" s="2">
-        <v>121800</v>
-      </c>
-      <c r="K48" s="3">
-        <v>0</v>
-      </c>
-      <c r="L48" s="3">
-        <v>7</v>
-      </c>
-      <c r="M48" s="2">
-        <v>284.2</v>
-      </c>
-      <c r="N48" s="2">
-        <v>0</v>
-      </c>
-      <c r="O48" t="s">
-        <v>25</v>
-      </c>
-      <c r="P48" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>18</v>
-      </c>
-      <c r="R48" t="s">
-        <v>167</v>
-      </c>
-      <c r="S48" t="s">
-        <v>27</v>
-      </c>
-      <c r="T48" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="49" spans="1:20">
-      <c r="A49" t="s">
-        <v>168</v>
-      </c>
-      <c r="B49" t="s">
-        <v>169</v>
-      </c>
-      <c r="C49" t="s">
-        <v>154</v>
-      </c>
-      <c r="D49" t="s">
-        <v>22</v>
-      </c>
-      <c r="E49" t="s">
-        <v>67</v>
-      </c>
-      <c r="F49" s="1">
-        <v>1</v>
-      </c>
-      <c r="G49" s="1">
-        <v>1400</v>
-      </c>
-      <c r="H49" s="1">
-        <v>1400</v>
-      </c>
-      <c r="I49" s="1">
-        <v>1400</v>
-      </c>
-      <c r="J49" s="2">
-        <v>102312</v>
-      </c>
-      <c r="K49" s="3">
-        <v>0</v>
-      </c>
-      <c r="L49" s="3">
-        <v>5</v>
-      </c>
-      <c r="M49" s="2">
-        <v>170.52</v>
-      </c>
-      <c r="N49" s="2">
-        <v>0</v>
-      </c>
-      <c r="O49" t="s">
-        <v>25</v>
-      </c>
-      <c r="P49" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q49" s="3">
-        <v>18</v>
-      </c>
-      <c r="R49" t="s">
-        <v>170</v>
-      </c>
-      <c r="S49" t="s">
-        <v>27</v>
-      </c>
-      <c r="T49" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="50" spans="1:20">
-      <c r="A50" t="s">
-        <v>171</v>
-      </c>
-      <c r="B50" t="s">
-        <v>172</v>
-      </c>
-      <c r="C50" t="s">
-        <v>154</v>
-      </c>
-      <c r="D50" t="s">
-        <v>22</v>
-      </c>
-      <c r="E50" t="s">
-        <v>67</v>
-      </c>
-      <c r="F50" s="1">
-        <v>1</v>
-      </c>
-      <c r="G50" s="1">
-        <v>3900</v>
-      </c>
-      <c r="H50" s="1">
-        <v>3900</v>
-      </c>
-      <c r="I50" s="1">
-        <v>3900</v>
-      </c>
-      <c r="J50" s="2">
-        <v>201630</v>
-      </c>
-      <c r="K50" s="3">
-        <v>0</v>
-      </c>
-      <c r="L50" s="3">
-        <v>7</v>
-      </c>
-      <c r="M50" s="2">
-        <v>470.47</v>
-      </c>
-      <c r="N50" s="2">
-        <v>0</v>
-      </c>
-      <c r="O50" t="s">
-        <v>25</v>
-      </c>
-      <c r="P50" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q50" s="3">
-        <v>18</v>
-      </c>
-      <c r="R50" t="s">
-        <v>173</v>
-      </c>
-      <c r="S50" t="s">
-        <v>27</v>
-      </c>
-      <c r="T50" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="51" spans="1:20">
-      <c r="A51" t="s">
-        <v>174</v>
-      </c>
-      <c r="B51" t="s">
-        <v>175</v>
-      </c>
-      <c r="C51" t="s">
-        <v>176</v>
-      </c>
-      <c r="D51" t="s">
-        <v>22</v>
-      </c>
-      <c r="E51" t="s">
-        <v>67</v>
-      </c>
-      <c r="F51" s="1">
-        <v>1</v>
-      </c>
-      <c r="G51" s="1">
-        <v>7900</v>
-      </c>
-      <c r="H51" s="1">
-        <v>7900</v>
-      </c>
-      <c r="I51" s="1">
-        <v>7900</v>
-      </c>
-      <c r="J51" s="2">
-        <v>99382</v>
-      </c>
-      <c r="K51" s="3">
-        <v>0</v>
-      </c>
-      <c r="L51" s="3">
-        <v>8.5</v>
-      </c>
-      <c r="M51" s="2">
-        <v>305.05</v>
-      </c>
-      <c r="N51" s="2">
-        <v>0</v>
-      </c>
-      <c r="O51" t="s">
-        <v>25</v>
-      </c>
-      <c r="P51" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q51" s="3">
-        <v>18</v>
-      </c>
-      <c r="R51" t="s">
-        <v>177</v>
-      </c>
-      <c r="S51" t="s">
-        <v>27</v>
-      </c>
-      <c r="T51" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="52" spans="1:20">
-      <c r="A52" t="s">
-        <v>152</v>
-      </c>
-      <c r="B52" t="s">
-        <v>153</v>
-      </c>
-      <c r="C52" t="s">
-        <v>176</v>
-      </c>
-      <c r="D52" t="s">
-        <v>22</v>
-      </c>
-      <c r="E52" t="s">
-        <v>67</v>
-      </c>
-      <c r="F52" s="1">
-        <v>1</v>
-      </c>
-      <c r="G52" s="1">
-        <v>3400</v>
-      </c>
-      <c r="H52" s="1">
-        <v>3400</v>
-      </c>
-      <c r="I52" s="1">
-        <v>3400</v>
-      </c>
-      <c r="J52" s="2">
-        <v>102272</v>
-      </c>
-      <c r="K52" s="3">
-        <v>0</v>
-      </c>
-      <c r="L52" s="3">
-        <v>8.5</v>
-      </c>
-      <c r="M52" s="2">
-        <v>313.92</v>
-      </c>
-      <c r="N52" s="2">
-        <v>0</v>
-      </c>
-      <c r="O52" t="s">
-        <v>25</v>
-      </c>
-      <c r="P52" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>18</v>
-      </c>
-      <c r="R52" t="s">
-        <v>178</v>
-      </c>
-      <c r="S52" t="s">
-        <v>27</v>
-      </c>
-      <c r="T52" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="53" spans="1:20">
-      <c r="A53" t="s">
-        <v>83</v>
-      </c>
-      <c r="B53" t="s">
-        <v>84</v>
-      </c>
-      <c r="C53" t="s">
-        <v>176</v>
-      </c>
-      <c r="D53" t="s">
-        <v>42</v>
-      </c>
-      <c r="E53" t="s">
-        <v>179</v>
-      </c>
-      <c r="F53" s="1">
-        <v>14</v>
-      </c>
-      <c r="G53" s="1">
-        <v>19200</v>
-      </c>
-      <c r="H53" s="1">
-        <v>19200</v>
-      </c>
-      <c r="I53" s="1">
-        <v>19200</v>
-      </c>
-      <c r="J53" s="2">
-        <v>131904</v>
-      </c>
-      <c r="K53" s="3">
-        <v>0</v>
-      </c>
-      <c r="L53" s="3">
-        <v>9</v>
-      </c>
-      <c r="M53" s="2">
-        <v>428.69</v>
-      </c>
-      <c r="N53" s="2">
-        <v>0</v>
-      </c>
-      <c r="O53" t="s">
-        <v>25</v>
-      </c>
-      <c r="P53" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q53" s="3">
-        <v>18</v>
-      </c>
-      <c r="R53" t="s">
-        <v>180</v>
-      </c>
-      <c r="S53" t="s">
-        <v>27</v>
-      </c>
-      <c r="T53" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="54" spans="1:20">
-      <c r="A54" t="s">
-        <v>134</v>
-      </c>
-      <c r="B54" t="s">
-        <v>135</v>
-      </c>
-      <c r="C54" t="s">
-        <v>176</v>
-      </c>
-      <c r="D54" t="s">
-        <v>31</v>
-      </c>
-      <c r="E54" t="s">
-        <v>22</v>
-      </c>
-      <c r="F54" s="1">
-        <v>0</v>
-      </c>
-      <c r="G54" s="1">
-        <v>100</v>
-      </c>
-      <c r="H54" s="1">
-        <v>100</v>
-      </c>
-      <c r="I54" s="1">
-        <v>0</v>
-      </c>
-      <c r="J54" s="2">
-        <v>12698</v>
-      </c>
-      <c r="K54" s="3">
-        <v>0</v>
-      </c>
-      <c r="L54" s="3">
-        <v>9</v>
-      </c>
-      <c r="M54" s="2">
-        <v>41.27</v>
-      </c>
-      <c r="N54" s="2">
-        <v>0</v>
-      </c>
-      <c r="O54" t="s">
-        <v>25</v>
-      </c>
-      <c r="P54" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q54" s="3">
-        <v>18</v>
-      </c>
-      <c r="R54" t="s">
-        <v>181</v>
-      </c>
-      <c r="S54" t="s">
-        <v>27</v>
-      </c>
-      <c r="T54" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="55" spans="1:20">
-      <c r="A55" t="s">
-        <v>20</v>
-      </c>
-      <c r="B55" t="s">
-        <v>21</v>
-      </c>
-      <c r="C55" t="s">
-        <v>176</v>
-      </c>
-      <c r="D55" t="s">
-        <v>31</v>
-      </c>
-      <c r="E55" t="s">
-        <v>22</v>
-      </c>
-      <c r="F55" s="1">
-        <v>0</v>
-      </c>
-      <c r="G55" s="1">
-        <v>1500</v>
-      </c>
-      <c r="H55" s="1">
-        <v>1500</v>
-      </c>
-      <c r="I55" s="1">
-        <v>0</v>
-      </c>
-      <c r="J55" s="2">
-        <v>21060</v>
-      </c>
-      <c r="K55" s="3">
-        <v>0</v>
-      </c>
-      <c r="L55" s="3">
-        <v>5</v>
-      </c>
-      <c r="M55" s="2">
-        <v>38.02</v>
-      </c>
-      <c r="N55" s="2">
-        <v>0</v>
-      </c>
-      <c r="O55" t="s">
-        <v>25</v>
-      </c>
-      <c r="P55" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q55" s="3">
-        <v>18</v>
-      </c>
-      <c r="R55" t="s">
-        <v>182</v>
-      </c>
-      <c r="S55" t="s">
-        <v>27</v>
-      </c>
-      <c r="T55" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="56" spans="1:20">
-      <c r="A56" t="s">
-        <v>183</v>
-      </c>
-      <c r="B56" t="s">
-        <v>184</v>
-      </c>
-      <c r="C56" t="s">
-        <v>176</v>
-      </c>
-      <c r="D56" t="s">
-        <v>42</v>
-      </c>
-      <c r="E56" t="s">
-        <v>179</v>
-      </c>
-      <c r="F56" s="1">
-        <v>14</v>
-      </c>
-      <c r="G56" s="1">
-        <v>4200</v>
-      </c>
-      <c r="H56" s="1">
-        <v>4200</v>
-      </c>
-      <c r="I56" s="1">
-        <v>4200</v>
-      </c>
-      <c r="J56" s="2">
-        <v>108360</v>
-      </c>
-      <c r="K56" s="3">
-        <v>0</v>
-      </c>
-      <c r="L56" s="3">
-        <v>7</v>
-      </c>
-      <c r="M56" s="2">
-        <v>273.91</v>
-      </c>
-      <c r="N56" s="2">
-        <v>0</v>
-      </c>
-      <c r="O56" t="s">
-        <v>25</v>
-      </c>
-      <c r="P56" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q56" s="3">
-        <v>18</v>
-      </c>
-      <c r="R56" t="s">
-        <v>185</v>
-      </c>
-      <c r="S56" t="s">
-        <v>27</v>
-      </c>
-      <c r="T56" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="57" spans="1:20">
-      <c r="A57" t="s">
-        <v>186</v>
-      </c>
-      <c r="B57" t="s">
-        <v>187</v>
-      </c>
-      <c r="C57" t="s">
-        <v>176</v>
-      </c>
-      <c r="D57" t="s">
-        <v>31</v>
-      </c>
-      <c r="E57" t="s">
-        <v>22</v>
-      </c>
-      <c r="F57" s="1">
-        <v>0</v>
-      </c>
-      <c r="G57" s="1">
-        <v>1200</v>
-      </c>
-      <c r="H57" s="1">
-        <v>1200</v>
-      </c>
-      <c r="I57" s="1">
-        <v>0</v>
-      </c>
-      <c r="J57" s="2">
-        <v>110640</v>
-      </c>
-      <c r="K57" s="3">
-        <v>0</v>
-      </c>
-      <c r="L57" s="3">
-        <v>7</v>
-      </c>
-      <c r="M57" s="2">
-        <v>279.67</v>
-      </c>
-      <c r="N57" s="2">
-        <v>0</v>
-      </c>
-      <c r="O57" t="s">
-        <v>25</v>
-      </c>
-      <c r="P57" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>18</v>
-      </c>
-      <c r="R57" t="s">
-        <v>188</v>
-      </c>
-      <c r="S57" t="s">
-        <v>27</v>
-      </c>
-      <c r="T57" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="58" spans="1:20">
-      <c r="A58" t="s">
-        <v>186</v>
-      </c>
-      <c r="B58" t="s">
-        <v>187</v>
-      </c>
-      <c r="C58" t="s">
-        <v>189</v>
-      </c>
-      <c r="D58" t="s">
-        <v>31</v>
-      </c>
-      <c r="E58" t="s">
-        <v>22</v>
-      </c>
-      <c r="F58" s="1">
-        <v>0</v>
-      </c>
-      <c r="G58" s="1">
-        <v>1200</v>
-      </c>
-      <c r="H58" s="1">
-        <v>1200</v>
-      </c>
-      <c r="I58" s="1">
-        <v>0</v>
-      </c>
-      <c r="J58" s="2">
-        <v>100680</v>
-      </c>
-      <c r="K58" s="3">
-        <v>0</v>
-      </c>
-      <c r="L58" s="3">
-        <v>8.5</v>
-      </c>
-      <c r="M58" s="2">
-        <v>332.8</v>
-      </c>
-      <c r="N58" s="2">
-        <v>0</v>
-      </c>
-      <c r="O58" t="s">
-        <v>25</v>
-      </c>
-      <c r="P58" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>18</v>
-      </c>
-      <c r="R58" t="s">
-        <v>190</v>
-      </c>
-      <c r="S58" t="s">
-        <v>27</v>
-      </c>
-      <c r="T58" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="59" spans="1:20">
-      <c r="A59" t="s">
-        <v>191</v>
-      </c>
-      <c r="B59" t="s">
-        <v>192</v>
-      </c>
-      <c r="C59" t="s">
-        <v>189</v>
-      </c>
-      <c r="D59" t="s">
-        <v>31</v>
-      </c>
-      <c r="E59" t="s">
-        <v>22</v>
-      </c>
-      <c r="F59" s="1">
-        <v>0</v>
-      </c>
-      <c r="G59" s="1">
-        <v>6200</v>
-      </c>
-      <c r="H59" s="1">
-        <v>6200</v>
-      </c>
-      <c r="I59" s="1">
-        <v>0</v>
-      </c>
-      <c r="J59" s="2">
-        <v>95294</v>
-      </c>
-      <c r="K59" s="3">
-        <v>0</v>
-      </c>
-      <c r="L59" s="3">
-        <v>8.5</v>
-      </c>
-      <c r="M59" s="2">
-        <v>315</v>
-      </c>
-      <c r="N59" s="2">
-        <v>0</v>
-      </c>
-      <c r="O59" t="s">
-        <v>25</v>
-      </c>
-      <c r="P59" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>18</v>
-      </c>
-      <c r="R59" t="s">
-        <v>193</v>
-      </c>
-      <c r="S59" t="s">
-        <v>27</v>
-      </c>
-      <c r="T59" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="60" spans="1:20">
-      <c r="A60" t="s">
-        <v>183</v>
-      </c>
-      <c r="B60" t="s">
-        <v>184</v>
-      </c>
-      <c r="C60" t="s">
-        <v>189</v>
-      </c>
-      <c r="D60" t="s">
-        <v>31</v>
-      </c>
-      <c r="E60" t="s">
-        <v>22</v>
-      </c>
-      <c r="F60" s="1">
-        <v>0</v>
-      </c>
-      <c r="G60" s="1">
-        <v>3700</v>
-      </c>
-      <c r="H60" s="1">
-        <v>3700</v>
-      </c>
-      <c r="I60" s="1">
-        <v>0</v>
-      </c>
-      <c r="J60" s="2">
-        <v>94720</v>
-      </c>
-      <c r="K60" s="3">
-        <v>0</v>
-      </c>
-      <c r="L60" s="3">
-        <v>8.5</v>
-      </c>
-      <c r="M60" s="2">
-        <v>313.1</v>
-      </c>
-      <c r="N60" s="2">
-        <v>0</v>
-      </c>
-      <c r="O60" t="s">
-        <v>25</v>
-      </c>
-      <c r="P60" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q60" s="3">
-        <v>18</v>
-      </c>
-      <c r="R60" t="s">
-        <v>194</v>
-      </c>
-      <c r="S60" t="s">
-        <v>27</v>
-      </c>
-      <c r="T60" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="61" spans="1:20">
-      <c r="A61" t="s">
-        <v>195</v>
-      </c>
-      <c r="B61" t="s">
-        <v>196</v>
-      </c>
-      <c r="C61" t="s">
-        <v>189</v>
-      </c>
-      <c r="D61" t="s">
-        <v>31</v>
-      </c>
-      <c r="E61" t="s">
-        <v>22</v>
-      </c>
-      <c r="F61" s="1">
-        <v>0</v>
-      </c>
-      <c r="G61" s="1">
-        <v>4100</v>
-      </c>
-      <c r="H61" s="1">
-        <v>4100</v>
-      </c>
-      <c r="I61" s="1">
-        <v>0</v>
-      </c>
-      <c r="J61" s="2">
-        <v>98974</v>
-      </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
-      <c r="L61" s="3">
-        <v>8.5</v>
-      </c>
-      <c r="M61" s="2">
-        <v>327.16</v>
-      </c>
-      <c r="N61" s="2">
-        <v>0</v>
-      </c>
-      <c r="O61" t="s">
-        <v>25</v>
-      </c>
-      <c r="P61" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q61" s="3">
-        <v>18</v>
-      </c>
-      <c r="R61" t="s">
-        <v>197</v>
-      </c>
-      <c r="S61" t="s">
-        <v>27</v>
-      </c>
-      <c r="T61" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="62" spans="1:20">
-      <c r="A62" t="s">
-        <v>168</v>
-      </c>
-      <c r="B62" t="s">
-        <v>169</v>
-      </c>
-      <c r="C62" t="s">
-        <v>189</v>
-      </c>
-      <c r="D62" t="s">
-        <v>31</v>
-      </c>
-      <c r="E62" t="s">
-        <v>22</v>
-      </c>
-      <c r="F62" s="1">
-        <v>0</v>
-      </c>
-      <c r="G62" s="1">
-        <v>1500</v>
-      </c>
-      <c r="H62" s="1">
-        <v>1500</v>
-      </c>
-      <c r="I62" s="1">
-        <v>0</v>
-      </c>
-      <c r="J62" s="2">
-        <v>100200</v>
-      </c>
-      <c r="K62" s="3">
-        <v>0</v>
-      </c>
-      <c r="L62" s="3">
-        <v>8.5</v>
-      </c>
-      <c r="M62" s="2">
-        <v>331.22</v>
-      </c>
-      <c r="N62" s="2">
-        <v>0</v>
-      </c>
-      <c r="O62" t="s">
-        <v>25</v>
-      </c>
-      <c r="P62" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q62" s="3">
-        <v>18</v>
-      </c>
-      <c r="R62" t="s">
-        <v>198</v>
-      </c>
-      <c r="S62" t="s">
-        <v>27</v>
-      </c>
-      <c r="T62" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="63" spans="1:20">
-      <c r="A63" t="s">
-        <v>86</v>
-      </c>
-      <c r="B63" t="s">
-        <v>87</v>
-      </c>
-      <c r="C63" t="s">
-        <v>199</v>
-      </c>
-      <c r="D63" t="s">
-        <v>42</v>
-      </c>
-      <c r="E63" t="s">
-        <v>100</v>
-      </c>
-      <c r="F63" s="1">
-        <v>10</v>
-      </c>
-      <c r="G63" s="1">
-        <v>1000</v>
-      </c>
-      <c r="H63" s="1">
-        <v>1000</v>
-      </c>
-      <c r="I63" s="1">
-        <v>1000</v>
-      </c>
-      <c r="J63" s="2">
-        <v>83100</v>
-      </c>
-      <c r="K63" s="3">
-        <v>0</v>
-      </c>
-      <c r="L63" s="3">
-        <v>9</v>
-      </c>
-      <c r="M63" s="2">
-        <v>311.63</v>
-      </c>
-      <c r="N63" s="2">
-        <v>0</v>
-      </c>
-      <c r="O63" t="s">
-        <v>25</v>
-      </c>
-      <c r="P63" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q63" s="3">
-        <v>18</v>
-      </c>
-      <c r="R63" t="s">
-        <v>200</v>
-      </c>
-      <c r="S63" t="s">
-        <v>27</v>
-      </c>
-      <c r="T63" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="64" spans="1:20">
-      <c r="A64" t="s">
-        <v>201</v>
-      </c>
-      <c r="B64" t="s">
-        <v>202</v>
-      </c>
-      <c r="C64" t="s">
-        <v>199</v>
-      </c>
-      <c r="D64" t="s">
-        <v>59</v>
-      </c>
-      <c r="E64" t="s">
-        <v>103</v>
-      </c>
-      <c r="F64" s="1">
-        <v>7</v>
-      </c>
-      <c r="G64" s="1">
-        <v>6600</v>
-      </c>
-      <c r="H64" s="1">
-        <v>6600</v>
-      </c>
-      <c r="I64" s="1">
-        <v>6600</v>
-      </c>
-      <c r="J64" s="2">
-        <v>204930</v>
-      </c>
-      <c r="K64" s="3">
-        <v>0</v>
-      </c>
-      <c r="L64" s="3">
-        <v>7</v>
-      </c>
-      <c r="M64" s="2">
-        <v>597.71</v>
-      </c>
-      <c r="N64" s="2">
-        <v>0</v>
-      </c>
-      <c r="O64" t="s">
-        <v>25</v>
-      </c>
-      <c r="P64" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q64" s="3">
-        <v>18</v>
-      </c>
-      <c r="R64" t="s">
-        <v>203</v>
-      </c>
-      <c r="S64" t="s">
-        <v>27</v>
-      </c>
-      <c r="T64" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="65" spans="1:20">
-      <c r="A65" t="s">
-        <v>204</v>
-      </c>
-      <c r="B65" t="s">
-        <v>205</v>
-      </c>
-      <c r="C65" t="s">
-        <v>199</v>
-      </c>
-      <c r="D65" t="s">
-        <v>31</v>
-      </c>
-      <c r="E65" t="s">
-        <v>22</v>
-      </c>
-      <c r="F65" s="1">
-        <v>0</v>
-      </c>
-      <c r="G65" s="1">
-        <v>3800</v>
-      </c>
-      <c r="H65" s="1">
-        <v>3800</v>
-      </c>
-      <c r="I65" s="1">
-        <v>0</v>
-      </c>
-      <c r="J65" s="2">
-        <v>224466</v>
-      </c>
-      <c r="K65" s="3">
-        <v>0</v>
-      </c>
-      <c r="L65" s="3">
-        <v>7</v>
-      </c>
-      <c r="M65" s="2">
-        <v>654.69</v>
-      </c>
-      <c r="N65" s="2">
-        <v>0</v>
-      </c>
-      <c r="O65" t="s">
-        <v>25</v>
-      </c>
-      <c r="P65" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q65" s="3">
-        <v>18</v>
-      </c>
-      <c r="R65" t="s">
-        <v>206</v>
-      </c>
-      <c r="S65" t="s">
-        <v>27</v>
-      </c>
-      <c r="T65" t="s">
         <v>28</v>
       </c>
     </row>

--- a/data/input/trade_data_patch/huat/private_security_loan.xlsx
+++ b/data/input/trade_data_patch/huat/private_security_loan.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="154">
   <si>
     <t>证券代码</t>
   </si>
@@ -58,6 +58,9 @@
     <t>已还利息</t>
   </si>
   <si>
+    <t>展期状态</t>
+  </si>
+  <si>
     <t>展期后到期日</t>
   </si>
   <si>
@@ -91,6 +94,9 @@
     <t>2021-03-02</t>
   </si>
   <si>
+    <t>未申请</t>
+  </si>
+  <si>
     <t>--</t>
   </si>
   <si>
@@ -208,30 +214,15 @@
     <t>202102010000000057</t>
   </si>
   <si>
-    <t>600059</t>
-  </si>
-  <si>
-    <t>古越龙山</t>
+    <t>002796</t>
+  </si>
+  <si>
+    <t>世嘉科技</t>
   </si>
   <si>
     <t>2021-01-29</t>
   </si>
   <si>
-    <t>2021-02-03</t>
-  </si>
-  <si>
-    <t>2021-02-04</t>
-  </si>
-  <si>
-    <t>202101290000000782</t>
-  </si>
-  <si>
-    <t>002796</t>
-  </si>
-  <si>
-    <t>世嘉科技</t>
-  </si>
-  <si>
     <t>2021-02-24</t>
   </si>
   <si>
@@ -452,27 +443,6 @@
   </si>
   <si>
     <t>202101220000000957</t>
-  </si>
-  <si>
-    <t>002156</t>
-  </si>
-  <si>
-    <t>通富微电</t>
-  </si>
-  <si>
-    <t>2021-01-21</t>
-  </si>
-  <si>
-    <t>202101210000000960</t>
-  </si>
-  <si>
-    <t>000799</t>
-  </si>
-  <si>
-    <t>酒鬼酒</t>
-  </si>
-  <si>
-    <t>202101210000000951</t>
   </si>
   <si>
     <t>2021-01-20</t>
@@ -512,9 +482,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="176" formatCode="0.000"/>
-    <numFmt numFmtId="177" formatCode="0.00 &quot;%&quot;"/>
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.00 &quot;%&quot;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -546,12 +515,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -847,7 +815,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T47"/>
+  <dimension ref="A1:U44"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0"/>
   </sheetViews>
@@ -865,96 +833,100 @@
     <col min="10" max="10" width="30" style="2" customWidth="1"/>
     <col min="11" max="11" width="30" style="3" customWidth="1"/>
     <col min="12" max="12" width="30" style="3" customWidth="1"/>
-    <col min="13" max="13" width="30" style="4" customWidth="1"/>
-    <col min="14" max="14" width="30" style="4" customWidth="1"/>
+    <col min="13" max="13" width="30" style="2" customWidth="1"/>
+    <col min="14" max="14" width="30" style="2" customWidth="1"/>
     <col min="15" max="15" width="30" customWidth="1"/>
-    <col min="16" max="16" width="30" style="1" customWidth="1"/>
-    <col min="17" max="17" width="30" style="3" customWidth="1"/>
-    <col min="18" max="18" width="30" customWidth="1"/>
+    <col min="16" max="16" width="30" customWidth="1"/>
+    <col min="17" max="17" width="30" style="1" customWidth="1"/>
+    <col min="18" max="18" width="30" style="3" customWidth="1"/>
     <col min="19" max="19" width="30" customWidth="1"/>
     <col min="20" max="20" width="30" customWidth="1"/>
+    <col min="21" max="21" width="30" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="O1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="P1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="Q1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="R1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="5" t="s">
+      <c r="S1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="4" t="s">
         <v>19</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="1">
         <v>22</v>
-      </c>
-      <c r="D2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" s="1">
-        <v>26</v>
       </c>
       <c r="G2" s="1">
         <v>1700</v>
@@ -974,49 +946,52 @@
       <c r="L2" s="3">
         <v>5</v>
       </c>
-      <c r="M2" s="4">
-        <v>5.7</v>
-      </c>
-      <c r="N2" s="4">
+      <c r="M2" s="2">
+        <v>17.11</v>
+      </c>
+      <c r="N2" s="2">
         <v>0</v>
       </c>
       <c r="O2" t="s">
-        <v>25</v>
-      </c>
-      <c r="P2" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>18</v>
-      </c>
-      <c r="R2" t="s">
-        <v>26</v>
+        <v>26</v>
+      </c>
+      <c r="P2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>0</v>
+      </c>
+      <c r="R2" s="3">
+        <v>18</v>
       </c>
       <c r="S2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="T2" t="s">
-        <v>28</v>
+        <v>29</v>
+      </c>
+      <c r="U2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F3" s="1">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G3" s="1">
         <v>12800</v>
@@ -1036,49 +1011,52 @@
       <c r="L3" s="3">
         <v>8.5</v>
       </c>
-      <c r="M3" s="4">
-        <v>73.98</v>
-      </c>
-      <c r="N3" s="4">
+      <c r="M3" s="2">
+        <v>172.63</v>
+      </c>
+      <c r="N3" s="2">
         <v>0</v>
       </c>
       <c r="O3" t="s">
-        <v>25</v>
-      </c>
-      <c r="P3" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="3">
-        <v>18</v>
-      </c>
-      <c r="R3" t="s">
-        <v>33</v>
+        <v>26</v>
+      </c>
+      <c r="P3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>0</v>
+      </c>
+      <c r="R3" s="3">
+        <v>18</v>
       </c>
       <c r="S3" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="T3" t="s">
-        <v>28</v>
+        <v>29</v>
+      </c>
+      <c r="U3" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" t="s">
         <v>34</v>
       </c>
-      <c r="B4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" t="s">
-        <v>32</v>
-      </c>
       <c r="E4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F4" s="1">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G4" s="1">
         <v>4200</v>
@@ -1098,49 +1076,52 @@
       <c r="L4" s="3">
         <v>8.5</v>
       </c>
-      <c r="M4" s="4">
-        <v>67.83</v>
-      </c>
-      <c r="N4" s="4">
+      <c r="M4" s="2">
+        <v>158.27</v>
+      </c>
+      <c r="N4" s="2">
         <v>0</v>
       </c>
       <c r="O4" t="s">
-        <v>25</v>
-      </c>
-      <c r="P4" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="3">
-        <v>18</v>
-      </c>
-      <c r="R4" t="s">
-        <v>36</v>
+        <v>26</v>
+      </c>
+      <c r="P4" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>0</v>
+      </c>
+      <c r="R4" s="3">
+        <v>18</v>
       </c>
       <c r="S4" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="T4" t="s">
-        <v>28</v>
+        <v>29</v>
+      </c>
+      <c r="U4" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F5" s="1">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G5" s="1">
         <v>1200</v>
@@ -1160,49 +1141,52 @@
       <c r="L5" s="3">
         <v>8.5</v>
       </c>
-      <c r="M5" s="4">
-        <v>66.98</v>
-      </c>
-      <c r="N5" s="4">
+      <c r="M5" s="2">
+        <v>156.29</v>
+      </c>
+      <c r="N5" s="2">
         <v>0</v>
       </c>
       <c r="O5" t="s">
-        <v>25</v>
-      </c>
-      <c r="P5" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="3">
-        <v>18</v>
-      </c>
-      <c r="R5" t="s">
-        <v>39</v>
+        <v>26</v>
+      </c>
+      <c r="P5" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>0</v>
+      </c>
+      <c r="R5" s="3">
+        <v>18</v>
       </c>
       <c r="S5" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="T5" t="s">
-        <v>28</v>
+        <v>29</v>
+      </c>
+      <c r="U5" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F6" s="1">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G6" s="1">
         <v>1600</v>
@@ -1222,49 +1206,52 @@
       <c r="L6" s="3">
         <v>8.5</v>
       </c>
-      <c r="M6" s="4">
-        <v>40.3</v>
-      </c>
-      <c r="N6" s="4">
+      <c r="M6" s="2">
+        <v>94.04</v>
+      </c>
+      <c r="N6" s="2">
         <v>0</v>
       </c>
       <c r="O6" t="s">
-        <v>25</v>
-      </c>
-      <c r="P6" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="3">
-        <v>18</v>
-      </c>
-      <c r="R6" t="s">
-        <v>44</v>
+        <v>26</v>
+      </c>
+      <c r="P6" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>0</v>
+      </c>
+      <c r="R6" s="3">
+        <v>18</v>
       </c>
       <c r="S6" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="T6" t="s">
-        <v>28</v>
+        <v>29</v>
+      </c>
+      <c r="U6" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" t="s">
         <v>45</v>
       </c>
-      <c r="B7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" t="s">
-        <v>43</v>
-      </c>
       <c r="F7" s="1">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G7" s="1">
         <v>3500</v>
@@ -1284,49 +1271,52 @@
       <c r="L7" s="3">
         <v>9</v>
       </c>
-      <c r="M7" s="4">
-        <v>16.35</v>
-      </c>
-      <c r="N7" s="4">
+      <c r="M7" s="2">
+        <v>38.16</v>
+      </c>
+      <c r="N7" s="2">
         <v>0</v>
       </c>
       <c r="O7" t="s">
-        <v>25</v>
-      </c>
-      <c r="P7" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="3">
-        <v>18</v>
-      </c>
-      <c r="R7" t="s">
-        <v>47</v>
+        <v>26</v>
+      </c>
+      <c r="P7" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>0</v>
+      </c>
+      <c r="R7" s="3">
+        <v>18</v>
       </c>
       <c r="S7" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="T7" t="s">
-        <v>28</v>
+        <v>29</v>
+      </c>
+      <c r="U7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F8" s="1">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G8" s="1">
         <v>19200</v>
@@ -1346,49 +1336,52 @@
       <c r="L8" s="3">
         <v>9</v>
       </c>
-      <c r="M8" s="4">
-        <v>153.22</v>
-      </c>
-      <c r="N8" s="4">
+      <c r="M8" s="2">
+        <v>357.5</v>
+      </c>
+      <c r="N8" s="2">
         <v>0</v>
       </c>
       <c r="O8" t="s">
-        <v>25</v>
-      </c>
-      <c r="P8" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>18</v>
-      </c>
-      <c r="R8" t="s">
-        <v>50</v>
+        <v>26</v>
+      </c>
+      <c r="P8" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3">
+        <v>18</v>
       </c>
       <c r="S8" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="T8" t="s">
-        <v>28</v>
+        <v>29</v>
+      </c>
+      <c r="U8" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B9" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E9" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F9" s="1">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G9" s="1">
         <v>1000</v>
@@ -1408,49 +1401,52 @@
       <c r="L9" s="3">
         <v>9</v>
       </c>
-      <c r="M9" s="4">
-        <v>4.47</v>
-      </c>
-      <c r="N9" s="4">
+      <c r="M9" s="2">
+        <v>10.43</v>
+      </c>
+      <c r="N9" s="2">
         <v>0</v>
       </c>
       <c r="O9" t="s">
-        <v>25</v>
-      </c>
-      <c r="P9" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>18</v>
-      </c>
-      <c r="R9" t="s">
-        <v>54</v>
+        <v>26</v>
+      </c>
+      <c r="P9" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>0</v>
+      </c>
+      <c r="R9" s="3">
+        <v>18</v>
       </c>
       <c r="S9" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="T9" t="s">
-        <v>28</v>
+        <v>29</v>
+      </c>
+      <c r="U9" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F10" s="1">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G10" s="1">
         <v>1000</v>
@@ -1470,49 +1466,52 @@
       <c r="L10" s="3">
         <v>9</v>
       </c>
-      <c r="M10" s="4">
-        <v>9.06</v>
-      </c>
-      <c r="N10" s="4">
+      <c r="M10" s="2">
+        <v>21.14</v>
+      </c>
+      <c r="N10" s="2">
         <v>0</v>
       </c>
       <c r="O10" t="s">
-        <v>25</v>
-      </c>
-      <c r="P10" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>18</v>
-      </c>
-      <c r="R10" t="s">
-        <v>55</v>
+        <v>26</v>
+      </c>
+      <c r="P10" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>0</v>
+      </c>
+      <c r="R10" s="3">
+        <v>18</v>
       </c>
       <c r="S10" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="T10" t="s">
-        <v>28</v>
+        <v>29</v>
+      </c>
+      <c r="U10" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D11" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E11" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F11" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G11" s="1">
         <v>24500</v>
@@ -1521,7 +1520,7 @@
         <v>24500</v>
       </c>
       <c r="I11" s="1">
-        <v>24500</v>
+        <v>0</v>
       </c>
       <c r="J11" s="2">
         <v>181790</v>
@@ -1532,49 +1531,52 @@
       <c r="L11" s="3">
         <v>7</v>
       </c>
-      <c r="M11" s="4">
-        <v>106.04</v>
-      </c>
-      <c r="N11" s="4">
-        <v>0</v>
+      <c r="M11" s="2">
+        <v>0</v>
+      </c>
+      <c r="N11" s="2">
+        <v>247.44</v>
       </c>
       <c r="O11" t="s">
-        <v>25</v>
-      </c>
-      <c r="P11" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="3">
-        <v>18</v>
-      </c>
-      <c r="R11" t="s">
-        <v>60</v>
+        <v>26</v>
+      </c>
+      <c r="P11" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>0</v>
+      </c>
+      <c r="R11" s="3">
+        <v>18</v>
       </c>
       <c r="S11" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="T11" t="s">
-        <v>28</v>
+        <v>29</v>
+      </c>
+      <c r="U11" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B12" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D12" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F12" s="1">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G12" s="1">
         <v>1900</v>
@@ -1594,61 +1596,64 @@
       <c r="L12" s="3">
         <v>5</v>
       </c>
-      <c r="M12" s="4">
-        <v>7.15</v>
-      </c>
-      <c r="N12" s="4">
+      <c r="M12" s="2">
+        <v>16.68</v>
+      </c>
+      <c r="N12" s="2">
         <v>0</v>
       </c>
       <c r="O12" t="s">
-        <v>25</v>
-      </c>
-      <c r="P12" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>18</v>
-      </c>
-      <c r="R12" t="s">
-        <v>63</v>
+        <v>26</v>
+      </c>
+      <c r="P12" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>0</v>
+      </c>
+      <c r="R12" s="3">
+        <v>18</v>
       </c>
       <c r="S12" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="T12" t="s">
-        <v>28</v>
+        <v>29</v>
+      </c>
+      <c r="U12" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B13" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C13" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D13" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E13" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F13" s="1">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="G13" s="1">
-        <v>16300</v>
+        <v>16600</v>
       </c>
       <c r="H13" s="1">
-        <v>16300</v>
+        <v>16600</v>
       </c>
       <c r="I13" s="1">
-        <v>0</v>
+        <v>16600</v>
       </c>
       <c r="J13" s="2">
-        <v>201957</v>
+        <v>197042</v>
       </c>
       <c r="K13" s="3">
         <v>0</v>
@@ -1656,61 +1661,64 @@
       <c r="L13" s="3">
         <v>9</v>
       </c>
-      <c r="M13" s="4">
-        <v>302.94</v>
-      </c>
-      <c r="N13" s="4">
+      <c r="M13" s="2">
+        <v>492.6</v>
+      </c>
+      <c r="N13" s="2">
         <v>0</v>
       </c>
       <c r="O13" t="s">
-        <v>25</v>
-      </c>
-      <c r="P13" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="3">
-        <v>18</v>
-      </c>
-      <c r="R13" t="s">
-        <v>69</v>
+        <v>26</v>
+      </c>
+      <c r="P13" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>18</v>
       </c>
       <c r="S13" t="s">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="T13" t="s">
-        <v>28</v>
+        <v>29</v>
+      </c>
+      <c r="U13" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B14" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C14" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D14" t="s">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="E14" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F14" s="1">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="G14" s="1">
-        <v>16600</v>
+        <v>5000</v>
       </c>
       <c r="H14" s="1">
-        <v>16600</v>
+        <v>5000</v>
       </c>
       <c r="I14" s="1">
-        <v>16600</v>
+        <v>5000</v>
       </c>
       <c r="J14" s="2">
-        <v>197042</v>
+        <v>59250</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1718,280 +1726,295 @@
       <c r="L14" s="3">
         <v>9</v>
       </c>
-      <c r="M14" s="4">
-        <v>295.56</v>
-      </c>
-      <c r="N14" s="4">
+      <c r="M14" s="2">
+        <v>148.13</v>
+      </c>
+      <c r="N14" s="2">
         <v>0</v>
       </c>
       <c r="O14" t="s">
-        <v>25</v>
-      </c>
-      <c r="P14" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>18</v>
-      </c>
-      <c r="R14" t="s">
-        <v>74</v>
+        <v>26</v>
+      </c>
+      <c r="P14" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>18</v>
       </c>
       <c r="S14" t="s">
-        <v>27</v>
+        <v>75</v>
       </c>
       <c r="T14" t="s">
-        <v>28</v>
+        <v>29</v>
+      </c>
+      <c r="U14" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B15" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C15" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="D15" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E15" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F15" s="1">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G15" s="1">
-        <v>5000</v>
+        <v>9100</v>
       </c>
       <c r="H15" s="1">
-        <v>5000</v>
+        <v>9100</v>
       </c>
       <c r="I15" s="1">
-        <v>5000</v>
+        <v>9100</v>
       </c>
       <c r="J15" s="2">
-        <v>59250</v>
+        <v>59059</v>
       </c>
       <c r="K15" s="3">
         <v>0</v>
       </c>
       <c r="L15" s="3">
-        <v>9</v>
-      </c>
-      <c r="M15" s="4">
-        <v>88.88</v>
-      </c>
-      <c r="N15" s="4">
+        <v>8.5</v>
+      </c>
+      <c r="M15" s="2">
+        <v>153.39</v>
+      </c>
+      <c r="N15" s="2">
         <v>0</v>
       </c>
       <c r="O15" t="s">
-        <v>25</v>
-      </c>
-      <c r="P15" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>18</v>
-      </c>
-      <c r="R15" t="s">
-        <v>78</v>
+        <v>26</v>
+      </c>
+      <c r="P15" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>18</v>
       </c>
       <c r="S15" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="T15" t="s">
-        <v>28</v>
+        <v>29</v>
+      </c>
+      <c r="U15" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B16" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C16" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D16" t="s">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="E16" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="F16" s="1">
+        <v>16</v>
+      </c>
+      <c r="G16" s="1">
+        <v>1900</v>
+      </c>
+      <c r="H16" s="1">
+        <v>1900</v>
+      </c>
+      <c r="I16" s="1">
+        <v>1900</v>
+      </c>
+      <c r="J16" s="2">
+        <v>191615</v>
+      </c>
+      <c r="K16" s="3">
+        <v>0</v>
+      </c>
+      <c r="L16" s="3">
+        <v>9</v>
+      </c>
+      <c r="M16" s="2">
+        <v>526.94</v>
+      </c>
+      <c r="N16" s="2">
+        <v>0</v>
+      </c>
+      <c r="O16" t="s">
+        <v>26</v>
+      </c>
+      <c r="P16" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>0</v>
+      </c>
+      <c r="R16" s="3">
+        <v>18</v>
+      </c>
+      <c r="S16" t="s">
+        <v>83</v>
+      </c>
+      <c r="T16" t="s">
+        <v>29</v>
+      </c>
+      <c r="U16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" t="s">
+        <v>78</v>
+      </c>
+      <c r="D17" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" t="s">
+        <v>84</v>
+      </c>
+      <c r="F17" s="1">
+        <v>9</v>
+      </c>
+      <c r="G17" s="1">
+        <v>13900</v>
+      </c>
+      <c r="H17" s="1">
+        <v>13900</v>
+      </c>
+      <c r="I17" s="1">
+        <v>13900</v>
+      </c>
+      <c r="J17" s="2">
+        <v>181117</v>
+      </c>
+      <c r="K17" s="3">
+        <v>0</v>
+      </c>
+      <c r="L17" s="3">
+        <v>5</v>
+      </c>
+      <c r="M17" s="2">
+        <v>276.71</v>
+      </c>
+      <c r="N17" s="2">
+        <v>0</v>
+      </c>
+      <c r="O17" t="s">
+        <v>26</v>
+      </c>
+      <c r="P17" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>0</v>
+      </c>
+      <c r="R17" s="3">
+        <v>18</v>
+      </c>
+      <c r="S17" t="s">
+        <v>85</v>
+      </c>
+      <c r="T17" t="s">
+        <v>29</v>
+      </c>
+      <c r="U17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21">
+      <c r="A18" t="s">
+        <v>86</v>
+      </c>
+      <c r="B18" t="s">
+        <v>87</v>
+      </c>
+      <c r="C18" t="s">
+        <v>78</v>
+      </c>
+      <c r="D18" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" t="s">
+        <v>55</v>
+      </c>
+      <c r="F18" s="1">
+        <v>10</v>
+      </c>
+      <c r="G18" s="1">
+        <v>5400</v>
+      </c>
+      <c r="H18" s="1">
+        <v>5400</v>
+      </c>
+      <c r="I18" s="1">
+        <v>5400</v>
+      </c>
+      <c r="J18" s="2">
+        <v>195480</v>
+      </c>
+      <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
         <v>7</v>
       </c>
-      <c r="G16" s="1">
-        <v>9100</v>
-      </c>
-      <c r="H16" s="1">
-        <v>9100</v>
-      </c>
-      <c r="I16" s="1">
-        <v>9100</v>
-      </c>
-      <c r="J16" s="2">
-        <v>59059</v>
-      </c>
-      <c r="K16" s="3">
-        <v>0</v>
-      </c>
-      <c r="L16" s="3">
-        <v>8.5</v>
-      </c>
-      <c r="M16" s="4">
-        <v>97.61</v>
-      </c>
-      <c r="N16" s="4">
-        <v>0</v>
-      </c>
-      <c r="O16" t="s">
-        <v>25</v>
-      </c>
-      <c r="P16" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="3">
-        <v>18</v>
-      </c>
-      <c r="R16" t="s">
-        <v>82</v>
-      </c>
-      <c r="S16" t="s">
-        <v>27</v>
-      </c>
-      <c r="T16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>83</v>
-      </c>
-      <c r="B17" t="s">
-        <v>84</v>
-      </c>
-      <c r="C17" t="s">
-        <v>81</v>
-      </c>
-      <c r="D17" t="s">
-        <v>85</v>
-      </c>
-      <c r="E17" t="s">
-        <v>72</v>
-      </c>
-      <c r="F17" s="1">
-        <v>20</v>
-      </c>
-      <c r="G17" s="1">
-        <v>1900</v>
-      </c>
-      <c r="H17" s="1">
-        <v>1900</v>
-      </c>
-      <c r="I17" s="1">
-        <v>1900</v>
-      </c>
-      <c r="J17" s="2">
-        <v>191615</v>
-      </c>
-      <c r="K17" s="3">
-        <v>0</v>
-      </c>
-      <c r="L17" s="3">
-        <v>9</v>
-      </c>
-      <c r="M17" s="4">
-        <v>335.33</v>
-      </c>
-      <c r="N17" s="4">
-        <v>0</v>
-      </c>
-      <c r="O17" t="s">
-        <v>25</v>
-      </c>
-      <c r="P17" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>18</v>
-      </c>
-      <c r="R17" t="s">
-        <v>86</v>
-      </c>
-      <c r="S17" t="s">
-        <v>27</v>
-      </c>
-      <c r="T17" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" t="s">
-        <v>81</v>
-      </c>
-      <c r="D18" t="s">
-        <v>42</v>
-      </c>
-      <c r="E18" t="s">
-        <v>87</v>
-      </c>
-      <c r="F18" s="1">
-        <v>13</v>
-      </c>
-      <c r="G18" s="1">
-        <v>13900</v>
-      </c>
-      <c r="H18" s="1">
-        <v>13900</v>
-      </c>
-      <c r="I18" s="1">
-        <v>13900</v>
-      </c>
-      <c r="J18" s="2">
-        <v>181117</v>
-      </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
-      <c r="L18" s="3">
-        <v>5</v>
-      </c>
-      <c r="M18" s="4">
-        <v>176.09</v>
-      </c>
-      <c r="N18" s="4">
+      <c r="M18" s="2">
+        <v>418.11</v>
+      </c>
+      <c r="N18" s="2">
         <v>0</v>
       </c>
       <c r="O18" t="s">
-        <v>25</v>
-      </c>
-      <c r="P18" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>18</v>
-      </c>
-      <c r="R18" t="s">
+        <v>26</v>
+      </c>
+      <c r="P18" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>0</v>
+      </c>
+      <c r="R18" s="3">
+        <v>18</v>
+      </c>
+      <c r="S18" t="s">
         <v>88</v>
       </c>
-      <c r="S18" t="s">
-        <v>27</v>
-      </c>
       <c r="T18" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
+        <v>29</v>
+      </c>
+      <c r="U18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21">
       <c r="A19" t="s">
         <v>89</v>
       </c>
@@ -1999,28 +2022,28 @@
         <v>90</v>
       </c>
       <c r="C19" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D19" t="s">
-        <v>42</v>
+        <v>91</v>
       </c>
       <c r="E19" t="s">
-        <v>53</v>
+        <v>92</v>
       </c>
       <c r="F19" s="1">
         <v>14</v>
       </c>
       <c r="G19" s="1">
-        <v>5400</v>
+        <v>1800</v>
       </c>
       <c r="H19" s="1">
-        <v>5400</v>
+        <v>1800</v>
       </c>
       <c r="I19" s="1">
-        <v>5400</v>
+        <v>1800</v>
       </c>
       <c r="J19" s="2">
-        <v>195480</v>
+        <v>196200</v>
       </c>
       <c r="K19" s="3">
         <v>0</v>
@@ -2028,123 +2051,129 @@
       <c r="L19" s="3">
         <v>7</v>
       </c>
-      <c r="M19" s="4">
-        <v>266.07</v>
-      </c>
-      <c r="N19" s="4">
+      <c r="M19" s="2">
+        <v>419.65</v>
+      </c>
+      <c r="N19" s="2">
         <v>0</v>
       </c>
       <c r="O19" t="s">
-        <v>25</v>
-      </c>
-      <c r="P19" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="3">
-        <v>18</v>
-      </c>
-      <c r="R19" t="s">
-        <v>91</v>
+        <v>26</v>
+      </c>
+      <c r="P19" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>0</v>
+      </c>
+      <c r="R19" s="3">
+        <v>18</v>
       </c>
       <c r="S19" t="s">
-        <v>27</v>
+        <v>93</v>
       </c>
       <c r="T19" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
+        <v>29</v>
+      </c>
+      <c r="U19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21">
       <c r="A20" t="s">
-        <v>92</v>
+        <v>63</v>
       </c>
       <c r="B20" t="s">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="C20" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D20" t="s">
+        <v>44</v>
+      </c>
+      <c r="E20" t="s">
         <v>94</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" s="1">
+        <v>4</v>
+      </c>
+      <c r="G20" s="1">
+        <v>15000</v>
+      </c>
+      <c r="H20" s="1">
+        <v>15000</v>
+      </c>
+      <c r="I20" s="1">
+        <v>15000</v>
+      </c>
+      <c r="J20" s="2">
+        <v>133200</v>
+      </c>
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
+        <v>5</v>
+      </c>
+      <c r="M20" s="2">
+        <v>203.5</v>
+      </c>
+      <c r="N20" s="2">
+        <v>0</v>
+      </c>
+      <c r="O20" t="s">
+        <v>26</v>
+      </c>
+      <c r="P20" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
+        <v>18</v>
+      </c>
+      <c r="S20" t="s">
         <v>95</v>
       </c>
-      <c r="F20" s="1">
-        <v>18</v>
-      </c>
-      <c r="G20" s="1">
-        <v>1800</v>
-      </c>
-      <c r="H20" s="1">
-        <v>1800</v>
-      </c>
-      <c r="I20" s="1">
-        <v>1800</v>
-      </c>
-      <c r="J20" s="2">
-        <v>196200</v>
-      </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
-      <c r="L20" s="3">
+      <c r="T20" t="s">
+        <v>29</v>
+      </c>
+      <c r="U20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21">
+      <c r="A21" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" t="s">
+        <v>78</v>
+      </c>
+      <c r="D21" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21" t="s">
+        <v>45</v>
+      </c>
+      <c r="F21" s="1">
         <v>7</v>
       </c>
-      <c r="M20" s="4">
-        <v>267.05</v>
-      </c>
-      <c r="N20" s="4">
-        <v>0</v>
-      </c>
-      <c r="O20" t="s">
-        <v>25</v>
-      </c>
-      <c r="P20" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>18</v>
-      </c>
-      <c r="R20" t="s">
-        <v>96</v>
-      </c>
-      <c r="S20" t="s">
-        <v>27</v>
-      </c>
-      <c r="T20" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>61</v>
-      </c>
-      <c r="B21" t="s">
-        <v>62</v>
-      </c>
-      <c r="C21" t="s">
-        <v>81</v>
-      </c>
-      <c r="D21" t="s">
-        <v>42</v>
-      </c>
-      <c r="E21" t="s">
-        <v>97</v>
-      </c>
-      <c r="F21" s="1">
-        <v>8</v>
-      </c>
       <c r="G21" s="1">
-        <v>15000</v>
+        <v>28900</v>
       </c>
       <c r="H21" s="1">
-        <v>15000</v>
+        <v>28900</v>
       </c>
       <c r="I21" s="1">
-        <v>15000</v>
+        <v>28900</v>
       </c>
       <c r="J21" s="2">
-        <v>133200</v>
+        <v>184382</v>
       </c>
       <c r="K21" s="3">
         <v>0</v>
@@ -2152,61 +2181,64 @@
       <c r="L21" s="3">
         <v>5</v>
       </c>
-      <c r="M21" s="4">
-        <v>129.5</v>
-      </c>
-      <c r="N21" s="4">
+      <c r="M21" s="2">
+        <v>281.69</v>
+      </c>
+      <c r="N21" s="2">
         <v>0</v>
       </c>
       <c r="O21" t="s">
-        <v>25</v>
-      </c>
-      <c r="P21" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>18</v>
-      </c>
-      <c r="R21" t="s">
-        <v>98</v>
+        <v>26</v>
+      </c>
+      <c r="P21" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>0</v>
+      </c>
+      <c r="R21" s="3">
+        <v>18</v>
       </c>
       <c r="S21" t="s">
-        <v>27</v>
+        <v>96</v>
       </c>
       <c r="T21" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
+        <v>29</v>
+      </c>
+      <c r="U21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21">
       <c r="A22" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="B22" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="C22" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D22" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="E22" t="s">
-        <v>43</v>
+        <v>97</v>
       </c>
       <c r="F22" s="1">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G22" s="1">
-        <v>28900</v>
+        <v>6400</v>
       </c>
       <c r="H22" s="1">
-        <v>28900</v>
+        <v>6400</v>
       </c>
       <c r="I22" s="1">
-        <v>28900</v>
+        <v>6400</v>
       </c>
       <c r="J22" s="2">
-        <v>184382</v>
+        <v>56832</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
@@ -2214,94 +2246,100 @@
       <c r="L22" s="3">
         <v>5</v>
       </c>
-      <c r="M22" s="4">
-        <v>179.26</v>
-      </c>
-      <c r="N22" s="4">
+      <c r="M22" s="2">
+        <v>86.83</v>
+      </c>
+      <c r="N22" s="2">
         <v>0</v>
       </c>
       <c r="O22" t="s">
-        <v>25</v>
-      </c>
-      <c r="P22" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>18</v>
-      </c>
-      <c r="R22" t="s">
+        <v>26</v>
+      </c>
+      <c r="P22" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>18</v>
+      </c>
+      <c r="S22" t="s">
+        <v>98</v>
+      </c>
+      <c r="T22" t="s">
+        <v>29</v>
+      </c>
+      <c r="U22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21">
+      <c r="A23" t="s">
         <v>99</v>
       </c>
-      <c r="S22" t="s">
-        <v>27</v>
-      </c>
-      <c r="T22" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>61</v>
-      </c>
       <c r="B23" t="s">
-        <v>62</v>
+        <v>100</v>
       </c>
       <c r="C23" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D23" t="s">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="E23" t="s">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="F23" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G23" s="1">
-        <v>6400</v>
+        <v>1300</v>
       </c>
       <c r="H23" s="1">
-        <v>6400</v>
+        <v>1300</v>
       </c>
       <c r="I23" s="1">
-        <v>6400</v>
+        <v>1300</v>
       </c>
       <c r="J23" s="2">
-        <v>56832</v>
+        <v>86320</v>
       </c>
       <c r="K23" s="3">
         <v>0</v>
       </c>
       <c r="L23" s="3">
-        <v>5</v>
-      </c>
-      <c r="M23" s="4">
-        <v>55.25</v>
-      </c>
-      <c r="N23" s="4">
+        <v>7</v>
+      </c>
+      <c r="M23" s="2">
+        <v>184.63</v>
+      </c>
+      <c r="N23" s="2">
         <v>0</v>
       </c>
       <c r="O23" t="s">
-        <v>25</v>
-      </c>
-      <c r="P23" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>18</v>
-      </c>
-      <c r="R23" t="s">
+        <v>26</v>
+      </c>
+      <c r="P23" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>0</v>
+      </c>
+      <c r="R23" s="3">
+        <v>18</v>
+      </c>
+      <c r="S23" t="s">
         <v>101</v>
       </c>
-      <c r="S23" t="s">
-        <v>27</v>
-      </c>
       <c r="T23" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
+        <v>29</v>
+      </c>
+      <c r="U23" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21">
       <c r="A24" t="s">
         <v>102</v>
       </c>
@@ -2309,28 +2347,28 @@
         <v>103</v>
       </c>
       <c r="C24" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D24" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E24" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F24" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G24" s="1">
-        <v>1300</v>
+        <v>11700</v>
       </c>
       <c r="H24" s="1">
-        <v>1300</v>
+        <v>11700</v>
       </c>
       <c r="I24" s="1">
-        <v>1300</v>
+        <v>11700</v>
       </c>
       <c r="J24" s="2">
-        <v>86320</v>
+        <v>96993</v>
       </c>
       <c r="K24" s="3">
         <v>0</v>
@@ -2338,32 +2376,35 @@
       <c r="L24" s="3">
         <v>7</v>
       </c>
-      <c r="M24" s="4">
-        <v>117.49</v>
-      </c>
-      <c r="N24" s="4">
+      <c r="M24" s="2">
+        <v>207.46</v>
+      </c>
+      <c r="N24" s="2">
         <v>0</v>
       </c>
       <c r="O24" t="s">
-        <v>25</v>
-      </c>
-      <c r="P24" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>18</v>
-      </c>
-      <c r="R24" t="s">
+        <v>26</v>
+      </c>
+      <c r="P24" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
+        <v>18</v>
+      </c>
+      <c r="S24" t="s">
         <v>104</v>
       </c>
-      <c r="S24" t="s">
-        <v>27</v>
-      </c>
       <c r="T24" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
+        <v>29</v>
+      </c>
+      <c r="U24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21">
       <c r="A25" t="s">
         <v>105</v>
       </c>
@@ -2371,28 +2412,28 @@
         <v>106</v>
       </c>
       <c r="C25" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D25" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E25" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F25" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G25" s="1">
-        <v>11700</v>
+        <v>7000</v>
       </c>
       <c r="H25" s="1">
-        <v>11700</v>
+        <v>7000</v>
       </c>
       <c r="I25" s="1">
-        <v>11700</v>
+        <v>7000</v>
       </c>
       <c r="J25" s="2">
-        <v>96993</v>
+        <v>95970</v>
       </c>
       <c r="K25" s="3">
         <v>0</v>
@@ -2400,123 +2441,129 @@
       <c r="L25" s="3">
         <v>7</v>
       </c>
-      <c r="M25" s="4">
-        <v>132.02</v>
-      </c>
-      <c r="N25" s="4">
+      <c r="M25" s="2">
+        <v>205.27</v>
+      </c>
+      <c r="N25" s="2">
         <v>0</v>
       </c>
       <c r="O25" t="s">
-        <v>25</v>
-      </c>
-      <c r="P25" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="3">
-        <v>18</v>
-      </c>
-      <c r="R25" t="s">
+        <v>26</v>
+      </c>
+      <c r="P25" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>18</v>
+      </c>
+      <c r="S25" t="s">
         <v>107</v>
       </c>
-      <c r="S25" t="s">
-        <v>27</v>
-      </c>
       <c r="T25" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
+        <v>29</v>
+      </c>
+      <c r="U25" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21">
       <c r="A26" t="s">
+        <v>105</v>
+      </c>
+      <c r="B26" t="s">
+        <v>106</v>
+      </c>
+      <c r="C26" t="s">
         <v>108</v>
       </c>
-      <c r="B26" t="s">
+      <c r="D26" t="s">
+        <v>97</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" s="1">
+        <v>2</v>
+      </c>
+      <c r="G26" s="1">
+        <v>6600</v>
+      </c>
+      <c r="H26" s="1">
+        <v>6600</v>
+      </c>
+      <c r="I26" s="1">
+        <v>6600</v>
+      </c>
+      <c r="J26" s="2">
+        <v>97482</v>
+      </c>
+      <c r="K26" s="3">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3">
+        <v>8.5</v>
+      </c>
+      <c r="M26" s="2">
+        <v>276.2</v>
+      </c>
+      <c r="N26" s="2">
+        <v>0</v>
+      </c>
+      <c r="O26" t="s">
+        <v>26</v>
+      </c>
+      <c r="P26" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q26" s="1">
+        <v>0</v>
+      </c>
+      <c r="R26" s="3">
+        <v>18</v>
+      </c>
+      <c r="S26" t="s">
         <v>109</v>
       </c>
-      <c r="C26" t="s">
-        <v>81</v>
-      </c>
-      <c r="D26" t="s">
-        <v>100</v>
-      </c>
-      <c r="E26" t="s">
-        <v>42</v>
-      </c>
-      <c r="F26" s="1">
-        <v>6</v>
-      </c>
-      <c r="G26" s="1">
-        <v>7000</v>
-      </c>
-      <c r="H26" s="1">
-        <v>7000</v>
-      </c>
-      <c r="I26" s="1">
-        <v>7000</v>
-      </c>
-      <c r="J26" s="2">
-        <v>95970</v>
-      </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
-      <c r="L26" s="3">
-        <v>7</v>
-      </c>
-      <c r="M26" s="4">
-        <v>130.63</v>
-      </c>
-      <c r="N26" s="4">
-        <v>0</v>
-      </c>
-      <c r="O26" t="s">
-        <v>25</v>
-      </c>
-      <c r="P26" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>18</v>
-      </c>
-      <c r="R26" t="s">
-        <v>110</v>
-      </c>
-      <c r="S26" t="s">
-        <v>27</v>
-      </c>
       <c r="T26" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20">
+        <v>29</v>
+      </c>
+      <c r="U26" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21">
       <c r="A27" t="s">
+        <v>102</v>
+      </c>
+      <c r="B27" t="s">
+        <v>103</v>
+      </c>
+      <c r="C27" t="s">
         <v>108</v>
       </c>
-      <c r="B27" t="s">
-        <v>109</v>
-      </c>
-      <c r="C27" t="s">
-        <v>111</v>
-      </c>
       <c r="D27" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E27" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F27" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G27" s="1">
-        <v>6600</v>
+        <v>11600</v>
       </c>
       <c r="H27" s="1">
-        <v>6600</v>
+        <v>11600</v>
       </c>
       <c r="I27" s="1">
-        <v>6600</v>
+        <v>11600</v>
       </c>
       <c r="J27" s="2">
-        <v>97482</v>
+        <v>99644</v>
       </c>
       <c r="K27" s="3">
         <v>0</v>
@@ -2524,61 +2571,64 @@
       <c r="L27" s="3">
         <v>8.5</v>
       </c>
-      <c r="M27" s="4">
-        <v>184.13</v>
-      </c>
-      <c r="N27" s="4">
+      <c r="M27" s="2">
+        <v>282.32</v>
+      </c>
+      <c r="N27" s="2">
         <v>0</v>
       </c>
       <c r="O27" t="s">
-        <v>25</v>
-      </c>
-      <c r="P27" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>18</v>
-      </c>
-      <c r="R27" t="s">
-        <v>112</v>
+        <v>26</v>
+      </c>
+      <c r="P27" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q27" s="1">
+        <v>0</v>
+      </c>
+      <c r="R27" s="3">
+        <v>18</v>
       </c>
       <c r="S27" t="s">
-        <v>27</v>
+        <v>110</v>
       </c>
       <c r="T27" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20">
+        <v>29</v>
+      </c>
+      <c r="U27" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21">
       <c r="A28" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B28" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C28" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D28" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E28" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F28" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G28" s="1">
-        <v>11600</v>
+        <v>1600</v>
       </c>
       <c r="H28" s="1">
-        <v>11600</v>
+        <v>1600</v>
       </c>
       <c r="I28" s="1">
-        <v>11600</v>
+        <v>1600</v>
       </c>
       <c r="J28" s="2">
-        <v>99644</v>
+        <v>110992</v>
       </c>
       <c r="K28" s="3">
         <v>0</v>
@@ -2586,185 +2636,194 @@
       <c r="L28" s="3">
         <v>8.5</v>
       </c>
-      <c r="M28" s="4">
-        <v>188.22</v>
-      </c>
-      <c r="N28" s="4">
+      <c r="M28" s="2">
+        <v>314.48</v>
+      </c>
+      <c r="N28" s="2">
         <v>0</v>
       </c>
       <c r="O28" t="s">
-        <v>25</v>
-      </c>
-      <c r="P28" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q28" s="3">
-        <v>18</v>
-      </c>
-      <c r="R28" t="s">
+        <v>26</v>
+      </c>
+      <c r="P28" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q28" s="1">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>18</v>
+      </c>
+      <c r="S28" t="s">
+        <v>111</v>
+      </c>
+      <c r="T28" t="s">
+        <v>29</v>
+      </c>
+      <c r="U28" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21">
+      <c r="A29" t="s">
+        <v>112</v>
+      </c>
+      <c r="B29" t="s">
         <v>113</v>
       </c>
-      <c r="S28" t="s">
-        <v>27</v>
-      </c>
-      <c r="T28" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20">
-      <c r="A29" t="s">
-        <v>102</v>
-      </c>
-      <c r="B29" t="s">
-        <v>103</v>
-      </c>
       <c r="C29" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D29" t="s">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="E29" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="F29" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G29" s="1">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="H29" s="1">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="I29" s="1">
-        <v>1600</v>
+        <v>0</v>
       </c>
       <c r="J29" s="2">
-        <v>110992</v>
+        <v>15550</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
       </c>
       <c r="L29" s="3">
-        <v>8.5</v>
-      </c>
-      <c r="M29" s="4">
-        <v>209.65</v>
-      </c>
-      <c r="N29" s="4">
-        <v>0</v>
+        <v>9</v>
+      </c>
+      <c r="M29" s="2">
+        <v>0</v>
+      </c>
+      <c r="N29" s="2">
+        <v>46.65</v>
       </c>
       <c r="O29" t="s">
-        <v>25</v>
-      </c>
-      <c r="P29" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="3">
-        <v>18</v>
-      </c>
-      <c r="R29" t="s">
+        <v>26</v>
+      </c>
+      <c r="P29" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q29" s="1">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>18</v>
+      </c>
+      <c r="S29" t="s">
         <v>114</v>
       </c>
-      <c r="S29" t="s">
-        <v>27</v>
-      </c>
       <c r="T29" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20">
+        <v>29</v>
+      </c>
+      <c r="U29" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21">
       <c r="A30" t="s">
+        <v>89</v>
+      </c>
+      <c r="B30" t="s">
+        <v>90</v>
+      </c>
+      <c r="C30" t="s">
+        <v>108</v>
+      </c>
+      <c r="D30" t="s">
+        <v>91</v>
+      </c>
+      <c r="E30" t="s">
+        <v>92</v>
+      </c>
+      <c r="F30" s="1">
+        <v>14</v>
+      </c>
+      <c r="G30" s="1">
+        <v>1900</v>
+      </c>
+      <c r="H30" s="1">
+        <v>1900</v>
+      </c>
+      <c r="I30" s="1">
+        <v>1900</v>
+      </c>
+      <c r="J30" s="2">
+        <v>216277</v>
+      </c>
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3">
+        <v>7</v>
+      </c>
+      <c r="M30" s="2">
+        <v>504.65</v>
+      </c>
+      <c r="N30" s="2">
+        <v>0</v>
+      </c>
+      <c r="O30" t="s">
+        <v>26</v>
+      </c>
+      <c r="P30" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q30" s="1">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>18</v>
+      </c>
+      <c r="S30" t="s">
         <v>115</v>
       </c>
-      <c r="B30" t="s">
-        <v>116</v>
-      </c>
-      <c r="C30" t="s">
-        <v>111</v>
-      </c>
-      <c r="D30" t="s">
+      <c r="T30" t="s">
+        <v>29</v>
+      </c>
+      <c r="U30" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21">
+      <c r="A31" t="s">
         <v>58</v>
       </c>
-      <c r="E30" t="s">
+      <c r="B31" t="s">
         <v>59</v>
       </c>
-      <c r="F30" s="1">
-        <v>4</v>
-      </c>
-      <c r="G30" s="1">
-        <v>1000</v>
-      </c>
-      <c r="H30" s="1">
-        <v>1000</v>
-      </c>
-      <c r="I30" s="1">
-        <v>1000</v>
-      </c>
-      <c r="J30" s="2">
-        <v>15550</v>
-      </c>
-      <c r="K30" s="3">
-        <v>0</v>
-      </c>
-      <c r="L30" s="3">
-        <v>9</v>
-      </c>
-      <c r="M30" s="4">
-        <v>31.1</v>
-      </c>
-      <c r="N30" s="4">
-        <v>0</v>
-      </c>
-      <c r="O30" t="s">
-        <v>25</v>
-      </c>
-      <c r="P30" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="3">
-        <v>18</v>
-      </c>
-      <c r="R30" t="s">
-        <v>117</v>
-      </c>
-      <c r="S30" t="s">
-        <v>27</v>
-      </c>
-      <c r="T30" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20">
-      <c r="A31" t="s">
-        <v>92</v>
-      </c>
-      <c r="B31" t="s">
-        <v>93</v>
-      </c>
       <c r="C31" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D31" t="s">
-        <v>94</v>
+        <v>60</v>
       </c>
       <c r="E31" t="s">
-        <v>95</v>
+        <v>61</v>
       </c>
       <c r="F31" s="1">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="G31" s="1">
-        <v>1900</v>
+        <v>1200</v>
       </c>
       <c r="H31" s="1">
-        <v>1900</v>
+        <v>1200</v>
       </c>
       <c r="I31" s="1">
-        <v>1900</v>
+        <v>0</v>
       </c>
       <c r="J31" s="2">
-        <v>216277</v>
+        <v>9264</v>
       </c>
       <c r="K31" s="3">
         <v>0</v>
@@ -2772,156 +2831,165 @@
       <c r="L31" s="3">
         <v>7</v>
       </c>
-      <c r="M31" s="4">
-        <v>336.43</v>
-      </c>
-      <c r="N31" s="4">
-        <v>0</v>
+      <c r="M31" s="2">
+        <v>0</v>
+      </c>
+      <c r="N31" s="2">
+        <v>21.62</v>
       </c>
       <c r="O31" t="s">
-        <v>25</v>
-      </c>
-      <c r="P31" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q31" s="3">
-        <v>18</v>
-      </c>
-      <c r="R31" t="s">
+        <v>26</v>
+      </c>
+      <c r="P31" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q31" s="1">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>18</v>
+      </c>
+      <c r="S31" t="s">
+        <v>116</v>
+      </c>
+      <c r="T31" t="s">
+        <v>29</v>
+      </c>
+      <c r="U31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21">
+      <c r="A32" t="s">
+        <v>117</v>
+      </c>
+      <c r="B32" t="s">
         <v>118</v>
       </c>
-      <c r="S31" t="s">
-        <v>27</v>
-      </c>
-      <c r="T31" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20">
-      <c r="A32" t="s">
-        <v>56</v>
-      </c>
-      <c r="B32" t="s">
-        <v>57</v>
-      </c>
       <c r="C32" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="D32" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E32" t="s">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="F32" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G32" s="1">
-        <v>1200</v>
+        <v>10000</v>
       </c>
       <c r="H32" s="1">
-        <v>1200</v>
+        <v>10000</v>
       </c>
       <c r="I32" s="1">
-        <v>1200</v>
+        <v>10000</v>
       </c>
       <c r="J32" s="2">
-        <v>9264</v>
+        <v>81800</v>
       </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
       <c r="L32" s="3">
-        <v>7</v>
-      </c>
-      <c r="M32" s="4">
-        <v>14.41</v>
-      </c>
-      <c r="N32" s="4">
+        <v>8.5</v>
+      </c>
+      <c r="M32" s="2">
+        <v>251.08</v>
+      </c>
+      <c r="N32" s="2">
         <v>0</v>
       </c>
       <c r="O32" t="s">
-        <v>25</v>
-      </c>
-      <c r="P32" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>18</v>
-      </c>
-      <c r="R32" t="s">
+        <v>26</v>
+      </c>
+      <c r="P32" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q32" s="1">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
+        <v>18</v>
+      </c>
+      <c r="S32" t="s">
+        <v>120</v>
+      </c>
+      <c r="T32" t="s">
+        <v>29</v>
+      </c>
+      <c r="U32" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21">
+      <c r="A33" t="s">
+        <v>121</v>
+      </c>
+      <c r="B33" t="s">
+        <v>122</v>
+      </c>
+      <c r="C33" t="s">
         <v>119</v>
       </c>
-      <c r="S32" t="s">
-        <v>27</v>
-      </c>
-      <c r="T32" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20">
-      <c r="A33" t="s">
-        <v>120</v>
-      </c>
-      <c r="B33" t="s">
-        <v>121</v>
-      </c>
-      <c r="C33" t="s">
-        <v>122</v>
-      </c>
       <c r="D33" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E33" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F33" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G33" s="1">
-        <v>10000</v>
+        <v>400</v>
       </c>
       <c r="H33" s="1">
-        <v>10000</v>
+        <v>400</v>
       </c>
       <c r="I33" s="1">
-        <v>10000</v>
+        <v>400</v>
       </c>
       <c r="J33" s="2">
-        <v>81800</v>
+        <v>3392</v>
       </c>
       <c r="K33" s="3">
         <v>0</v>
       </c>
       <c r="L33" s="3">
-        <v>8.5</v>
-      </c>
-      <c r="M33" s="4">
-        <v>173.83</v>
-      </c>
-      <c r="N33" s="4">
+        <v>9</v>
+      </c>
+      <c r="M33" s="2">
+        <v>11.02</v>
+      </c>
+      <c r="N33" s="2">
         <v>0</v>
       </c>
       <c r="O33" t="s">
-        <v>25</v>
-      </c>
-      <c r="P33" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>18</v>
-      </c>
-      <c r="R33" t="s">
+        <v>26</v>
+      </c>
+      <c r="P33" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q33" s="1">
+        <v>0</v>
+      </c>
+      <c r="R33" s="3">
+        <v>18</v>
+      </c>
+      <c r="S33" t="s">
         <v>123</v>
       </c>
-      <c r="S33" t="s">
-        <v>27</v>
-      </c>
       <c r="T33" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20">
+        <v>29</v>
+      </c>
+      <c r="U33" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21">
       <c r="A34" t="s">
         <v>124</v>
       </c>
@@ -2929,152 +2997,158 @@
         <v>125</v>
       </c>
       <c r="C34" t="s">
+        <v>119</v>
+      </c>
+      <c r="D34" t="s">
+        <v>61</v>
+      </c>
+      <c r="E34" t="s">
+        <v>97</v>
+      </c>
+      <c r="F34" s="1">
+        <v>1</v>
+      </c>
+      <c r="G34" s="1">
+        <v>9500</v>
+      </c>
+      <c r="H34" s="1">
+        <v>9500</v>
+      </c>
+      <c r="I34" s="1">
+        <v>9500</v>
+      </c>
+      <c r="J34" s="2">
+        <v>94620</v>
+      </c>
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3">
+        <v>8.5</v>
+      </c>
+      <c r="M34" s="2">
+        <v>290.43</v>
+      </c>
+      <c r="N34" s="2">
+        <v>0</v>
+      </c>
+      <c r="O34" t="s">
+        <v>26</v>
+      </c>
+      <c r="P34" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q34" s="1">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>18</v>
+      </c>
+      <c r="S34" t="s">
+        <v>126</v>
+      </c>
+      <c r="T34" t="s">
+        <v>29</v>
+      </c>
+      <c r="U34" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21">
+      <c r="A35" t="s">
+        <v>121</v>
+      </c>
+      <c r="B35" t="s">
         <v>122</v>
       </c>
-      <c r="D34" t="s">
-        <v>59</v>
-      </c>
-      <c r="E34" t="s">
-        <v>100</v>
-      </c>
-      <c r="F34" s="1">
-        <v>5</v>
-      </c>
-      <c r="G34" s="1">
-        <v>400</v>
-      </c>
-      <c r="H34" s="1">
-        <v>400</v>
-      </c>
-      <c r="I34" s="1">
-        <v>400</v>
-      </c>
-      <c r="J34" s="2">
-        <v>3392</v>
-      </c>
-      <c r="K34" s="3">
-        <v>0</v>
-      </c>
-      <c r="L34" s="3">
+      <c r="C35" t="s">
+        <v>119</v>
+      </c>
+      <c r="D35" t="s">
+        <v>61</v>
+      </c>
+      <c r="E35" t="s">
+        <v>97</v>
+      </c>
+      <c r="F35" s="1">
+        <v>1</v>
+      </c>
+      <c r="G35" s="1">
+        <v>9800</v>
+      </c>
+      <c r="H35" s="1">
+        <v>9800</v>
+      </c>
+      <c r="I35" s="1">
+        <v>9800</v>
+      </c>
+      <c r="J35" s="2">
+        <v>83104</v>
+      </c>
+      <c r="K35" s="3">
+        <v>0</v>
+      </c>
+      <c r="L35" s="3">
         <v>9</v>
       </c>
-      <c r="M34" s="4">
-        <v>7.63</v>
-      </c>
-      <c r="N34" s="4">
-        <v>0</v>
-      </c>
-      <c r="O34" t="s">
-        <v>25</v>
-      </c>
-      <c r="P34" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q34" s="3">
-        <v>18</v>
-      </c>
-      <c r="R34" t="s">
-        <v>126</v>
-      </c>
-      <c r="S34" t="s">
-        <v>27</v>
-      </c>
-      <c r="T34" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20">
-      <c r="A35" t="s">
+      <c r="M35" s="2">
+        <v>270.09</v>
+      </c>
+      <c r="N35" s="2">
+        <v>0</v>
+      </c>
+      <c r="O35" t="s">
+        <v>26</v>
+      </c>
+      <c r="P35" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q35" s="1">
+        <v>0</v>
+      </c>
+      <c r="R35" s="3">
+        <v>18</v>
+      </c>
+      <c r="S35" t="s">
         <v>127</v>
       </c>
-      <c r="B35" t="s">
+      <c r="T35" t="s">
+        <v>29</v>
+      </c>
+      <c r="U35" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21">
+      <c r="A36" t="s">
         <v>128</v>
       </c>
-      <c r="C35" t="s">
-        <v>122</v>
-      </c>
-      <c r="D35" t="s">
-        <v>59</v>
-      </c>
-      <c r="E35" t="s">
-        <v>100</v>
-      </c>
-      <c r="F35" s="1">
-        <v>5</v>
-      </c>
-      <c r="G35" s="1">
-        <v>9500</v>
-      </c>
-      <c r="H35" s="1">
-        <v>9500</v>
-      </c>
-      <c r="I35" s="1">
-        <v>9500</v>
-      </c>
-      <c r="J35" s="2">
-        <v>94620</v>
-      </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
-      <c r="L35" s="3">
-        <v>8.5</v>
-      </c>
-      <c r="M35" s="4">
-        <v>201.07</v>
-      </c>
-      <c r="N35" s="4">
-        <v>0</v>
-      </c>
-      <c r="O35" t="s">
-        <v>25</v>
-      </c>
-      <c r="P35" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>18</v>
-      </c>
-      <c r="R35" t="s">
+      <c r="B36" t="s">
         <v>129</v>
       </c>
-      <c r="S35" t="s">
-        <v>27</v>
-      </c>
-      <c r="T35" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20">
-      <c r="A36" t="s">
-        <v>124</v>
-      </c>
-      <c r="B36" t="s">
-        <v>125</v>
-      </c>
       <c r="C36" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D36" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E36" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F36" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G36" s="1">
-        <v>9800</v>
+        <v>1400</v>
       </c>
       <c r="H36" s="1">
-        <v>9800</v>
+        <v>1400</v>
       </c>
       <c r="I36" s="1">
-        <v>9800</v>
+        <v>1400</v>
       </c>
       <c r="J36" s="2">
-        <v>83104</v>
+        <v>192360</v>
       </c>
       <c r="K36" s="3">
         <v>0</v>
@@ -3082,32 +3156,35 @@
       <c r="L36" s="3">
         <v>9</v>
       </c>
-      <c r="M36" s="4">
-        <v>186.98</v>
-      </c>
-      <c r="N36" s="4">
+      <c r="M36" s="2">
+        <v>625.17</v>
+      </c>
+      <c r="N36" s="2">
         <v>0</v>
       </c>
       <c r="O36" t="s">
-        <v>25</v>
-      </c>
-      <c r="P36" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q36" s="3">
-        <v>18</v>
-      </c>
-      <c r="R36" t="s">
+        <v>26</v>
+      </c>
+      <c r="P36" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q36" s="1">
+        <v>0</v>
+      </c>
+      <c r="R36" s="3">
+        <v>18</v>
+      </c>
+      <c r="S36" t="s">
         <v>130</v>
       </c>
-      <c r="S36" t="s">
-        <v>27</v>
-      </c>
       <c r="T36" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20">
+        <v>29</v>
+      </c>
+      <c r="U36" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21">
       <c r="A37" t="s">
         <v>131</v>
       </c>
@@ -3115,28 +3192,28 @@
         <v>132</v>
       </c>
       <c r="C37" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="D37" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E37" t="s">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="F37" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G37" s="1">
-        <v>1400</v>
+        <v>22900</v>
       </c>
       <c r="H37" s="1">
-        <v>1400</v>
+        <v>22900</v>
       </c>
       <c r="I37" s="1">
-        <v>1400</v>
+        <v>0</v>
       </c>
       <c r="J37" s="2">
-        <v>192360</v>
+        <v>210451</v>
       </c>
       <c r="K37" s="3">
         <v>0</v>
@@ -3144,61 +3221,64 @@
       <c r="L37" s="3">
         <v>9</v>
       </c>
-      <c r="M37" s="4">
-        <v>432.81</v>
-      </c>
-      <c r="N37" s="4">
-        <v>0</v>
+      <c r="M37" s="2">
+        <v>0</v>
+      </c>
+      <c r="N37" s="2">
+        <v>736.58</v>
       </c>
       <c r="O37" t="s">
-        <v>25</v>
-      </c>
-      <c r="P37" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q37" s="3">
-        <v>18</v>
-      </c>
-      <c r="R37" t="s">
+        <v>26</v>
+      </c>
+      <c r="P37" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q37" s="1">
+        <v>0</v>
+      </c>
+      <c r="R37" s="3">
+        <v>18</v>
+      </c>
+      <c r="S37" t="s">
+        <v>134</v>
+      </c>
+      <c r="T37" t="s">
+        <v>29</v>
+      </c>
+      <c r="U37" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21">
+      <c r="A38" t="s">
+        <v>135</v>
+      </c>
+      <c r="B38" t="s">
+        <v>136</v>
+      </c>
+      <c r="C38" t="s">
         <v>133</v>
       </c>
-      <c r="S37" t="s">
-        <v>27</v>
-      </c>
-      <c r="T37" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="38" spans="1:20">
-      <c r="A38" t="s">
-        <v>134</v>
-      </c>
-      <c r="B38" t="s">
-        <v>135</v>
-      </c>
-      <c r="C38" t="s">
-        <v>136</v>
-      </c>
       <c r="D38" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E38" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F38" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G38" s="1">
-        <v>22900</v>
+        <v>1200</v>
       </c>
       <c r="H38" s="1">
-        <v>22900</v>
+        <v>1200</v>
       </c>
       <c r="I38" s="1">
-        <v>22900</v>
+        <v>0</v>
       </c>
       <c r="J38" s="2">
-        <v>210451</v>
+        <v>10188</v>
       </c>
       <c r="K38" s="3">
         <v>0</v>
@@ -3206,32 +3286,35 @@
       <c r="L38" s="3">
         <v>9</v>
       </c>
-      <c r="M38" s="4">
-        <v>526.13</v>
-      </c>
-      <c r="N38" s="4">
-        <v>0</v>
+      <c r="M38" s="2">
+        <v>0</v>
+      </c>
+      <c r="N38" s="2">
+        <v>35.66</v>
       </c>
       <c r="O38" t="s">
-        <v>25</v>
-      </c>
-      <c r="P38" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q38" s="3">
-        <v>18</v>
-      </c>
-      <c r="R38" t="s">
+        <v>26</v>
+      </c>
+      <c r="P38" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q38" s="1">
+        <v>0</v>
+      </c>
+      <c r="R38" s="3">
+        <v>18</v>
+      </c>
+      <c r="S38" t="s">
         <v>137</v>
       </c>
-      <c r="S38" t="s">
-        <v>27</v>
-      </c>
       <c r="T38" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="39" spans="1:20">
+        <v>29</v>
+      </c>
+      <c r="U38" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21">
       <c r="A39" t="s">
         <v>138</v>
       </c>
@@ -3239,28 +3322,28 @@
         <v>139</v>
       </c>
       <c r="C39" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D39" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E39" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F39" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G39" s="1">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="H39" s="1">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="I39" s="1">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="J39" s="2">
-        <v>10188</v>
+        <v>151508</v>
       </c>
       <c r="K39" s="3">
         <v>0</v>
@@ -3268,61 +3351,64 @@
       <c r="L39" s="3">
         <v>9</v>
       </c>
-      <c r="M39" s="4">
-        <v>25.47</v>
-      </c>
-      <c r="N39" s="4">
-        <v>0</v>
+      <c r="M39" s="2">
+        <v>0</v>
+      </c>
+      <c r="N39" s="2">
+        <v>530.28</v>
       </c>
       <c r="O39" t="s">
-        <v>25</v>
-      </c>
-      <c r="P39" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q39" s="3">
-        <v>18</v>
-      </c>
-      <c r="R39" t="s">
+        <v>26</v>
+      </c>
+      <c r="P39" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q39" s="1">
+        <v>0</v>
+      </c>
+      <c r="R39" s="3">
+        <v>18</v>
+      </c>
+      <c r="S39" t="s">
         <v>140</v>
       </c>
-      <c r="S39" t="s">
-        <v>27</v>
-      </c>
       <c r="T39" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="40" spans="1:20">
+        <v>29</v>
+      </c>
+      <c r="U39" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21">
       <c r="A40" t="s">
+        <v>138</v>
+      </c>
+      <c r="B40" t="s">
+        <v>139</v>
+      </c>
+      <c r="C40" t="s">
         <v>141</v>
       </c>
-      <c r="B40" t="s">
-        <v>142</v>
-      </c>
-      <c r="C40" t="s">
-        <v>136</v>
-      </c>
       <c r="D40" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="E40" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F40" s="1">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G40" s="1">
-        <v>1400</v>
+        <v>500</v>
       </c>
       <c r="H40" s="1">
-        <v>1400</v>
+        <v>500</v>
       </c>
       <c r="I40" s="1">
-        <v>1400</v>
+        <v>0</v>
       </c>
       <c r="J40" s="2">
-        <v>151508</v>
+        <v>53655</v>
       </c>
       <c r="K40" s="3">
         <v>0</v>
@@ -3330,61 +3416,64 @@
       <c r="L40" s="3">
         <v>9</v>
       </c>
-      <c r="M40" s="4">
-        <v>378.77</v>
-      </c>
-      <c r="N40" s="4">
-        <v>0</v>
+      <c r="M40" s="2">
+        <v>0</v>
+      </c>
+      <c r="N40" s="2">
+        <v>362.17</v>
       </c>
       <c r="O40" t="s">
-        <v>25</v>
-      </c>
-      <c r="P40" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q40" s="3">
-        <v>18</v>
-      </c>
-      <c r="R40" t="s">
+        <v>26</v>
+      </c>
+      <c r="P40" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q40" s="1">
+        <v>0</v>
+      </c>
+      <c r="R40" s="3">
+        <v>18</v>
+      </c>
+      <c r="S40" t="s">
+        <v>142</v>
+      </c>
+      <c r="T40" t="s">
+        <v>29</v>
+      </c>
+      <c r="U40" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21">
+      <c r="A41" t="s">
+        <v>76</v>
+      </c>
+      <c r="B41" t="s">
+        <v>77</v>
+      </c>
+      <c r="C41" t="s">
         <v>143</v>
       </c>
-      <c r="S40" t="s">
-        <v>27</v>
-      </c>
-      <c r="T40" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="41" spans="1:20">
-      <c r="A41" t="s">
-        <v>141</v>
-      </c>
-      <c r="B41" t="s">
-        <v>142</v>
-      </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
+        <v>44</v>
+      </c>
+      <c r="E41" t="s">
         <v>144</v>
       </c>
-      <c r="D41" t="s">
-        <v>42</v>
-      </c>
-      <c r="E41" t="s">
-        <v>53</v>
-      </c>
       <c r="F41" s="1">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="G41" s="1">
-        <v>500</v>
+        <v>19200</v>
       </c>
       <c r="H41" s="1">
-        <v>500</v>
+        <v>19200</v>
       </c>
       <c r="I41" s="1">
-        <v>500</v>
+        <v>19200</v>
       </c>
       <c r="J41" s="2">
-        <v>53655</v>
+        <v>131904</v>
       </c>
       <c r="K41" s="3">
         <v>0</v>
@@ -3392,32 +3481,35 @@
       <c r="L41" s="3">
         <v>9</v>
       </c>
-      <c r="M41" s="4">
-        <v>174.38</v>
-      </c>
-      <c r="N41" s="4">
+      <c r="M41" s="2">
+        <v>626.54</v>
+      </c>
+      <c r="N41" s="2">
         <v>0</v>
       </c>
       <c r="O41" t="s">
-        <v>25</v>
-      </c>
-      <c r="P41" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="3">
-        <v>18</v>
-      </c>
-      <c r="R41" t="s">
+        <v>26</v>
+      </c>
+      <c r="P41" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q41" s="1">
+        <v>0</v>
+      </c>
+      <c r="R41" s="3">
+        <v>18</v>
+      </c>
+      <c r="S41" t="s">
         <v>145</v>
       </c>
-      <c r="S41" t="s">
-        <v>27</v>
-      </c>
       <c r="T41" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="42" spans="1:20">
+        <v>29</v>
+      </c>
+      <c r="U41" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21">
       <c r="A42" t="s">
         <v>146</v>
       </c>
@@ -3425,368 +3517,191 @@
         <v>147</v>
       </c>
       <c r="C42" t="s">
+        <v>143</v>
+      </c>
+      <c r="D42" t="s">
+        <v>44</v>
+      </c>
+      <c r="E42" t="s">
+        <v>144</v>
+      </c>
+      <c r="F42" s="1">
+        <v>8</v>
+      </c>
+      <c r="G42" s="1">
+        <v>4200</v>
+      </c>
+      <c r="H42" s="1">
+        <v>4200</v>
+      </c>
+      <c r="I42" s="1">
+        <v>4200</v>
+      </c>
+      <c r="J42" s="2">
+        <v>108360</v>
+      </c>
+      <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3">
+        <v>7</v>
+      </c>
+      <c r="M42" s="2">
+        <v>400.33</v>
+      </c>
+      <c r="N42" s="2">
+        <v>0</v>
+      </c>
+      <c r="O42" t="s">
+        <v>26</v>
+      </c>
+      <c r="P42" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q42" s="1">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>18</v>
+      </c>
+      <c r="S42" t="s">
         <v>148</v>
       </c>
-      <c r="D42" t="s">
-        <v>67</v>
-      </c>
-      <c r="E42" t="s">
-        <v>68</v>
-      </c>
-      <c r="F42" s="1">
-        <v>0</v>
-      </c>
-      <c r="G42" s="1">
-        <v>1600</v>
-      </c>
-      <c r="H42" s="1">
-        <v>1600</v>
-      </c>
-      <c r="I42" s="1">
-        <v>0</v>
-      </c>
-      <c r="J42" s="2">
-        <v>47440</v>
-      </c>
-      <c r="K42" s="3">
-        <v>0</v>
-      </c>
-      <c r="L42" s="3">
-        <v>8.5</v>
-      </c>
-      <c r="M42" s="4">
-        <v>156.82</v>
-      </c>
-      <c r="N42" s="4">
-        <v>0</v>
-      </c>
-      <c r="O42" t="s">
-        <v>25</v>
-      </c>
-      <c r="P42" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q42" s="3">
-        <v>18</v>
-      </c>
-      <c r="R42" t="s">
+      <c r="T42" t="s">
+        <v>29</v>
+      </c>
+      <c r="U42" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21">
+      <c r="A43" t="s">
+        <v>80</v>
+      </c>
+      <c r="B43" t="s">
+        <v>81</v>
+      </c>
+      <c r="C43" t="s">
         <v>149</v>
       </c>
-      <c r="S42" t="s">
-        <v>27</v>
-      </c>
-      <c r="T42" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="43" spans="1:20">
-      <c r="A43" t="s">
+      <c r="D43" t="s">
+        <v>44</v>
+      </c>
+      <c r="E43" t="s">
+        <v>94</v>
+      </c>
+      <c r="F43" s="1">
+        <v>4</v>
+      </c>
+      <c r="G43" s="1">
+        <v>1000</v>
+      </c>
+      <c r="H43" s="1">
+        <v>1000</v>
+      </c>
+      <c r="I43" s="1">
+        <v>1000</v>
+      </c>
+      <c r="J43" s="2">
+        <v>83100</v>
+      </c>
+      <c r="K43" s="3">
+        <v>0</v>
+      </c>
+      <c r="L43" s="3">
+        <v>9</v>
+      </c>
+      <c r="M43" s="2">
+        <v>436.27</v>
+      </c>
+      <c r="N43" s="2">
+        <v>0</v>
+      </c>
+      <c r="O43" t="s">
+        <v>26</v>
+      </c>
+      <c r="P43" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q43" s="1">
+        <v>0</v>
+      </c>
+      <c r="R43" s="3">
+        <v>18</v>
+      </c>
+      <c r="S43" t="s">
         <v>150</v>
       </c>
-      <c r="B43" t="s">
+      <c r="T43" t="s">
+        <v>29</v>
+      </c>
+      <c r="U43" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21">
+      <c r="A44" t="s">
         <v>151</v>
       </c>
-      <c r="C43" t="s">
-        <v>148</v>
-      </c>
-      <c r="D43" t="s">
-        <v>67</v>
-      </c>
-      <c r="E43" t="s">
-        <v>68</v>
-      </c>
-      <c r="F43" s="1">
-        <v>0</v>
-      </c>
-      <c r="G43" s="1">
-        <v>1200</v>
-      </c>
-      <c r="H43" s="1">
-        <v>1200</v>
-      </c>
-      <c r="I43" s="1">
-        <v>0</v>
-      </c>
-      <c r="J43" s="2">
-        <v>221280</v>
-      </c>
-      <c r="K43" s="3">
-        <v>0</v>
-      </c>
-      <c r="L43" s="3">
-        <v>8.5</v>
-      </c>
-      <c r="M43" s="4">
-        <v>731.45</v>
-      </c>
-      <c r="N43" s="4">
-        <v>0</v>
-      </c>
-      <c r="O43" t="s">
-        <v>25</v>
-      </c>
-      <c r="P43" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q43" s="3">
-        <v>18</v>
-      </c>
-      <c r="R43" t="s">
+      <c r="B44" t="s">
         <v>152</v>
       </c>
-      <c r="S43" t="s">
-        <v>27</v>
-      </c>
-      <c r="T43" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="44" spans="1:20">
-      <c r="A44" t="s">
-        <v>79</v>
-      </c>
-      <c r="B44" t="s">
-        <v>80</v>
-      </c>
       <c r="C44" t="s">
+        <v>149</v>
+      </c>
+      <c r="D44" t="s">
+        <v>61</v>
+      </c>
+      <c r="E44" t="s">
+        <v>97</v>
+      </c>
+      <c r="F44" s="1">
+        <v>1</v>
+      </c>
+      <c r="G44" s="1">
+        <v>6600</v>
+      </c>
+      <c r="H44" s="1">
+        <v>6600</v>
+      </c>
+      <c r="I44" s="1">
+        <v>6600</v>
+      </c>
+      <c r="J44" s="2">
+        <v>204930</v>
+      </c>
+      <c r="K44" s="3">
+        <v>0</v>
+      </c>
+      <c r="L44" s="3">
+        <v>7</v>
+      </c>
+      <c r="M44" s="2">
+        <v>836.8</v>
+      </c>
+      <c r="N44" s="2">
+        <v>0</v>
+      </c>
+      <c r="O44" t="s">
+        <v>26</v>
+      </c>
+      <c r="P44" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q44" s="1">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3">
+        <v>18</v>
+      </c>
+      <c r="S44" t="s">
         <v>153</v>
       </c>
-      <c r="D44" t="s">
-        <v>42</v>
-      </c>
-      <c r="E44" t="s">
-        <v>154</v>
-      </c>
-      <c r="F44" s="1">
-        <v>12</v>
-      </c>
-      <c r="G44" s="1">
-        <v>19200</v>
-      </c>
-      <c r="H44" s="1">
-        <v>19200</v>
-      </c>
-      <c r="I44" s="1">
-        <v>19200</v>
-      </c>
-      <c r="J44" s="2">
-        <v>131904</v>
-      </c>
-      <c r="K44" s="3">
-        <v>0</v>
-      </c>
-      <c r="L44" s="3">
-        <v>9</v>
-      </c>
-      <c r="M44" s="4">
-        <v>494.64</v>
-      </c>
-      <c r="N44" s="4">
-        <v>0</v>
-      </c>
-      <c r="O44" t="s">
-        <v>25</v>
-      </c>
-      <c r="P44" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q44" s="3">
-        <v>18</v>
-      </c>
-      <c r="R44" t="s">
-        <v>155</v>
-      </c>
-      <c r="S44" t="s">
-        <v>27</v>
-      </c>
       <c r="T44" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="45" spans="1:20">
-      <c r="A45" t="s">
-        <v>156</v>
-      </c>
-      <c r="B45" t="s">
-        <v>157</v>
-      </c>
-      <c r="C45" t="s">
-        <v>153</v>
-      </c>
-      <c r="D45" t="s">
-        <v>42</v>
-      </c>
-      <c r="E45" t="s">
-        <v>154</v>
-      </c>
-      <c r="F45" s="1">
-        <v>12</v>
-      </c>
-      <c r="G45" s="1">
-        <v>4200</v>
-      </c>
-      <c r="H45" s="1">
-        <v>4200</v>
-      </c>
-      <c r="I45" s="1">
-        <v>4200</v>
-      </c>
-      <c r="J45" s="2">
-        <v>108360</v>
-      </c>
-      <c r="K45" s="3">
-        <v>0</v>
-      </c>
-      <c r="L45" s="3">
-        <v>7</v>
-      </c>
-      <c r="M45" s="4">
-        <v>316.05</v>
-      </c>
-      <c r="N45" s="4">
-        <v>0</v>
-      </c>
-      <c r="O45" t="s">
-        <v>25</v>
-      </c>
-      <c r="P45" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>18</v>
-      </c>
-      <c r="R45" t="s">
-        <v>158</v>
-      </c>
-      <c r="S45" t="s">
-        <v>27</v>
-      </c>
-      <c r="T45" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="46" spans="1:20">
-      <c r="A46" t="s">
-        <v>83</v>
-      </c>
-      <c r="B46" t="s">
-        <v>84</v>
-      </c>
-      <c r="C46" t="s">
-        <v>159</v>
-      </c>
-      <c r="D46" t="s">
-        <v>42</v>
-      </c>
-      <c r="E46" t="s">
-        <v>97</v>
-      </c>
-      <c r="F46" s="1">
-        <v>8</v>
-      </c>
-      <c r="G46" s="1">
-        <v>1000</v>
-      </c>
-      <c r="H46" s="1">
-        <v>1000</v>
-      </c>
-      <c r="I46" s="1">
-        <v>1000</v>
-      </c>
-      <c r="J46" s="2">
-        <v>83100</v>
-      </c>
-      <c r="K46" s="3">
-        <v>0</v>
-      </c>
-      <c r="L46" s="3">
-        <v>9</v>
-      </c>
-      <c r="M46" s="4">
-        <v>353.18</v>
-      </c>
-      <c r="N46" s="4">
-        <v>0</v>
-      </c>
-      <c r="O46" t="s">
-        <v>25</v>
-      </c>
-      <c r="P46" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q46" s="3">
-        <v>18</v>
-      </c>
-      <c r="R46" t="s">
-        <v>160</v>
-      </c>
-      <c r="S46" t="s">
-        <v>27</v>
-      </c>
-      <c r="T46" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="47" spans="1:20">
-      <c r="A47" t="s">
-        <v>161</v>
-      </c>
-      <c r="B47" t="s">
-        <v>162</v>
-      </c>
-      <c r="C47" t="s">
-        <v>159</v>
-      </c>
-      <c r="D47" t="s">
-        <v>59</v>
-      </c>
-      <c r="E47" t="s">
-        <v>100</v>
-      </c>
-      <c r="F47" s="1">
-        <v>5</v>
-      </c>
-      <c r="G47" s="1">
-        <v>6600</v>
-      </c>
-      <c r="H47" s="1">
-        <v>6600</v>
-      </c>
-      <c r="I47" s="1">
-        <v>6600</v>
-      </c>
-      <c r="J47" s="2">
-        <v>204930</v>
-      </c>
-      <c r="K47" s="3">
-        <v>0</v>
-      </c>
-      <c r="L47" s="3">
-        <v>7</v>
-      </c>
-      <c r="M47" s="4">
-        <v>677.41</v>
-      </c>
-      <c r="N47" s="4">
-        <v>0</v>
-      </c>
-      <c r="O47" t="s">
-        <v>25</v>
-      </c>
-      <c r="P47" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q47" s="3">
-        <v>18</v>
-      </c>
-      <c r="R47" t="s">
-        <v>163</v>
-      </c>
-      <c r="S47" t="s">
-        <v>27</v>
-      </c>
-      <c r="T47" t="s">
-        <v>28</v>
+        <v>29</v>
+      </c>
+      <c r="U44" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
